--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25A8EF1-00D2-4B34-9C6B-77D881378BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC84EFA-A465-4AC7-95E5-1BEB8CED4D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,29 @@
     <sheet name="Tabela_Clima" sheetId="1" r:id="rId1"/>
     <sheet name="Relatório" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -62,18 +74,6 @@
   </si>
   <si>
     <t>Velocidade do vento</t>
-  </si>
-  <si>
-    <t>25\08\24</t>
-  </si>
-  <si>
-    <t>Dom</t>
-  </si>
-  <si>
-    <t>Itarema</t>
-  </si>
-  <si>
-    <t>céu limpo</t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,7 +117,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -127,13 +126,13 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -182,22 +181,101 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>0</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>25\08\24</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Dom</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>12:33:00</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G2">
+            <v>25</v>
+          </cell>
+          <cell r="H2">
+            <v>25</v>
+          </cell>
+          <cell r="I2">
+            <v>25</v>
+          </cell>
+          <cell r="J2">
+            <v>25.3</v>
+          </cell>
+          <cell r="K2">
+            <v>70</v>
+          </cell>
+          <cell r="L2">
+            <v>1013</v>
+          </cell>
+          <cell r="M2">
+            <v>7</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L2" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:L2" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
   <tableColumns count="12">
-    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" dataDxfId="11">
+      <calculatedColumnFormula>[1]Sheet1!$B$2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="10">
+      <calculatedColumnFormula>[1]Sheet1!$C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="9">
+      <calculatedColumnFormula>[1]Sheet1!$D2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="8">
+      <calculatedColumnFormula>[1]Sheet1!$E2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="7">
+      <calculatedColumnFormula>[1]Sheet1!$F2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="6">
+      <calculatedColumnFormula>[1]Sheet1!$G2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="5">
+      <calculatedColumnFormula>[1]Sheet1!$H2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="4">
+      <calculatedColumnFormula>[1]Sheet1!$I2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="3">
+      <calculatedColumnFormula>[1]Sheet1!$J2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="2">
+      <calculatedColumnFormula>[1]Sheet1!$K2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="1">
+      <calculatedColumnFormula>[1]Sheet1!$L2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="0">
+      <calculatedColumnFormula>[1]Sheet1!$M2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,25 +544,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -527,45 +605,180 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.5229166666666667</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
+      <c r="A2" s="1" t="str">
+        <f>[1]Sheet1!$B2</f>
+        <v>25\08\24</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>[1]Sheet1!$C2</f>
+        <v>Dom</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>[1]Sheet1!$D2</f>
+        <v>12:33:00</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>[1]Sheet1!$E2</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>[1]Sheet1!$F2</f>
+        <v>céu limpo</v>
       </c>
       <c r="F2" s="1">
+        <f>[1]Sheet1!$G2</f>
         <v>25</v>
       </c>
       <c r="G2" s="1">
+        <f>[1]Sheet1!$H2</f>
         <v>25</v>
       </c>
       <c r="H2" s="1">
+        <f>[1]Sheet1!$I2</f>
         <v>25</v>
       </c>
       <c r="I2" s="1">
+        <f>[1]Sheet1!$J2</f>
         <v>25.3</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
+        <f>[1]Sheet1!$K2</f>
         <v>70</v>
       </c>
       <c r="K2" s="1">
+        <f>[1]Sheet1!$L2</f>
         <v>1013</v>
       </c>
       <c r="L2" s="1">
+        <f>[1]Sheet1!$M2</f>
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC84EFA-A465-4AC7-95E5-1BEB8CED4D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F65D20E-DB40-4FEB-B0FB-EF7D1B0C8767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela_Clima" sheetId="1" r:id="rId1"/>
-    <sheet name="Relatório" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelas dinâmicas" sheetId="4" r:id="rId2"/>
+    <sheet name="Relatório" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Data</t>
   </si>
@@ -75,11 +79,35 @@
   <si>
     <t>Velocidade do vento</t>
   </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Acaraú</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Itarema</t>
+  </si>
+  <si>
+    <t>Sobral</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Média de Teperatura</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.00\°"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,22 +137,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="27">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\º"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -133,9 +209,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -181,6 +254,1239 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Monitoramento_Clima.xlsx]Tabelas dinâmicas!Tabela dinâmica2</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Temperaturas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Médias por Cidade</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F3E5-49BD-A8D1-ADD80254710E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F3E5-49BD-A8D1-ADD80254710E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-F3E5-49BD-A8D1-ADD80254710E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F3E5-49BD-A8D1-ADD80254710E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Acaraú</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fortaleza</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Itarema</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sobral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelas dinâmicas'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\°</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F3E5-49BD-A8D1-ADD80254710E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:overlap val="-27"/>
+        <c:axId val="496838304"/>
+        <c:axId val="496836640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="496838304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496836640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496836640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00\°" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496838304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42204347-5169-4014-82C3-6219F74636E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -190,44 +1496,155 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
           <cell r="B2" t="str">
-            <v>25\08\24</v>
+            <v>09\09\24</v>
           </cell>
           <cell r="C2" t="str">
-            <v>Dom</v>
+            <v>seg</v>
           </cell>
           <cell r="D2" t="str">
-            <v>12:33:00</v>
+            <v>14:27:06</v>
           </cell>
           <cell r="E2" t="str">
-            <v>Itarema</v>
+            <v>Fortaleza</v>
           </cell>
           <cell r="F2" t="str">
-            <v>céu limpo</v>
+            <v>algumas nuvens</v>
           </cell>
           <cell r="G2">
-            <v>25</v>
+            <v>31.71</v>
           </cell>
           <cell r="H2">
-            <v>25</v>
+            <v>31.07</v>
           </cell>
           <cell r="I2">
-            <v>25</v>
+            <v>31.71</v>
           </cell>
           <cell r="J2">
-            <v>25.3</v>
+            <v>38.71</v>
           </cell>
           <cell r="K2">
-            <v>70</v>
+            <v>83</v>
           </cell>
           <cell r="L2">
             <v>1013</v>
           </cell>
           <cell r="M2">
-            <v>7</v>
+            <v>9.77</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>09\09\24</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>14:27:06</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G3">
+            <v>36.28</v>
+          </cell>
+          <cell r="H3">
+            <v>36.28</v>
+          </cell>
+          <cell r="I3">
+            <v>36.28</v>
+          </cell>
+          <cell r="J3">
+            <v>34.68</v>
+          </cell>
+          <cell r="K3">
+            <v>21</v>
+          </cell>
+          <cell r="L3">
+            <v>1011</v>
+          </cell>
+          <cell r="M3">
+            <v>3.85</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>09\09\24</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>14:27:06</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G4">
+            <v>30.77</v>
+          </cell>
+          <cell r="H4">
+            <v>30.77</v>
+          </cell>
+          <cell r="I4">
+            <v>30.77</v>
+          </cell>
+          <cell r="J4">
+            <v>32.43</v>
+          </cell>
+          <cell r="K4">
+            <v>51</v>
+          </cell>
+          <cell r="L4">
+            <v>1011</v>
+          </cell>
+          <cell r="M4">
+            <v>10.02</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>09\09\24</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>14:27:06</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G5">
+            <v>29.93</v>
+          </cell>
+          <cell r="H5">
+            <v>29.93</v>
+          </cell>
+          <cell r="I5">
+            <v>29.93</v>
+          </cell>
+          <cell r="J5">
+            <v>31.26</v>
+          </cell>
+          <cell r="K5">
+            <v>52</v>
+          </cell>
+          <cell r="L5">
+            <v>1012</v>
+          </cell>
+          <cell r="M5">
+            <v>9.6999999999999993</v>
           </cell>
         </row>
       </sheetData>
@@ -236,45 +1653,345 @@
 </externalLink>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45544.616618865737" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="8" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Monitoramento_Clima"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="Data" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Dia da semana" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Hora" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Cidade" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Fortaleza"/>
+        <s v="Sobral"/>
+        <s v="Acaraú"/>
+        <s v="Itarema"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Teperatura" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.93" maxValue="36.28"/>
+    </cacheField>
+    <cacheField name="Temperatura mínima" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.93" maxValue="36.28"/>
+    </cacheField>
+    <cacheField name="Temperatura máxima" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.93" maxValue="36.28"/>
+    </cacheField>
+    <cacheField name="Sensação térmica" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="31.26" maxValue="38.71"/>
+    </cacheField>
+    <cacheField name="Humidade do ar" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21" maxValue="83"/>
+    </cacheField>
+    <cacheField name="Pressão atmosférica" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1011" maxValue="1013"/>
+    </cacheField>
+    <cacheField name="Velocidade do vento" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.85" maxValue="10.02"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+  <r>
+    <s v="09\09\24"/>
+    <s v="seg"/>
+    <s v="14:27:06"/>
+    <x v="0"/>
+    <s v="algumas nuvens"/>
+    <n v="31.71"/>
+    <n v="31.07"/>
+    <n v="31.71"/>
+    <n v="38.71"/>
+    <n v="83"/>
+    <n v="1013"/>
+    <n v="9.77"/>
+  </r>
+  <r>
+    <s v="09\09\24"/>
+    <s v="seg"/>
+    <s v="14:27:06"/>
+    <x v="1"/>
+    <s v="céu limpo"/>
+    <n v="36.28"/>
+    <n v="36.28"/>
+    <n v="36.28"/>
+    <n v="34.68"/>
+    <n v="21"/>
+    <n v="1011"/>
+    <n v="3.85"/>
+  </r>
+  <r>
+    <s v="09\09\24"/>
+    <s v="seg"/>
+    <s v="14:27:06"/>
+    <x v="2"/>
+    <s v="céu limpo"/>
+    <n v="30.77"/>
+    <n v="30.77"/>
+    <n v="30.77"/>
+    <n v="32.43"/>
+    <n v="51"/>
+    <n v="1011"/>
+    <n v="10.02"/>
+  </r>
+  <r>
+    <s v="09\09\24"/>
+    <s v="seg"/>
+    <s v="14:27:06"/>
+    <x v="3"/>
+    <s v="céu limpo"/>
+    <n v="29.93"/>
+    <n v="29.93"/>
+    <n v="29.93"/>
+    <n v="31.26"/>
+    <n v="52"/>
+    <n v="1012"/>
+    <n v="9.6999999999999993"/>
+  </r>
+  <r>
+    <s v="09\09\24"/>
+    <s v="seg"/>
+    <s v="14:28:20"/>
+    <x v="0"/>
+    <s v="algumas nuvens"/>
+    <n v="31.71"/>
+    <n v="31.07"/>
+    <n v="31.71"/>
+    <n v="38.71"/>
+    <n v="83"/>
+    <n v="1013"/>
+    <n v="9.77"/>
+  </r>
+  <r>
+    <s v="09\09\24"/>
+    <s v="seg"/>
+    <s v="14:28:20"/>
+    <x v="1"/>
+    <s v="céu limpo"/>
+    <n v="36.28"/>
+    <n v="36.28"/>
+    <n v="36.28"/>
+    <n v="34.68"/>
+    <n v="21"/>
+    <n v="1011"/>
+    <n v="3.85"/>
+  </r>
+  <r>
+    <s v="09\09\24"/>
+    <s v="seg"/>
+    <s v="14:28:20"/>
+    <x v="2"/>
+    <s v="céu limpo"/>
+    <n v="30.77"/>
+    <n v="30.77"/>
+    <n v="30.77"/>
+    <n v="32.43"/>
+    <n v="51"/>
+    <n v="1011"/>
+    <n v="10.02"/>
+  </r>
+  <r>
+    <s v="09\09\24"/>
+    <s v="seg"/>
+    <s v="14:28:20"/>
+    <x v="3"/>
+    <s v="céu limpo"/>
+    <n v="29.93"/>
+    <n v="29.93"/>
+    <n v="29.93"/>
+    <n v="31.26"/>
+    <n v="52"/>
+    <n v="1012"/>
+    <n v="9.6999999999999993"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Tabela dinâmica2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="167"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="5">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L2" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L2" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L5" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:L5" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
   <tableColumns count="12">
-    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" dataDxfId="11">
-      <calculatedColumnFormula>[1]Sheet1!$B$2</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="2">
+      <calculatedColumnFormula>[1]Sheet1!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="10">
-      <calculatedColumnFormula>[1]Sheet1!$C2</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="23" totalsRowDxfId="3">
+      <calculatedColumnFormula>[1]Sheet1!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="9">
-      <calculatedColumnFormula>[1]Sheet1!$D2</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="22" totalsRowDxfId="4">
+      <calculatedColumnFormula>[1]Sheet1!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="8">
-      <calculatedColumnFormula>[1]Sheet1!$E2</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="21" totalsRowDxfId="5">
+      <calculatedColumnFormula>[1]Sheet1!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="7">
-      <calculatedColumnFormula>[1]Sheet1!$F2</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="20" totalsRowDxfId="6">
+      <calculatedColumnFormula>[1]Sheet1!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="6">
-      <calculatedColumnFormula>[1]Sheet1!$G2</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="1" totalsRowDxfId="7">
+      <calculatedColumnFormula>[1]Sheet1!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="5">
-      <calculatedColumnFormula>[1]Sheet1!$H2</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="19" totalsRowDxfId="8">
+      <calculatedColumnFormula>[1]Sheet1!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="4">
-      <calculatedColumnFormula>[1]Sheet1!$I2</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="18" totalsRowDxfId="9">
+      <calculatedColumnFormula>[1]Sheet1!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="3">
-      <calculatedColumnFormula>[1]Sheet1!$J2</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="17" totalsRowDxfId="10">
+      <calculatedColumnFormula>[1]Sheet1!J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="2">
-      <calculatedColumnFormula>[1]Sheet1!$K2</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="16" totalsRowDxfId="11">
+      <calculatedColumnFormula>[1]Sheet1!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="1">
-      <calculatedColumnFormula>[1]Sheet1!$L2</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="15" totalsRowDxfId="12">
+      <calculatedColumnFormula>[1]Sheet1!L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="0">
-      <calculatedColumnFormula>[1]Sheet1!$M2</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="14" totalsRowDxfId="13">
+      <calculatedColumnFormula>[1]Sheet1!M2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -547,7 +2264,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +2273,7 @@
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
@@ -606,95 +2323,203 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
-        <f>[1]Sheet1!$B2</f>
-        <v>25\08\24</v>
+        <f>[1]Sheet1!B2</f>
+        <v>09\09\24</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>[1]Sheet1!$C2</f>
-        <v>Dom</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f>[1]Sheet1!$D2</f>
-        <v>12:33:00</v>
+        <f>[1]Sheet1!C2</f>
+        <v>seg</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>[1]Sheet1!D2</f>
+        <v>14:27:06</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>[1]Sheet1!$E2</f>
-        <v>Itarema</v>
+        <f>[1]Sheet1!E2</f>
+        <v>Fortaleza</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>[1]Sheet1!$F2</f>
-        <v>céu limpo</v>
-      </c>
-      <c r="F2" s="1">
-        <f>[1]Sheet1!$G2</f>
-        <v>25</v>
-      </c>
-      <c r="G2" s="1">
-        <f>[1]Sheet1!$H2</f>
-        <v>25</v>
-      </c>
-      <c r="H2" s="1">
-        <f>[1]Sheet1!$I2</f>
-        <v>25</v>
-      </c>
-      <c r="I2" s="1">
-        <f>[1]Sheet1!$J2</f>
-        <v>25.3</v>
-      </c>
-      <c r="J2" s="3">
-        <f>[1]Sheet1!$K2</f>
-        <v>70</v>
+        <f>[1]Sheet1!F2</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F2" s="5">
+        <f>[1]Sheet1!G2</f>
+        <v>31.71</v>
+      </c>
+      <c r="G2" s="5">
+        <f>[1]Sheet1!H2</f>
+        <v>31.07</v>
+      </c>
+      <c r="H2" s="5">
+        <f>[1]Sheet1!I2</f>
+        <v>31.71</v>
+      </c>
+      <c r="I2" s="5">
+        <f>[1]Sheet1!J2</f>
+        <v>38.71</v>
+      </c>
+      <c r="J2" s="1">
+        <f>[1]Sheet1!K2</f>
+        <v>83</v>
       </c>
       <c r="K2" s="1">
-        <f>[1]Sheet1!$L2</f>
+        <f>[1]Sheet1!L2</f>
         <v>1013</v>
       </c>
       <c r="L2" s="1">
-        <f>[1]Sheet1!$M2</f>
-        <v>7</v>
+        <f>[1]Sheet1!M2</f>
+        <v>9.77</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="A3" s="1" t="str">
+        <f>[1]Sheet1!B3</f>
+        <v>09\09\24</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>[1]Sheet1!C3</f>
+        <v>seg</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>[1]Sheet1!D3</f>
+        <v>14:27:06</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>[1]Sheet1!E3</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>[1]Sheet1!F3</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F3" s="5">
+        <f>[1]Sheet1!G3</f>
+        <v>36.28</v>
+      </c>
+      <c r="G3" s="5">
+        <f>[1]Sheet1!H3</f>
+        <v>36.28</v>
+      </c>
+      <c r="H3" s="5">
+        <f>[1]Sheet1!I3</f>
+        <v>36.28</v>
+      </c>
+      <c r="I3" s="5">
+        <f>[1]Sheet1!J3</f>
+        <v>34.68</v>
+      </c>
+      <c r="J3" s="1">
+        <f>[1]Sheet1!K3</f>
+        <v>21</v>
+      </c>
+      <c r="K3" s="1">
+        <f>[1]Sheet1!L3</f>
+        <v>1011</v>
+      </c>
+      <c r="L3" s="1">
+        <f>[1]Sheet1!M3</f>
+        <v>3.85</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="A4" s="1" t="str">
+        <f>[1]Sheet1!B4</f>
+        <v>09\09\24</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>[1]Sheet1!C4</f>
+        <v>seg</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>[1]Sheet1!D4</f>
+        <v>14:27:06</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>[1]Sheet1!E4</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>[1]Sheet1!F4</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F4" s="5">
+        <f>[1]Sheet1!G4</f>
+        <v>30.77</v>
+      </c>
+      <c r="G4" s="5">
+        <f>[1]Sheet1!H4</f>
+        <v>30.77</v>
+      </c>
+      <c r="H4" s="5">
+        <f>[1]Sheet1!I4</f>
+        <v>30.77</v>
+      </c>
+      <c r="I4" s="5">
+        <f>[1]Sheet1!J4</f>
+        <v>32.43</v>
+      </c>
+      <c r="J4" s="1">
+        <f>[1]Sheet1!K4</f>
+        <v>51</v>
+      </c>
+      <c r="K4" s="1">
+        <f>[1]Sheet1!L4</f>
+        <v>1011</v>
+      </c>
+      <c r="L4" s="1">
+        <f>[1]Sheet1!M4</f>
+        <v>10.02</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="A5" s="1" t="str">
+        <f>[1]Sheet1!B5</f>
+        <v>09\09\24</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>[1]Sheet1!C5</f>
+        <v>seg</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>[1]Sheet1!D5</f>
+        <v>14:27:06</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>[1]Sheet1!E5</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>[1]Sheet1!F5</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F5" s="5">
+        <f>[1]Sheet1!G5</f>
+        <v>29.93</v>
+      </c>
+      <c r="G5" s="5">
+        <f>[1]Sheet1!H5</f>
+        <v>29.93</v>
+      </c>
+      <c r="H5" s="5">
+        <f>[1]Sheet1!I5</f>
+        <v>29.93</v>
+      </c>
+      <c r="I5" s="5">
+        <f>[1]Sheet1!J5</f>
+        <v>31.26</v>
+      </c>
+      <c r="J5" s="1">
+        <f>[1]Sheet1!K5</f>
+        <v>52</v>
+      </c>
+      <c r="K5" s="1">
+        <f>[1]Sheet1!L5</f>
+        <v>1012</v>
+      </c>
+      <c r="L5" s="1">
+        <f>[1]Sheet1!M5</f>
+        <v>9.6999999999999993</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -706,7 +2531,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
@@ -720,7 +2545,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
@@ -734,7 +2559,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
@@ -748,7 +2573,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
@@ -762,7 +2587,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
@@ -776,7 +2601,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
@@ -789,6 +2614,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B6F8FC-46A2-4B7D-900C-4C6F1498AB62}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6">
+        <v>30.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6">
+        <v>31.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6">
+        <v>29.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6">
+        <v>32.172499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5901B3E-A3E8-4B5E-9369-35A4919B8B84}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F65D20E-DB40-4FEB-B0FB-EF7D1B0C8767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF9ED32-EDE6-4FF5-AF47-96A8CA2AF110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela_Clima" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Data</t>
   </si>
@@ -100,15 +100,32 @@
   <si>
     <t>Média de Teperatura</t>
   </si>
+  <si>
+    <t>Média de Sensação térmica</t>
+  </si>
+  <si>
+    <t>Média de Humidade do ar</t>
+  </si>
+  <si>
+    <t>Soma de Velocidade do vento</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00\°"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00\°"/>
+    <numFmt numFmtId="165" formatCode="0.00\º"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,10 +151,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -149,21 +167,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="34">
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00\°"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\º"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -193,22 +259,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -269,7 +319,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Monitoramento_Clima.xlsx]Tabelas dinâmicas!Tabela dinâmica2</c:name>
-    <c:fmtId val="1"/>
+    <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -294,7 +344,7 @@
                   <a:srgbClr val="002060"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Temperaturas</a:t>
+              <a:t>Temperatura</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" sz="1800" b="1" baseline="0">
@@ -302,7 +352,7 @@
                   <a:srgbClr val="002060"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Médias por Cidade</a:t>
+              <a:t> Média por Cidade</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR" sz="1800" b="1">
               <a:solidFill>
@@ -371,7 +421,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -476,6 +532,286 @@
           </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -534,7 +870,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-F3E5-49BD-A8D1-ADD80254710E}"/>
+                <c16:uniqueId val="{00000001-E292-4725-8E32-DE72E239FA9B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -559,7 +895,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F3E5-49BD-A8D1-ADD80254710E}"/>
+                <c16:uniqueId val="{00000003-E292-4725-8E32-DE72E239FA9B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -584,7 +920,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-F3E5-49BD-A8D1-ADD80254710E}"/>
+                <c16:uniqueId val="{00000005-E292-4725-8E32-DE72E239FA9B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -609,7 +945,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F3E5-49BD-A8D1-ADD80254710E}"/>
+                <c16:uniqueId val="{00000007-E292-4725-8E32-DE72E239FA9B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -621,7 +957,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -713,7 +1055,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F3E5-49BD-A8D1-ADD80254710E}"/>
+              <c16:uniqueId val="{00000008-E292-4725-8E32-DE72E239FA9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -903,7 +1245,3309 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:pivotSource>
+    <c:name>[Monitoramento_Clima.xlsx]Tabelas dinâmicas!Tabela dinâmica1</c:name>
+    <c:fmtId val="6"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Sesação</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Térmica Média por Cidade</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5102-49F5-94F9-DA235B47EB39}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5102-49F5-94F9-DA235B47EB39}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5102-49F5-94F9-DA235B47EB39}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5102-49F5-94F9-DA235B47EB39}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$A$9:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Acaraú</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fortaleza</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Itarema</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sobral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelas dinâmicas'!$B$9:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\°</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>32.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5102-49F5-94F9-DA235B47EB39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:overlap val="-27"/>
+        <c:axId val="496838304"/>
+        <c:axId val="496836640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="496838304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496836640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496836640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00\°" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496838304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:pivotSource>
+    <c:name>[Monitoramento_Clima.xlsx]Tabelas dinâmicas!Tabela dinâmica3</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Humidade Média do Ar por Cidade</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C37C-4640-8FF5-28CD17381363}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C37C-4640-8FF5-28CD17381363}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C37C-4640-8FF5-28CD17381363}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C37C-4640-8FF5-28CD17381363}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$A$16:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Acaraú</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fortaleza</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Itarema</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sobral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelas dinâmicas'!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C37C-4640-8FF5-28CD17381363}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:overlap val="-27"/>
+        <c:axId val="496838304"/>
+        <c:axId val="496836640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="496838304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496836640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496836640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496838304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:pivotSource>
+    <c:name>[Monitoramento_Clima.xlsx]Tabelas dinâmicas!Tabela dinâmica4</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Velocidade do Vento por Cidade</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E18A-4C84-8423-DEC251F0B630}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E18A-4C84-8423-DEC251F0B630}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E18A-4C84-8423-DEC251F0B630}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E18A-4C84-8423-DEC251F0B630}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$A$23:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Acaraú</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fortaleza</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Itarema</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sobral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelas dinâmicas'!$B$23:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E18A-4C84-8423-DEC251F0B630}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="70"/>
+        <c:overlap val="-27"/>
+        <c:axId val="496838304"/>
+        <c:axId val="496836640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="496838304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496836640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496836640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496838304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1446,31 +5090,1542 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42204347-5169-4014-82C3-6219F74636E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4E45DF-8417-452E-8512-FD980241BE0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1479,6 +6634,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C76891B-EFE9-4D9F-A214-3CB96D5C5CC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2853898F-1E2E-4694-8F5C-0BD72EEB18DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{880F0160-A765-4307-B18C-486DA15CA8D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1645,6 +6914,158 @@
           </cell>
           <cell r="M5">
             <v>9.6999999999999993</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>10\09\24</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>13:42:31</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G6">
+            <v>29.07</v>
+          </cell>
+          <cell r="H6">
+            <v>26.79</v>
+          </cell>
+          <cell r="I6">
+            <v>29.07</v>
+          </cell>
+          <cell r="J6">
+            <v>31.31</v>
+          </cell>
+          <cell r="K6">
+            <v>61</v>
+          </cell>
+          <cell r="L6">
+            <v>1012</v>
+          </cell>
+          <cell r="M6">
+            <v>8.23</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>10\09\24</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>13:42:31</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G7">
+            <v>36.72</v>
+          </cell>
+          <cell r="H7">
+            <v>36.72</v>
+          </cell>
+          <cell r="I7">
+            <v>36.72</v>
+          </cell>
+          <cell r="J7">
+            <v>35.61</v>
+          </cell>
+          <cell r="K7">
+            <v>23</v>
+          </cell>
+          <cell r="L7">
+            <v>1010</v>
+          </cell>
+          <cell r="M7">
+            <v>3.65</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>10\09\24</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>13:42:31</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G8">
+            <v>30.69</v>
+          </cell>
+          <cell r="H8">
+            <v>30.69</v>
+          </cell>
+          <cell r="I8">
+            <v>30.69</v>
+          </cell>
+          <cell r="J8">
+            <v>32.89</v>
+          </cell>
+          <cell r="K8">
+            <v>54</v>
+          </cell>
+          <cell r="L8">
+            <v>1011</v>
+          </cell>
+          <cell r="M8">
+            <v>9.9700000000000006</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>10\09\24</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>13:42:31</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G9">
+            <v>29.56</v>
+          </cell>
+          <cell r="H9">
+            <v>29.56</v>
+          </cell>
+          <cell r="I9">
+            <v>29.56</v>
+          </cell>
+          <cell r="J9">
+            <v>31.33</v>
+          </cell>
+          <cell r="K9">
+            <v>56</v>
+          </cell>
+          <cell r="L9">
+            <v>1011</v>
+          </cell>
+          <cell r="M9">
+            <v>9.4499999999999993</v>
           </cell>
         </row>
       </sheetData>
@@ -1827,7 +7248,611 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Tabela dinâmica2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6485AB44-2B7C-476C-B884-75B486EA8B46}" name="Tabela dinâmica4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A22:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Velocidade do vento" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Tabela dinâmica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Tabela dinâmica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -1875,14 +7900,14 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="167"/>
+    <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="5">
+  <chartFormats count="20">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -1940,6 +7965,177 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1954,43 +8150,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L5" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:L5" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L9" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:L9" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
   <tableColumns count="12">
-    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="2">
+    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>[1]Sheet1!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="23" totalsRowDxfId="3">
+    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>[1]Sheet1!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="22" totalsRowDxfId="4">
+    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>[1]Sheet1!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="21" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>[1]Sheet1!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="20" totalsRowDxfId="6">
+    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>[1]Sheet1!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="1" totalsRowDxfId="7">
+    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="12" totalsRowDxfId="21">
       <calculatedColumnFormula>[1]Sheet1!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="19" totalsRowDxfId="8">
+    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="11" totalsRowDxfId="20">
       <calculatedColumnFormula>[1]Sheet1!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="18" totalsRowDxfId="9">
+    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="10" totalsRowDxfId="19">
       <calculatedColumnFormula>[1]Sheet1!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="17" totalsRowDxfId="10">
+    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="2" totalsRowDxfId="18">
       <calculatedColumnFormula>[1]Sheet1!J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="16" totalsRowDxfId="11">
+    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="0" totalsRowDxfId="17" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]Sheet1!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="15" totalsRowDxfId="12">
+    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="1" totalsRowDxfId="16">
       <calculatedColumnFormula>[1]Sheet1!L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>[1]Sheet1!M2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2259,12 +8455,768 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,7 +9310,7 @@
         <f>[1]Sheet1!J2</f>
         <v>38.71</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="9">
         <f>[1]Sheet1!K2</f>
         <v>83</v>
       </c>
@@ -2408,7 +9360,7 @@
         <f>[1]Sheet1!J3</f>
         <v>34.68</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="9">
         <f>[1]Sheet1!K3</f>
         <v>21</v>
       </c>
@@ -2458,7 +9410,7 @@
         <f>[1]Sheet1!J4</f>
         <v>32.43</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="9">
         <f>[1]Sheet1!K4</f>
         <v>51</v>
       </c>
@@ -2508,7 +9460,7 @@
         <f>[1]Sheet1!J5</f>
         <v>31.26</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="9">
         <f>[1]Sheet1!K5</f>
         <v>52</v>
       </c>
@@ -2522,60 +9474,204 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="A6" s="1" t="str">
+        <f>[1]Sheet1!B6</f>
+        <v>10\09\24</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>[1]Sheet1!C6</f>
+        <v>ter</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>[1]Sheet1!D6</f>
+        <v>13:42:31</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f>[1]Sheet1!E6</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>[1]Sheet1!F6</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F6" s="5">
+        <f>[1]Sheet1!G6</f>
+        <v>29.07</v>
+      </c>
+      <c r="G6" s="5">
+        <f>[1]Sheet1!H6</f>
+        <v>26.79</v>
+      </c>
+      <c r="H6" s="5">
+        <f>[1]Sheet1!I6</f>
+        <v>29.07</v>
+      </c>
+      <c r="I6" s="5">
+        <f>[1]Sheet1!J6</f>
+        <v>31.31</v>
+      </c>
+      <c r="J6" s="9">
+        <f>[1]Sheet1!K6</f>
+        <v>61</v>
+      </c>
+      <c r="K6" s="1">
+        <f>[1]Sheet1!L6</f>
+        <v>1012</v>
+      </c>
+      <c r="L6" s="1">
+        <f>[1]Sheet1!M6</f>
+        <v>8.23</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="A7" s="1" t="str">
+        <f>[1]Sheet1!B7</f>
+        <v>10\09\24</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>[1]Sheet1!C7</f>
+        <v>ter</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>[1]Sheet1!D7</f>
+        <v>13:42:31</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>[1]Sheet1!E7</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>[1]Sheet1!F7</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F7" s="5">
+        <f>[1]Sheet1!G7</f>
+        <v>36.72</v>
+      </c>
+      <c r="G7" s="5">
+        <f>[1]Sheet1!H7</f>
+        <v>36.72</v>
+      </c>
+      <c r="H7" s="5">
+        <f>[1]Sheet1!I7</f>
+        <v>36.72</v>
+      </c>
+      <c r="I7" s="5">
+        <f>[1]Sheet1!J7</f>
+        <v>35.61</v>
+      </c>
+      <c r="J7" s="9">
+        <f>[1]Sheet1!K7</f>
+        <v>23</v>
+      </c>
+      <c r="K7" s="1">
+        <f>[1]Sheet1!L7</f>
+        <v>1010</v>
+      </c>
+      <c r="L7" s="1">
+        <f>[1]Sheet1!M7</f>
+        <v>3.65</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="A8" s="1" t="str">
+        <f>[1]Sheet1!B8</f>
+        <v>10\09\24</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>[1]Sheet1!C8</f>
+        <v>ter</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>[1]Sheet1!D8</f>
+        <v>13:42:31</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>[1]Sheet1!E8</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>[1]Sheet1!F8</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F8" s="5">
+        <f>[1]Sheet1!G8</f>
+        <v>30.69</v>
+      </c>
+      <c r="G8" s="5">
+        <f>[1]Sheet1!H8</f>
+        <v>30.69</v>
+      </c>
+      <c r="H8" s="5">
+        <f>[1]Sheet1!I8</f>
+        <v>30.69</v>
+      </c>
+      <c r="I8" s="5">
+        <f>[1]Sheet1!J8</f>
+        <v>32.89</v>
+      </c>
+      <c r="J8" s="9">
+        <f>[1]Sheet1!K8</f>
+        <v>54</v>
+      </c>
+      <c r="K8" s="1">
+        <f>[1]Sheet1!L8</f>
+        <v>1011</v>
+      </c>
+      <c r="L8" s="1">
+        <f>[1]Sheet1!M8</f>
+        <v>9.9700000000000006</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="A9" s="1" t="str">
+        <f>[1]Sheet1!B9</f>
+        <v>10\09\24</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>[1]Sheet1!C9</f>
+        <v>ter</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>[1]Sheet1!D9</f>
+        <v>13:42:31</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>[1]Sheet1!E9</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>[1]Sheet1!F9</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F9" s="5">
+        <f>[1]Sheet1!G9</f>
+        <v>29.56</v>
+      </c>
+      <c r="G9" s="5">
+        <f>[1]Sheet1!H9</f>
+        <v>29.56</v>
+      </c>
+      <c r="H9" s="5">
+        <f>[1]Sheet1!I9</f>
+        <v>29.56</v>
+      </c>
+      <c r="I9" s="5">
+        <f>[1]Sheet1!J9</f>
+        <v>31.33</v>
+      </c>
+      <c r="J9" s="9">
+        <f>[1]Sheet1!K9</f>
+        <v>56</v>
+      </c>
+      <c r="K9" s="1">
+        <f>[1]Sheet1!L9</f>
+        <v>1011</v>
+      </c>
+      <c r="L9" s="1">
+        <f>[1]Sheet1!M9</f>
+        <v>9.4499999999999993</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -2583,7 +9679,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2597,13 +9693,41 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2615,16 +9739,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B6F8FC-46A2-4B7D-900C-4C6F1498AB62}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2675,9 +9799,152 @@
         <v>32.172499999999999</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6">
+        <v>32.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
+        <v>38.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6">
+        <v>31.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6">
+        <v>34.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="6">
+        <v>34.269999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8">
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="8">
+        <v>20.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="8">
+        <v>19.54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="8">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="8">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="8">
+        <v>66.679999999999993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2685,10 +9952,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5901B3E-A3E8-4B5E-9369-35A4919B8B84}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF9ED32-EDE6-4FF5-AF47-96A8CA2AF110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7253ADC-868E-4EF2-AA53-0A2652917D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela_Clima" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,22 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="SegmentaçãodeDados_Cidade">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="10" r:id="rId5"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -42,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>Data</t>
   </si>
@@ -109,14 +120,28 @@
   <si>
     <t>Soma de Velocidade do vento</t>
   </si>
+  <si>
+    <t>algumas nuvens</t>
+  </si>
+  <si>
+    <t>céu limpo</t>
+  </si>
+  <si>
+    <t>(Tudo)</t>
+  </si>
+  <si>
+    <t>Contagem de Status</t>
+  </si>
+  <si>
+    <t>Média de Velocidade do vento</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\°"/>
-    <numFmt numFmtId="165" formatCode="0.00\º"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -155,12 +180,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -171,9 +193,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,50 +202,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -247,12 +228,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -780,7 +784,7 @@
         <c:idx val="13"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="92D050"/>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -798,7 +802,9 @@
         <c:idx val="14"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="FFC000"/>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -905,7 +911,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -930,7 +936,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1850,7 +1858,7 @@
         <c:idx val="18"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="92D050"/>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1868,7 +1876,9 @@
         <c:idx val="19"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="FFC000"/>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="50000"/>
+            </a:sysClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1975,7 +1985,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2000,7 +2010,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -2909,7 +2921,7 @@
         <c:idx val="18"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="92D050"/>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2927,7 +2939,9 @@
         <c:idx val="19"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="FFC000"/>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="50000"/>
+            </a:sysClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3034,7 +3048,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3059,7 +3073,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -3968,7 +3984,7 @@
         <c:idx val="18"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="92D050"/>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3986,7 +4002,9 @@
         <c:idx val="19"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="FFC000"/>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="50000"/>
+            </a:sysClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4093,7 +4111,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4118,7 +4136,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4427,6 +4447,1470 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:pivotSource>
+    <c:name>[Monitoramento_Clima.xlsx]Tabelas dinâmicas!Tabela dinâmica5</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Status do clima/Cidade</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="50000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="50000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="50000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B015-46AA-B8AA-2A8A0360102F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$D$4:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>algumas nuvens</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>céu limpo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelas dinâmicas'!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B015-46AA-B8AA-2A8A0360102F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="1985967968"/>
+        <c:axId val="1985968384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1985967968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1985968384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1985968384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1985967968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Monitoramento_Clima.xlsx]Tabelas dinâmicas!Tabela dinâmica8</c:name>
+    <c:fmtId val="7"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Velocidade do Vento por Cidade</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8FDF-4E8D-A077-E0D337E2BCBF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8FDF-4E8D-A077-E0D337E2BCBF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-8FDF-4E8D-A077-E0D337E2BCBF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8FDF-4E8D-A077-E0D337E2BCBF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$G$2:$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Acaraú</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fortaleza</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Itarema</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sobral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelas dinâmicas'!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FDF-4E8D-A077-E0D337E2BCBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1905130224"/>
+        <c:axId val="1905124400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1905130224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905124400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1905124400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905130224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4587,6 +6071,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6567,6 +8131,1016 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6753,6 +9327,160 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>423021</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>154080</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31377</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001D384B-30B4-4038-993D-48E7E1F7212D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>445434</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>176493</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Cidade">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{978165E3-E7A5-454A-B1D5-DC947F741E47}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Cidade"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10732434" y="225800"/>
+              <a:ext cx="4572000" cy="704289"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>154642</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158E849E-7388-4F96-8236-F8C26A77AFDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7068,6 +9796,158 @@
             <v>9.4499999999999993</v>
           </cell>
         </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>11\09\24</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>13:44:17</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G10">
+            <v>31.15</v>
+          </cell>
+          <cell r="H10">
+            <v>30.07</v>
+          </cell>
+          <cell r="I10">
+            <v>31.15</v>
+          </cell>
+          <cell r="J10">
+            <v>38.15</v>
+          </cell>
+          <cell r="K10">
+            <v>83</v>
+          </cell>
+          <cell r="L10">
+            <v>1012</v>
+          </cell>
+          <cell r="M10">
+            <v>8.75</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>11\09\24</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>13:44:17</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G11">
+            <v>36.89</v>
+          </cell>
+          <cell r="H11">
+            <v>36.89</v>
+          </cell>
+          <cell r="I11">
+            <v>36.89</v>
+          </cell>
+          <cell r="J11">
+            <v>35.840000000000003</v>
+          </cell>
+          <cell r="K11">
+            <v>23</v>
+          </cell>
+          <cell r="L11">
+            <v>1010</v>
+          </cell>
+          <cell r="M11">
+            <v>3.82</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>11\09\24</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>13:44:17</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G12">
+            <v>30.29</v>
+          </cell>
+          <cell r="H12">
+            <v>30.29</v>
+          </cell>
+          <cell r="I12">
+            <v>30.29</v>
+          </cell>
+          <cell r="J12">
+            <v>32.01</v>
+          </cell>
+          <cell r="K12">
+            <v>53</v>
+          </cell>
+          <cell r="L12">
+            <v>1010</v>
+          </cell>
+          <cell r="M12">
+            <v>9.94</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>11\09\24</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>13:44:17</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G13">
+            <v>29.27</v>
+          </cell>
+          <cell r="H13">
+            <v>29.27</v>
+          </cell>
+          <cell r="I13">
+            <v>29.27</v>
+          </cell>
+          <cell r="J13">
+            <v>30.57</v>
+          </cell>
+          <cell r="K13">
+            <v>54</v>
+          </cell>
+          <cell r="L13">
+            <v>1011</v>
+          </cell>
+          <cell r="M13">
+            <v>9.51</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -7081,13 +9961,20 @@
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Data" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="1">
+        <s v="09\09\24"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Dia da semana" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="1">
+        <s v="seg"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Hora" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="14:27:06"/>
+        <s v="14:28:20"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Cidade" numFmtId="0">
       <sharedItems count="4">
@@ -7098,7 +9985,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="2">
+        <s v="algumas nuvens"/>
+        <s v="céu limpo"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Teperatura" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.93" maxValue="36.28"/>
@@ -7124,7 +10014,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1524367137"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -7133,11 +10023,11 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
   <r>
-    <s v="09\09\24"/>
-    <s v="seg"/>
-    <s v="14:27:06"/>
     <x v="0"/>
-    <s v="algumas nuvens"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="31.71"/>
     <n v="31.07"/>
     <n v="31.71"/>
@@ -7147,11 +10037,11 @@
     <n v="9.77"/>
   </r>
   <r>
-    <s v="09\09\24"/>
-    <s v="seg"/>
-    <s v="14:27:06"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
-    <s v="céu limpo"/>
+    <x v="1"/>
     <n v="36.28"/>
     <n v="36.28"/>
     <n v="36.28"/>
@@ -7161,11 +10051,11 @@
     <n v="3.85"/>
   </r>
   <r>
-    <s v="09\09\24"/>
-    <s v="seg"/>
-    <s v="14:27:06"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
-    <s v="céu limpo"/>
+    <x v="1"/>
     <n v="30.77"/>
     <n v="30.77"/>
     <n v="30.77"/>
@@ -7175,11 +10065,11 @@
     <n v="10.02"/>
   </r>
   <r>
-    <s v="09\09\24"/>
-    <s v="seg"/>
-    <s v="14:27:06"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="3"/>
-    <s v="céu limpo"/>
+    <x v="1"/>
     <n v="29.93"/>
     <n v="29.93"/>
     <n v="29.93"/>
@@ -7189,11 +10079,11 @@
     <n v="9.6999999999999993"/>
   </r>
   <r>
-    <s v="09\09\24"/>
-    <s v="seg"/>
-    <s v="14:28:20"/>
     <x v="0"/>
-    <s v="algumas nuvens"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="31.71"/>
     <n v="31.07"/>
     <n v="31.71"/>
@@ -7203,11 +10093,11 @@
     <n v="9.77"/>
   </r>
   <r>
-    <s v="09\09\24"/>
-    <s v="seg"/>
-    <s v="14:28:20"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
-    <s v="céu limpo"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="36.28"/>
     <n v="36.28"/>
     <n v="36.28"/>
@@ -7217,11 +10107,11 @@
     <n v="3.85"/>
   </r>
   <r>
-    <s v="09\09\24"/>
-    <s v="seg"/>
-    <s v="14:28:20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="2"/>
-    <s v="céu limpo"/>
+    <x v="1"/>
     <n v="30.77"/>
     <n v="30.77"/>
     <n v="30.77"/>
@@ -7231,11 +10121,11 @@
     <n v="10.02"/>
   </r>
   <r>
-    <s v="09\09\24"/>
-    <s v="seg"/>
-    <s v="14:28:20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="3"/>
-    <s v="céu limpo"/>
+    <x v="1"/>
     <n v="29.93"/>
     <n v="29.93"/>
     <n v="29.93"/>
@@ -7248,7 +10138,268 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6485AB44-2B7C-476C-B884-75B486EA8B46}" name="Tabela dinâmica4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8687F29-7BF0-4B13-9580-DBFA52DDFB57}" name="Tabela dinâmica8" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="G1:H6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Tabela dinâmica5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="D3:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de Status" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6485AB44-2B7C-476C-B884-75B486EA8B46}" name="Tabela dinâmica4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A22:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -7483,8 +10634,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Tabela dinâmica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Tabela dinâmica3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -7535,7 +10686,7 @@
     <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7667,8 +10818,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Tabela dinâmica1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -7719,7 +10870,7 @@
     <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="9">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -7851,8 +11002,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Tabela dinâmica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Tabela dinâmica2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -7903,7 +11054,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8149,44 +11300,68 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Cidade" xr10:uid="{270F7E53-071C-4810-BDC5-E6889E6C4975}" sourceName="Cidade">
+  <pivotTables>
+    <pivotTable tabId="4" name="Tabela dinâmica5"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1524367137">
+      <items count="4">
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+        <i x="3" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Cidade" xr10:uid="{3B1BB09E-CC9A-4E55-954B-89371E1042F5}" cache="SegmentaçãodeDados_Cidade" caption="Cidade" columnCount="4" style="SlicerStyleDark5" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L9" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:L9" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L13" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:L13" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
   <tableColumns count="12">
-    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>[1]Sheet1!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>[1]Sheet1!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>[1]Sheet1!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>[1]Sheet1!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>[1]Sheet1!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="12" totalsRowDxfId="21">
+    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>[1]Sheet1!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="11" totalsRowDxfId="20">
+    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>[1]Sheet1!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="10" totalsRowDxfId="19">
+    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>[1]Sheet1!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="2" totalsRowDxfId="18">
+    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>[1]Sheet1!J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="0" totalsRowDxfId="17" dataCellStyle="Porcentagem">
+    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]Sheet1!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="1" totalsRowDxfId="16">
+    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>[1]Sheet1!L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>[1]Sheet1!M2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9211,12 +12386,264 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:L9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9294,23 +12721,23 @@
         <f>[1]Sheet1!F2</f>
         <v>algumas nuvens</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>[1]Sheet1!G2</f>
         <v>31.71</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f>[1]Sheet1!H2</f>
         <v>31.07</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <f>[1]Sheet1!I2</f>
         <v>31.71</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <f>[1]Sheet1!J2</f>
         <v>38.71</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <f>[1]Sheet1!K2</f>
         <v>83</v>
       </c>
@@ -9344,23 +12771,23 @@
         <f>[1]Sheet1!F3</f>
         <v>céu limpo</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>[1]Sheet1!G3</f>
         <v>36.28</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f>[1]Sheet1!H3</f>
         <v>36.28</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <f>[1]Sheet1!I3</f>
         <v>36.28</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f>[1]Sheet1!J3</f>
         <v>34.68</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <f>[1]Sheet1!K3</f>
         <v>21</v>
       </c>
@@ -9394,23 +12821,23 @@
         <f>[1]Sheet1!F4</f>
         <v>céu limpo</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>[1]Sheet1!G4</f>
         <v>30.77</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>[1]Sheet1!H4</f>
         <v>30.77</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f>[1]Sheet1!I4</f>
         <v>30.77</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f>[1]Sheet1!J4</f>
         <v>32.43</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <f>[1]Sheet1!K4</f>
         <v>51</v>
       </c>
@@ -9444,23 +12871,23 @@
         <f>[1]Sheet1!F5</f>
         <v>céu limpo</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f>[1]Sheet1!G5</f>
         <v>29.93</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>[1]Sheet1!H5</f>
         <v>29.93</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <f>[1]Sheet1!I5</f>
         <v>29.93</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f>[1]Sheet1!J5</f>
         <v>31.26</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <f>[1]Sheet1!K5</f>
         <v>52</v>
       </c>
@@ -9494,23 +12921,23 @@
         <f>[1]Sheet1!F6</f>
         <v>algumas nuvens</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>[1]Sheet1!G6</f>
         <v>29.07</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f>[1]Sheet1!H6</f>
         <v>26.79</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f>[1]Sheet1!I6</f>
         <v>29.07</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f>[1]Sheet1!J6</f>
         <v>31.31</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <f>[1]Sheet1!K6</f>
         <v>61</v>
       </c>
@@ -9544,23 +12971,23 @@
         <f>[1]Sheet1!F7</f>
         <v>céu limpo</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <f>[1]Sheet1!G7</f>
         <v>36.72</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f>[1]Sheet1!H7</f>
         <v>36.72</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f>[1]Sheet1!I7</f>
         <v>36.72</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f>[1]Sheet1!J7</f>
         <v>35.61</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <f>[1]Sheet1!K7</f>
         <v>23</v>
       </c>
@@ -9594,23 +13021,23 @@
         <f>[1]Sheet1!F8</f>
         <v>céu limpo</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f>[1]Sheet1!G8</f>
         <v>30.69</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f>[1]Sheet1!H8</f>
         <v>30.69</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f>[1]Sheet1!I8</f>
         <v>30.69</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f>[1]Sheet1!J8</f>
         <v>32.89</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <f>[1]Sheet1!K8</f>
         <v>54</v>
       </c>
@@ -9644,23 +13071,23 @@
         <f>[1]Sheet1!F9</f>
         <v>céu limpo</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f>[1]Sheet1!G9</f>
         <v>29.56</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f>[1]Sheet1!H9</f>
         <v>29.56</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f>[1]Sheet1!I9</f>
         <v>29.56</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f>[1]Sheet1!J9</f>
         <v>31.33</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <f>[1]Sheet1!K9</f>
         <v>56</v>
       </c>
@@ -9674,60 +13101,204 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="A10" s="1" t="str">
+        <f>[1]Sheet1!B10</f>
+        <v>11\09\24</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>[1]Sheet1!C10</f>
+        <v>qua</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>[1]Sheet1!D10</f>
+        <v>13:44:17</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>[1]Sheet1!E10</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>[1]Sheet1!F10</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F10" s="4">
+        <f>[1]Sheet1!G10</f>
+        <v>31.15</v>
+      </c>
+      <c r="G10" s="4">
+        <f>[1]Sheet1!H10</f>
+        <v>30.07</v>
+      </c>
+      <c r="H10" s="4">
+        <f>[1]Sheet1!I10</f>
+        <v>31.15</v>
+      </c>
+      <c r="I10" s="4">
+        <f>[1]Sheet1!J10</f>
+        <v>38.15</v>
+      </c>
+      <c r="J10" s="7">
+        <f>[1]Sheet1!K10</f>
+        <v>83</v>
+      </c>
+      <c r="K10" s="1">
+        <f>[1]Sheet1!L10</f>
+        <v>1012</v>
+      </c>
+      <c r="L10" s="1">
+        <f>[1]Sheet1!M10</f>
+        <v>8.75</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="A11" s="1" t="str">
+        <f>[1]Sheet1!B11</f>
+        <v>11\09\24</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>[1]Sheet1!C11</f>
+        <v>qua</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>[1]Sheet1!D11</f>
+        <v>13:44:17</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>[1]Sheet1!E11</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>[1]Sheet1!F11</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F11" s="4">
+        <f>[1]Sheet1!G11</f>
+        <v>36.89</v>
+      </c>
+      <c r="G11" s="4">
+        <f>[1]Sheet1!H11</f>
+        <v>36.89</v>
+      </c>
+      <c r="H11" s="4">
+        <f>[1]Sheet1!I11</f>
+        <v>36.89</v>
+      </c>
+      <c r="I11" s="4">
+        <f>[1]Sheet1!J11</f>
+        <v>35.840000000000003</v>
+      </c>
+      <c r="J11" s="7">
+        <f>[1]Sheet1!K11</f>
+        <v>23</v>
+      </c>
+      <c r="K11" s="1">
+        <f>[1]Sheet1!L11</f>
+        <v>1010</v>
+      </c>
+      <c r="L11" s="1">
+        <f>[1]Sheet1!M11</f>
+        <v>3.82</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="A12" s="1" t="str">
+        <f>[1]Sheet1!B12</f>
+        <v>11\09\24</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>[1]Sheet1!C12</f>
+        <v>qua</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>[1]Sheet1!D12</f>
+        <v>13:44:17</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>[1]Sheet1!E12</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>[1]Sheet1!F12</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F12" s="4">
+        <f>[1]Sheet1!G12</f>
+        <v>30.29</v>
+      </c>
+      <c r="G12" s="4">
+        <f>[1]Sheet1!H12</f>
+        <v>30.29</v>
+      </c>
+      <c r="H12" s="4">
+        <f>[1]Sheet1!I12</f>
+        <v>30.29</v>
+      </c>
+      <c r="I12" s="4">
+        <f>[1]Sheet1!J12</f>
+        <v>32.01</v>
+      </c>
+      <c r="J12" s="7">
+        <f>[1]Sheet1!K12</f>
+        <v>53</v>
+      </c>
+      <c r="K12" s="1">
+        <f>[1]Sheet1!L12</f>
+        <v>1010</v>
+      </c>
+      <c r="L12" s="1">
+        <f>[1]Sheet1!M12</f>
+        <v>9.94</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="A13" s="1" t="str">
+        <f>[1]Sheet1!B13</f>
+        <v>11\09\24</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>[1]Sheet1!C13</f>
+        <v>qua</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>[1]Sheet1!D13</f>
+        <v>13:44:17</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>[1]Sheet1!E13</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>[1]Sheet1!F13</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F13" s="4">
+        <f>[1]Sheet1!G13</f>
+        <v>29.27</v>
+      </c>
+      <c r="G13" s="4">
+        <f>[1]Sheet1!H13</f>
+        <v>29.27</v>
+      </c>
+      <c r="H13" s="4">
+        <f>[1]Sheet1!I13</f>
+        <v>29.27</v>
+      </c>
+      <c r="I13" s="4">
+        <f>[1]Sheet1!J13</f>
+        <v>30.57</v>
+      </c>
+      <c r="J13" s="7">
+        <f>[1]Sheet1!K13</f>
+        <v>54</v>
+      </c>
+      <c r="K13" s="1">
+        <f>[1]Sheet1!L13</f>
+        <v>1011</v>
+      </c>
+      <c r="L13" s="1">
+        <f>[1]Sheet1!M13</f>
+        <v>9.51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9739,164 +13310,239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B6F8FC-46A2-4B7D-900C-4C6F1498AB62}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>30.77</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6">
+        <v>10.02</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>31.71</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6">
+        <v>9.77</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>29.93</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6">
+        <v>9.6999999999999993</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>36.28</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3.85</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>32.172499999999999</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="6">
+        <v>8.3350000000000009</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>32.43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>38.71</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>31.26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>34.68</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>34.269999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>51.75</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
@@ -9904,42 +13550,42 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="6">
         <v>20.04</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="6">
         <v>19.54</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="6">
         <v>19.399999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>7.7</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <v>66.679999999999993</v>
       </c>
     </row>
@@ -9952,13 +13598,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5901B3E-A3E8-4B5E-9369-35A4919B8B84}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F25AF0-6E39-4F0B-A74E-23DF04C3BDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF609B50-D081-45BA-9476-A4B22C03147C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela_Clima" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelas dinâmicas" sheetId="4" r:id="rId2"/>
-    <sheet name="Relatório" sheetId="2" r:id="rId3"/>
+    <sheet name="Relatório" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelas dinâmicas" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId5"/>
+    <pivotCache cacheId="25" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t>Data</t>
   </si>
@@ -138,6 +138,27 @@
   <si>
     <t>12\09\24</t>
   </si>
+  <si>
+    <t>13\09\24</t>
+  </si>
+  <si>
+    <t>Limite sensação térmica</t>
+  </si>
+  <si>
+    <t>Limite temperatura</t>
+  </si>
+  <si>
+    <t>Limite humidade</t>
+  </si>
+  <si>
+    <t>Média de Limite temperatura</t>
+  </si>
+  <si>
+    <t>Média de Limite sensação térmica</t>
+  </si>
+  <si>
+    <t>Média de Limite humidade</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,12 +222,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="179">
+  <dxfs count="208">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -244,12 +271,33 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
@@ -403,9 +451,24 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
@@ -532,87 +595,66 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.00000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="0.000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000000000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
@@ -625,6 +667,21 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
@@ -634,30 +691,127 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -665,12 +819,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -689,21 +837,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1501,16 +1637,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30.39</c:v>
+                  <c:v>30.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.770000000000003</c:v>
+                  <c:v>30.846000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.56</c:v>
+                  <c:v>29.607999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.6325</c:v>
+                  <c:v>36.525999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2575,16 +2711,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32.357499999999995</c:v>
+                  <c:v>32.349999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.58</c:v>
+                  <c:v>36.893999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.172499999999999</c:v>
+                  <c:v>31.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.515000000000001</c:v>
+                  <c:v>35.338000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3638,16 +3774,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>53.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.25</c:v>
+                  <c:v>78.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>54.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4049,6 +4185,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="General" sourceLinked="0"/>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="002060"/>
@@ -4308,6 +4445,7 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="002060"/>
@@ -4396,16 +4534,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10.11</c:v>
+                  <c:v>9.9580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.26</c:v>
+                  <c:v>9.3620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6074999999999982</c:v>
+                  <c:v>9.4599999999999973</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.87</c:v>
+                  <c:v>3.8319999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4865,13 +5003,7 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="40000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -4883,6 +5015,125 @@
                 <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="92000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="99000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:numFmt formatCode="&quot; &quot;" sourceLinked="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4919,7 +5170,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Média de Teperatura</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4968,13 +5219,7 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -5025,9 +5270,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$G$4:$G$8</c:f>
+              <c:f>'Tabelas dinâmicas'!$G$4:$G$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -5040,26 +5285,32 @@
                 <c:pt idx="3">
                   <c:v>12\09\24</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>13\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$H$4:$H$8</c:f>
+              <c:f>'Tabelas dinâmicas'!$H$4:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29.93</c:v>
+                  <c:v>30.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.56</c:v>
+                  <c:v>30.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.27</c:v>
+                  <c:v>30.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.48</c:v>
+                  <c:v>29.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5071,10 +5322,150 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média de Limite temperatura</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="99000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="&quot; &quot;" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$G$4:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>09\09\24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10\09\24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11\09\24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12\09\24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13\09\24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelas dinâmicas'!$I$4:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\°</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4A4A-4E99-8798-4379D465A3F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5572,6 +5963,128 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -5583,11 +6096,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$K$3</c:f>
+              <c:f>'Tabelas dinâmicas'!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Média de Sensação térmica</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5693,9 +6206,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$J$4:$J$8</c:f>
+              <c:f>'Tabelas dinâmicas'!$K$4:$K$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -5708,26 +6221,32 @@
                 <c:pt idx="3">
                   <c:v>12\09\24</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>13\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$K$4:$K$8</c:f>
+              <c:f>'Tabelas dinâmicas'!$L$4:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>31.26</c:v>
+                  <c:v>32.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.33</c:v>
+                  <c:v>32.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.57</c:v>
+                  <c:v>32.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.53</c:v>
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5736,6 +6255,86 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-82C4-4F5F-8AFA-DFDE92155BF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média de Limite sensação térmica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$K$4:$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>09\09\24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10\09\24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11\09\24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12\09\24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13\09\24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelas dinâmicas'!$M$4:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00\°</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-86A1-4570-8D7E-15510233A746}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6568,7 +7167,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6823,7 +7422,7 @@
                   <a:srgbClr val="002060"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Velocidadde</a:t>
+              <a:t>Velocidadade</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
@@ -7100,6 +7699,73 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -7111,7 +7777,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$N$3</c:f>
+              <c:f>'Tabelas dinâmicas'!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7221,9 +7887,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$M$4:$M$8</c:f>
+              <c:f>'Tabelas dinâmicas'!$O$4:$O$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -7236,26 +7902,32 @@
                 <c:pt idx="3">
                   <c:v>12\09\24</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>13\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$N$4:$N$8</c:f>
+              <c:f>'Tabelas dinâmicas'!$P$4:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>10.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4499999999999993</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.51</c:v>
+                  <c:v>9.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.77</c:v>
+                  <c:v>10.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7798,6 +8470,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -7809,11 +8537,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$Q$3</c:f>
+              <c:f>'Tabelas dinâmicas'!$S$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Média de Humidade do ar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7919,9 +8647,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$P$4:$P$8</c:f>
+              <c:f>'Tabelas dinâmicas'!$R$4:$R$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -7934,26 +8662,32 @@
                 <c:pt idx="3">
                   <c:v>12\09\24</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>13\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$Q$4:$Q$8</c:f>
+              <c:f>'Tabelas dinâmicas'!$S$4:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7962,6 +8696,86 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2D2D-46CC-A1E9-4B6C4E6CCC34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média de Limite humidade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelas dinâmicas'!$R$4:$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>09\09\24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10\09\24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11\09\24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12\09\24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13\09\24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelas dinâmicas'!$T$4:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C159-4D65-8F10-031DE3E876A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13248,8 +14062,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>81642</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Cidade 1">
@@ -13272,7 +14086,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14084,6 +14898,158 @@
             <v>9.77</v>
           </cell>
         </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>13\09\24</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>13:53:13</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G18">
+            <v>31.15</v>
+          </cell>
+          <cell r="H18">
+            <v>30.07</v>
+          </cell>
+          <cell r="I18">
+            <v>31.15</v>
+          </cell>
+          <cell r="J18">
+            <v>38.15</v>
+          </cell>
+          <cell r="K18">
+            <v>84</v>
+          </cell>
+          <cell r="L18">
+            <v>1012</v>
+          </cell>
+          <cell r="M18">
+            <v>9.77</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>13\09\24</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>13:53:13</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G19">
+            <v>36.1</v>
+          </cell>
+          <cell r="H19">
+            <v>36.1</v>
+          </cell>
+          <cell r="I19">
+            <v>36.1</v>
+          </cell>
+          <cell r="J19">
+            <v>34.630000000000003</v>
+          </cell>
+          <cell r="K19">
+            <v>22</v>
+          </cell>
+          <cell r="L19">
+            <v>1010</v>
+          </cell>
+          <cell r="M19">
+            <v>3.68</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>13\09\24</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>13:53:13</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G20">
+            <v>30.59</v>
+          </cell>
+          <cell r="H20">
+            <v>30.59</v>
+          </cell>
+          <cell r="I20">
+            <v>30.59</v>
+          </cell>
+          <cell r="J20">
+            <v>32.32</v>
+          </cell>
+          <cell r="K20">
+            <v>52</v>
+          </cell>
+          <cell r="L20">
+            <v>1011</v>
+          </cell>
+          <cell r="M20">
+            <v>9.35</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>13\09\24</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>13:53:13</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G21">
+            <v>29.8</v>
+          </cell>
+          <cell r="H21">
+            <v>29.8</v>
+          </cell>
+          <cell r="I21">
+            <v>29.8</v>
+          </cell>
+          <cell r="J21">
+            <v>31.06</v>
+          </cell>
+          <cell r="K21">
+            <v>52</v>
+          </cell>
+          <cell r="L21">
+            <v>1011</v>
+          </cell>
+          <cell r="M21">
+            <v>8.8699999999999992</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -14091,17 +15057,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45547.566216319443" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="16" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45548.632580324076" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="20" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
   <cacheSource type="worksheet">
     <worksheetSource name="Monitoramento_Clima"/>
   </cacheSource>
-  <cacheFields count="12">
+  <cacheFields count="15">
     <cacheField name="Data" numFmtId="0">
-      <sharedItems count="4">
+      <sharedItems count="5">
         <s v="09\09\24"/>
         <s v="10\09\24"/>
         <s v="11\09\24"/>
         <s v="12\09\24"/>
+        <s v="13\09\24"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Dia da semana" numFmtId="0">
@@ -14137,13 +15104,22 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="30.57" maxValue="38.71"/>
     </cacheField>
     <cacheField name="Humidade do ar" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21" maxValue="83"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21" maxValue="84"/>
     </cacheField>
     <cacheField name="Pressão atmosférica" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1010" maxValue="1013"/>
     </cacheField>
-    <cacheField name="Velocidade do vento" numFmtId="0">
+    <cacheField name="Velocidade do vento" numFmtId="2">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.65" maxValue="10.51"/>
+    </cacheField>
+    <cacheField name="Limite temperatura" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="35" maxValue="35"/>
+    </cacheField>
+    <cacheField name="Limite sensação térmica" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="35" maxValue="35"/>
+    </cacheField>
+    <cacheField name="Limite humidade" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="50"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -14155,7 +15131,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
   <r>
     <x v="0"/>
     <s v="seg"/>
@@ -14169,6 +15145,9 @@
     <n v="83"/>
     <n v="1013"/>
     <n v="9.77"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="0"/>
@@ -14183,6 +15162,9 @@
     <n v="21"/>
     <n v="1011"/>
     <n v="3.85"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="0"/>
@@ -14197,6 +15179,9 @@
     <n v="51"/>
     <n v="1011"/>
     <n v="10.02"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="0"/>
@@ -14211,6 +15196,9 @@
     <n v="52"/>
     <n v="1012"/>
     <n v="9.6999999999999993"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="1"/>
@@ -14225,6 +15213,9 @@
     <n v="61"/>
     <n v="1012"/>
     <n v="8.23"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="1"/>
@@ -14239,6 +15230,9 @@
     <n v="23"/>
     <n v="1010"/>
     <n v="3.65"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="1"/>
@@ -14253,6 +15247,9 @@
     <n v="54"/>
     <n v="1011"/>
     <n v="9.9700000000000006"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="1"/>
@@ -14267,6 +15264,9 @@
     <n v="56"/>
     <n v="1011"/>
     <n v="9.4499999999999993"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="2"/>
@@ -14281,6 +15281,9 @@
     <n v="83"/>
     <n v="1012"/>
     <n v="8.75"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="2"/>
@@ -14295,6 +15298,9 @@
     <n v="23"/>
     <n v="1010"/>
     <n v="3.82"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="2"/>
@@ -14309,6 +15315,9 @@
     <n v="53"/>
     <n v="1010"/>
     <n v="9.94"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="2"/>
@@ -14323,6 +15332,9 @@
     <n v="54"/>
     <n v="1011"/>
     <n v="9.51"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="3"/>
@@ -14337,6 +15349,9 @@
     <n v="82"/>
     <n v="1013"/>
     <n v="10.29"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="3"/>
@@ -14351,6 +15366,9 @@
     <n v="25"/>
     <n v="1010"/>
     <n v="4.16"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="3"/>
@@ -14365,6 +15383,9 @@
     <n v="58"/>
     <n v="1011"/>
     <n v="10.51"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
   <r>
     <x v="3"/>
@@ -14379,540 +15400,93 @@
     <n v="58"/>
     <n v="1012"/>
     <n v="9.77"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="sex"/>
+    <s v="13:53:13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="31.15"/>
+    <n v="30.07"/>
+    <n v="31.15"/>
+    <n v="38.15"/>
+    <n v="84"/>
+    <n v="1012"/>
+    <n v="9.77"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="sex"/>
+    <s v="13:53:13"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="36.1"/>
+    <n v="36.1"/>
+    <n v="36.1"/>
+    <n v="34.630000000000003"/>
+    <n v="22"/>
+    <n v="1010"/>
+    <n v="3.68"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="sex"/>
+    <s v="13:53:13"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="30.59"/>
+    <n v="30.59"/>
+    <n v="30.59"/>
+    <n v="32.32"/>
+    <n v="52"/>
+    <n v="1011"/>
+    <n v="9.35"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="sex"/>
+    <s v="13:53:13"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="29.8"/>
+    <n v="29.8"/>
+    <n v="29.8"/>
+    <n v="31.06"/>
+    <n v="52"/>
+    <n v="1011"/>
+    <n v="8.8699999999999992"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="50"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="P3:Q8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="126">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="15" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="M3:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="109">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="J3:K8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="148">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="G3:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="149">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="8" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8687F29-7BF0-4B13-9580-DBFA52DDFB57}" name="Velocidade Med. do Vento por Cidade" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A22:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="5" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Cidade" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Cidade" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="D3:E5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
+  <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="5">
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item h="1" x="0"/>
-        <item x="3"/>
+        <item h="1" x="3"/>
         <item h="1" x="1"/>
         <item t="default"/>
       </items>
@@ -14929,6 +15503,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -14987,10 +15564,240 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="R3:T9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+    <dataField name="Média de Limite humidade" fld="14" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="43">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="O3:P9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="44">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
+  <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15009,6 +15816,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -15039,7 +15849,7 @@
     <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="150">
+    <format dxfId="184">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15171,10 +15981,125 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Sesação Térmica Média por Cidade" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="K3:M9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Média de Limite sensação térmica" fld="13" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="45">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Sesação Térmica Média por Cidade" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
+  <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15193,6 +16118,9 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -15223,7 +16151,7 @@
     <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="151">
+    <format dxfId="185">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15355,10 +16283,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Temperatura Média por Cidade" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Temperatura Média por Cidade" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
+  <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15377,6 +16305,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -15407,7 +16338,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="152">
+    <format dxfId="186">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15653,6 +16584,264 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="G3:I9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Média de Limite temperatura" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="46">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8687F29-7BF0-4B13-9580-DBFA52DDFB57}" name="Velocidade Med. do Vento por Cidade" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="A22:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Cidade1" xr10:uid="{56041C7A-E755-493C-98FA-43971666E83C}" sourceName="Cidade">
   <pivotTables>
@@ -15665,9 +16854,9 @@
   <data>
     <tabular pivotCacheId="1524367137">
       <items count="4">
-        <i x="2"/>
+        <i x="2" s="1"/>
         <i x="0"/>
-        <i x="3" s="1"/>
+        <i x="3"/>
         <i x="1"/>
       </items>
     </tabular>
@@ -15682,44 +16871,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L17" headerRowDxfId="178" dataDxfId="177">
-  <autoFilter ref="A1:L17" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
-  <tableColumns count="12">
-    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="176" totalsRowDxfId="175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:O21" headerRowDxfId="207" dataDxfId="206">
+  <autoFilter ref="A1:O21" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
+  <tableColumns count="15">
+    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="205" totalsRowDxfId="204">
       <calculatedColumnFormula>[1]Sheet1!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="174" totalsRowDxfId="173">
+    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="203" totalsRowDxfId="202">
       <calculatedColumnFormula>[1]Sheet1!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="172" totalsRowDxfId="171">
+    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="201" totalsRowDxfId="200">
       <calculatedColumnFormula>[1]Sheet1!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="170" totalsRowDxfId="169">
+    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="199" totalsRowDxfId="198">
       <calculatedColumnFormula>[1]Sheet1!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="168" totalsRowDxfId="167">
+    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="197" totalsRowDxfId="196">
       <calculatedColumnFormula>[1]Sheet1!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="166" totalsRowDxfId="165">
+    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="195" totalsRowDxfId="194">
       <calculatedColumnFormula>[1]Sheet1!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="164" totalsRowDxfId="163">
+    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="181" totalsRowDxfId="193">
       <calculatedColumnFormula>[1]Sheet1!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="162" totalsRowDxfId="161">
+    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="180" totalsRowDxfId="192">
       <calculatedColumnFormula>[1]Sheet1!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="160" totalsRowDxfId="159">
+    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="179" totalsRowDxfId="191">
       <calculatedColumnFormula>[1]Sheet1!J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="158" totalsRowDxfId="157" dataCellStyle="Porcentagem">
+    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="190" totalsRowDxfId="189" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]Sheet1!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="156" totalsRowDxfId="155">
+    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="183" totalsRowDxfId="188">
       <calculatedColumnFormula>[1]Sheet1!L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="154" totalsRowDxfId="153">
+    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="182" totalsRowDxfId="187">
       <calculatedColumnFormula>[1]Sheet1!M2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{6DC545F6-9764-4ACD-8879-4D9A57FFAD6E}" name="Limite temperatura" dataDxfId="178" totalsRowDxfId="177"/>
+    <tableColumn id="14" xr3:uid="{0511098A-819D-44AA-B341-753EB09CAA83}" name="Limite sensação térmica" dataDxfId="176" totalsRowDxfId="175"/>
+    <tableColumn id="15" xr3:uid="{4EAA9A08-591C-4F7B-A21B-E9BC25ECB5D7}" name="Limite humidade" dataDxfId="141" totalsRowDxfId="140">
+      <calculatedColumnFormula>O1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16745,10 +17939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16765,9 +17959,12 @@
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16804,8 +18001,17 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>[1]Sheet1!B2</f>
         <v>09\09\24</v>
@@ -16850,12 +18056,21 @@
         <f>[1]Sheet1!L2</f>
         <v>1013</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="9">
         <f>[1]Sheet1!M2</f>
         <v>9.77</v>
       </c>
+      <c r="M2" s="4">
+        <v>35</v>
+      </c>
+      <c r="N2" s="4">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>[1]Sheet1!B3</f>
         <v>09\09\24</v>
@@ -16900,12 +18115,24 @@
         <f>[1]Sheet1!L3</f>
         <v>1011</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="9">
         <f>[1]Sheet1!M3</f>
         <v>3.85</v>
       </c>
+      <c r="M3" s="4">
+        <f>M2</f>
+        <v>35</v>
+      </c>
+      <c r="N3" s="4">
+        <f>N2</f>
+        <v>35</v>
+      </c>
+      <c r="O3" s="10">
+        <f>O2</f>
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>[1]Sheet1!B4</f>
         <v>09\09\24</v>
@@ -16950,12 +18177,24 @@
         <f>[1]Sheet1!L4</f>
         <v>1011</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="9">
         <f>[1]Sheet1!M4</f>
         <v>10.02</v>
       </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:O21" si="0">M3</f>
+        <v>35</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>[1]Sheet1!B5</f>
         <v>09\09\24</v>
@@ -17000,12 +18239,24 @@
         <f>[1]Sheet1!L5</f>
         <v>1012</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="9">
         <f>[1]Sheet1!M5</f>
         <v>9.6999999999999993</v>
       </c>
+      <c r="M5" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>[1]Sheet1!B6</f>
         <v>10\09\24</v>
@@ -17050,12 +18301,24 @@
         <f>[1]Sheet1!L6</f>
         <v>1012</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="9">
         <f>[1]Sheet1!M6</f>
         <v>8.23</v>
       </c>
+      <c r="M6" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>[1]Sheet1!B7</f>
         <v>10\09\24</v>
@@ -17100,12 +18363,24 @@
         <f>[1]Sheet1!L7</f>
         <v>1010</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="9">
         <f>[1]Sheet1!M7</f>
         <v>3.65</v>
       </c>
+      <c r="M7" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>[1]Sheet1!B8</f>
         <v>10\09\24</v>
@@ -17150,12 +18425,24 @@
         <f>[1]Sheet1!L8</f>
         <v>1011</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="9">
         <f>[1]Sheet1!M8</f>
         <v>9.9700000000000006</v>
       </c>
+      <c r="M8" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>[1]Sheet1!B9</f>
         <v>10\09\24</v>
@@ -17200,12 +18487,24 @@
         <f>[1]Sheet1!L9</f>
         <v>1011</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="9">
         <f>[1]Sheet1!M9</f>
         <v>9.4499999999999993</v>
       </c>
+      <c r="M9" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>[1]Sheet1!B10</f>
         <v>11\09\24</v>
@@ -17250,12 +18549,24 @@
         <f>[1]Sheet1!L10</f>
         <v>1012</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="9">
         <f>[1]Sheet1!M10</f>
         <v>8.75</v>
       </c>
+      <c r="M10" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>[1]Sheet1!B11</f>
         <v>11\09\24</v>
@@ -17300,12 +18611,24 @@
         <f>[1]Sheet1!L11</f>
         <v>1010</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="9">
         <f>[1]Sheet1!M11</f>
         <v>3.82</v>
       </c>
+      <c r="M11" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>[1]Sheet1!B12</f>
         <v>11\09\24</v>
@@ -17350,12 +18673,24 @@
         <f>[1]Sheet1!L12</f>
         <v>1010</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="9">
         <f>[1]Sheet1!M12</f>
         <v>9.94</v>
       </c>
+      <c r="M12" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>[1]Sheet1!B13</f>
         <v>11\09\24</v>
@@ -17400,12 +18735,24 @@
         <f>[1]Sheet1!L13</f>
         <v>1011</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="9">
         <f>[1]Sheet1!M13</f>
         <v>9.51</v>
       </c>
+      <c r="M13" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>[1]Sheet1!B14</f>
         <v>12\09\24</v>
@@ -17450,12 +18797,24 @@
         <f>[1]Sheet1!L14</f>
         <v>1013</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="9">
         <f>[1]Sheet1!M14</f>
         <v>10.29</v>
       </c>
+      <c r="M14" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>[1]Sheet1!B15</f>
         <v>12\09\24</v>
@@ -17500,12 +18859,24 @@
         <f>[1]Sheet1!L15</f>
         <v>1010</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="9">
         <f>[1]Sheet1!M15</f>
         <v>4.16</v>
       </c>
+      <c r="M15" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>[1]Sheet1!B16</f>
         <v>12\09\24</v>
@@ -17550,12 +18921,24 @@
         <f>[1]Sheet1!L16</f>
         <v>1011</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="9">
         <f>[1]Sheet1!M16</f>
         <v>10.51</v>
       </c>
+      <c r="M16" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>[1]Sheet1!B17</f>
         <v>12\09\24</v>
@@ -17600,12 +18983,287 @@
         <f>[1]Sheet1!L17</f>
         <v>1012</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="9">
         <f>[1]Sheet1!M17</f>
         <v>9.77</v>
       </c>
+      <c r="M17" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
+        <f>[1]Sheet1!B18</f>
+        <v>13\09\24</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>[1]Sheet1!C18</f>
+        <v>sex</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>[1]Sheet1!D18</f>
+        <v>13:53:13</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f>[1]Sheet1!E18</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>[1]Sheet1!F18</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F18" s="4">
+        <f>[1]Sheet1!G18</f>
+        <v>31.15</v>
+      </c>
+      <c r="G18" s="4">
+        <f>[1]Sheet1!H18</f>
+        <v>30.07</v>
+      </c>
+      <c r="H18" s="4">
+        <f>[1]Sheet1!I18</f>
+        <v>31.15</v>
+      </c>
+      <c r="I18" s="4">
+        <f>[1]Sheet1!J18</f>
+        <v>38.15</v>
+      </c>
+      <c r="J18" s="7">
+        <f>[1]Sheet1!K18</f>
+        <v>84</v>
+      </c>
+      <c r="K18" s="1">
+        <f>[1]Sheet1!L18</f>
+        <v>1012</v>
+      </c>
+      <c r="L18" s="9">
+        <f>[1]Sheet1!M18</f>
+        <v>9.77</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="str">
+        <f>[1]Sheet1!B19</f>
+        <v>13\09\24</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>[1]Sheet1!C19</f>
+        <v>sex</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>[1]Sheet1!D19</f>
+        <v>13:53:13</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f>[1]Sheet1!E19</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>[1]Sheet1!F19</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F19" s="4">
+        <f>[1]Sheet1!G19</f>
+        <v>36.1</v>
+      </c>
+      <c r="G19" s="4">
+        <f>[1]Sheet1!H19</f>
+        <v>36.1</v>
+      </c>
+      <c r="H19" s="4">
+        <f>[1]Sheet1!I19</f>
+        <v>36.1</v>
+      </c>
+      <c r="I19" s="4">
+        <f>[1]Sheet1!J19</f>
+        <v>34.630000000000003</v>
+      </c>
+      <c r="J19" s="7">
+        <f>[1]Sheet1!K19</f>
+        <v>22</v>
+      </c>
+      <c r="K19" s="1">
+        <f>[1]Sheet1!L19</f>
+        <v>1010</v>
+      </c>
+      <c r="L19" s="9">
+        <f>[1]Sheet1!M19</f>
+        <v>3.68</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="str">
+        <f>[1]Sheet1!B20</f>
+        <v>13\09\24</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>[1]Sheet1!C20</f>
+        <v>sex</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>[1]Sheet1!D20</f>
+        <v>13:53:13</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f>[1]Sheet1!E20</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>[1]Sheet1!F20</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F20" s="4">
+        <f>[1]Sheet1!G20</f>
+        <v>30.59</v>
+      </c>
+      <c r="G20" s="4">
+        <f>[1]Sheet1!H20</f>
+        <v>30.59</v>
+      </c>
+      <c r="H20" s="4">
+        <f>[1]Sheet1!I20</f>
+        <v>30.59</v>
+      </c>
+      <c r="I20" s="4">
+        <f>[1]Sheet1!J20</f>
+        <v>32.32</v>
+      </c>
+      <c r="J20" s="7">
+        <f>[1]Sheet1!K20</f>
+        <v>52</v>
+      </c>
+      <c r="K20" s="1">
+        <f>[1]Sheet1!L20</f>
+        <v>1011</v>
+      </c>
+      <c r="L20" s="9">
+        <f>[1]Sheet1!M20</f>
+        <v>9.35</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="str">
+        <f>[1]Sheet1!B21</f>
+        <v>13\09\24</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>[1]Sheet1!C21</f>
+        <v>sex</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>[1]Sheet1!D21</f>
+        <v>13:53:13</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f>[1]Sheet1!E21</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>[1]Sheet1!F21</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F21" s="4">
+        <f>[1]Sheet1!G21</f>
+        <v>29.8</v>
+      </c>
+      <c r="G21" s="4">
+        <f>[1]Sheet1!H21</f>
+        <v>29.8</v>
+      </c>
+      <c r="H21" s="4">
+        <f>[1]Sheet1!I21</f>
+        <v>29.8</v>
+      </c>
+      <c r="I21" s="4">
+        <f>[1]Sheet1!J21</f>
+        <v>31.06</v>
+      </c>
+      <c r="J21" s="7">
+        <f>[1]Sheet1!K21</f>
+        <v>52</v>
+      </c>
+      <c r="K21" s="1">
+        <f>[1]Sheet1!L21</f>
+        <v>1011</v>
+      </c>
+      <c r="L21" s="9">
+        <f>[1]Sheet1!M21</f>
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N21" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J2:J21">
+    <cfRule type="expression" dxfId="126" priority="5">
+      <formula>$J2&lt;=50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="expression" dxfId="125" priority="4">
+      <formula>$F2&gt;=35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I21">
+    <cfRule type="expression" dxfId="124" priority="1">
+      <formula>$I2&gt;=35</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -17614,429 +19272,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B6F8FC-46A2-4B7D-900C-4C6F1498AB62}">
-  <dimension ref="A1:Q27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5">
-        <v>30.39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5">
-        <v>30.770000000000003</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5">
-        <v>29.56</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="5">
-        <v>29.93</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="5">
-        <v>31.26</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="8">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5">
-        <v>36.6325</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="5">
-        <v>29.56</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="5">
-        <v>31.33</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="8">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5">
-        <v>31.838124999999998</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="5">
-        <v>29.27</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="5">
-        <v>30.57</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="8">
-        <v>9.51</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="5">
-        <v>29.48</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="5">
-        <v>31.53</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="8">
-        <v>9.77</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="5">
-        <v>29.56</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="5">
-        <v>31.172499999999999</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="8">
-        <v>9.6074999999999982</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
-        <v>32.357499999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
-        <v>36.58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5">
-        <v>31.172499999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5">
-        <v>35.515000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5">
-        <v>33.906249999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6">
-        <v>77.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6">
-        <v>52.3125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="6">
-        <v>10.11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="6">
-        <v>9.26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="6">
-        <v>9.6074999999999982</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="6">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="6">
-        <v>8.2118749999999991</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5901B3E-A3E8-4B5E-9369-35A4919B8B84}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18051,4 +19291,510 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B6F8FC-46A2-4B7D-900C-4C6F1498AB62}">
+  <dimension ref="A1:T27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5">
+        <v>30.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5">
+        <v>30.846000000000004</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>29.607999999999997</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5">
+        <v>30.77</v>
+      </c>
+      <c r="I4" s="5">
+        <v>35</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="5">
+        <v>32.43</v>
+      </c>
+      <c r="M4" s="5">
+        <v>35</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="8">
+        <v>10.02</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="8">
+        <v>51</v>
+      </c>
+      <c r="T4" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <v>36.525999999999996</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5">
+        <v>30.69</v>
+      </c>
+      <c r="I5" s="5">
+        <v>35</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="5">
+        <v>32.89</v>
+      </c>
+      <c r="M5" s="5">
+        <v>35</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="8">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="8">
+        <v>54</v>
+      </c>
+      <c r="T5" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5">
+        <v>31.852500000000003</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="5">
+        <v>30.29</v>
+      </c>
+      <c r="I6" s="5">
+        <v>35</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="5">
+        <v>32.01</v>
+      </c>
+      <c r="M6" s="5">
+        <v>35</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="8">
+        <v>9.94</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="8">
+        <v>53</v>
+      </c>
+      <c r="T6" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="5">
+        <v>29.81</v>
+      </c>
+      <c r="I7" s="5">
+        <v>35</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="5">
+        <v>32.1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>35</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="8">
+        <v>10.51</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="8">
+        <v>58</v>
+      </c>
+      <c r="T7" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5">
+        <v>30.59</v>
+      </c>
+      <c r="I8" s="5">
+        <v>35</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="5">
+        <v>32.32</v>
+      </c>
+      <c r="M8" s="5">
+        <v>35</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="8">
+        <v>9.35</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="8">
+        <v>52</v>
+      </c>
+      <c r="T8" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>32.349999999999994</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5">
+        <v>30.43</v>
+      </c>
+      <c r="I9" s="5">
+        <v>35</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="5">
+        <v>32.349999999999994</v>
+      </c>
+      <c r="M9" s="5">
+        <v>35</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="8">
+        <v>9.9580000000000002</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="8">
+        <v>53.6</v>
+      </c>
+      <c r="T9" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>36.893999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <v>31.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
+        <v>35.338000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
+        <v>33.932999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6">
+        <v>52.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6">
+        <v>9.9580000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="6">
+        <v>9.3620000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6">
+        <v>9.4599999999999973</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="6">
+        <v>3.8319999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="6">
+        <v>8.1530000000000022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF609B50-D081-45BA-9476-A4B22C03147C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383DD4A8-90A5-4A58-B5C8-20445308330D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
   <si>
     <t>Data</t>
   </si>
@@ -142,22 +142,7 @@
     <t>13\09\24</t>
   </si>
   <si>
-    <t>Limite sensação térmica</t>
-  </si>
-  <si>
-    <t>Limite temperatura</t>
-  </si>
-  <si>
-    <t>Limite humidade</t>
-  </si>
-  <si>
-    <t>Média de Limite temperatura</t>
-  </si>
-  <si>
-    <t>Média de Limite sensação térmica</t>
-  </si>
-  <si>
-    <t>Média de Limite humidade</t>
+    <t>14\09\24</t>
   </si>
 </sst>
 </file>
@@ -204,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,15 +210,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="208">
+  <dxfs count="181">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -245,51 +227,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -451,10 +388,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -607,6 +541,63 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color theme="5" tint="-0.499984740745262"/>
       </font>
@@ -637,61 +628,40 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -733,10 +703,7 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -748,16 +715,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -766,59 +724,11 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -837,9 +747,21 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1637,16 +1559,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30.43</c:v>
+                  <c:v>30.603333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.846000000000004</c:v>
+                  <c:v>30.618333333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.607999999999997</c:v>
+                  <c:v>29.896666666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.525999999999996</c:v>
+                  <c:v>36.241666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2711,16 +2633,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32.349999999999994</c:v>
+                  <c:v>32.528333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.893999999999998</c:v>
+                  <c:v>36.601666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.15</c:v>
+                  <c:v>31.421666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.338000000000001</c:v>
+                  <c:v>35.089999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,6 +3347,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="002060"/>
@@ -3685,6 +3608,7 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="002060"/>
@@ -3774,16 +3698,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>53.6</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.599999999999994</c:v>
+                  <c:v>78.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.4</c:v>
+                  <c:v>53.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.8</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4185,7 +4109,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:numFmt formatCode="General" sourceLinked="0"/>
+          <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="002060"/>
@@ -4445,7 +4369,7 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="002060"/>
@@ -4534,16 +4458,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.9580000000000002</c:v>
+                  <c:v>9.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3620000000000001</c:v>
+                  <c:v>9.6016666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4599999999999973</c:v>
+                  <c:v>9.3449999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8319999999999999</c:v>
+                  <c:v>3.8183333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5003,7 +4927,13 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:txPr>
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -5039,6 +4969,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -5170,7 +5103,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Média de Teperatura</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5219,7 +5152,13 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -5270,9 +5209,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$G$4:$G$9</c:f>
+              <c:f>'Tabelas dinâmicas'!$G$4:$G$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -5288,29 +5227,35 @@
                 <c:pt idx="4">
                   <c:v>13\09\24</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>14\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$H$4:$H$9</c:f>
+              <c:f>'Tabelas dinâmicas'!$H$4:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30.77</c:v>
+                  <c:v>29.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.69</c:v>
+                  <c:v>29.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.29</c:v>
+                  <c:v>29.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.81</c:v>
+                  <c:v>29.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.59</c:v>
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5319,147 +5264,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DC56-4CFE-8033-78827FCC69DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$I$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Média de Limite temperatura</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:alpha val="99000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="&quot; &quot;" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$G$4:$G$9</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>09\09\24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10\09\24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11\09\24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12\09\24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13\09\24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$I$4:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4A4A-4E99-8798-4379D465A3F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5966,6 +5770,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6100,7 +5907,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Média de Sensação térmica</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6206,9 +6013,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$K$4:$K$9</c:f>
+              <c:f>'Tabelas dinâmicas'!$K$4:$K$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -6224,29 +6031,35 @@
                 <c:pt idx="4">
                   <c:v>13\09\24</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>14\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$L$4:$L$9</c:f>
+              <c:f>'Tabelas dinâmicas'!$L$4:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.43</c:v>
+                  <c:v>31.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.89</c:v>
+                  <c:v>31.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.01</c:v>
+                  <c:v>30.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.1</c:v>
+                  <c:v>31.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.32</c:v>
+                  <c:v>31.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6255,86 +6068,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-82C4-4F5F-8AFA-DFDE92155BF4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$M$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Média de Limite sensação térmica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$K$4:$K$9</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>09\09\24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10\09\24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11\09\24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12\09\24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13\09\24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$M$4:$M$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-86A1-4570-8D7E-15510233A746}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7023,9 +6756,7 @@
         <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF">
-              <a:lumMod val="50000"/>
-            </a:sysClr>
+            <a:srgbClr val="FFFF00"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -7167,7 +6898,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7702,6 +7433,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -7887,9 +7621,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$O$4:$O$9</c:f>
+              <c:f>'Tabelas dinâmicas'!$O$4:$O$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -7905,29 +7639,35 @@
                 <c:pt idx="4">
                   <c:v>13\09\24</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>14\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$P$4:$P$9</c:f>
+              <c:f>'Tabelas dinâmicas'!$P$4:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.02</c:v>
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9700000000000006</c:v>
+                  <c:v>9.4499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.94</c:v>
+                  <c:v>9.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.51</c:v>
+                  <c:v>9.77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.35</c:v>
+                  <c:v>8.8699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8541,7 +8281,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Média de Humidade do ar</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8647,9 +8387,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$R$4:$R$9</c:f>
+              <c:f>'Tabelas dinâmicas'!$R$4:$R$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -8665,29 +8405,35 @@
                 <c:pt idx="4">
                   <c:v>13\09\24</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>14\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$S$4:$S$9</c:f>
+              <c:f>'Tabelas dinâmicas'!$S$4:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8696,86 +8442,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2D2D-46CC-A1E9-4B6C4E6CCC34}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$T$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Média de Limite humidade</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$R$4:$R$9</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>09\09\24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10\09\24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11\09\24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12\09\24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13\09\24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$T$4:$T$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C159-4D65-8F10-031DE3E876A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15050,6 +14716,158 @@
             <v>8.8699999999999992</v>
           </cell>
         </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>14\09\24</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>12:12:58</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G22">
+            <v>29.48</v>
+          </cell>
+          <cell r="H22">
+            <v>27.34</v>
+          </cell>
+          <cell r="I22">
+            <v>30.07</v>
+          </cell>
+          <cell r="J22">
+            <v>35.14</v>
+          </cell>
+          <cell r="K22">
+            <v>76</v>
+          </cell>
+          <cell r="L22">
+            <v>1014</v>
+          </cell>
+          <cell r="M22">
+            <v>10.8</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>14\09\24</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>12:12:58</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G23">
+            <v>34.82</v>
+          </cell>
+          <cell r="H23">
+            <v>34.82</v>
+          </cell>
+          <cell r="I23">
+            <v>34.82</v>
+          </cell>
+          <cell r="J23">
+            <v>33.85</v>
+          </cell>
+          <cell r="K23">
+            <v>27</v>
+          </cell>
+          <cell r="L23">
+            <v>1012</v>
+          </cell>
+          <cell r="M23">
+            <v>3.75</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>14\09\24</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>12:12:58</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G24">
+            <v>31.47</v>
+          </cell>
+          <cell r="H24">
+            <v>31.47</v>
+          </cell>
+          <cell r="I24">
+            <v>31.47</v>
+          </cell>
+          <cell r="J24">
+            <v>33.42</v>
+          </cell>
+          <cell r="K24">
+            <v>50</v>
+          </cell>
+          <cell r="L24">
+            <v>1012</v>
+          </cell>
+          <cell r="M24">
+            <v>8.23</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>14\09\24</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>12:12:58</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G25">
+            <v>31.34</v>
+          </cell>
+          <cell r="H25">
+            <v>31.34</v>
+          </cell>
+          <cell r="I25">
+            <v>31.34</v>
+          </cell>
+          <cell r="J25">
+            <v>32.78</v>
+          </cell>
+          <cell r="K25">
+            <v>48</v>
+          </cell>
+          <cell r="L25">
+            <v>1012</v>
+          </cell>
+          <cell r="M25">
+            <v>8.77</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -15057,18 +14875,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45548.632580324076" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="20" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45549.510233217596" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="24" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
   <cacheSource type="worksheet">
     <worksheetSource name="Monitoramento_Clima"/>
   </cacheSource>
-  <cacheFields count="15">
+  <cacheFields count="12">
     <cacheField name="Data" numFmtId="0">
-      <sharedItems count="5">
+      <sharedItems count="6">
         <s v="09\09\24"/>
         <s v="10\09\24"/>
         <s v="11\09\24"/>
         <s v="12\09\24"/>
         <s v="13\09\24"/>
+        <s v="14\09\24"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Dia da semana" numFmtId="0">
@@ -15107,19 +14926,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21" maxValue="84"/>
     </cacheField>
     <cacheField name="Pressão atmosférica" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1010" maxValue="1013"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1010" maxValue="1014"/>
     </cacheField>
     <cacheField name="Velocidade do vento" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.65" maxValue="10.51"/>
-    </cacheField>
-    <cacheField name="Limite temperatura" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="35" maxValue="35"/>
-    </cacheField>
-    <cacheField name="Limite sensação térmica" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="35" maxValue="35"/>
-    </cacheField>
-    <cacheField name="Limite humidade" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="50"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.65" maxValue="10.8"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -15131,7 +14941,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="24">
   <r>
     <x v="0"/>
     <s v="seg"/>
@@ -15145,9 +14955,6 @@
     <n v="83"/>
     <n v="1013"/>
     <n v="9.77"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="0"/>
@@ -15162,9 +14969,6 @@
     <n v="21"/>
     <n v="1011"/>
     <n v="3.85"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="0"/>
@@ -15179,9 +14983,6 @@
     <n v="51"/>
     <n v="1011"/>
     <n v="10.02"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="0"/>
@@ -15196,9 +14997,6 @@
     <n v="52"/>
     <n v="1012"/>
     <n v="9.6999999999999993"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="1"/>
@@ -15213,9 +15011,6 @@
     <n v="61"/>
     <n v="1012"/>
     <n v="8.23"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="1"/>
@@ -15230,9 +15025,6 @@
     <n v="23"/>
     <n v="1010"/>
     <n v="3.65"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="1"/>
@@ -15247,9 +15039,6 @@
     <n v="54"/>
     <n v="1011"/>
     <n v="9.9700000000000006"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="1"/>
@@ -15264,9 +15053,6 @@
     <n v="56"/>
     <n v="1011"/>
     <n v="9.4499999999999993"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="2"/>
@@ -15281,9 +15067,6 @@
     <n v="83"/>
     <n v="1012"/>
     <n v="8.75"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="2"/>
@@ -15298,9 +15081,6 @@
     <n v="23"/>
     <n v="1010"/>
     <n v="3.82"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="2"/>
@@ -15315,9 +15095,6 @@
     <n v="53"/>
     <n v="1010"/>
     <n v="9.94"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="2"/>
@@ -15332,9 +15109,6 @@
     <n v="54"/>
     <n v="1011"/>
     <n v="9.51"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="3"/>
@@ -15349,9 +15123,6 @@
     <n v="82"/>
     <n v="1013"/>
     <n v="10.29"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="3"/>
@@ -15366,9 +15137,6 @@
     <n v="25"/>
     <n v="1010"/>
     <n v="4.16"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="3"/>
@@ -15383,9 +15151,6 @@
     <n v="58"/>
     <n v="1011"/>
     <n v="10.51"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="3"/>
@@ -15400,9 +15165,6 @@
     <n v="58"/>
     <n v="1012"/>
     <n v="9.77"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="4"/>
@@ -15417,9 +15179,6 @@
     <n v="84"/>
     <n v="1012"/>
     <n v="9.77"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="4"/>
@@ -15434,9 +15193,6 @@
     <n v="22"/>
     <n v="1010"/>
     <n v="3.68"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="4"/>
@@ -15451,9 +15207,6 @@
     <n v="52"/>
     <n v="1011"/>
     <n v="9.35"/>
-    <n v="35"/>
-    <n v="35"/>
-    <n v="50"/>
   </r>
   <r>
     <x v="4"/>
@@ -15468,336 +15221,70 @@
     <n v="52"/>
     <n v="1011"/>
     <n v="8.8699999999999992"/>
-    <n v="35"/>
-    <n v="35"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="sÃ¡b"/>
+    <s v="12:12:58"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="29.48"/>
+    <n v="27.34"/>
+    <n v="30.07"/>
+    <n v="35.14"/>
+    <n v="76"/>
+    <n v="1014"/>
+    <n v="10.8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="sÃ¡b"/>
+    <s v="12:12:58"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="34.82"/>
+    <n v="34.82"/>
+    <n v="34.82"/>
+    <n v="33.85"/>
+    <n v="27"/>
+    <n v="1012"/>
+    <n v="3.75"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="sÃ¡b"/>
+    <s v="12:12:58"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="31.47"/>
+    <n v="31.47"/>
+    <n v="31.47"/>
+    <n v="33.42"/>
     <n v="50"/>
+    <n v="1012"/>
+    <n v="8.23"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="sÃ¡b"/>
+    <s v="12:12:58"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="31.34"/>
+    <n v="31.34"/>
+    <n v="31.34"/>
+    <n v="32.78"/>
+    <n v="48"/>
+    <n v="1012"/>
+    <n v="8.77"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Cidade" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="D3:E5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Contagem de Status" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="7" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="R3:T9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-    <dataField name="Média de Limite humidade" fld="14" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="43">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="15" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="O3:P9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="44">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
+  <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15816,9 +15303,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -15849,7 +15333,7 @@
     <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="184">
+    <format dxfId="148">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15981,17 +15465,18 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="K3:M9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="15">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="K3:L10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15999,9 +15484,9 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="5">
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item h="1" x="1"/>
         <item t="default"/>
       </items>
@@ -16014,14 +15499,11 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -16037,48 +15519,33 @@
     <i>
       <x v="4"/>
     </i>
+    <i>
+      <x v="5"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <pageFields count="1">
     <pageField fld="3" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
+  <dataFields count="1">
     <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Média de Limite sensação térmica" fld="13" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="45">
+    <format dxfId="149">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="2">
+  <chartFormats count="1">
     <chartFormat chart="5" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -16096,10 +15563,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Sesação Térmica Média por Cidade" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Sesação Térmica Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
+  <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16118,9 +15585,6 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -16151,7 +15615,7 @@
     <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="185">
+    <format dxfId="150">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16283,10 +15747,212 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Temperatura Média por Cidade" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="D3:E5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de Status" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="7" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="R3:S10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="151">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Temperatura Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
+  <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16305,9 +15971,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -16338,7 +16001,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="186">
+    <format dxfId="152">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16584,17 +16247,18 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="G3:I9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="15">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="O3:P10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16602,29 +16266,26 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="5">
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -16640,35 +16301,29 @@
     <i>
       <x v="4"/>
     </i>
+    <i>
+      <x v="5"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <pageFields count="1">
     <pageField fld="3" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Média de Limite temperatura" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="46">
+    <format dxfId="153">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="2">
-    <chartFormat chart="8" format="2" series="1">
+  <chartFormats count="1">
+    <chartFormat chart="4" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -16677,11 +16332,100 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="8" format="4" series="1">
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="G3:H10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="154">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="8" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -16700,9 +16444,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8687F29-7BF0-4B13-9580-DBFA52DDFB57}" name="Velocidade Med. do Vento por Cidade" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8687F29-7BF0-4B13-9580-DBFA52DDFB57}" name="Velocidade Med. do Vento por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A22:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
+  <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16723,9 +16467,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -16854,9 +16595,9 @@
   <data>
     <tabular pivotCacheId="1524367137">
       <items count="4">
-        <i x="2" s="1"/>
+        <i x="2"/>
         <i x="0"/>
-        <i x="3"/>
+        <i x="3" s="1"/>
         <i x="1"/>
       </items>
     </tabular>
@@ -16871,49 +16612,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:O21" headerRowDxfId="207" dataDxfId="206">
-  <autoFilter ref="A1:O21" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
-  <tableColumns count="15">
-    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="205" totalsRowDxfId="204">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L25" headerRowDxfId="180" dataDxfId="179">
+  <autoFilter ref="A1:L25" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
+  <tableColumns count="12">
+    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="178" totalsRowDxfId="177">
       <calculatedColumnFormula>[1]Sheet1!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="203" totalsRowDxfId="202">
+    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="176" totalsRowDxfId="175">
       <calculatedColumnFormula>[1]Sheet1!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="201" totalsRowDxfId="200">
+    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="174" totalsRowDxfId="173">
       <calculatedColumnFormula>[1]Sheet1!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="199" totalsRowDxfId="198">
+    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="172" totalsRowDxfId="171">
       <calculatedColumnFormula>[1]Sheet1!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="197" totalsRowDxfId="196">
+    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="170" totalsRowDxfId="169">
       <calculatedColumnFormula>[1]Sheet1!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="195" totalsRowDxfId="194">
+    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="168" totalsRowDxfId="167">
       <calculatedColumnFormula>[1]Sheet1!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="181" totalsRowDxfId="193">
+    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="166" totalsRowDxfId="165">
       <calculatedColumnFormula>[1]Sheet1!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="180" totalsRowDxfId="192">
+    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="164" totalsRowDxfId="163">
       <calculatedColumnFormula>[1]Sheet1!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="179" totalsRowDxfId="191">
+    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="162" totalsRowDxfId="161">
       <calculatedColumnFormula>[1]Sheet1!J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="190" totalsRowDxfId="189" dataCellStyle="Porcentagem">
+    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="160" totalsRowDxfId="159" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]Sheet1!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="183" totalsRowDxfId="188">
+    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="158" totalsRowDxfId="157">
       <calculatedColumnFormula>[1]Sheet1!L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="182" totalsRowDxfId="187">
+    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="156" totalsRowDxfId="155">
       <calculatedColumnFormula>[1]Sheet1!M2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{6DC545F6-9764-4ACD-8879-4D9A57FFAD6E}" name="Limite temperatura" dataDxfId="178" totalsRowDxfId="177"/>
-    <tableColumn id="14" xr3:uid="{0511098A-819D-44AA-B341-753EB09CAA83}" name="Limite sensação térmica" dataDxfId="176" totalsRowDxfId="175"/>
-    <tableColumn id="15" xr3:uid="{4EAA9A08-591C-4F7B-A21B-E9BC25ECB5D7}" name="Limite humidade" dataDxfId="141" totalsRowDxfId="140">
-      <calculatedColumnFormula>O1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -17939,10 +17675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17959,12 +17695,9 @@
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18001,17 +17734,8 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>[1]Sheet1!B2</f>
         <v>09\09\24</v>
@@ -18060,17 +17784,8 @@
         <f>[1]Sheet1!M2</f>
         <v>9.77</v>
       </c>
-      <c r="M2" s="4">
-        <v>35</v>
-      </c>
-      <c r="N2" s="4">
-        <v>35</v>
-      </c>
-      <c r="O2" s="1">
-        <v>50</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>[1]Sheet1!B3</f>
         <v>09\09\24</v>
@@ -18119,20 +17834,8 @@
         <f>[1]Sheet1!M3</f>
         <v>3.85</v>
       </c>
-      <c r="M3" s="4">
-        <f>M2</f>
-        <v>35</v>
-      </c>
-      <c r="N3" s="4">
-        <f>N2</f>
-        <v>35</v>
-      </c>
-      <c r="O3" s="10">
-        <f>O2</f>
-        <v>50</v>
-      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>[1]Sheet1!B4</f>
         <v>09\09\24</v>
@@ -18181,20 +17884,8 @@
         <f>[1]Sheet1!M4</f>
         <v>10.02</v>
       </c>
-      <c r="M4" s="4">
-        <f t="shared" ref="M4:O21" si="0">M3</f>
-        <v>35</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O4" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>[1]Sheet1!B5</f>
         <v>09\09\24</v>
@@ -18243,20 +17934,8 @@
         <f>[1]Sheet1!M5</f>
         <v>9.6999999999999993</v>
       </c>
-      <c r="M5" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O5" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>[1]Sheet1!B6</f>
         <v>10\09\24</v>
@@ -18305,20 +17984,8 @@
         <f>[1]Sheet1!M6</f>
         <v>8.23</v>
       </c>
-      <c r="M6" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O6" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>[1]Sheet1!B7</f>
         <v>10\09\24</v>
@@ -18367,20 +18034,8 @@
         <f>[1]Sheet1!M7</f>
         <v>3.65</v>
       </c>
-      <c r="M7" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>[1]Sheet1!B8</f>
         <v>10\09\24</v>
@@ -18429,20 +18084,8 @@
         <f>[1]Sheet1!M8</f>
         <v>9.9700000000000006</v>
       </c>
-      <c r="M8" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O8" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>[1]Sheet1!B9</f>
         <v>10\09\24</v>
@@ -18491,20 +18134,8 @@
         <f>[1]Sheet1!M9</f>
         <v>9.4499999999999993</v>
       </c>
-      <c r="M9" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O9" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>[1]Sheet1!B10</f>
         <v>11\09\24</v>
@@ -18553,20 +18184,8 @@
         <f>[1]Sheet1!M10</f>
         <v>8.75</v>
       </c>
-      <c r="M10" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>[1]Sheet1!B11</f>
         <v>11\09\24</v>
@@ -18615,20 +18234,8 @@
         <f>[1]Sheet1!M11</f>
         <v>3.82</v>
       </c>
-      <c r="M11" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>[1]Sheet1!B12</f>
         <v>11\09\24</v>
@@ -18677,20 +18284,8 @@
         <f>[1]Sheet1!M12</f>
         <v>9.94</v>
       </c>
-      <c r="M12" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>[1]Sheet1!B13</f>
         <v>11\09\24</v>
@@ -18739,20 +18334,8 @@
         <f>[1]Sheet1!M13</f>
         <v>9.51</v>
       </c>
-      <c r="M13" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>[1]Sheet1!B14</f>
         <v>12\09\24</v>
@@ -18801,20 +18384,8 @@
         <f>[1]Sheet1!M14</f>
         <v>10.29</v>
       </c>
-      <c r="M14" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>[1]Sheet1!B15</f>
         <v>12\09\24</v>
@@ -18863,20 +18434,8 @@
         <f>[1]Sheet1!M15</f>
         <v>4.16</v>
       </c>
-      <c r="M15" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>[1]Sheet1!B16</f>
         <v>12\09\24</v>
@@ -18925,20 +18484,8 @@
         <f>[1]Sheet1!M16</f>
         <v>10.51</v>
       </c>
-      <c r="M16" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>[1]Sheet1!B17</f>
         <v>12\09\24</v>
@@ -18987,20 +18534,8 @@
         <f>[1]Sheet1!M17</f>
         <v>9.77</v>
       </c>
-      <c r="M17" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O17" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>[1]Sheet1!B18</f>
         <v>13\09\24</v>
@@ -19049,20 +18584,8 @@
         <f>[1]Sheet1!M18</f>
         <v>9.77</v>
       </c>
-      <c r="M18" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>[1]Sheet1!B19</f>
         <v>13\09\24</v>
@@ -19111,20 +18634,8 @@
         <f>[1]Sheet1!M19</f>
         <v>3.68</v>
       </c>
-      <c r="M19" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f>[1]Sheet1!B20</f>
         <v>13\09\24</v>
@@ -19173,20 +18684,8 @@
         <f>[1]Sheet1!M20</f>
         <v>9.35</v>
       </c>
-      <c r="M20" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f>[1]Sheet1!B21</f>
         <v>13\09\24</v>
@@ -19235,32 +18734,220 @@
         <f>[1]Sheet1!M21</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="M21" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="N21" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="str">
+        <f>[1]Sheet1!B22</f>
+        <v>14\09\24</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>[1]Sheet1!C22</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>[1]Sheet1!D22</f>
+        <v>12:12:58</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f>[1]Sheet1!E22</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>[1]Sheet1!F22</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F22" s="4">
+        <f>[1]Sheet1!G22</f>
+        <v>29.48</v>
+      </c>
+      <c r="G22" s="4">
+        <f>[1]Sheet1!H22</f>
+        <v>27.34</v>
+      </c>
+      <c r="H22" s="4">
+        <f>[1]Sheet1!I22</f>
+        <v>30.07</v>
+      </c>
+      <c r="I22" s="4">
+        <f>[1]Sheet1!J22</f>
+        <v>35.14</v>
+      </c>
+      <c r="J22" s="7">
+        <f>[1]Sheet1!K22</f>
+        <v>76</v>
+      </c>
+      <c r="K22" s="1">
+        <f>[1]Sheet1!L22</f>
+        <v>1014</v>
+      </c>
+      <c r="L22" s="9">
+        <f>[1]Sheet1!M22</f>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="str">
+        <f>[1]Sheet1!B23</f>
+        <v>14\09\24</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>[1]Sheet1!C23</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>[1]Sheet1!D23</f>
+        <v>12:12:58</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f>[1]Sheet1!E23</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>[1]Sheet1!F23</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F23" s="4">
+        <f>[1]Sheet1!G23</f>
+        <v>34.82</v>
+      </c>
+      <c r="G23" s="4">
+        <f>[1]Sheet1!H23</f>
+        <v>34.82</v>
+      </c>
+      <c r="H23" s="4">
+        <f>[1]Sheet1!I23</f>
+        <v>34.82</v>
+      </c>
+      <c r="I23" s="4">
+        <f>[1]Sheet1!J23</f>
+        <v>33.85</v>
+      </c>
+      <c r="J23" s="7">
+        <f>[1]Sheet1!K23</f>
+        <v>27</v>
+      </c>
+      <c r="K23" s="1">
+        <f>[1]Sheet1!L23</f>
+        <v>1012</v>
+      </c>
+      <c r="L23" s="9">
+        <f>[1]Sheet1!M23</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="str">
+        <f>[1]Sheet1!B24</f>
+        <v>14\09\24</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>[1]Sheet1!C24</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>[1]Sheet1!D24</f>
+        <v>12:12:58</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>[1]Sheet1!E24</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>[1]Sheet1!F24</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F24" s="4">
+        <f>[1]Sheet1!G24</f>
+        <v>31.47</v>
+      </c>
+      <c r="G24" s="4">
+        <f>[1]Sheet1!H24</f>
+        <v>31.47</v>
+      </c>
+      <c r="H24" s="4">
+        <f>[1]Sheet1!I24</f>
+        <v>31.47</v>
+      </c>
+      <c r="I24" s="4">
+        <f>[1]Sheet1!J24</f>
+        <v>33.42</v>
+      </c>
+      <c r="J24" s="7">
+        <f>[1]Sheet1!K24</f>
         <v>50</v>
+      </c>
+      <c r="K24" s="1">
+        <f>[1]Sheet1!L24</f>
+        <v>1012</v>
+      </c>
+      <c r="L24" s="9">
+        <f>[1]Sheet1!M24</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="str">
+        <f>[1]Sheet1!B25</f>
+        <v>14\09\24</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>[1]Sheet1!C25</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>[1]Sheet1!D25</f>
+        <v>12:12:58</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>[1]Sheet1!E25</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>[1]Sheet1!F25</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F25" s="4">
+        <f>[1]Sheet1!G25</f>
+        <v>31.34</v>
+      </c>
+      <c r="G25" s="4">
+        <f>[1]Sheet1!H25</f>
+        <v>31.34</v>
+      </c>
+      <c r="H25" s="4">
+        <f>[1]Sheet1!I25</f>
+        <v>31.34</v>
+      </c>
+      <c r="I25" s="4">
+        <f>[1]Sheet1!J25</f>
+        <v>32.78</v>
+      </c>
+      <c r="J25" s="7">
+        <f>[1]Sheet1!K25</f>
+        <v>48</v>
+      </c>
+      <c r="K25" s="1">
+        <f>[1]Sheet1!L25</f>
+        <v>1012</v>
+      </c>
+      <c r="L25" s="9">
+        <f>[1]Sheet1!M25</f>
+        <v>8.77</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J21">
-    <cfRule type="expression" dxfId="126" priority="5">
+  <conditionalFormatting sqref="J2:J25">
+    <cfRule type="expression" dxfId="132" priority="5">
       <formula>$J2&lt;=50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F21">
-    <cfRule type="expression" dxfId="125" priority="4">
+  <conditionalFormatting sqref="F2:F25">
+    <cfRule type="expression" dxfId="131" priority="4">
       <formula>$F2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I21">
-    <cfRule type="expression" dxfId="124" priority="1">
+  <conditionalFormatting sqref="I2:I25">
+    <cfRule type="expression" dxfId="130" priority="1">
       <formula>$I2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19276,7 +18963,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19295,10 +18982,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B6F8FC-46A2-4B7D-900C-4C6F1498AB62}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q55"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19321,7 +19008,7 @@
     <col min="20" max="20" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -19332,47 +19019,47 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>30.43</v>
+        <v>30.603333333333335</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="5">
-        <v>30.846000000000004</v>
+        <v>30.618333333333336</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -19386,18 +19073,12 @@
       <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
       <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
       <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
@@ -19410,169 +19091,133 @@
       <c r="S3" t="s">
         <v>20</v>
       </c>
-      <c r="T3" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>29.607999999999997</v>
+        <v>29.896666666666665</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5">
-        <v>30.77</v>
-      </c>
-      <c r="I4" s="5">
-        <v>35</v>
+        <v>29.93</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="5">
-        <v>32.43</v>
-      </c>
-      <c r="M4" s="5">
-        <v>35</v>
+        <v>31.26</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="8">
-        <v>10.02</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="S4" s="8">
-        <v>51</v>
-      </c>
-      <c r="T4" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>36.525999999999996</v>
+        <v>36.241666666666667</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="5">
-        <v>30.69</v>
-      </c>
-      <c r="I5" s="5">
-        <v>35</v>
+        <v>29.56</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="5">
-        <v>32.89</v>
-      </c>
-      <c r="M5" s="5">
-        <v>35</v>
+        <v>31.33</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P5" s="8">
-        <v>9.9700000000000006</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="S5" s="8">
-        <v>54</v>
-      </c>
-      <c r="T5" s="8">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="5">
-        <v>31.852500000000003</v>
+        <v>31.840000000000003</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="5">
-        <v>30.29</v>
-      </c>
-      <c r="I6" s="5">
-        <v>35</v>
+        <v>29.27</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="5">
-        <v>32.01</v>
-      </c>
-      <c r="M6" s="5">
-        <v>35</v>
+        <v>30.57</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P6" s="8">
-        <v>9.94</v>
+        <v>9.51</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="S6" s="8">
-        <v>53</v>
-      </c>
-      <c r="T6" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="5">
-        <v>29.81</v>
-      </c>
-      <c r="I7" s="5">
-        <v>35</v>
+        <v>29.48</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="5">
-        <v>32.1</v>
-      </c>
-      <c r="M7" s="5">
-        <v>35</v>
+        <v>31.53</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="8">
-        <v>10.51</v>
+        <v>9.77</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>27</v>
@@ -19580,11 +19225,8 @@
       <c r="S7" s="8">
         <v>58</v>
       </c>
-      <c r="T7" s="8">
-        <v>50</v>
-      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -19595,25 +19237,19 @@
         <v>28</v>
       </c>
       <c r="H8" s="5">
-        <v>30.59</v>
-      </c>
-      <c r="I8" s="5">
-        <v>35</v>
+        <v>29.8</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="5">
-        <v>32.32</v>
-      </c>
-      <c r="M8" s="5">
-        <v>35</v>
+        <v>31.06</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P8" s="8">
-        <v>9.35</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>28</v>
@@ -19621,84 +19257,96 @@
       <c r="S8" s="8">
         <v>52</v>
       </c>
-      <c r="T8" s="8">
-        <v>50</v>
-      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5">
-        <v>32.349999999999994</v>
+        <v>32.528333333333329</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H9" s="5">
-        <v>30.43</v>
-      </c>
-      <c r="I9" s="5">
-        <v>35</v>
+        <v>31.34</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L9" s="5">
-        <v>32.349999999999994</v>
-      </c>
-      <c r="M9" s="5">
-        <v>35</v>
+        <v>32.78</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="P9" s="8">
-        <v>9.9580000000000002</v>
+        <v>8.77</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="S9" s="8">
-        <v>53.6</v>
-      </c>
-      <c r="T9" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="5">
-        <v>36.893999999999998</v>
+        <v>36.601666666666667</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="5">
+        <v>29.896666666666665</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="5">
+        <v>31.421666666666667</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="8">
+        <v>9.3449999999999989</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="8">
+        <v>53.333333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="5">
-        <v>31.15</v>
+        <v>31.421666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="5">
-        <v>35.338000000000001</v>
+        <v>35.089999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="5">
-        <v>33.932999999999993</v>
+        <v>33.910416666666656</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -19706,12 +19354,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="6">
-        <v>53.6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -19719,7 +19367,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>78.599999999999994</v>
+        <v>78.166666666666671</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -19727,7 +19375,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6">
-        <v>54.4</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -19735,7 +19383,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -19743,7 +19391,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6">
-        <v>52.35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -19759,7 +19407,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>9.9580000000000002</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -19767,7 +19415,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="6">
-        <v>9.3620000000000001</v>
+        <v>9.6016666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -19775,7 +19423,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="6">
-        <v>9.4599999999999973</v>
+        <v>9.3449999999999989</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -19783,7 +19431,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="6">
-        <v>3.8319999999999999</v>
+        <v>3.8183333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -19791,7 +19439,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="6">
-        <v>8.1530000000000022</v>
+        <v>8.1087500000000006</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383DD4A8-90A5-4A58-B5C8-20445308330D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36987031-DC41-4C93-AACA-7116CF925BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
   <si>
     <t>Data</t>
   </si>
@@ -144,6 +144,12 @@
   <si>
     <t>14\09\24</t>
   </si>
+  <si>
+    <t>15\09\24</t>
+  </si>
+  <si>
+    <t>algumas nuvens</t>
+  </si>
 </sst>
 </file>
 
@@ -215,247 +221,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="181">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
+  <dxfs count="86">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -580,9 +346,6 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
@@ -592,10 +355,13 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -628,76 +394,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -709,16 +406,10 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -806,6 +497,36 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1559,16 +1280,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30.603333333333335</c:v>
+                  <c:v>30.465714285714284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.618333333333336</c:v>
+                  <c:v>30.535714285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.896666666666665</c:v>
+                  <c:v>29.788571428571426</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.241666666666667</c:v>
+                  <c:v>36.424285714285716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2633,16 +2354,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32.528333333333329</c:v>
+                  <c:v>32.449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.601666666666667</c:v>
+                  <c:v>36.664285714285718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.421666666666667</c:v>
+                  <c:v>31.377142857142854</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.089999999999996</c:v>
+                  <c:v>35.198571428571427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3698,16 +3419,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>53.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.166666666666671</c:v>
+                  <c:v>80.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.333333333333336</c:v>
+                  <c:v>54.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.5</c:v>
+                  <c:v>22.857142857142858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4458,16 +4179,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.67</c:v>
+                  <c:v>9.6814285714285706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6016666666666666</c:v>
+                  <c:v>9.4057142857142857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3449999999999989</c:v>
+                  <c:v>9.2542857142857144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8183333333333334</c:v>
+                  <c:v>3.8185714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5031,6 +4752,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent2">
@@ -5209,9 +4933,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$G$4:$G$10</c:f>
+              <c:f>'Tabelas dinâmicas'!$G$4:$G$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -5230,32 +4954,38 @@
                 <c:pt idx="5">
                   <c:v>14\09\24</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>15\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$H$4:$H$10</c:f>
+              <c:f>'Tabelas dinâmicas'!$H$4:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>29.93</c:v>
+                  <c:v>36.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.56</c:v>
+                  <c:v>36.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.27</c:v>
+                  <c:v>36.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.48</c:v>
+                  <c:v>36.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.8</c:v>
+                  <c:v>36.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.34</c:v>
+                  <c:v>34.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.520000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5839,6 +5569,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -6013,9 +5746,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$K$4:$K$10</c:f>
+              <c:f>'Tabelas dinâmicas'!$K$4:$K$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -6034,32 +5767,38 @@
                 <c:pt idx="5">
                   <c:v>14\09\24</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>15\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$L$4:$L$10</c:f>
+              <c:f>'Tabelas dinâmicas'!$L$4:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>31.26</c:v>
+                  <c:v>34.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.33</c:v>
+                  <c:v>35.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.57</c:v>
+                  <c:v>35.840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.53</c:v>
+                  <c:v>35.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.06</c:v>
+                  <c:v>34.630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.78</c:v>
+                  <c:v>33.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6811,6 +6550,21 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-A034-4826-9617-29E2518F6D20}"/>
@@ -6882,10 +6636,13 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$D$4:$D$5</c:f>
+              <c:f>'Tabelas dinâmicas'!$D$4:$D$6</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>algumas nuvens</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>céu limpo</c:v>
                 </c:pt>
               </c:strCache>
@@ -6893,11 +6650,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$E$4:$E$5</c:f>
+              <c:f>'Tabelas dinâmicas'!$E$4:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -7621,9 +7381,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$O$4:$O$10</c:f>
+              <c:f>'Tabelas dinâmicas'!$O$4:$O$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -7642,32 +7402,38 @@
                 <c:pt idx="5">
                   <c:v>14\09\24</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>15\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$P$4:$P$10</c:f>
+              <c:f>'Tabelas dinâmicas'!$P$4:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4499999999999993</c:v>
+                  <c:v>3.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.51</c:v>
+                  <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.77</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8699999999999992</c:v>
+                  <c:v>3.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.77</c:v>
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8213,6 +7979,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -8387,9 +8156,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$R$4:$R$10</c:f>
+              <c:f>'Tabelas dinâmicas'!$R$4:$R$11</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -8408,32 +8177,38 @@
                 <c:pt idx="5">
                   <c:v>14\09\24</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>15\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$S$4:$S$10</c:f>
+              <c:f>'Tabelas dinâmicas'!$S$4:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14868,6 +14643,158 @@
             <v>8.77</v>
           </cell>
         </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>15\09\24</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>14:35:01</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G26">
+            <v>30.04</v>
+          </cell>
+          <cell r="H26">
+            <v>30.04</v>
+          </cell>
+          <cell r="I26">
+            <v>30.07</v>
+          </cell>
+          <cell r="J26">
+            <v>37.04</v>
+          </cell>
+          <cell r="K26">
+            <v>94</v>
+          </cell>
+          <cell r="L26">
+            <v>1013</v>
+          </cell>
+          <cell r="M26">
+            <v>8.23</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>15\09\24</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>14:35:01</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G27">
+            <v>37.520000000000003</v>
+          </cell>
+          <cell r="H27">
+            <v>37.520000000000003</v>
+          </cell>
+          <cell r="I27">
+            <v>37.520000000000003</v>
+          </cell>
+          <cell r="J27">
+            <v>35.85</v>
+          </cell>
+          <cell r="K27">
+            <v>19</v>
+          </cell>
+          <cell r="L27">
+            <v>1010</v>
+          </cell>
+          <cell r="M27">
+            <v>3.82</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>15\09\24</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>14:35:01</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G28">
+            <v>29.64</v>
+          </cell>
+          <cell r="H28">
+            <v>29.64</v>
+          </cell>
+          <cell r="I28">
+            <v>29.64</v>
+          </cell>
+          <cell r="J28">
+            <v>31.98</v>
+          </cell>
+          <cell r="K28">
+            <v>59</v>
+          </cell>
+          <cell r="L28">
+            <v>1011</v>
+          </cell>
+          <cell r="M28">
+            <v>9.75</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>15\09\24</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>14:35:01</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G29">
+            <v>29.14</v>
+          </cell>
+          <cell r="H29">
+            <v>29.14</v>
+          </cell>
+          <cell r="I29">
+            <v>29.14</v>
+          </cell>
+          <cell r="J29">
+            <v>31.11</v>
+          </cell>
+          <cell r="K29">
+            <v>59</v>
+          </cell>
+          <cell r="L29">
+            <v>1011</v>
+          </cell>
+          <cell r="M29">
+            <v>8.7100000000000009</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -14875,19 +14802,20 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45549.510233217596" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="24" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45550.608455671296" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="28" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
   <cacheSource type="worksheet">
     <worksheetSource name="Monitoramento_Clima"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Data" numFmtId="0">
-      <sharedItems count="6">
+      <sharedItems count="7">
         <s v="09\09\24"/>
         <s v="10\09\24"/>
         <s v="11\09\24"/>
         <s v="12\09\24"/>
         <s v="13\09\24"/>
         <s v="14\09\24"/>
+        <s v="15\09\24"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Dia da semana" numFmtId="0">
@@ -14911,19 +14839,19 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Teperatura" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.07" maxValue="36.89"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.07" maxValue="37.520000000000003"/>
     </cacheField>
     <cacheField name="Temperatura mínima" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.79" maxValue="36.89"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.79" maxValue="37.520000000000003"/>
     </cacheField>
     <cacheField name="Temperatura máxima" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.07" maxValue="36.89"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.07" maxValue="37.520000000000003"/>
     </cacheField>
     <cacheField name="Sensação térmica" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="30.57" maxValue="38.71"/>
     </cacheField>
     <cacheField name="Humidade do ar" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="21" maxValue="84"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="94"/>
     </cacheField>
     <cacheField name="Pressão atmosférica" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1010" maxValue="1014"/>
@@ -14941,7 +14869,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="24">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
   <r>
     <x v="0"/>
     <s v="seg"/>
@@ -15278,478 +15206,68 @@
     <n v="1012"/>
     <n v="8.77"/>
   </r>
+  <r>
+    <x v="6"/>
+    <s v="dom"/>
+    <s v="14:35:01"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="30.04"/>
+    <n v="30.04"/>
+    <n v="30.07"/>
+    <n v="37.04"/>
+    <n v="94"/>
+    <n v="1013"/>
+    <n v="8.23"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="dom"/>
+    <s v="14:35:01"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="37.520000000000003"/>
+    <n v="37.520000000000003"/>
+    <n v="37.520000000000003"/>
+    <n v="35.85"/>
+    <n v="19"/>
+    <n v="1010"/>
+    <n v="3.82"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="dom"/>
+    <s v="14:35:01"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="29.64"/>
+    <n v="29.64"/>
+    <n v="29.64"/>
+    <n v="31.98"/>
+    <n v="59"/>
+    <n v="1011"/>
+    <n v="9.75"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="dom"/>
+    <s v="14:35:01"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="29.14"/>
+    <n v="29.14"/>
+    <n v="29.14"/>
+    <n v="31.11"/>
+    <n v="59"/>
+    <n v="1011"/>
+    <n v="8.7100000000000009"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="148">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="10">
-    <chartFormat chart="1" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="K3:L10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="149">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Sesação Térmica Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="150">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="10">
-    <chartFormat chart="4" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="D3:E5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="D3:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15758,8 +15276,8 @@
       <items count="5">
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15781,7 +15299,10 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -15833,18 +15354,19 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="R3:S10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="R3:S11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+      <items count="8">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15854,8 +15376,8 @@
       <items count="5">
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15871,7 +15393,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -15890,6 +15412,9 @@
     <i>
       <x v="5"/>
     </i>
+    <i>
+      <x v="6"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -15904,7 +15429,7 @@
     <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="151">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15949,7 +15474,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Temperatura Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -16001,7 +15526,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="152">
+    <format dxfId="51">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16247,18 +15772,203 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="O3:P10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="52">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="K3:L11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+      <items count="8">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16268,8 +15978,8 @@
       <items count="5">
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16277,15 +15987,15 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -16304,6 +16014,111 @@
     <i>
       <x v="5"/>
     </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="53">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="O3:P11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -16318,7 +16133,7 @@
     <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="153">
+    <format dxfId="54">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16345,18 +16160,203 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Sesação Térmica Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="55">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="G3:H10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="G3:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+      <items count="8">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16366,8 +16366,8 @@
       <items count="5">
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16383,7 +16383,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -16402,6 +16402,9 @@
     <i>
       <x v="5"/>
     </i>
+    <i>
+      <x v="6"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -16416,7 +16419,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="154">
+    <format dxfId="56">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16597,8 +16600,8 @@
       <items count="4">
         <i x="2"/>
         <i x="0"/>
-        <i x="3" s="1"/>
-        <i x="1"/>
+        <i x="3"/>
+        <i x="1" s="1"/>
       </items>
     </tabular>
   </data>
@@ -16612,43 +16615,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L25" headerRowDxfId="180" dataDxfId="179">
-  <autoFilter ref="A1:L25" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L29" headerRowDxfId="82" dataDxfId="81">
+  <autoFilter ref="A1:L29" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
   <tableColumns count="12">
-    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="178" totalsRowDxfId="177">
+    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="80" totalsRowDxfId="79">
       <calculatedColumnFormula>[1]Sheet1!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="176" totalsRowDxfId="175">
+    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="78" totalsRowDxfId="77">
       <calculatedColumnFormula>[1]Sheet1!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="174" totalsRowDxfId="173">
+    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="76" totalsRowDxfId="75">
       <calculatedColumnFormula>[1]Sheet1!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="172" totalsRowDxfId="171">
+    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="74" totalsRowDxfId="73">
       <calculatedColumnFormula>[1]Sheet1!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="170" totalsRowDxfId="169">
+    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="72" totalsRowDxfId="71">
       <calculatedColumnFormula>[1]Sheet1!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="168" totalsRowDxfId="167">
+    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="70" totalsRowDxfId="69">
       <calculatedColumnFormula>[1]Sheet1!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="166" totalsRowDxfId="165">
+    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula>[1]Sheet1!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="164" totalsRowDxfId="163">
+    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="66" totalsRowDxfId="65">
       <calculatedColumnFormula>[1]Sheet1!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="162" totalsRowDxfId="161">
+    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>[1]Sheet1!J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="160" totalsRowDxfId="159" dataCellStyle="Porcentagem">
+    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]Sheet1!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="158" totalsRowDxfId="157">
+    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula>[1]Sheet1!L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="156" totalsRowDxfId="155">
+    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="58" totalsRowDxfId="57">
       <calculatedColumnFormula>[1]Sheet1!M2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17675,10 +17678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18935,19 +18938,219 @@
         <v>8.77</v>
       </c>
     </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="str">
+        <f>[1]Sheet1!B26</f>
+        <v>15\09\24</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>[1]Sheet1!C26</f>
+        <v>dom</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>[1]Sheet1!D26</f>
+        <v>14:35:01</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>[1]Sheet1!E26</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>[1]Sheet1!F26</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F26" s="4">
+        <f>[1]Sheet1!G26</f>
+        <v>30.04</v>
+      </c>
+      <c r="G26" s="4">
+        <f>[1]Sheet1!H26</f>
+        <v>30.04</v>
+      </c>
+      <c r="H26" s="4">
+        <f>[1]Sheet1!I26</f>
+        <v>30.07</v>
+      </c>
+      <c r="I26" s="4">
+        <f>[1]Sheet1!J26</f>
+        <v>37.04</v>
+      </c>
+      <c r="J26" s="7">
+        <f>[1]Sheet1!K26</f>
+        <v>94</v>
+      </c>
+      <c r="K26" s="1">
+        <f>[1]Sheet1!L26</f>
+        <v>1013</v>
+      </c>
+      <c r="L26" s="9">
+        <f>[1]Sheet1!M26</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="str">
+        <f>[1]Sheet1!B27</f>
+        <v>15\09\24</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>[1]Sheet1!C27</f>
+        <v>dom</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>[1]Sheet1!D27</f>
+        <v>14:35:01</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>[1]Sheet1!E27</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>[1]Sheet1!F27</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F27" s="4">
+        <f>[1]Sheet1!G27</f>
+        <v>37.520000000000003</v>
+      </c>
+      <c r="G27" s="4">
+        <f>[1]Sheet1!H27</f>
+        <v>37.520000000000003</v>
+      </c>
+      <c r="H27" s="4">
+        <f>[1]Sheet1!I27</f>
+        <v>37.520000000000003</v>
+      </c>
+      <c r="I27" s="4">
+        <f>[1]Sheet1!J27</f>
+        <v>35.85</v>
+      </c>
+      <c r="J27" s="7">
+        <f>[1]Sheet1!K27</f>
+        <v>19</v>
+      </c>
+      <c r="K27" s="1">
+        <f>[1]Sheet1!L27</f>
+        <v>1010</v>
+      </c>
+      <c r="L27" s="9">
+        <f>[1]Sheet1!M27</f>
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="str">
+        <f>[1]Sheet1!B28</f>
+        <v>15\09\24</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>[1]Sheet1!C28</f>
+        <v>dom</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>[1]Sheet1!D28</f>
+        <v>14:35:01</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>[1]Sheet1!E28</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>[1]Sheet1!F28</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F28" s="4">
+        <f>[1]Sheet1!G28</f>
+        <v>29.64</v>
+      </c>
+      <c r="G28" s="4">
+        <f>[1]Sheet1!H28</f>
+        <v>29.64</v>
+      </c>
+      <c r="H28" s="4">
+        <f>[1]Sheet1!I28</f>
+        <v>29.64</v>
+      </c>
+      <c r="I28" s="4">
+        <f>[1]Sheet1!J28</f>
+        <v>31.98</v>
+      </c>
+      <c r="J28" s="7">
+        <f>[1]Sheet1!K28</f>
+        <v>59</v>
+      </c>
+      <c r="K28" s="1">
+        <f>[1]Sheet1!L28</f>
+        <v>1011</v>
+      </c>
+      <c r="L28" s="9">
+        <f>[1]Sheet1!M28</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="str">
+        <f>[1]Sheet1!B29</f>
+        <v>15\09\24</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>[1]Sheet1!C29</f>
+        <v>dom</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>[1]Sheet1!D29</f>
+        <v>14:35:01</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>[1]Sheet1!E29</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>[1]Sheet1!F29</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F29" s="4">
+        <f>[1]Sheet1!G29</f>
+        <v>29.14</v>
+      </c>
+      <c r="G29" s="4">
+        <f>[1]Sheet1!H29</f>
+        <v>29.14</v>
+      </c>
+      <c r="H29" s="4">
+        <f>[1]Sheet1!I29</f>
+        <v>29.14</v>
+      </c>
+      <c r="I29" s="4">
+        <f>[1]Sheet1!J29</f>
+        <v>31.11</v>
+      </c>
+      <c r="J29" s="7">
+        <f>[1]Sheet1!K29</f>
+        <v>59</v>
+      </c>
+      <c r="K29" s="1">
+        <f>[1]Sheet1!L29</f>
+        <v>1011</v>
+      </c>
+      <c r="L29" s="9">
+        <f>[1]Sheet1!M29</f>
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J25">
-    <cfRule type="expression" dxfId="132" priority="5">
+  <conditionalFormatting sqref="J2:J29">
+    <cfRule type="expression" dxfId="85" priority="5">
       <formula>$J2&lt;=50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F25">
-    <cfRule type="expression" dxfId="131" priority="4">
+  <conditionalFormatting sqref="F2:F29">
+    <cfRule type="expression" dxfId="84" priority="4">
       <formula>$F2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I25">
-    <cfRule type="expression" dxfId="130" priority="1">
+  <conditionalFormatting sqref="I2:I29">
+    <cfRule type="expression" dxfId="83" priority="1">
       <formula>$I2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18962,7 +19165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5901B3E-A3E8-4B5E-9369-35A4919B8B84}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -19019,31 +19222,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -19051,7 +19254,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>30.603333333333335</v>
+        <v>30.465714285714284</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -19059,7 +19262,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="5">
-        <v>30.618333333333336</v>
+        <v>30.535714285714285</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -19097,37 +19300,37 @@
         <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>29.896666666666665</v>
+        <v>29.788571428571426</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5">
-        <v>29.93</v>
+        <v>36.28</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="5">
-        <v>31.26</v>
+        <v>34.68</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="8">
-        <v>9.6999999999999993</v>
+        <v>3.85</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="S4" s="8">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -19135,10 +19338,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>36.241666666666667</v>
+        <v>36.424285714285716</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6">
         <v>6</v>
@@ -19147,25 +19350,25 @@
         <v>25</v>
       </c>
       <c r="H5" s="5">
-        <v>29.56</v>
+        <v>36.72</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="5">
-        <v>31.33</v>
+        <v>35.61</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P5" s="8">
-        <v>9.4499999999999993</v>
+        <v>3.65</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="S5" s="8">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -19173,31 +19376,37 @@
         <v>17</v>
       </c>
       <c r="B6" s="5">
-        <v>31.840000000000003</v>
+        <v>31.803571428571427</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="5">
-        <v>29.27</v>
+        <v>36.89</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="5">
-        <v>30.57</v>
+        <v>35.840000000000003</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P6" s="8">
-        <v>9.51</v>
+        <v>3.82</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="S6" s="8">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -19205,25 +19414,25 @@
         <v>27</v>
       </c>
       <c r="H7" s="5">
-        <v>29.48</v>
+        <v>36.64</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="5">
-        <v>31.53</v>
+        <v>35.93</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="8">
-        <v>9.77</v>
+        <v>4.16</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="S7" s="8">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -19237,25 +19446,25 @@
         <v>28</v>
       </c>
       <c r="H8" s="5">
-        <v>29.8</v>
+        <v>36.1</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="5">
-        <v>31.06</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P8" s="8">
-        <v>8.8699999999999992</v>
+        <v>3.68</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S8" s="8">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -19263,31 +19472,31 @@
         <v>13</v>
       </c>
       <c r="B9" s="5">
-        <v>32.528333333333329</v>
+        <v>32.449999999999996</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="5">
-        <v>31.34</v>
+        <v>34.82</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L9" s="5">
-        <v>32.78</v>
+        <v>33.85</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P9" s="8">
-        <v>8.77</v>
+        <v>3.75</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S9" s="8">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -19295,31 +19504,31 @@
         <v>14</v>
       </c>
       <c r="B10" s="5">
-        <v>36.601666666666667</v>
+        <v>36.664285714285718</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H10" s="5">
-        <v>29.896666666666665</v>
+        <v>37.520000000000003</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L10" s="5">
-        <v>31.421666666666667</v>
+        <v>35.85</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P10" s="8">
-        <v>9.3449999999999989</v>
+        <v>3.82</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="S10" s="8">
-        <v>53.333333333333336</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -19327,7 +19536,31 @@
         <v>15</v>
       </c>
       <c r="B11" s="5">
-        <v>31.421666666666667</v>
+        <v>31.377142857142854</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="5">
+        <v>36.424285714285716</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="5">
+        <v>35.198571428571427</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="8">
+        <v>3.8185714285714285</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="8">
+        <v>22.857142857142858</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -19335,7 +19568,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="5">
-        <v>35.089999999999996</v>
+        <v>35.198571428571427</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -19343,7 +19576,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="5">
-        <v>33.910416666666656</v>
+        <v>33.922499999999999</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -19359,7 +19592,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="6">
-        <v>53</v>
+        <v>53.857142857142854</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -19367,7 +19600,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>78.166666666666671</v>
+        <v>80.428571428571431</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -19375,7 +19608,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6">
-        <v>53.333333333333336</v>
+        <v>54.142857142857146</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -19383,7 +19616,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6">
-        <v>23.5</v>
+        <v>22.857142857142858</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -19391,7 +19624,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6">
-        <v>52</v>
+        <v>52.821428571428569</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -19407,7 +19640,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>9.67</v>
+        <v>9.6814285714285706</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -19415,7 +19648,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="6">
-        <v>9.6016666666666666</v>
+        <v>9.4057142857142857</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -19423,7 +19656,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="6">
-        <v>9.3449999999999989</v>
+        <v>9.2542857142857144</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -19431,7 +19664,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="6">
-        <v>3.8183333333333334</v>
+        <v>3.8185714285714285</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -19439,7 +19672,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="6">
-        <v>8.1087500000000006</v>
+        <v>8.0399999999999991</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36987031-DC41-4C93-AACA-7116CF925BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F867700E-5B48-43A6-9894-6353EA16C206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
   <si>
     <t>Data</t>
   </si>
@@ -148,7 +148,19 @@
     <t>15\09\24</t>
   </si>
   <si>
+    <t>16\09\24</t>
+  </si>
+  <si>
+    <t>17\09\24</t>
+  </si>
+  <si>
+    <t>18\09\24</t>
+  </si>
+  <si>
     <t>algumas nuvens</t>
+  </si>
+  <si>
+    <t>23\09\24</t>
   </si>
 </sst>
 </file>
@@ -221,79 +233,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="86">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
+  <dxfs count="62">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -349,7 +289,7 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -358,7 +298,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -397,7 +337,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -406,7 +346,7 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -1280,16 +1220,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30.465714285714284</c:v>
+                  <c:v>30.277272727272727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.535714285714285</c:v>
+                  <c:v>30.482727272727274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.788571428571426</c:v>
+                  <c:v>29.655454545454543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.424285714285716</c:v>
+                  <c:v>36.451818181818183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2354,16 +2294,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32.449999999999996</c:v>
+                  <c:v>32.097272727272724</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.664285714285718</c:v>
+                  <c:v>36.020909090909093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.377142857142854</c:v>
+                  <c:v>31.079090909090905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.198571428571427</c:v>
+                  <c:v>35.265454545454539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3419,16 +3359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>53.857142857142854</c:v>
+                  <c:v>54.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.428571428571431</c:v>
+                  <c:v>76.818181818181813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.142857142857146</c:v>
+                  <c:v>54.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.857142857142858</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4179,16 +4119,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.6814285714285706</c:v>
+                  <c:v>9.8090909090909104</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4057142857142857</c:v>
+                  <c:v>9.165454545454546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2542857142857144</c:v>
+                  <c:v>9.3690909090909091</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8185714285714285</c:v>
+                  <c:v>3.8009090909090912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4933,9 +4873,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$G$4:$G$11</c:f>
+              <c:f>'Tabelas dinâmicas'!$G$4:$G$15</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -4957,35 +4897,59 @@
                 <c:pt idx="6">
                   <c:v>15\09\24</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>16\09\24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17\09\24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18\09\24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$H$4:$H$11</c:f>
+              <c:f>'Tabelas dinâmicas'!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>36.28</c:v>
+                  <c:v>29.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.72</c:v>
+                  <c:v>29.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.89</c:v>
+                  <c:v>29.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.64</c:v>
+                  <c:v>29.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.1</c:v>
+                  <c:v>29.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.82</c:v>
+                  <c:v>31.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.520000000000003</c:v>
+                  <c:v>29.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5746,9 +5710,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$K$4:$K$11</c:f>
+              <c:f>'Tabelas dinâmicas'!$K$4:$K$15</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -5770,35 +5734,59 @@
                 <c:pt idx="6">
                   <c:v>15\09\24</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>16\09\24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17\09\24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18\09\24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$L$4:$L$11</c:f>
+              <c:f>'Tabelas dinâmicas'!$L$4:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>34.68</c:v>
+                  <c:v>31.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.61</c:v>
+                  <c:v>31.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.840000000000003</c:v>
+                  <c:v>30.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.93</c:v>
+                  <c:v>31.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.630000000000003</c:v>
+                  <c:v>31.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.85</c:v>
+                  <c:v>32.78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.85</c:v>
+                  <c:v>31.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6658,7 +6646,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7381,9 +7369,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$O$4:$O$11</c:f>
+              <c:f>'Tabelas dinâmicas'!$O$4:$O$15</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -7405,35 +7393,59 @@
                 <c:pt idx="6">
                   <c:v>15\09\24</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>16\09\24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17\09\24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18\09\24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$P$4:$P$11</c:f>
+              <c:f>'Tabelas dinâmicas'!$P$4:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.85</c:v>
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.65</c:v>
+                  <c:v>9.4499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.82</c:v>
+                  <c:v>9.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.16</c:v>
+                  <c:v>9.77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.68</c:v>
+                  <c:v>8.8699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.75</c:v>
+                  <c:v>8.77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.82</c:v>
+                  <c:v>8.7100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2799999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8156,9 +8168,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$R$4:$R$11</c:f>
+              <c:f>'Tabelas dinâmicas'!$R$4:$R$15</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -8180,35 +8192,59 @@
                 <c:pt idx="6">
                   <c:v>15\09\24</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>16\09\24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17\09\24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18\09\24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$S$4:$S$11</c:f>
+              <c:f>'Tabelas dinâmicas'!$S$4:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14795,6 +14831,614 @@
             <v>8.7100000000000009</v>
           </cell>
         </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>16\09\24</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>13:22:11</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G30">
+            <v>31.71</v>
+          </cell>
+          <cell r="H30">
+            <v>31.71</v>
+          </cell>
+          <cell r="I30">
+            <v>32.07</v>
+          </cell>
+          <cell r="J30">
+            <v>38.71</v>
+          </cell>
+          <cell r="K30">
+            <v>74</v>
+          </cell>
+          <cell r="L30">
+            <v>1014</v>
+          </cell>
+          <cell r="M30">
+            <v>9.77</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>16\09\24</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>13:22:11</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G31">
+            <v>36.659999999999997</v>
+          </cell>
+          <cell r="H31">
+            <v>36.659999999999997</v>
+          </cell>
+          <cell r="I31">
+            <v>36.659999999999997</v>
+          </cell>
+          <cell r="J31">
+            <v>35.96</v>
+          </cell>
+          <cell r="K31">
+            <v>25</v>
+          </cell>
+          <cell r="L31">
+            <v>1012</v>
+          </cell>
+          <cell r="M31">
+            <v>3.82</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>16\09\24</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>13:22:11</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G32">
+            <v>31.57</v>
+          </cell>
+          <cell r="H32">
+            <v>31.57</v>
+          </cell>
+          <cell r="I32">
+            <v>31.57</v>
+          </cell>
+          <cell r="J32">
+            <v>33.590000000000003</v>
+          </cell>
+          <cell r="K32">
+            <v>50</v>
+          </cell>
+          <cell r="L32">
+            <v>1012</v>
+          </cell>
+          <cell r="M32">
+            <v>9.76</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>16\09\24</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>13:22:11</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F33" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G33">
+            <v>30.7</v>
+          </cell>
+          <cell r="H33">
+            <v>30.7</v>
+          </cell>
+          <cell r="I33">
+            <v>30.7</v>
+          </cell>
+          <cell r="J33">
+            <v>32.130000000000003</v>
+          </cell>
+          <cell r="K33">
+            <v>50</v>
+          </cell>
+          <cell r="L33">
+            <v>1013</v>
+          </cell>
+          <cell r="M33">
+            <v>9.81</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>17\09\24</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>14:08:40</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F34" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G34">
+            <v>29.07</v>
+          </cell>
+          <cell r="H34">
+            <v>27.34</v>
+          </cell>
+          <cell r="I34">
+            <v>29.07</v>
+          </cell>
+          <cell r="J34">
+            <v>31.31</v>
+          </cell>
+          <cell r="K34">
+            <v>61</v>
+          </cell>
+          <cell r="L34">
+            <v>1013</v>
+          </cell>
+          <cell r="M34">
+            <v>9.26</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>17\09\24</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>14:08:40</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G35">
+            <v>37.049999999999997</v>
+          </cell>
+          <cell r="H35">
+            <v>37.049999999999997</v>
+          </cell>
+          <cell r="I35">
+            <v>37.049999999999997</v>
+          </cell>
+          <cell r="J35">
+            <v>35.46</v>
+          </cell>
+          <cell r="K35">
+            <v>20</v>
+          </cell>
+          <cell r="L35">
+            <v>1010</v>
+          </cell>
+          <cell r="M35">
+            <v>3.94</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>17\09\24</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>14:08:40</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G36">
+            <v>29.92</v>
+          </cell>
+          <cell r="H36">
+            <v>29.92</v>
+          </cell>
+          <cell r="I36">
+            <v>29.92</v>
+          </cell>
+          <cell r="J36">
+            <v>31.93</v>
+          </cell>
+          <cell r="K36">
+            <v>56</v>
+          </cell>
+          <cell r="L36">
+            <v>1011</v>
+          </cell>
+          <cell r="M36">
+            <v>10.54</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>17\09\24</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>14:08:40</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G37">
+            <v>29.42</v>
+          </cell>
+          <cell r="H37">
+            <v>29.42</v>
+          </cell>
+          <cell r="I37">
+            <v>29.42</v>
+          </cell>
+          <cell r="J37">
+            <v>30.95</v>
+          </cell>
+          <cell r="K37">
+            <v>55</v>
+          </cell>
+          <cell r="L37">
+            <v>1012</v>
+          </cell>
+          <cell r="M37">
+            <v>9.7899999999999991</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>18\09\24</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>13:19:45</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G38">
+            <v>31.71</v>
+          </cell>
+          <cell r="H38">
+            <v>31.71</v>
+          </cell>
+          <cell r="I38">
+            <v>32.07</v>
+          </cell>
+          <cell r="J38">
+            <v>38.71</v>
+          </cell>
+          <cell r="K38">
+            <v>89</v>
+          </cell>
+          <cell r="L38">
+            <v>1013</v>
+          </cell>
+          <cell r="M38">
+            <v>8.23</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>18\09\24</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>13:19:45</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G39">
+            <v>36.53</v>
+          </cell>
+          <cell r="H39">
+            <v>36.53</v>
+          </cell>
+          <cell r="I39">
+            <v>36.53</v>
+          </cell>
+          <cell r="J39">
+            <v>35.56</v>
+          </cell>
+          <cell r="K39">
+            <v>24</v>
+          </cell>
+          <cell r="L39">
+            <v>1011</v>
+          </cell>
+          <cell r="M39">
+            <v>4.4000000000000004</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>18\09\24</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>13:19:45</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G40">
+            <v>31.67</v>
+          </cell>
+          <cell r="H40">
+            <v>31.67</v>
+          </cell>
+          <cell r="I40">
+            <v>31.67</v>
+          </cell>
+          <cell r="J40">
+            <v>33.770000000000003</v>
+          </cell>
+          <cell r="K40">
+            <v>50</v>
+          </cell>
+          <cell r="L40">
+            <v>1011</v>
+          </cell>
+          <cell r="M40">
+            <v>10.65</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>18\09\24</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>13:19:45</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G41">
+            <v>31.25</v>
+          </cell>
+          <cell r="H41">
+            <v>31.25</v>
+          </cell>
+          <cell r="I41">
+            <v>31.25</v>
+          </cell>
+          <cell r="J41">
+            <v>32.83</v>
+          </cell>
+          <cell r="K41">
+            <v>49</v>
+          </cell>
+          <cell r="L41">
+            <v>1012</v>
+          </cell>
+          <cell r="M41">
+            <v>10.4</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>23\09\24</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>16:49:57</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G42">
+            <v>29.07</v>
+          </cell>
+          <cell r="H42">
+            <v>27.34</v>
+          </cell>
+          <cell r="I42">
+            <v>29.07</v>
+          </cell>
+          <cell r="J42">
+            <v>30.85</v>
+          </cell>
+          <cell r="K42">
+            <v>58</v>
+          </cell>
+          <cell r="L42">
+            <v>1011</v>
+          </cell>
+          <cell r="M42">
+            <v>7.72</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>23\09\24</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>16:49:57</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G43">
+            <v>35.76</v>
+          </cell>
+          <cell r="H43">
+            <v>35.76</v>
+          </cell>
+          <cell r="I43">
+            <v>35.76</v>
+          </cell>
+          <cell r="J43">
+            <v>34.549999999999997</v>
+          </cell>
+          <cell r="K43">
+            <v>24</v>
+          </cell>
+          <cell r="L43">
+            <v>1008</v>
+          </cell>
+          <cell r="M43">
+            <v>2.92</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>23\09\24</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>16:49:57</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G44">
+            <v>26.63</v>
+          </cell>
+          <cell r="H44">
+            <v>26.63</v>
+          </cell>
+          <cell r="I44">
+            <v>26.63</v>
+          </cell>
+          <cell r="J44">
+            <v>26.63</v>
+          </cell>
+          <cell r="K44">
+            <v>67</v>
+          </cell>
+          <cell r="L44">
+            <v>1010</v>
+          </cell>
+          <cell r="M44">
+            <v>9.18</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>23\09\24</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>16:49:57</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F45" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G45">
+            <v>26.32</v>
+          </cell>
+          <cell r="H45">
+            <v>26.32</v>
+          </cell>
+          <cell r="I45">
+            <v>26.32</v>
+          </cell>
+          <cell r="J45">
+            <v>26.32</v>
+          </cell>
+          <cell r="K45">
+            <v>71</v>
+          </cell>
+          <cell r="L45">
+            <v>1010</v>
+          </cell>
+          <cell r="M45">
+            <v>8.2799999999999994</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -14802,13 +15446,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45550.608455671296" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="28" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45558.701769560183" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="44" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
   <cacheSource type="worksheet">
     <worksheetSource name="Monitoramento_Clima"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Data" numFmtId="0">
-      <sharedItems count="7">
+      <sharedItems count="11">
         <s v="09\09\24"/>
         <s v="10\09\24"/>
         <s v="11\09\24"/>
@@ -14816,6 +15460,10 @@
         <s v="13\09\24"/>
         <s v="14\09\24"/>
         <s v="15\09\24"/>
+        <s v="16\09\24"/>
+        <s v="17\09\24"/>
+        <s v="18\09\24"/>
+        <s v="23\09\24"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Dia da semana" numFmtId="0">
@@ -14833,31 +15481,32 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems count="3">
         <s v="algumas nuvens"/>
         <s v="céu limpo"/>
+        <s v="nublado"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Teperatura" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.07" maxValue="37.520000000000003"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="37.520000000000003"/>
     </cacheField>
     <cacheField name="Temperatura mínima" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.79" maxValue="37.520000000000003"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="37.520000000000003"/>
     </cacheField>
     <cacheField name="Temperatura máxima" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.07" maxValue="37.520000000000003"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="37.520000000000003"/>
     </cacheField>
     <cacheField name="Sensação térmica" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="30.57" maxValue="38.71"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="38.71"/>
     </cacheField>
     <cacheField name="Humidade do ar" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="94"/>
     </cacheField>
     <cacheField name="Pressão atmosférica" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1010" maxValue="1014"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1008" maxValue="1014"/>
     </cacheField>
     <cacheField name="Velocidade do vento" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.65" maxValue="10.8"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.92" maxValue="10.8"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -14869,7 +15518,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="44">
   <r>
     <x v="0"/>
     <s v="seg"/>
@@ -15262,6 +15911,230 @@
     <n v="1011"/>
     <n v="8.7100000000000009"/>
   </r>
+  <r>
+    <x v="7"/>
+    <s v="seg"/>
+    <s v="13:22:11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="31.71"/>
+    <n v="31.71"/>
+    <n v="32.07"/>
+    <n v="38.71"/>
+    <n v="74"/>
+    <n v="1014"/>
+    <n v="9.77"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="seg"/>
+    <s v="13:22:11"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="36.659999999999997"/>
+    <n v="36.659999999999997"/>
+    <n v="36.659999999999997"/>
+    <n v="35.96"/>
+    <n v="25"/>
+    <n v="1012"/>
+    <n v="3.82"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="seg"/>
+    <s v="13:22:11"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="31.57"/>
+    <n v="31.57"/>
+    <n v="31.57"/>
+    <n v="33.590000000000003"/>
+    <n v="50"/>
+    <n v="1012"/>
+    <n v="9.76"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="seg"/>
+    <s v="13:22:11"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="30.7"/>
+    <n v="30.7"/>
+    <n v="30.7"/>
+    <n v="32.130000000000003"/>
+    <n v="50"/>
+    <n v="1013"/>
+    <n v="9.81"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="ter"/>
+    <s v="14:08:40"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="29.07"/>
+    <n v="27.34"/>
+    <n v="29.07"/>
+    <n v="31.31"/>
+    <n v="61"/>
+    <n v="1013"/>
+    <n v="9.26"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="ter"/>
+    <s v="14:08:40"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="37.049999999999997"/>
+    <n v="37.049999999999997"/>
+    <n v="37.049999999999997"/>
+    <n v="35.46"/>
+    <n v="20"/>
+    <n v="1010"/>
+    <n v="3.94"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="ter"/>
+    <s v="14:08:40"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="29.92"/>
+    <n v="29.92"/>
+    <n v="29.92"/>
+    <n v="31.93"/>
+    <n v="56"/>
+    <n v="1011"/>
+    <n v="10.54"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="ter"/>
+    <s v="14:08:40"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="29.42"/>
+    <n v="29.42"/>
+    <n v="29.42"/>
+    <n v="30.95"/>
+    <n v="55"/>
+    <n v="1012"/>
+    <n v="9.7899999999999991"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="qua"/>
+    <s v="13:19:45"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="31.71"/>
+    <n v="31.71"/>
+    <n v="32.07"/>
+    <n v="38.71"/>
+    <n v="89"/>
+    <n v="1013"/>
+    <n v="8.23"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="qua"/>
+    <s v="13:19:45"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="36.53"/>
+    <n v="36.53"/>
+    <n v="36.53"/>
+    <n v="35.56"/>
+    <n v="24"/>
+    <n v="1011"/>
+    <n v="4.4000000000000004"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="qua"/>
+    <s v="13:19:45"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="31.67"/>
+    <n v="31.67"/>
+    <n v="31.67"/>
+    <n v="33.770000000000003"/>
+    <n v="50"/>
+    <n v="1011"/>
+    <n v="10.65"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="qua"/>
+    <s v="13:19:45"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="31.25"/>
+    <n v="31.25"/>
+    <n v="31.25"/>
+    <n v="32.83"/>
+    <n v="49"/>
+    <n v="1012"/>
+    <n v="10.4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="seg"/>
+    <s v="16:49:57"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="29.07"/>
+    <n v="27.34"/>
+    <n v="29.07"/>
+    <n v="30.85"/>
+    <n v="58"/>
+    <n v="1011"/>
+    <n v="7.72"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="seg"/>
+    <s v="16:49:57"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="35.76"/>
+    <n v="35.76"/>
+    <n v="35.76"/>
+    <n v="34.549999999999997"/>
+    <n v="24"/>
+    <n v="1008"/>
+    <n v="2.92"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="seg"/>
+    <s v="16:49:57"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="26.63"/>
+    <n v="26.63"/>
+    <n v="26.63"/>
+    <n v="26.63"/>
+    <n v="67"/>
+    <n v="1010"/>
+    <n v="9.18"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="seg"/>
+    <s v="16:49:57"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="26.32"/>
+    <n v="26.32"/>
+    <n v="26.32"/>
+    <n v="26.32"/>
+    <n v="71"/>
+    <n v="1010"/>
+    <n v="8.2799999999999994"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
@@ -15276,15 +16149,16 @@
       <items count="5">
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15356,10 +16230,10 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="R3:S11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="R3:S15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+      <items count="12">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -15367,6 +16241,10 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15376,8 +16254,8 @@
       <items count="5">
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15393,7 +16271,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
@@ -15415,6 +16293,18 @@
     <i>
       <x v="6"/>
     </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -15429,7 +16319,7 @@
     <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="50">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15475,6 +16365,610 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="O3:P15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="27">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="28">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="K3:L15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="29">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Sesação Térmica Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="30">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Temperatura Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -15526,7 +17020,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="51">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15772,196 +17266,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="52">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="10">
-    <chartFormat chart="1" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="K3:L11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="G3:H15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+      <items count="12">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -15969,6 +17279,10 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15978,16 +17292,16 @@
       <items count="5">
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15995,7 +17309,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
@@ -16017,393 +17331,17 @@
     <i>
       <x v="6"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="53">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="O3:P11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
     <i>
-      <x/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="8"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="54">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Sesação Térmica Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="55">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="10">
-    <chartFormat chart="4" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="G3:H11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
+      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -16419,7 +17357,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="56">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16600,8 +17538,8 @@
       <items count="4">
         <i x="2"/>
         <i x="0"/>
-        <i x="3"/>
-        <i x="1" s="1"/>
+        <i x="3" s="1"/>
+        <i x="1"/>
       </items>
     </tabular>
   </data>
@@ -16615,43 +17553,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L29" headerRowDxfId="82" dataDxfId="81">
-  <autoFilter ref="A1:L29" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L45" headerRowDxfId="58" dataDxfId="57">
+  <autoFilter ref="A1:L45" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
   <tableColumns count="12">
-    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="80" totalsRowDxfId="79">
+    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="56" totalsRowDxfId="55">
       <calculatedColumnFormula>[1]Sheet1!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="78" totalsRowDxfId="77">
+    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>[1]Sheet1!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="76" totalsRowDxfId="75">
+    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>[1]Sheet1!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="74" totalsRowDxfId="73">
+    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>[1]Sheet1!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="72" totalsRowDxfId="71">
+    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>[1]Sheet1!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="70" totalsRowDxfId="69">
+    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="46" totalsRowDxfId="45">
       <calculatedColumnFormula>[1]Sheet1!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="68" totalsRowDxfId="67">
+    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>[1]Sheet1!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="42" totalsRowDxfId="41">
       <calculatedColumnFormula>[1]Sheet1!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="64" totalsRowDxfId="63">
+    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>[1]Sheet1!J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Porcentagem">
+    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]Sheet1!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>[1]Sheet1!L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>[1]Sheet1!M2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17678,10 +18616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19138,19 +20076,819 @@
         <v>8.7100000000000009</v>
       </c>
     </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="str">
+        <f>[1]Sheet1!B30</f>
+        <v>16\09\24</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>[1]Sheet1!C30</f>
+        <v>seg</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>[1]Sheet1!D30</f>
+        <v>13:22:11</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>[1]Sheet1!E30</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>[1]Sheet1!F30</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F30" s="4">
+        <f>[1]Sheet1!G30</f>
+        <v>31.71</v>
+      </c>
+      <c r="G30" s="4">
+        <f>[1]Sheet1!H30</f>
+        <v>31.71</v>
+      </c>
+      <c r="H30" s="4">
+        <f>[1]Sheet1!I30</f>
+        <v>32.07</v>
+      </c>
+      <c r="I30" s="4">
+        <f>[1]Sheet1!J30</f>
+        <v>38.71</v>
+      </c>
+      <c r="J30" s="7">
+        <f>[1]Sheet1!K30</f>
+        <v>74</v>
+      </c>
+      <c r="K30" s="1">
+        <f>[1]Sheet1!L30</f>
+        <v>1014</v>
+      </c>
+      <c r="L30" s="9">
+        <f>[1]Sheet1!M30</f>
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="str">
+        <f>[1]Sheet1!B31</f>
+        <v>16\09\24</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>[1]Sheet1!C31</f>
+        <v>seg</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>[1]Sheet1!D31</f>
+        <v>13:22:11</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>[1]Sheet1!E31</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>[1]Sheet1!F31</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F31" s="4">
+        <f>[1]Sheet1!G31</f>
+        <v>36.659999999999997</v>
+      </c>
+      <c r="G31" s="4">
+        <f>[1]Sheet1!H31</f>
+        <v>36.659999999999997</v>
+      </c>
+      <c r="H31" s="4">
+        <f>[1]Sheet1!I31</f>
+        <v>36.659999999999997</v>
+      </c>
+      <c r="I31" s="4">
+        <f>[1]Sheet1!J31</f>
+        <v>35.96</v>
+      </c>
+      <c r="J31" s="7">
+        <f>[1]Sheet1!K31</f>
+        <v>25</v>
+      </c>
+      <c r="K31" s="1">
+        <f>[1]Sheet1!L31</f>
+        <v>1012</v>
+      </c>
+      <c r="L31" s="9">
+        <f>[1]Sheet1!M31</f>
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="str">
+        <f>[1]Sheet1!B32</f>
+        <v>16\09\24</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>[1]Sheet1!C32</f>
+        <v>seg</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>[1]Sheet1!D32</f>
+        <v>13:22:11</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>[1]Sheet1!E32</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>[1]Sheet1!F32</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F32" s="4">
+        <f>[1]Sheet1!G32</f>
+        <v>31.57</v>
+      </c>
+      <c r="G32" s="4">
+        <f>[1]Sheet1!H32</f>
+        <v>31.57</v>
+      </c>
+      <c r="H32" s="4">
+        <f>[1]Sheet1!I32</f>
+        <v>31.57</v>
+      </c>
+      <c r="I32" s="4">
+        <f>[1]Sheet1!J32</f>
+        <v>33.590000000000003</v>
+      </c>
+      <c r="J32" s="7">
+        <f>[1]Sheet1!K32</f>
+        <v>50</v>
+      </c>
+      <c r="K32" s="1">
+        <f>[1]Sheet1!L32</f>
+        <v>1012</v>
+      </c>
+      <c r="L32" s="9">
+        <f>[1]Sheet1!M32</f>
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="str">
+        <f>[1]Sheet1!B33</f>
+        <v>16\09\24</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>[1]Sheet1!C33</f>
+        <v>seg</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>[1]Sheet1!D33</f>
+        <v>13:22:11</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>[1]Sheet1!E33</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>[1]Sheet1!F33</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F33" s="4">
+        <f>[1]Sheet1!G33</f>
+        <v>30.7</v>
+      </c>
+      <c r="G33" s="4">
+        <f>[1]Sheet1!H33</f>
+        <v>30.7</v>
+      </c>
+      <c r="H33" s="4">
+        <f>[1]Sheet1!I33</f>
+        <v>30.7</v>
+      </c>
+      <c r="I33" s="4">
+        <f>[1]Sheet1!J33</f>
+        <v>32.130000000000003</v>
+      </c>
+      <c r="J33" s="7">
+        <f>[1]Sheet1!K33</f>
+        <v>50</v>
+      </c>
+      <c r="K33" s="1">
+        <f>[1]Sheet1!L33</f>
+        <v>1013</v>
+      </c>
+      <c r="L33" s="9">
+        <f>[1]Sheet1!M33</f>
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="str">
+        <f>[1]Sheet1!B34</f>
+        <v>17\09\24</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>[1]Sheet1!C34</f>
+        <v>ter</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>[1]Sheet1!D34</f>
+        <v>14:08:40</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f>[1]Sheet1!E34</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>[1]Sheet1!F34</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F34" s="4">
+        <f>[1]Sheet1!G34</f>
+        <v>29.07</v>
+      </c>
+      <c r="G34" s="4">
+        <f>[1]Sheet1!H34</f>
+        <v>27.34</v>
+      </c>
+      <c r="H34" s="4">
+        <f>[1]Sheet1!I34</f>
+        <v>29.07</v>
+      </c>
+      <c r="I34" s="4">
+        <f>[1]Sheet1!J34</f>
+        <v>31.31</v>
+      </c>
+      <c r="J34" s="7">
+        <f>[1]Sheet1!K34</f>
+        <v>61</v>
+      </c>
+      <c r="K34" s="1">
+        <f>[1]Sheet1!L34</f>
+        <v>1013</v>
+      </c>
+      <c r="L34" s="9">
+        <f>[1]Sheet1!M34</f>
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="str">
+        <f>[1]Sheet1!B35</f>
+        <v>17\09\24</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>[1]Sheet1!C35</f>
+        <v>ter</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>[1]Sheet1!D35</f>
+        <v>14:08:40</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f>[1]Sheet1!E35</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>[1]Sheet1!F35</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F35" s="4">
+        <f>[1]Sheet1!G35</f>
+        <v>37.049999999999997</v>
+      </c>
+      <c r="G35" s="4">
+        <f>[1]Sheet1!H35</f>
+        <v>37.049999999999997</v>
+      </c>
+      <c r="H35" s="4">
+        <f>[1]Sheet1!I35</f>
+        <v>37.049999999999997</v>
+      </c>
+      <c r="I35" s="4">
+        <f>[1]Sheet1!J35</f>
+        <v>35.46</v>
+      </c>
+      <c r="J35" s="7">
+        <f>[1]Sheet1!K35</f>
+        <v>20</v>
+      </c>
+      <c r="K35" s="1">
+        <f>[1]Sheet1!L35</f>
+        <v>1010</v>
+      </c>
+      <c r="L35" s="9">
+        <f>[1]Sheet1!M35</f>
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="str">
+        <f>[1]Sheet1!B36</f>
+        <v>17\09\24</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>[1]Sheet1!C36</f>
+        <v>ter</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>[1]Sheet1!D36</f>
+        <v>14:08:40</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f>[1]Sheet1!E36</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>[1]Sheet1!F36</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F36" s="4">
+        <f>[1]Sheet1!G36</f>
+        <v>29.92</v>
+      </c>
+      <c r="G36" s="4">
+        <f>[1]Sheet1!H36</f>
+        <v>29.92</v>
+      </c>
+      <c r="H36" s="4">
+        <f>[1]Sheet1!I36</f>
+        <v>29.92</v>
+      </c>
+      <c r="I36" s="4">
+        <f>[1]Sheet1!J36</f>
+        <v>31.93</v>
+      </c>
+      <c r="J36" s="7">
+        <f>[1]Sheet1!K36</f>
+        <v>56</v>
+      </c>
+      <c r="K36" s="1">
+        <f>[1]Sheet1!L36</f>
+        <v>1011</v>
+      </c>
+      <c r="L36" s="9">
+        <f>[1]Sheet1!M36</f>
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="str">
+        <f>[1]Sheet1!B37</f>
+        <v>17\09\24</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>[1]Sheet1!C37</f>
+        <v>ter</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>[1]Sheet1!D37</f>
+        <v>14:08:40</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f>[1]Sheet1!E37</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>[1]Sheet1!F37</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F37" s="4">
+        <f>[1]Sheet1!G37</f>
+        <v>29.42</v>
+      </c>
+      <c r="G37" s="4">
+        <f>[1]Sheet1!H37</f>
+        <v>29.42</v>
+      </c>
+      <c r="H37" s="4">
+        <f>[1]Sheet1!I37</f>
+        <v>29.42</v>
+      </c>
+      <c r="I37" s="4">
+        <f>[1]Sheet1!J37</f>
+        <v>30.95</v>
+      </c>
+      <c r="J37" s="7">
+        <f>[1]Sheet1!K37</f>
+        <v>55</v>
+      </c>
+      <c r="K37" s="1">
+        <f>[1]Sheet1!L37</f>
+        <v>1012</v>
+      </c>
+      <c r="L37" s="9">
+        <f>[1]Sheet1!M37</f>
+        <v>9.7899999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="str">
+        <f>[1]Sheet1!B38</f>
+        <v>18\09\24</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>[1]Sheet1!C38</f>
+        <v>qua</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>[1]Sheet1!D38</f>
+        <v>13:19:45</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>[1]Sheet1!E38</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f>[1]Sheet1!F38</f>
+        <v>nublado</v>
+      </c>
+      <c r="F38" s="4">
+        <f>[1]Sheet1!G38</f>
+        <v>31.71</v>
+      </c>
+      <c r="G38" s="4">
+        <f>[1]Sheet1!H38</f>
+        <v>31.71</v>
+      </c>
+      <c r="H38" s="4">
+        <f>[1]Sheet1!I38</f>
+        <v>32.07</v>
+      </c>
+      <c r="I38" s="4">
+        <f>[1]Sheet1!J38</f>
+        <v>38.71</v>
+      </c>
+      <c r="J38" s="7">
+        <f>[1]Sheet1!K38</f>
+        <v>89</v>
+      </c>
+      <c r="K38" s="1">
+        <f>[1]Sheet1!L38</f>
+        <v>1013</v>
+      </c>
+      <c r="L38" s="9">
+        <f>[1]Sheet1!M38</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="str">
+        <f>[1]Sheet1!B39</f>
+        <v>18\09\24</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>[1]Sheet1!C39</f>
+        <v>qua</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>[1]Sheet1!D39</f>
+        <v>13:19:45</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f>[1]Sheet1!E39</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f>[1]Sheet1!F39</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F39" s="4">
+        <f>[1]Sheet1!G39</f>
+        <v>36.53</v>
+      </c>
+      <c r="G39" s="4">
+        <f>[1]Sheet1!H39</f>
+        <v>36.53</v>
+      </c>
+      <c r="H39" s="4">
+        <f>[1]Sheet1!I39</f>
+        <v>36.53</v>
+      </c>
+      <c r="I39" s="4">
+        <f>[1]Sheet1!J39</f>
+        <v>35.56</v>
+      </c>
+      <c r="J39" s="7">
+        <f>[1]Sheet1!K39</f>
+        <v>24</v>
+      </c>
+      <c r="K39" s="1">
+        <f>[1]Sheet1!L39</f>
+        <v>1011</v>
+      </c>
+      <c r="L39" s="9">
+        <f>[1]Sheet1!M39</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="str">
+        <f>[1]Sheet1!B40</f>
+        <v>18\09\24</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>[1]Sheet1!C40</f>
+        <v>qua</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>[1]Sheet1!D40</f>
+        <v>13:19:45</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f>[1]Sheet1!E40</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f>[1]Sheet1!F40</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F40" s="4">
+        <f>[1]Sheet1!G40</f>
+        <v>31.67</v>
+      </c>
+      <c r="G40" s="4">
+        <f>[1]Sheet1!H40</f>
+        <v>31.67</v>
+      </c>
+      <c r="H40" s="4">
+        <f>[1]Sheet1!I40</f>
+        <v>31.67</v>
+      </c>
+      <c r="I40" s="4">
+        <f>[1]Sheet1!J40</f>
+        <v>33.770000000000003</v>
+      </c>
+      <c r="J40" s="7">
+        <f>[1]Sheet1!K40</f>
+        <v>50</v>
+      </c>
+      <c r="K40" s="1">
+        <f>[1]Sheet1!L40</f>
+        <v>1011</v>
+      </c>
+      <c r="L40" s="9">
+        <f>[1]Sheet1!M40</f>
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="str">
+        <f>[1]Sheet1!B41</f>
+        <v>18\09\24</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>[1]Sheet1!C41</f>
+        <v>qua</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>[1]Sheet1!D41</f>
+        <v>13:19:45</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f>[1]Sheet1!E41</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f>[1]Sheet1!F41</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F41" s="4">
+        <f>[1]Sheet1!G41</f>
+        <v>31.25</v>
+      </c>
+      <c r="G41" s="4">
+        <f>[1]Sheet1!H41</f>
+        <v>31.25</v>
+      </c>
+      <c r="H41" s="4">
+        <f>[1]Sheet1!I41</f>
+        <v>31.25</v>
+      </c>
+      <c r="I41" s="4">
+        <f>[1]Sheet1!J41</f>
+        <v>32.83</v>
+      </c>
+      <c r="J41" s="7">
+        <f>[1]Sheet1!K41</f>
+        <v>49</v>
+      </c>
+      <c r="K41" s="1">
+        <f>[1]Sheet1!L41</f>
+        <v>1012</v>
+      </c>
+      <c r="L41" s="9">
+        <f>[1]Sheet1!M41</f>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="str">
+        <f>[1]Sheet1!B42</f>
+        <v>23\09\24</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>[1]Sheet1!C42</f>
+        <v>seg</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>[1]Sheet1!D42</f>
+        <v>16:49:57</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f>[1]Sheet1!E42</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f>[1]Sheet1!F42</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F42" s="4">
+        <f>[1]Sheet1!G42</f>
+        <v>29.07</v>
+      </c>
+      <c r="G42" s="4">
+        <f>[1]Sheet1!H42</f>
+        <v>27.34</v>
+      </c>
+      <c r="H42" s="4">
+        <f>[1]Sheet1!I42</f>
+        <v>29.07</v>
+      </c>
+      <c r="I42" s="4">
+        <f>[1]Sheet1!J42</f>
+        <v>30.85</v>
+      </c>
+      <c r="J42" s="7">
+        <f>[1]Sheet1!K42</f>
+        <v>58</v>
+      </c>
+      <c r="K42" s="1">
+        <f>[1]Sheet1!L42</f>
+        <v>1011</v>
+      </c>
+      <c r="L42" s="9">
+        <f>[1]Sheet1!M42</f>
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="str">
+        <f>[1]Sheet1!B43</f>
+        <v>23\09\24</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f>[1]Sheet1!C43</f>
+        <v>seg</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>[1]Sheet1!D43</f>
+        <v>16:49:57</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>[1]Sheet1!E43</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f>[1]Sheet1!F43</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F43" s="4">
+        <f>[1]Sheet1!G43</f>
+        <v>35.76</v>
+      </c>
+      <c r="G43" s="4">
+        <f>[1]Sheet1!H43</f>
+        <v>35.76</v>
+      </c>
+      <c r="H43" s="4">
+        <f>[1]Sheet1!I43</f>
+        <v>35.76</v>
+      </c>
+      <c r="I43" s="4">
+        <f>[1]Sheet1!J43</f>
+        <v>34.549999999999997</v>
+      </c>
+      <c r="J43" s="7">
+        <f>[1]Sheet1!K43</f>
+        <v>24</v>
+      </c>
+      <c r="K43" s="1">
+        <f>[1]Sheet1!L43</f>
+        <v>1008</v>
+      </c>
+      <c r="L43" s="9">
+        <f>[1]Sheet1!M43</f>
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="str">
+        <f>[1]Sheet1!B44</f>
+        <v>23\09\24</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f>[1]Sheet1!C44</f>
+        <v>seg</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>[1]Sheet1!D44</f>
+        <v>16:49:57</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f>[1]Sheet1!E44</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f>[1]Sheet1!F44</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F44" s="4">
+        <f>[1]Sheet1!G44</f>
+        <v>26.63</v>
+      </c>
+      <c r="G44" s="4">
+        <f>[1]Sheet1!H44</f>
+        <v>26.63</v>
+      </c>
+      <c r="H44" s="4">
+        <f>[1]Sheet1!I44</f>
+        <v>26.63</v>
+      </c>
+      <c r="I44" s="4">
+        <f>[1]Sheet1!J44</f>
+        <v>26.63</v>
+      </c>
+      <c r="J44" s="7">
+        <f>[1]Sheet1!K44</f>
+        <v>67</v>
+      </c>
+      <c r="K44" s="1">
+        <f>[1]Sheet1!L44</f>
+        <v>1010</v>
+      </c>
+      <c r="L44" s="9">
+        <f>[1]Sheet1!M44</f>
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="str">
+        <f>[1]Sheet1!B45</f>
+        <v>23\09\24</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>[1]Sheet1!C45</f>
+        <v>seg</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>[1]Sheet1!D45</f>
+        <v>16:49:57</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f>[1]Sheet1!E45</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f>[1]Sheet1!F45</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F45" s="4">
+        <f>[1]Sheet1!G45</f>
+        <v>26.32</v>
+      </c>
+      <c r="G45" s="4">
+        <f>[1]Sheet1!H45</f>
+        <v>26.32</v>
+      </c>
+      <c r="H45" s="4">
+        <f>[1]Sheet1!I45</f>
+        <v>26.32</v>
+      </c>
+      <c r="I45" s="4">
+        <f>[1]Sheet1!J45</f>
+        <v>26.32</v>
+      </c>
+      <c r="J45" s="7">
+        <f>[1]Sheet1!K45</f>
+        <v>71</v>
+      </c>
+      <c r="K45" s="1">
+        <f>[1]Sheet1!L45</f>
+        <v>1010</v>
+      </c>
+      <c r="L45" s="9">
+        <f>[1]Sheet1!M45</f>
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J29">
-    <cfRule type="expression" dxfId="85" priority="5">
+  <conditionalFormatting sqref="J2:J45">
+    <cfRule type="expression" dxfId="61" priority="5">
       <formula>$J2&lt;=50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F29">
-    <cfRule type="expression" dxfId="84" priority="4">
+  <conditionalFormatting sqref="F2:F45">
+    <cfRule type="expression" dxfId="60" priority="4">
       <formula>$F2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I29">
-    <cfRule type="expression" dxfId="83" priority="1">
+  <conditionalFormatting sqref="I2:I45">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>$I2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19165,7 +20903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5901B3E-A3E8-4B5E-9369-35A4919B8B84}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -19222,31 +20960,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -19254,7 +20992,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>30.465714285714284</v>
+        <v>30.277272727272727</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -19262,7 +21000,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="5">
-        <v>30.535714285714285</v>
+        <v>30.482727272727274</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -19300,10 +21038,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>29.788571428571426</v>
+        <v>29.655454545454543</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -19312,25 +21050,25 @@
         <v>24</v>
       </c>
       <c r="H4" s="5">
-        <v>36.28</v>
+        <v>29.93</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="5">
-        <v>34.68</v>
+        <v>31.26</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="8">
-        <v>3.85</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="S4" s="8">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -19338,37 +21076,37 @@
         <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>36.424285714285716</v>
+        <v>36.451818181818183</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="5">
-        <v>36.72</v>
+        <v>29.56</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="5">
-        <v>35.61</v>
+        <v>31.33</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P5" s="8">
-        <v>3.65</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="S5" s="8">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -19376,37 +21114,37 @@
         <v>17</v>
       </c>
       <c r="B6" s="5">
-        <v>31.803571428571427</v>
+        <v>31.71681818181818</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="5">
-        <v>36.89</v>
+        <v>29.27</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="5">
-        <v>35.840000000000003</v>
+        <v>30.57</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P6" s="8">
-        <v>3.82</v>
+        <v>9.51</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="S6" s="8">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -19414,25 +21152,25 @@
         <v>27</v>
       </c>
       <c r="H7" s="5">
-        <v>36.64</v>
+        <v>29.48</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="5">
-        <v>35.93</v>
+        <v>31.53</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="8">
-        <v>4.16</v>
+        <v>9.77</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="S7" s="8">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -19446,25 +21184,25 @@
         <v>28</v>
       </c>
       <c r="H8" s="5">
-        <v>36.1</v>
+        <v>29.8</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="5">
-        <v>34.630000000000003</v>
+        <v>31.06</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P8" s="8">
-        <v>3.68</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S8" s="8">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -19472,31 +21210,31 @@
         <v>13</v>
       </c>
       <c r="B9" s="5">
-        <v>32.449999999999996</v>
+        <v>32.097272727272724</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="5">
-        <v>34.82</v>
+        <v>31.34</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L9" s="5">
-        <v>33.85</v>
+        <v>32.78</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P9" s="8">
-        <v>3.75</v>
+        <v>8.77</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S9" s="8">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -19504,31 +21242,31 @@
         <v>14</v>
       </c>
       <c r="B10" s="5">
-        <v>36.664285714285718</v>
+        <v>36.020909090909093</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="5">
-        <v>37.520000000000003</v>
+        <v>29.14</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="5">
-        <v>35.85</v>
+        <v>31.11</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="P10" s="8">
-        <v>3.82</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="S10" s="8">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -19536,31 +21274,31 @@
         <v>15</v>
       </c>
       <c r="B11" s="5">
-        <v>31.377142857142854</v>
+        <v>31.079090909090905</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H11" s="5">
-        <v>36.424285714285716</v>
+        <v>30.7</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L11" s="5">
-        <v>35.198571428571427</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="P11" s="8">
-        <v>3.8185714285714285</v>
+        <v>9.81</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="S11" s="8">
-        <v>22.857142857142858</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -19568,7 +21306,31 @@
         <v>16</v>
       </c>
       <c r="B12" s="5">
-        <v>35.198571428571427</v>
+        <v>35.265454545454539</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="5">
+        <v>29.42</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="5">
+        <v>30.95</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="8">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="8">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -19576,7 +21338,57 @@
         <v>17</v>
       </c>
       <c r="B13" s="5">
-        <v>33.922499999999999</v>
+        <v>33.615681818181805</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="5">
+        <v>31.25</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="5">
+        <v>32.83</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="8">
+        <v>10.4</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="5">
+        <v>26.32</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="5">
+        <v>26.32</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="8">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="8">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -19586,13 +21398,37 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
+      <c r="G15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="5">
+        <v>29.655454545454543</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="5">
+        <v>31.079090909090905</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="8">
+        <v>9.3690909090909091</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="8">
+        <v>54.909090909090907</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="6">
-        <v>53.857142857142854</v>
+        <v>54.545454545454547</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -19600,7 +21436,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>80.428571428571431</v>
+        <v>76.818181818181813</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -19608,7 +21444,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6">
-        <v>54.142857142857146</v>
+        <v>54.909090909090907</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -19616,7 +21452,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6">
-        <v>22.857142857142858</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -19624,7 +21460,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6">
-        <v>52.821428571428569</v>
+        <v>52.31818181818182</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -19640,7 +21476,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>9.6814285714285706</v>
+        <v>9.8090909090909104</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -19648,7 +21484,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="6">
-        <v>9.4057142857142857</v>
+        <v>9.165454545454546</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -19656,7 +21492,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="6">
-        <v>9.2542857142857144</v>
+        <v>9.3690909090909091</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -19664,7 +21500,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="6">
-        <v>3.8185714285714285</v>
+        <v>3.8009090909090912</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -19672,7 +21508,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="6">
-        <v>8.0399999999999991</v>
+        <v>8.036136363636361</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F867700E-5B48-43A6-9894-6353EA16C206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8977E48D-7888-4DDA-BD17-9114F5A5FDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
   <si>
     <t>Data</t>
   </si>
@@ -162,6 +162,27 @@
   <si>
     <t>23\09\24</t>
   </si>
+  <si>
+    <t>24\09\24</t>
+  </si>
+  <si>
+    <t>25\09\24</t>
+  </si>
+  <si>
+    <t>26\09\24</t>
+  </si>
+  <si>
+    <t>27\09\24</t>
+  </si>
+  <si>
+    <t>29\09\24</t>
+  </si>
+  <si>
+    <t>nublado</t>
+  </si>
+  <si>
+    <t>30\09\24</t>
+  </si>
 </sst>
 </file>
 
@@ -233,7 +254,43 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="74">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -286,7 +343,13 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -296,12 +359,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -334,12 +391,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -349,7 +400,13 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -1220,16 +1277,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30.277272727272727</c:v>
+                  <c:v>30.207647058823529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.482727272727274</c:v>
+                  <c:v>30.261764705882349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.655454545454543</c:v>
+                  <c:v>29.66411764705882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.451818181818183</c:v>
+                  <c:v>36.914117647058831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2294,16 +2351,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32.097272727272724</c:v>
+                  <c:v>32.259411764705881</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.020909090909093</c:v>
+                  <c:v>35.241176470588243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.079090909090905</c:v>
+                  <c:v>31.31941176470588</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.265454545454539</c:v>
+                  <c:v>36.069999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3359,16 +3416,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>54.545454545454547</c:v>
+                  <c:v>55.705882352941174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.818181818181813</c:v>
+                  <c:v>74.17647058823529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.909090909090907</c:v>
+                  <c:v>55.764705882352942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>23.705882352941178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4119,16 +4176,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.8090909090909104</c:v>
+                  <c:v>9.8794117647058819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.165454545454546</c:v>
+                  <c:v>8.8364705882352936</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3690909090909091</c:v>
+                  <c:v>9.2841176470588245</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8009090909090912</c:v>
+                  <c:v>3.5111764705882358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4873,9 +4930,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$G$4:$G$15</c:f>
+              <c:f>'Tabelas dinâmicas'!$G$4:$G$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -4909,47 +4966,83 @@
                 <c:pt idx="10">
                   <c:v>23\09\24</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>24\09\24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25\09\24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26\09\24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27\09\24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29\09\24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$H$4:$H$15</c:f>
+              <c:f>'Tabelas dinâmicas'!$H$4:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>29.93</c:v>
+                  <c:v>36.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.56</c:v>
+                  <c:v>36.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.27</c:v>
+                  <c:v>36.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.48</c:v>
+                  <c:v>36.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.8</c:v>
+                  <c:v>36.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.34</c:v>
+                  <c:v>34.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.14</c:v>
+                  <c:v>37.520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.7</c:v>
+                  <c:v>36.659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.42</c:v>
+                  <c:v>37.049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.25</c:v>
+                  <c:v>36.53</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.32</c:v>
+                  <c:v>35.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.58</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.869999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5710,9 +5803,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$K$4:$K$15</c:f>
+              <c:f>'Tabelas dinâmicas'!$K$4:$K$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -5746,47 +5839,83 @@
                 <c:pt idx="10">
                   <c:v>23\09\24</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>24\09\24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25\09\24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26\09\24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27\09\24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29\09\24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$L$4:$L$15</c:f>
+              <c:f>'Tabelas dinâmicas'!$L$4:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>31.26</c:v>
+                  <c:v>34.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.33</c:v>
+                  <c:v>35.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.57</c:v>
+                  <c:v>35.840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.53</c:v>
+                  <c:v>35.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.06</c:v>
+                  <c:v>34.630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.78</c:v>
+                  <c:v>33.85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.11</c:v>
+                  <c:v>35.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.130000000000003</c:v>
+                  <c:v>35.96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.95</c:v>
+                  <c:v>35.46</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.83</c:v>
+                  <c:v>35.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.32</c:v>
+                  <c:v>34.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6497,6 +6626,44 @@
           </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF">
+              <a:lumMod val="50000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="ED7D31"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -6556,6 +6723,43 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-A034-4826-9617-29E2518F6D20}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4101-48F3-912D-34260ADC01D7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-4101-48F3-912D-34260ADC01D7}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -6624,29 +6828,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$D$4:$D$6</c:f>
+              <c:f>'Tabelas dinâmicas'!$D$4:$D$7</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>algumas nuvens</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>céu limpo</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>nublado</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$E$4:$E$6</c:f>
+              <c:f>'Tabelas dinâmicas'!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6876,7 +7086,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Monitoramento_Clima.xlsx]Tabelas dinâmicas!Velocidadde Vento Durante o Tempo</c:name>
-    <c:fmtId val="4"/>
+    <c:fmtId val="6"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -7095,6 +7305,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="002060"/>
@@ -7248,6 +7461,181 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -7369,9 +7757,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$O$4:$O$15</c:f>
+              <c:f>'Tabelas dinâmicas'!$O$4:$O$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -7405,47 +7793,83 @@
                 <c:pt idx="10">
                   <c:v>23\09\24</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>24\09\24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25\09\24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26\09\24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27\09\24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29\09\24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$P$4:$P$15</c:f>
+              <c:f>'Tabelas dinâmicas'!$P$4:$P$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4499999999999993</c:v>
+                  <c:v>3.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.51</c:v>
+                  <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.77</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8699999999999992</c:v>
+                  <c:v>3.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.77</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7100000000000009</c:v>
+                  <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.81</c:v>
+                  <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.7899999999999991</c:v>
+                  <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.4</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2799999999999994</c:v>
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7453,7 +7877,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BACA-4B19-8B40-81CA74D2A8C1}"/>
+              <c16:uniqueId val="{00000000-8624-4BB7-8716-AE421023EB2A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7660,7 +8084,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Monitoramento_Clima.xlsx]Tabelas dinâmicas!Humidade do Ar Durante o Tempo</c:name>
-    <c:fmtId val="17"/>
+    <c:fmtId val="19"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -7905,6 +8329,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:srgbClr val="002060"/>
@@ -8047,6 +8474,181 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -8168,9 +8770,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$R$4:$R$15</c:f>
+              <c:f>'Tabelas dinâmicas'!$R$4:$R$21</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -8204,47 +8806,83 @@
                 <c:pt idx="10">
                   <c:v>23\09\24</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>24\09\24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25\09\24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26\09\24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27\09\24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29\09\24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30\09\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$S$4:$S$15</c:f>
+              <c:f>'Tabelas dinâmicas'!$S$4:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8252,7 +8890,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D2D-46CC-A1E9-4B6C4E6CCC34}"/>
+              <c16:uniqueId val="{00000000-0D4E-4D3F-8FD1-145DFCFDA77A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13491,13 +14129,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>84524</xdr:colOff>
+      <xdr:colOff>84523</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>137672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>427904</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>394608</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>23372</xdr:rowOff>
     </xdr:to>
@@ -13606,16 +14244,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>136070</xdr:rowOff>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>431427</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>352600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>144235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13682,23 +14320,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>612320</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>214757</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Velocidadde Med. do Vento Durante o Tempo">
+        <xdr:cNvPr id="12" name="Velocidadde Med. do Vento Durante o Tempo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27DFE8B-178E-4DBF-B7C5-C436E72E231D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6099975C-EBCD-46C6-907E-CF2BE1A515D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13720,23 +14358,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>8165</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Gráfico 15">
+        <xdr:cNvPr id="15" name="Gráfico 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68F52CD-6BC3-4952-9BB4-51F996B6CDC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D69B0C-A883-4E17-834E-B50DD8088A61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15439,6 +16077,918 @@
             <v>8.2799999999999994</v>
           </cell>
         </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>24\09\24</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>13:26:27</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G46">
+            <v>29.07</v>
+          </cell>
+          <cell r="H46">
+            <v>27.34</v>
+          </cell>
+          <cell r="I46">
+            <v>29.07</v>
+          </cell>
+          <cell r="J46">
+            <v>31.31</v>
+          </cell>
+          <cell r="K46">
+            <v>61</v>
+          </cell>
+          <cell r="L46">
+            <v>1012</v>
+          </cell>
+          <cell r="M46">
+            <v>8.75</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>24\09\24</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>13:26:27</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F47" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G47">
+            <v>36.909999999999997</v>
+          </cell>
+          <cell r="H47">
+            <v>36.909999999999997</v>
+          </cell>
+          <cell r="I47">
+            <v>36.909999999999997</v>
+          </cell>
+          <cell r="J47">
+            <v>36.549999999999997</v>
+          </cell>
+          <cell r="K47">
+            <v>26</v>
+          </cell>
+          <cell r="L47">
+            <v>1010</v>
+          </cell>
+          <cell r="M47">
+            <v>3.07</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>24\09\24</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>13:26:27</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F48" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G48">
+            <v>31.16</v>
+          </cell>
+          <cell r="H48">
+            <v>31.16</v>
+          </cell>
+          <cell r="I48">
+            <v>31.16</v>
+          </cell>
+          <cell r="J48">
+            <v>33.74</v>
+          </cell>
+          <cell r="K48">
+            <v>54</v>
+          </cell>
+          <cell r="L48">
+            <v>1011</v>
+          </cell>
+          <cell r="M48">
+            <v>9.31</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>24\09\24</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>13:26:27</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F49" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G49">
+            <v>30.63</v>
+          </cell>
+          <cell r="H49">
+            <v>30.63</v>
+          </cell>
+          <cell r="I49">
+            <v>30.63</v>
+          </cell>
+          <cell r="J49">
+            <v>32.979999999999997</v>
+          </cell>
+          <cell r="K49">
+            <v>55</v>
+          </cell>
+          <cell r="L49">
+            <v>1012</v>
+          </cell>
+          <cell r="M49">
+            <v>8.81</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>25\09\24</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>14:17:42</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F50" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G50">
+            <v>29.07</v>
+          </cell>
+          <cell r="H50">
+            <v>27.34</v>
+          </cell>
+          <cell r="I50">
+            <v>29.07</v>
+          </cell>
+          <cell r="J50">
+            <v>31.31</v>
+          </cell>
+          <cell r="K50">
+            <v>61</v>
+          </cell>
+          <cell r="L50">
+            <v>1011</v>
+          </cell>
+          <cell r="M50">
+            <v>7.72</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>25\09\24</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>14:17:42</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F51" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G51">
+            <v>38.520000000000003</v>
+          </cell>
+          <cell r="H51">
+            <v>38.520000000000003</v>
+          </cell>
+          <cell r="I51">
+            <v>38.520000000000003</v>
+          </cell>
+          <cell r="J51">
+            <v>38.119999999999997</v>
+          </cell>
+          <cell r="K51">
+            <v>23</v>
+          </cell>
+          <cell r="L51">
+            <v>1008</v>
+          </cell>
+          <cell r="M51">
+            <v>2.41</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>25\09\24</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>14:17:42</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F52" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G52">
+            <v>29.92</v>
+          </cell>
+          <cell r="H52">
+            <v>29.92</v>
+          </cell>
+          <cell r="I52">
+            <v>29.92</v>
+          </cell>
+          <cell r="J52">
+            <v>32.299999999999997</v>
+          </cell>
+          <cell r="K52">
+            <v>58</v>
+          </cell>
+          <cell r="L52">
+            <v>1009</v>
+          </cell>
+          <cell r="M52">
+            <v>10.14</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>25\09\24</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>14:17:42</v>
+          </cell>
+          <cell r="E53" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F53" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G53">
+            <v>29.69</v>
+          </cell>
+          <cell r="H53">
+            <v>29.69</v>
+          </cell>
+          <cell r="I53">
+            <v>29.69</v>
+          </cell>
+          <cell r="J53">
+            <v>31.71</v>
+          </cell>
+          <cell r="K53">
+            <v>57</v>
+          </cell>
+          <cell r="L53">
+            <v>1010</v>
+          </cell>
+          <cell r="M53">
+            <v>9.08</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>26\09\24</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>14:27:32</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F54" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G54">
+            <v>30.15</v>
+          </cell>
+          <cell r="H54">
+            <v>27.34</v>
+          </cell>
+          <cell r="I54">
+            <v>31.15</v>
+          </cell>
+          <cell r="J54">
+            <v>36.99</v>
+          </cell>
+          <cell r="K54">
+            <v>76</v>
+          </cell>
+          <cell r="L54">
+            <v>1011</v>
+          </cell>
+          <cell r="M54">
+            <v>7.2</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>26\09\24</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>14:27:32</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F55" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G55">
+            <v>37.86</v>
+          </cell>
+          <cell r="H55">
+            <v>37.86</v>
+          </cell>
+          <cell r="I55">
+            <v>37.86</v>
+          </cell>
+          <cell r="J55">
+            <v>37.69</v>
+          </cell>
+          <cell r="K55">
+            <v>25</v>
+          </cell>
+          <cell r="L55">
+            <v>1008</v>
+          </cell>
+          <cell r="M55">
+            <v>2.89</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>26\09\24</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>14:27:32</v>
+          </cell>
+          <cell r="E56" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G56">
+            <v>29.72</v>
+          </cell>
+          <cell r="H56">
+            <v>29.72</v>
+          </cell>
+          <cell r="I56">
+            <v>29.72</v>
+          </cell>
+          <cell r="J56">
+            <v>32.31</v>
+          </cell>
+          <cell r="K56">
+            <v>60</v>
+          </cell>
+          <cell r="L56">
+            <v>1009</v>
+          </cell>
+          <cell r="M56">
+            <v>10.34</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>26\09\24</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>14:27:32</v>
+          </cell>
+          <cell r="E57" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G57">
+            <v>29.39</v>
+          </cell>
+          <cell r="H57">
+            <v>29.39</v>
+          </cell>
+          <cell r="I57">
+            <v>29.39</v>
+          </cell>
+          <cell r="J57">
+            <v>31.54</v>
+          </cell>
+          <cell r="K57">
+            <v>59</v>
+          </cell>
+          <cell r="L57">
+            <v>1010</v>
+          </cell>
+          <cell r="M57">
+            <v>9.23</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>27\09\24</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>14:26:12</v>
+          </cell>
+          <cell r="E58" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F58" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G58">
+            <v>29.07</v>
+          </cell>
+          <cell r="H58">
+            <v>26.79</v>
+          </cell>
+          <cell r="I58">
+            <v>29.07</v>
+          </cell>
+          <cell r="J58">
+            <v>31.98</v>
+          </cell>
+          <cell r="K58">
+            <v>65</v>
+          </cell>
+          <cell r="L58">
+            <v>1011</v>
+          </cell>
+          <cell r="M58">
+            <v>8.75</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>27\09\24</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>14:26:12</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G59">
+            <v>37.58</v>
+          </cell>
+          <cell r="H59">
+            <v>37.58</v>
+          </cell>
+          <cell r="I59">
+            <v>37.58</v>
+          </cell>
+          <cell r="J59">
+            <v>37.54</v>
+          </cell>
+          <cell r="K59">
+            <v>26</v>
+          </cell>
+          <cell r="L59">
+            <v>1008</v>
+          </cell>
+          <cell r="M59">
+            <v>2.88</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>27\09\24</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>14:26:12</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F60" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G60">
+            <v>30.11</v>
+          </cell>
+          <cell r="H60">
+            <v>30.11</v>
+          </cell>
+          <cell r="I60">
+            <v>30.11</v>
+          </cell>
+          <cell r="J60">
+            <v>33.04</v>
+          </cell>
+          <cell r="K60">
+            <v>60</v>
+          </cell>
+          <cell r="L60">
+            <v>1009</v>
+          </cell>
+          <cell r="M60">
+            <v>9.75</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>27\09\24</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>14:26:12</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F61" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G61">
+            <v>29.7</v>
+          </cell>
+          <cell r="H61">
+            <v>29.7</v>
+          </cell>
+          <cell r="I61">
+            <v>29.7</v>
+          </cell>
+          <cell r="J61">
+            <v>32.090000000000003</v>
+          </cell>
+          <cell r="K61">
+            <v>59</v>
+          </cell>
+          <cell r="L61">
+            <v>1010</v>
+          </cell>
+          <cell r="M61">
+            <v>8.65</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>29\09\24</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>13:48:10</v>
+          </cell>
+          <cell r="E62" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F62" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G62">
+            <v>31.71</v>
+          </cell>
+          <cell r="H62">
+            <v>30.07</v>
+          </cell>
+          <cell r="I62">
+            <v>31.71</v>
+          </cell>
+          <cell r="J62">
+            <v>38.71</v>
+          </cell>
+          <cell r="K62">
+            <v>95</v>
+          </cell>
+          <cell r="L62">
+            <v>1010</v>
+          </cell>
+          <cell r="M62">
+            <v>7.72</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>29\09\24</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>13:48:10</v>
+          </cell>
+          <cell r="E63" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F63" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G63">
+            <v>37.83</v>
+          </cell>
+          <cell r="H63">
+            <v>37.83</v>
+          </cell>
+          <cell r="I63">
+            <v>37.83</v>
+          </cell>
+          <cell r="J63">
+            <v>37.93</v>
+          </cell>
+          <cell r="K63">
+            <v>26</v>
+          </cell>
+          <cell r="L63">
+            <v>1007</v>
+          </cell>
+          <cell r="M63">
+            <v>3.53</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>29\09\24</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>13:48:10</v>
+          </cell>
+          <cell r="E64" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F64" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G64">
+            <v>30.82</v>
+          </cell>
+          <cell r="H64">
+            <v>30.82</v>
+          </cell>
+          <cell r="I64">
+            <v>30.82</v>
+          </cell>
+          <cell r="J64">
+            <v>33.33</v>
+          </cell>
+          <cell r="K64">
+            <v>55</v>
+          </cell>
+          <cell r="L64">
+            <v>1008</v>
+          </cell>
+          <cell r="M64">
+            <v>10.59</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>29\09\24</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>13:48:10</v>
+          </cell>
+          <cell r="E65" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F65" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G65">
+            <v>30.05</v>
+          </cell>
+          <cell r="H65">
+            <v>30.05</v>
+          </cell>
+          <cell r="I65">
+            <v>30.05</v>
+          </cell>
+          <cell r="J65">
+            <v>31.97</v>
+          </cell>
+          <cell r="K65">
+            <v>55</v>
+          </cell>
+          <cell r="L65">
+            <v>1009</v>
+          </cell>
+          <cell r="M65">
+            <v>10.02</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>30\09\24</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>14:32:12</v>
+          </cell>
+          <cell r="E66" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F66" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G66">
+            <v>30.07</v>
+          </cell>
+          <cell r="H66">
+            <v>27.34</v>
+          </cell>
+          <cell r="I66">
+            <v>30.07</v>
+          </cell>
+          <cell r="J66">
+            <v>32.57</v>
+          </cell>
+          <cell r="K66">
+            <v>58</v>
+          </cell>
+          <cell r="L66">
+            <v>1010</v>
+          </cell>
+          <cell r="M66">
+            <v>9.26</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>30\09\24</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>14:32:12</v>
+          </cell>
+          <cell r="E67" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F67" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G67">
+            <v>37.869999999999997</v>
+          </cell>
+          <cell r="H67">
+            <v>37.869999999999997</v>
+          </cell>
+          <cell r="I67">
+            <v>37.869999999999997</v>
+          </cell>
+          <cell r="J67">
+            <v>37.44</v>
+          </cell>
+          <cell r="K67">
+            <v>24</v>
+          </cell>
+          <cell r="L67">
+            <v>1006</v>
+          </cell>
+          <cell r="M67">
+            <v>3.1</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>30\09\24</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>14:32:12</v>
+          </cell>
+          <cell r="E68" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F68" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G68">
+            <v>28.75</v>
+          </cell>
+          <cell r="H68">
+            <v>28.75</v>
+          </cell>
+          <cell r="I68">
+            <v>28.75</v>
+          </cell>
+          <cell r="J68">
+            <v>30.62</v>
+          </cell>
+          <cell r="K68">
+            <v>60</v>
+          </cell>
+          <cell r="L68">
+            <v>1008</v>
+          </cell>
+          <cell r="M68">
+            <v>9.92</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>30\09\24</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>14:32:12</v>
+          </cell>
+          <cell r="E69" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F69" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G69">
+            <v>28.62</v>
+          </cell>
+          <cell r="H69">
+            <v>28.62</v>
+          </cell>
+          <cell r="I69">
+            <v>28.62</v>
+          </cell>
+          <cell r="J69">
+            <v>30.27</v>
+          </cell>
+          <cell r="K69">
+            <v>59</v>
+          </cell>
+          <cell r="L69">
+            <v>1009</v>
+          </cell>
+          <cell r="M69">
+            <v>8.98</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -15446,13 +16996,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45558.701769560183" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="44" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45565.606710995373" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="68" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
   <cacheSource type="worksheet">
     <worksheetSource name="Monitoramento_Clima"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Data" numFmtId="0">
-      <sharedItems count="11">
+      <sharedItems count="17">
         <s v="09\09\24"/>
         <s v="10\09\24"/>
         <s v="11\09\24"/>
@@ -15464,6 +17014,12 @@
         <s v="17\09\24"/>
         <s v="18\09\24"/>
         <s v="23\09\24"/>
+        <s v="24\09\24"/>
+        <s v="25\09\24"/>
+        <s v="26\09\24"/>
+        <s v="27\09\24"/>
+        <s v="29\09\24"/>
+        <s v="30\09\24"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Dia da semana" numFmtId="0">
@@ -15481,32 +17037,33 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="4">
         <s v="algumas nuvens"/>
         <s v="céu limpo"/>
         <s v="nublado"/>
+        <s v="nuvens dispersas"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Teperatura" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="37.520000000000003"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="38.520000000000003"/>
     </cacheField>
     <cacheField name="Temperatura mínima" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="37.520000000000003"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="38.520000000000003"/>
     </cacheField>
     <cacheField name="Temperatura máxima" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="37.520000000000003"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="38.520000000000003"/>
     </cacheField>
     <cacheField name="Sensação térmica" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="38.71"/>
     </cacheField>
     <cacheField name="Humidade do ar" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="94"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="95"/>
     </cacheField>
     <cacheField name="Pressão atmosférica" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1008" maxValue="1014"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1006" maxValue="1014"/>
     </cacheField>
     <cacheField name="Velocidade do vento" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.92" maxValue="10.8"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.41" maxValue="10.8"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -15518,7 +17075,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="44">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="68">
   <r>
     <x v="0"/>
     <s v="seg"/>
@@ -16135,354 +17692,346 @@
     <n v="1010"/>
     <n v="8.2799999999999994"/>
   </r>
+  <r>
+    <x v="11"/>
+    <s v="ter"/>
+    <s v="13:26:27"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="29.07"/>
+    <n v="27.34"/>
+    <n v="29.07"/>
+    <n v="31.31"/>
+    <n v="61"/>
+    <n v="1012"/>
+    <n v="8.75"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="ter"/>
+    <s v="13:26:27"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="36.909999999999997"/>
+    <n v="36.909999999999997"/>
+    <n v="36.909999999999997"/>
+    <n v="36.549999999999997"/>
+    <n v="26"/>
+    <n v="1010"/>
+    <n v="3.07"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="ter"/>
+    <s v="13:26:27"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="31.16"/>
+    <n v="31.16"/>
+    <n v="31.16"/>
+    <n v="33.74"/>
+    <n v="54"/>
+    <n v="1011"/>
+    <n v="9.31"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="ter"/>
+    <s v="13:26:27"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="30.63"/>
+    <n v="30.63"/>
+    <n v="30.63"/>
+    <n v="32.979999999999997"/>
+    <n v="55"/>
+    <n v="1012"/>
+    <n v="8.81"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="qua"/>
+    <s v="14:17:42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="29.07"/>
+    <n v="27.34"/>
+    <n v="29.07"/>
+    <n v="31.31"/>
+    <n v="61"/>
+    <n v="1011"/>
+    <n v="7.72"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="qua"/>
+    <s v="14:17:42"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="38.520000000000003"/>
+    <n v="38.520000000000003"/>
+    <n v="38.520000000000003"/>
+    <n v="38.119999999999997"/>
+    <n v="23"/>
+    <n v="1008"/>
+    <n v="2.41"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="qua"/>
+    <s v="14:17:42"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="29.92"/>
+    <n v="29.92"/>
+    <n v="29.92"/>
+    <n v="32.299999999999997"/>
+    <n v="58"/>
+    <n v="1009"/>
+    <n v="10.14"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="qua"/>
+    <s v="14:17:42"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="29.69"/>
+    <n v="29.69"/>
+    <n v="29.69"/>
+    <n v="31.71"/>
+    <n v="57"/>
+    <n v="1010"/>
+    <n v="9.08"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="qui"/>
+    <s v="14:27:32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="30.15"/>
+    <n v="27.34"/>
+    <n v="31.15"/>
+    <n v="36.99"/>
+    <n v="76"/>
+    <n v="1011"/>
+    <n v="7.2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="qui"/>
+    <s v="14:27:32"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="37.86"/>
+    <n v="37.86"/>
+    <n v="37.86"/>
+    <n v="37.69"/>
+    <n v="25"/>
+    <n v="1008"/>
+    <n v="2.89"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="qui"/>
+    <s v="14:27:32"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="29.72"/>
+    <n v="29.72"/>
+    <n v="29.72"/>
+    <n v="32.31"/>
+    <n v="60"/>
+    <n v="1009"/>
+    <n v="10.34"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="qui"/>
+    <s v="14:27:32"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="29.39"/>
+    <n v="29.39"/>
+    <n v="29.39"/>
+    <n v="31.54"/>
+    <n v="59"/>
+    <n v="1010"/>
+    <n v="9.23"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="sex"/>
+    <s v="14:26:12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="29.07"/>
+    <n v="26.79"/>
+    <n v="29.07"/>
+    <n v="31.98"/>
+    <n v="65"/>
+    <n v="1011"/>
+    <n v="8.75"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="sex"/>
+    <s v="14:26:12"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="37.58"/>
+    <n v="37.58"/>
+    <n v="37.58"/>
+    <n v="37.54"/>
+    <n v="26"/>
+    <n v="1008"/>
+    <n v="2.88"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="sex"/>
+    <s v="14:26:12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="30.11"/>
+    <n v="30.11"/>
+    <n v="30.11"/>
+    <n v="33.04"/>
+    <n v="60"/>
+    <n v="1009"/>
+    <n v="9.75"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="sex"/>
+    <s v="14:26:12"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="29.7"/>
+    <n v="29.7"/>
+    <n v="29.7"/>
+    <n v="32.090000000000003"/>
+    <n v="59"/>
+    <n v="1010"/>
+    <n v="8.65"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="dom"/>
+    <s v="13:48:10"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="31.71"/>
+    <n v="30.07"/>
+    <n v="31.71"/>
+    <n v="38.71"/>
+    <n v="95"/>
+    <n v="1010"/>
+    <n v="7.72"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="dom"/>
+    <s v="13:48:10"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="37.83"/>
+    <n v="37.83"/>
+    <n v="37.83"/>
+    <n v="37.93"/>
+    <n v="26"/>
+    <n v="1007"/>
+    <n v="3.53"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="dom"/>
+    <s v="13:48:10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="30.82"/>
+    <n v="30.82"/>
+    <n v="30.82"/>
+    <n v="33.33"/>
+    <n v="55"/>
+    <n v="1008"/>
+    <n v="10.59"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="dom"/>
+    <s v="13:48:10"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="30.05"/>
+    <n v="30.05"/>
+    <n v="30.05"/>
+    <n v="31.97"/>
+    <n v="55"/>
+    <n v="1009"/>
+    <n v="10.02"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="seg"/>
+    <s v="14:32:12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="30.07"/>
+    <n v="27.34"/>
+    <n v="30.07"/>
+    <n v="32.57"/>
+    <n v="58"/>
+    <n v="1010"/>
+    <n v="9.26"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="seg"/>
+    <s v="14:32:12"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="37.869999999999997"/>
+    <n v="37.869999999999997"/>
+    <n v="37.869999999999997"/>
+    <n v="37.44"/>
+    <n v="24"/>
+    <n v="1006"/>
+    <n v="3.1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="seg"/>
+    <s v="14:32:12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="28.75"/>
+    <n v="28.75"/>
+    <n v="28.75"/>
+    <n v="30.62"/>
+    <n v="60"/>
+    <n v="1008"/>
+    <n v="9.92"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="seg"/>
+    <s v="14:32:12"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="28.62"/>
+    <n v="28.62"/>
+    <n v="28.62"/>
+    <n v="30.27"/>
+    <n v="59"/>
+    <n v="1009"/>
+    <n v="8.98"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="D3:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Contagem de Status" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="7" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="R3:S15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="26">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="15" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="O3:P15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="27">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -16534,7 +18083,7 @@
     <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="28">
+    <format dxfId="38">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16666,12 +18215,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="K3:L15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="K3:L21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="18">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -16683,6 +18232,12 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16692,8 +18247,8 @@
       <items count="5">
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16709,7 +18264,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="18">
     <i>
       <x/>
     </i>
@@ -16743,6 +18298,24 @@
     <i>
       <x v="10"/>
     </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -16757,7 +18330,7 @@
     <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="29">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16784,7 +18357,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Sesação Térmica Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -16836,7 +18409,7 @@
     <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="30">
+    <format dxfId="40">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16968,7 +18541,303 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="D3:E7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de Status" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="7" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+  <location ref="R3:S21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="41">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="5">
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Temperatura Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -17020,7 +18889,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="31">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17266,12 +19135,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="G3:H15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="O3:P21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="18">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -17283,6 +19152,12 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -17292,24 +19167,24 @@
       <items count="5">
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="18">
     <i>
       <x/>
     </i>
@@ -17343,6 +19218,184 @@
     <i>
       <x v="10"/>
     </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="43">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="G3:H21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -17357,7 +19410,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="32">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17538,8 +19591,8 @@
       <items count="4">
         <i x="2"/>
         <i x="0"/>
-        <i x="3" s="1"/>
-        <i x="1"/>
+        <i x="3"/>
+        <i x="1" s="1"/>
       </items>
     </tabular>
   </data>
@@ -17553,43 +19606,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L45" headerRowDxfId="58" dataDxfId="57">
-  <autoFilter ref="A1:L45" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L69" headerRowDxfId="70" dataDxfId="69">
+  <autoFilter ref="A1:L69" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
   <tableColumns count="12">
-    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="56" totalsRowDxfId="55">
+    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="68" totalsRowDxfId="67">
       <calculatedColumnFormula>[1]Sheet1!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="66" totalsRowDxfId="65">
       <calculatedColumnFormula>[1]Sheet1!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>[1]Sheet1!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="62" totalsRowDxfId="61">
       <calculatedColumnFormula>[1]Sheet1!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="60" totalsRowDxfId="59">
       <calculatedColumnFormula>[1]Sheet1!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="46" totalsRowDxfId="45">
+    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="58" totalsRowDxfId="57">
       <calculatedColumnFormula>[1]Sheet1!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="56" totalsRowDxfId="55">
       <calculatedColumnFormula>[1]Sheet1!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="42" totalsRowDxfId="41">
+    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>[1]Sheet1!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="52" totalsRowDxfId="51">
       <calculatedColumnFormula>[1]Sheet1!J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Porcentagem">
+    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]Sheet1!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>[1]Sheet1!L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="34" totalsRowDxfId="33">
+    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="46" totalsRowDxfId="45">
       <calculatedColumnFormula>[1]Sheet1!M2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18616,10 +20669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView showGridLines="0" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20876,19 +22929,1219 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="str">
+        <f>[1]Sheet1!B46</f>
+        <v>24\09\24</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>[1]Sheet1!C46</f>
+        <v>ter</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>[1]Sheet1!D46</f>
+        <v>13:26:27</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f>[1]Sheet1!E46</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f>[1]Sheet1!F46</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F46" s="4">
+        <f>[1]Sheet1!G46</f>
+        <v>29.07</v>
+      </c>
+      <c r="G46" s="4">
+        <f>[1]Sheet1!H46</f>
+        <v>27.34</v>
+      </c>
+      <c r="H46" s="4">
+        <f>[1]Sheet1!I46</f>
+        <v>29.07</v>
+      </c>
+      <c r="I46" s="4">
+        <f>[1]Sheet1!J46</f>
+        <v>31.31</v>
+      </c>
+      <c r="J46" s="7">
+        <f>[1]Sheet1!K46</f>
+        <v>61</v>
+      </c>
+      <c r="K46" s="1">
+        <f>[1]Sheet1!L46</f>
+        <v>1012</v>
+      </c>
+      <c r="L46" s="9">
+        <f>[1]Sheet1!M46</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="str">
+        <f>[1]Sheet1!B47</f>
+        <v>24\09\24</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>[1]Sheet1!C47</f>
+        <v>ter</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>[1]Sheet1!D47</f>
+        <v>13:26:27</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f>[1]Sheet1!E47</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f>[1]Sheet1!F47</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F47" s="4">
+        <f>[1]Sheet1!G47</f>
+        <v>36.909999999999997</v>
+      </c>
+      <c r="G47" s="4">
+        <f>[1]Sheet1!H47</f>
+        <v>36.909999999999997</v>
+      </c>
+      <c r="H47" s="4">
+        <f>[1]Sheet1!I47</f>
+        <v>36.909999999999997</v>
+      </c>
+      <c r="I47" s="4">
+        <f>[1]Sheet1!J47</f>
+        <v>36.549999999999997</v>
+      </c>
+      <c r="J47" s="7">
+        <f>[1]Sheet1!K47</f>
+        <v>26</v>
+      </c>
+      <c r="K47" s="1">
+        <f>[1]Sheet1!L47</f>
+        <v>1010</v>
+      </c>
+      <c r="L47" s="9">
+        <f>[1]Sheet1!M47</f>
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="str">
+        <f>[1]Sheet1!B48</f>
+        <v>24\09\24</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>[1]Sheet1!C48</f>
+        <v>ter</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>[1]Sheet1!D48</f>
+        <v>13:26:27</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f>[1]Sheet1!E48</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f>[1]Sheet1!F48</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F48" s="4">
+        <f>[1]Sheet1!G48</f>
+        <v>31.16</v>
+      </c>
+      <c r="G48" s="4">
+        <f>[1]Sheet1!H48</f>
+        <v>31.16</v>
+      </c>
+      <c r="H48" s="4">
+        <f>[1]Sheet1!I48</f>
+        <v>31.16</v>
+      </c>
+      <c r="I48" s="4">
+        <f>[1]Sheet1!J48</f>
+        <v>33.74</v>
+      </c>
+      <c r="J48" s="7">
+        <f>[1]Sheet1!K48</f>
+        <v>54</v>
+      </c>
+      <c r="K48" s="1">
+        <f>[1]Sheet1!L48</f>
+        <v>1011</v>
+      </c>
+      <c r="L48" s="9">
+        <f>[1]Sheet1!M48</f>
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="str">
+        <f>[1]Sheet1!B49</f>
+        <v>24\09\24</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>[1]Sheet1!C49</f>
+        <v>ter</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>[1]Sheet1!D49</f>
+        <v>13:26:27</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f>[1]Sheet1!E49</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>[1]Sheet1!F49</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F49" s="4">
+        <f>[1]Sheet1!G49</f>
+        <v>30.63</v>
+      </c>
+      <c r="G49" s="4">
+        <f>[1]Sheet1!H49</f>
+        <v>30.63</v>
+      </c>
+      <c r="H49" s="4">
+        <f>[1]Sheet1!I49</f>
+        <v>30.63</v>
+      </c>
+      <c r="I49" s="4">
+        <f>[1]Sheet1!J49</f>
+        <v>32.979999999999997</v>
+      </c>
+      <c r="J49" s="7">
+        <f>[1]Sheet1!K49</f>
+        <v>55</v>
+      </c>
+      <c r="K49" s="1">
+        <f>[1]Sheet1!L49</f>
+        <v>1012</v>
+      </c>
+      <c r="L49" s="9">
+        <f>[1]Sheet1!M49</f>
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="str">
+        <f>[1]Sheet1!B50</f>
+        <v>25\09\24</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>[1]Sheet1!C50</f>
+        <v>qua</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>[1]Sheet1!D50</f>
+        <v>14:17:42</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f>[1]Sheet1!E50</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f>[1]Sheet1!F50</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F50" s="4">
+        <f>[1]Sheet1!G50</f>
+        <v>29.07</v>
+      </c>
+      <c r="G50" s="4">
+        <f>[1]Sheet1!H50</f>
+        <v>27.34</v>
+      </c>
+      <c r="H50" s="4">
+        <f>[1]Sheet1!I50</f>
+        <v>29.07</v>
+      </c>
+      <c r="I50" s="4">
+        <f>[1]Sheet1!J50</f>
+        <v>31.31</v>
+      </c>
+      <c r="J50" s="7">
+        <f>[1]Sheet1!K50</f>
+        <v>61</v>
+      </c>
+      <c r="K50" s="1">
+        <f>[1]Sheet1!L50</f>
+        <v>1011</v>
+      </c>
+      <c r="L50" s="9">
+        <f>[1]Sheet1!M50</f>
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="str">
+        <f>[1]Sheet1!B51</f>
+        <v>25\09\24</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>[1]Sheet1!C51</f>
+        <v>qua</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>[1]Sheet1!D51</f>
+        <v>14:17:42</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f>[1]Sheet1!E51</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f>[1]Sheet1!F51</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F51" s="4">
+        <f>[1]Sheet1!G51</f>
+        <v>38.520000000000003</v>
+      </c>
+      <c r="G51" s="4">
+        <f>[1]Sheet1!H51</f>
+        <v>38.520000000000003</v>
+      </c>
+      <c r="H51" s="4">
+        <f>[1]Sheet1!I51</f>
+        <v>38.520000000000003</v>
+      </c>
+      <c r="I51" s="4">
+        <f>[1]Sheet1!J51</f>
+        <v>38.119999999999997</v>
+      </c>
+      <c r="J51" s="7">
+        <f>[1]Sheet1!K51</f>
+        <v>23</v>
+      </c>
+      <c r="K51" s="1">
+        <f>[1]Sheet1!L51</f>
+        <v>1008</v>
+      </c>
+      <c r="L51" s="9">
+        <f>[1]Sheet1!M51</f>
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="str">
+        <f>[1]Sheet1!B52</f>
+        <v>25\09\24</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>[1]Sheet1!C52</f>
+        <v>qua</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>[1]Sheet1!D52</f>
+        <v>14:17:42</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f>[1]Sheet1!E52</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f>[1]Sheet1!F52</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F52" s="4">
+        <f>[1]Sheet1!G52</f>
+        <v>29.92</v>
+      </c>
+      <c r="G52" s="4">
+        <f>[1]Sheet1!H52</f>
+        <v>29.92</v>
+      </c>
+      <c r="H52" s="4">
+        <f>[1]Sheet1!I52</f>
+        <v>29.92</v>
+      </c>
+      <c r="I52" s="4">
+        <f>[1]Sheet1!J52</f>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="J52" s="7">
+        <f>[1]Sheet1!K52</f>
+        <v>58</v>
+      </c>
+      <c r="K52" s="1">
+        <f>[1]Sheet1!L52</f>
+        <v>1009</v>
+      </c>
+      <c r="L52" s="9">
+        <f>[1]Sheet1!M52</f>
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="str">
+        <f>[1]Sheet1!B53</f>
+        <v>25\09\24</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>[1]Sheet1!C53</f>
+        <v>qua</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>[1]Sheet1!D53</f>
+        <v>14:17:42</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f>[1]Sheet1!E53</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f>[1]Sheet1!F53</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F53" s="4">
+        <f>[1]Sheet1!G53</f>
+        <v>29.69</v>
+      </c>
+      <c r="G53" s="4">
+        <f>[1]Sheet1!H53</f>
+        <v>29.69</v>
+      </c>
+      <c r="H53" s="4">
+        <f>[1]Sheet1!I53</f>
+        <v>29.69</v>
+      </c>
+      <c r="I53" s="4">
+        <f>[1]Sheet1!J53</f>
+        <v>31.71</v>
+      </c>
+      <c r="J53" s="7">
+        <f>[1]Sheet1!K53</f>
+        <v>57</v>
+      </c>
+      <c r="K53" s="1">
+        <f>[1]Sheet1!L53</f>
+        <v>1010</v>
+      </c>
+      <c r="L53" s="9">
+        <f>[1]Sheet1!M53</f>
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="str">
+        <f>[1]Sheet1!B54</f>
+        <v>26\09\24</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>[1]Sheet1!C54</f>
+        <v>qui</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>[1]Sheet1!D54</f>
+        <v>14:27:32</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f>[1]Sheet1!E54</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f>[1]Sheet1!F54</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F54" s="4">
+        <f>[1]Sheet1!G54</f>
+        <v>30.15</v>
+      </c>
+      <c r="G54" s="4">
+        <f>[1]Sheet1!H54</f>
+        <v>27.34</v>
+      </c>
+      <c r="H54" s="4">
+        <f>[1]Sheet1!I54</f>
+        <v>31.15</v>
+      </c>
+      <c r="I54" s="4">
+        <f>[1]Sheet1!J54</f>
+        <v>36.99</v>
+      </c>
+      <c r="J54" s="7">
+        <f>[1]Sheet1!K54</f>
+        <v>76</v>
+      </c>
+      <c r="K54" s="1">
+        <f>[1]Sheet1!L54</f>
+        <v>1011</v>
+      </c>
+      <c r="L54" s="9">
+        <f>[1]Sheet1!M54</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="str">
+        <f>[1]Sheet1!B55</f>
+        <v>26\09\24</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>[1]Sheet1!C55</f>
+        <v>qui</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>[1]Sheet1!D55</f>
+        <v>14:27:32</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f>[1]Sheet1!E55</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f>[1]Sheet1!F55</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F55" s="4">
+        <f>[1]Sheet1!G55</f>
+        <v>37.86</v>
+      </c>
+      <c r="G55" s="4">
+        <f>[1]Sheet1!H55</f>
+        <v>37.86</v>
+      </c>
+      <c r="H55" s="4">
+        <f>[1]Sheet1!I55</f>
+        <v>37.86</v>
+      </c>
+      <c r="I55" s="4">
+        <f>[1]Sheet1!J55</f>
+        <v>37.69</v>
+      </c>
+      <c r="J55" s="7">
+        <f>[1]Sheet1!K55</f>
+        <v>25</v>
+      </c>
+      <c r="K55" s="1">
+        <f>[1]Sheet1!L55</f>
+        <v>1008</v>
+      </c>
+      <c r="L55" s="9">
+        <f>[1]Sheet1!M55</f>
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="str">
+        <f>[1]Sheet1!B56</f>
+        <v>26\09\24</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f>[1]Sheet1!C56</f>
+        <v>qui</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>[1]Sheet1!D56</f>
+        <v>14:27:32</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f>[1]Sheet1!E56</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f>[1]Sheet1!F56</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F56" s="4">
+        <f>[1]Sheet1!G56</f>
+        <v>29.72</v>
+      </c>
+      <c r="G56" s="4">
+        <f>[1]Sheet1!H56</f>
+        <v>29.72</v>
+      </c>
+      <c r="H56" s="4">
+        <f>[1]Sheet1!I56</f>
+        <v>29.72</v>
+      </c>
+      <c r="I56" s="4">
+        <f>[1]Sheet1!J56</f>
+        <v>32.31</v>
+      </c>
+      <c r="J56" s="7">
+        <f>[1]Sheet1!K56</f>
+        <v>60</v>
+      </c>
+      <c r="K56" s="1">
+        <f>[1]Sheet1!L56</f>
+        <v>1009</v>
+      </c>
+      <c r="L56" s="9">
+        <f>[1]Sheet1!M56</f>
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="str">
+        <f>[1]Sheet1!B57</f>
+        <v>26\09\24</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f>[1]Sheet1!C57</f>
+        <v>qui</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f>[1]Sheet1!D57</f>
+        <v>14:27:32</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f>[1]Sheet1!E57</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f>[1]Sheet1!F57</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F57" s="4">
+        <f>[1]Sheet1!G57</f>
+        <v>29.39</v>
+      </c>
+      <c r="G57" s="4">
+        <f>[1]Sheet1!H57</f>
+        <v>29.39</v>
+      </c>
+      <c r="H57" s="4">
+        <f>[1]Sheet1!I57</f>
+        <v>29.39</v>
+      </c>
+      <c r="I57" s="4">
+        <f>[1]Sheet1!J57</f>
+        <v>31.54</v>
+      </c>
+      <c r="J57" s="7">
+        <f>[1]Sheet1!K57</f>
+        <v>59</v>
+      </c>
+      <c r="K57" s="1">
+        <f>[1]Sheet1!L57</f>
+        <v>1010</v>
+      </c>
+      <c r="L57" s="9">
+        <f>[1]Sheet1!M57</f>
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="str">
+        <f>[1]Sheet1!B58</f>
+        <v>27\09\24</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f>[1]Sheet1!C58</f>
+        <v>sex</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>[1]Sheet1!D58</f>
+        <v>14:26:12</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f>[1]Sheet1!E58</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <f>[1]Sheet1!F58</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F58" s="4">
+        <f>[1]Sheet1!G58</f>
+        <v>29.07</v>
+      </c>
+      <c r="G58" s="4">
+        <f>[1]Sheet1!H58</f>
+        <v>26.79</v>
+      </c>
+      <c r="H58" s="4">
+        <f>[1]Sheet1!I58</f>
+        <v>29.07</v>
+      </c>
+      <c r="I58" s="4">
+        <f>[1]Sheet1!J58</f>
+        <v>31.98</v>
+      </c>
+      <c r="J58" s="7">
+        <f>[1]Sheet1!K58</f>
+        <v>65</v>
+      </c>
+      <c r="K58" s="1">
+        <f>[1]Sheet1!L58</f>
+        <v>1011</v>
+      </c>
+      <c r="L58" s="9">
+        <f>[1]Sheet1!M58</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="str">
+        <f>[1]Sheet1!B59</f>
+        <v>27\09\24</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f>[1]Sheet1!C59</f>
+        <v>sex</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>[1]Sheet1!D59</f>
+        <v>14:26:12</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f>[1]Sheet1!E59</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f>[1]Sheet1!F59</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F59" s="4">
+        <f>[1]Sheet1!G59</f>
+        <v>37.58</v>
+      </c>
+      <c r="G59" s="4">
+        <f>[1]Sheet1!H59</f>
+        <v>37.58</v>
+      </c>
+      <c r="H59" s="4">
+        <f>[1]Sheet1!I59</f>
+        <v>37.58</v>
+      </c>
+      <c r="I59" s="4">
+        <f>[1]Sheet1!J59</f>
+        <v>37.54</v>
+      </c>
+      <c r="J59" s="7">
+        <f>[1]Sheet1!K59</f>
+        <v>26</v>
+      </c>
+      <c r="K59" s="1">
+        <f>[1]Sheet1!L59</f>
+        <v>1008</v>
+      </c>
+      <c r="L59" s="9">
+        <f>[1]Sheet1!M59</f>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="str">
+        <f>[1]Sheet1!B60</f>
+        <v>27\09\24</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f>[1]Sheet1!C60</f>
+        <v>sex</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f>[1]Sheet1!D60</f>
+        <v>14:26:12</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f>[1]Sheet1!E60</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f>[1]Sheet1!F60</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F60" s="4">
+        <f>[1]Sheet1!G60</f>
+        <v>30.11</v>
+      </c>
+      <c r="G60" s="4">
+        <f>[1]Sheet1!H60</f>
+        <v>30.11</v>
+      </c>
+      <c r="H60" s="4">
+        <f>[1]Sheet1!I60</f>
+        <v>30.11</v>
+      </c>
+      <c r="I60" s="4">
+        <f>[1]Sheet1!J60</f>
+        <v>33.04</v>
+      </c>
+      <c r="J60" s="7">
+        <f>[1]Sheet1!K60</f>
+        <v>60</v>
+      </c>
+      <c r="K60" s="1">
+        <f>[1]Sheet1!L60</f>
+        <v>1009</v>
+      </c>
+      <c r="L60" s="9">
+        <f>[1]Sheet1!M60</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="str">
+        <f>[1]Sheet1!B61</f>
+        <v>27\09\24</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f>[1]Sheet1!C61</f>
+        <v>sex</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f>[1]Sheet1!D61</f>
+        <v>14:26:12</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f>[1]Sheet1!E61</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f>[1]Sheet1!F61</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F61" s="4">
+        <f>[1]Sheet1!G61</f>
+        <v>29.7</v>
+      </c>
+      <c r="G61" s="4">
+        <f>[1]Sheet1!H61</f>
+        <v>29.7</v>
+      </c>
+      <c r="H61" s="4">
+        <f>[1]Sheet1!I61</f>
+        <v>29.7</v>
+      </c>
+      <c r="I61" s="4">
+        <f>[1]Sheet1!J61</f>
+        <v>32.090000000000003</v>
+      </c>
+      <c r="J61" s="7">
+        <f>[1]Sheet1!K61</f>
+        <v>59</v>
+      </c>
+      <c r="K61" s="1">
+        <f>[1]Sheet1!L61</f>
+        <v>1010</v>
+      </c>
+      <c r="L61" s="9">
+        <f>[1]Sheet1!M61</f>
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="str">
+        <f>[1]Sheet1!B62</f>
+        <v>29\09\24</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f>[1]Sheet1!C62</f>
+        <v>dom</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f>[1]Sheet1!D62</f>
+        <v>13:48:10</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f>[1]Sheet1!E62</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f>[1]Sheet1!F62</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F62" s="4">
+        <f>[1]Sheet1!G62</f>
+        <v>31.71</v>
+      </c>
+      <c r="G62" s="4">
+        <f>[1]Sheet1!H62</f>
+        <v>30.07</v>
+      </c>
+      <c r="H62" s="4">
+        <f>[1]Sheet1!I62</f>
+        <v>31.71</v>
+      </c>
+      <c r="I62" s="4">
+        <f>[1]Sheet1!J62</f>
+        <v>38.71</v>
+      </c>
+      <c r="J62" s="7">
+        <f>[1]Sheet1!K62</f>
+        <v>95</v>
+      </c>
+      <c r="K62" s="1">
+        <f>[1]Sheet1!L62</f>
+        <v>1010</v>
+      </c>
+      <c r="L62" s="9">
+        <f>[1]Sheet1!M62</f>
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="str">
+        <f>[1]Sheet1!B63</f>
+        <v>29\09\24</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f>[1]Sheet1!C63</f>
+        <v>dom</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f>[1]Sheet1!D63</f>
+        <v>13:48:10</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f>[1]Sheet1!E63</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f>[1]Sheet1!F63</f>
+        <v>nublado</v>
+      </c>
+      <c r="F63" s="4">
+        <f>[1]Sheet1!G63</f>
+        <v>37.83</v>
+      </c>
+      <c r="G63" s="4">
+        <f>[1]Sheet1!H63</f>
+        <v>37.83</v>
+      </c>
+      <c r="H63" s="4">
+        <f>[1]Sheet1!I63</f>
+        <v>37.83</v>
+      </c>
+      <c r="I63" s="4">
+        <f>[1]Sheet1!J63</f>
+        <v>37.93</v>
+      </c>
+      <c r="J63" s="7">
+        <f>[1]Sheet1!K63</f>
+        <v>26</v>
+      </c>
+      <c r="K63" s="1">
+        <f>[1]Sheet1!L63</f>
+        <v>1007</v>
+      </c>
+      <c r="L63" s="9">
+        <f>[1]Sheet1!M63</f>
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="str">
+        <f>[1]Sheet1!B64</f>
+        <v>29\09\24</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f>[1]Sheet1!C64</f>
+        <v>dom</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>[1]Sheet1!D64</f>
+        <v>13:48:10</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f>[1]Sheet1!E64</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f>[1]Sheet1!F64</f>
+        <v>nublado</v>
+      </c>
+      <c r="F64" s="4">
+        <f>[1]Sheet1!G64</f>
+        <v>30.82</v>
+      </c>
+      <c r="G64" s="4">
+        <f>[1]Sheet1!H64</f>
+        <v>30.82</v>
+      </c>
+      <c r="H64" s="4">
+        <f>[1]Sheet1!I64</f>
+        <v>30.82</v>
+      </c>
+      <c r="I64" s="4">
+        <f>[1]Sheet1!J64</f>
+        <v>33.33</v>
+      </c>
+      <c r="J64" s="7">
+        <f>[1]Sheet1!K64</f>
+        <v>55</v>
+      </c>
+      <c r="K64" s="1">
+        <f>[1]Sheet1!L64</f>
+        <v>1008</v>
+      </c>
+      <c r="L64" s="9">
+        <f>[1]Sheet1!M64</f>
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="str">
+        <f>[1]Sheet1!B65</f>
+        <v>29\09\24</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f>[1]Sheet1!C65</f>
+        <v>dom</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>[1]Sheet1!D65</f>
+        <v>13:48:10</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f>[1]Sheet1!E65</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f>[1]Sheet1!F65</f>
+        <v>nublado</v>
+      </c>
+      <c r="F65" s="4">
+        <f>[1]Sheet1!G65</f>
+        <v>30.05</v>
+      </c>
+      <c r="G65" s="4">
+        <f>[1]Sheet1!H65</f>
+        <v>30.05</v>
+      </c>
+      <c r="H65" s="4">
+        <f>[1]Sheet1!I65</f>
+        <v>30.05</v>
+      </c>
+      <c r="I65" s="4">
+        <f>[1]Sheet1!J65</f>
+        <v>31.97</v>
+      </c>
+      <c r="J65" s="7">
+        <f>[1]Sheet1!K65</f>
+        <v>55</v>
+      </c>
+      <c r="K65" s="1">
+        <f>[1]Sheet1!L65</f>
+        <v>1009</v>
+      </c>
+      <c r="L65" s="9">
+        <f>[1]Sheet1!M65</f>
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="str">
+        <f>[1]Sheet1!B66</f>
+        <v>30\09\24</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f>[1]Sheet1!C66</f>
+        <v>seg</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f>[1]Sheet1!D66</f>
+        <v>14:32:12</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f>[1]Sheet1!E66</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f>[1]Sheet1!F66</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F66" s="4">
+        <f>[1]Sheet1!G66</f>
+        <v>30.07</v>
+      </c>
+      <c r="G66" s="4">
+        <f>[1]Sheet1!H66</f>
+        <v>27.34</v>
+      </c>
+      <c r="H66" s="4">
+        <f>[1]Sheet1!I66</f>
+        <v>30.07</v>
+      </c>
+      <c r="I66" s="4">
+        <f>[1]Sheet1!J66</f>
+        <v>32.57</v>
+      </c>
+      <c r="J66" s="7">
+        <f>[1]Sheet1!K66</f>
+        <v>58</v>
+      </c>
+      <c r="K66" s="1">
+        <f>[1]Sheet1!L66</f>
+        <v>1010</v>
+      </c>
+      <c r="L66" s="9">
+        <f>[1]Sheet1!M66</f>
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="str">
+        <f>[1]Sheet1!B67</f>
+        <v>30\09\24</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f>[1]Sheet1!C67</f>
+        <v>seg</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f>[1]Sheet1!D67</f>
+        <v>14:32:12</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f>[1]Sheet1!E67</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f>[1]Sheet1!F67</f>
+        <v>nublado</v>
+      </c>
+      <c r="F67" s="4">
+        <f>[1]Sheet1!G67</f>
+        <v>37.869999999999997</v>
+      </c>
+      <c r="G67" s="4">
+        <f>[1]Sheet1!H67</f>
+        <v>37.869999999999997</v>
+      </c>
+      <c r="H67" s="4">
+        <f>[1]Sheet1!I67</f>
+        <v>37.869999999999997</v>
+      </c>
+      <c r="I67" s="4">
+        <f>[1]Sheet1!J67</f>
+        <v>37.44</v>
+      </c>
+      <c r="J67" s="7">
+        <f>[1]Sheet1!K67</f>
+        <v>24</v>
+      </c>
+      <c r="K67" s="1">
+        <f>[1]Sheet1!L67</f>
+        <v>1006</v>
+      </c>
+      <c r="L67" s="9">
+        <f>[1]Sheet1!M67</f>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="str">
+        <f>[1]Sheet1!B68</f>
+        <v>30\09\24</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f>[1]Sheet1!C68</f>
+        <v>seg</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f>[1]Sheet1!D68</f>
+        <v>14:32:12</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f>[1]Sheet1!E68</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f>[1]Sheet1!F68</f>
+        <v>nublado</v>
+      </c>
+      <c r="F68" s="4">
+        <f>[1]Sheet1!G68</f>
+        <v>28.75</v>
+      </c>
+      <c r="G68" s="4">
+        <f>[1]Sheet1!H68</f>
+        <v>28.75</v>
+      </c>
+      <c r="H68" s="4">
+        <f>[1]Sheet1!I68</f>
+        <v>28.75</v>
+      </c>
+      <c r="I68" s="4">
+        <f>[1]Sheet1!J68</f>
+        <v>30.62</v>
+      </c>
+      <c r="J68" s="7">
+        <f>[1]Sheet1!K68</f>
+        <v>60</v>
+      </c>
+      <c r="K68" s="1">
+        <f>[1]Sheet1!L68</f>
+        <v>1008</v>
+      </c>
+      <c r="L68" s="9">
+        <f>[1]Sheet1!M68</f>
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="str">
+        <f>[1]Sheet1!B69</f>
+        <v>30\09\24</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f>[1]Sheet1!C69</f>
+        <v>seg</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f>[1]Sheet1!D69</f>
+        <v>14:32:12</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f>[1]Sheet1!E69</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f>[1]Sheet1!F69</f>
+        <v>nublado</v>
+      </c>
+      <c r="F69" s="4">
+        <f>[1]Sheet1!G69</f>
+        <v>28.62</v>
+      </c>
+      <c r="G69" s="4">
+        <f>[1]Sheet1!H69</f>
+        <v>28.62</v>
+      </c>
+      <c r="H69" s="4">
+        <f>[1]Sheet1!I69</f>
+        <v>28.62</v>
+      </c>
+      <c r="I69" s="4">
+        <f>[1]Sheet1!J69</f>
+        <v>30.27</v>
+      </c>
+      <c r="J69" s="7">
+        <f>[1]Sheet1!K69</f>
+        <v>59</v>
+      </c>
+      <c r="K69" s="1">
+        <f>[1]Sheet1!L69</f>
+        <v>1009</v>
+      </c>
+      <c r="L69" s="9">
+        <f>[1]Sheet1!M69</f>
+        <v>8.98</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J45">
-    <cfRule type="expression" dxfId="61" priority="5">
+  <conditionalFormatting sqref="J2:J69">
+    <cfRule type="expression" dxfId="73" priority="5">
       <formula>$J2&lt;=50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F45">
-    <cfRule type="expression" dxfId="60" priority="4">
+  <conditionalFormatting sqref="F2:F69">
+    <cfRule type="expression" dxfId="72" priority="4">
       <formula>$F2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I45">
-    <cfRule type="expression" dxfId="59" priority="1">
+  <conditionalFormatting sqref="I2:I69">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>$I2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20903,8 +24156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5901B3E-A3E8-4B5E-9369-35A4919B8B84}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20960,31 +24213,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -20992,7 +24245,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>30.277272727272727</v>
+        <v>30.207647058823529</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -21000,7 +24253,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="5">
-        <v>30.482727272727274</v>
+        <v>30.261764705882349</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -21038,37 +24291,37 @@
         <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>29.655454545454543</v>
+        <v>29.66411764705882</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5">
-        <v>29.93</v>
+        <v>36.28</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="5">
-        <v>31.26</v>
+        <v>34.68</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="8">
-        <v>9.6999999999999993</v>
+        <v>3.85</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="S4" s="8">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -21076,37 +24329,37 @@
         <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>36.451818181818183</v>
+        <v>36.914117647058831</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="5">
-        <v>29.56</v>
+        <v>36.72</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="5">
-        <v>31.33</v>
+        <v>35.61</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P5" s="8">
-        <v>9.4499999999999993</v>
+        <v>3.65</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="S5" s="8">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -21114,63 +24367,69 @@
         <v>17</v>
       </c>
       <c r="B6" s="5">
-        <v>31.71681818181818</v>
+        <v>31.761911764705889</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="5">
-        <v>29.27</v>
+        <v>36.89</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="5">
-        <v>30.57</v>
+        <v>35.840000000000003</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P6" s="8">
-        <v>9.51</v>
+        <v>3.82</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="S6" s="8">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6">
+        <v>17</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="5">
-        <v>29.48</v>
+        <v>36.64</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="5">
-        <v>31.53</v>
+        <v>35.93</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="8">
-        <v>9.77</v>
+        <v>4.16</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="S7" s="8">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -21184,25 +24443,25 @@
         <v>28</v>
       </c>
       <c r="H8" s="5">
-        <v>29.8</v>
+        <v>36.1</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="5">
-        <v>31.06</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P8" s="8">
-        <v>8.8699999999999992</v>
+        <v>3.68</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S8" s="8">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -21210,31 +24469,31 @@
         <v>13</v>
       </c>
       <c r="B9" s="5">
-        <v>32.097272727272724</v>
+        <v>32.259411764705881</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="5">
-        <v>31.34</v>
+        <v>34.82</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L9" s="5">
-        <v>32.78</v>
+        <v>33.85</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P9" s="8">
-        <v>8.77</v>
+        <v>3.75</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S9" s="8">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -21242,31 +24501,31 @@
         <v>14</v>
       </c>
       <c r="B10" s="5">
-        <v>36.020909090909093</v>
+        <v>35.241176470588243</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="5">
-        <v>29.14</v>
+        <v>37.520000000000003</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="5">
-        <v>31.11</v>
+        <v>35.85</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="P10" s="8">
-        <v>8.7100000000000009</v>
+        <v>3.82</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="S10" s="8">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -21274,31 +24533,31 @@
         <v>15</v>
       </c>
       <c r="B11" s="5">
-        <v>31.079090909090905</v>
+        <v>31.31941176470588</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="5">
-        <v>30.7</v>
+        <v>36.659999999999997</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="5">
-        <v>32.130000000000003</v>
+        <v>35.96</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P11" s="8">
-        <v>9.81</v>
+        <v>3.82</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="S11" s="8">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -21306,31 +24565,31 @@
         <v>16</v>
       </c>
       <c r="B12" s="5">
-        <v>35.265454545454539</v>
+        <v>36.069999999999993</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="5">
-        <v>29.42</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="5">
-        <v>30.95</v>
+        <v>35.46</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P12" s="8">
-        <v>9.7899999999999991</v>
+        <v>3.94</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="S12" s="8">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -21338,31 +24597,31 @@
         <v>17</v>
       </c>
       <c r="B13" s="5">
-        <v>33.615681818181805</v>
+        <v>33.722499999999989</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="5">
-        <v>31.25</v>
+        <v>36.53</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="L13" s="5">
-        <v>32.83</v>
+        <v>35.56</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="P13" s="8">
-        <v>10.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S13" s="8">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -21370,25 +24629,25 @@
         <v>35</v>
       </c>
       <c r="H14" s="5">
-        <v>26.32</v>
+        <v>35.76</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L14" s="5">
-        <v>26.32</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="P14" s="8">
-        <v>8.2799999999999994</v>
+        <v>2.92</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="S14" s="8">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -21399,28 +24658,28 @@
         <v>20</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H15" s="5">
-        <v>29.655454545454543</v>
+        <v>36.909999999999997</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="L15" s="5">
-        <v>31.079090909090905</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="P15" s="8">
-        <v>9.3690909090909091</v>
+        <v>3.07</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="S15" s="8">
-        <v>54.909090909090907</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -21428,42 +24687,188 @@
         <v>13</v>
       </c>
       <c r="B16" s="6">
-        <v>54.545454545454547</v>
+        <v>55.705882352941174</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="5">
+        <v>38.520000000000003</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="5">
+        <v>38.119999999999997</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="8">
+        <v>2.41</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="8">
+        <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>76.818181818181813</v>
+        <v>74.17647058823529</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="5">
+        <v>37.86</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="5">
+        <v>37.69</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="8">
+        <v>2.89</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="8">
+        <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="6">
-        <v>54.909090909090907</v>
+        <v>55.764705882352942</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="5">
+        <v>37.58</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="5">
+        <v>37.54</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="8">
+        <v>2.88</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" s="8">
+        <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="6">
-        <v>23</v>
+        <v>23.705882352941178</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="5">
+        <v>37.83</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="5">
+        <v>37.93</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="8">
+        <v>3.53</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="8">
+        <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="6">
-        <v>52.31818181818182</v>
+        <v>52.338235294117645</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="5">
+        <v>37.869999999999997</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="5">
+        <v>37.44</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" s="8">
+        <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="5">
+        <v>36.914117647058831</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="5">
+        <v>36.069999999999993</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="8">
+        <v>3.5111764705882358</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="8">
+        <v>23.705882352941178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -21471,44 +24876,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>9.8090909090909104</v>
+        <v>9.8794117647058819</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="6">
-        <v>9.165454545454546</v>
+        <v>8.8364705882352936</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="6">
-        <v>9.3690909090909091</v>
+        <v>9.2841176470588245</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="6">
-        <v>3.8009090909090912</v>
+        <v>3.5111764705882358</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="6">
-        <v>8.036136363636361</v>
+        <v>7.8777941176470581</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8977E48D-7888-4DDA-BD17-9114F5A5FDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB01128-9F44-4663-8AA5-F7C8B9EE5C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="49">
   <si>
     <t>Data</t>
   </si>
@@ -183,6 +183,24 @@
   <si>
     <t>30\09\24</t>
   </si>
+  <si>
+    <t>03\10\24</t>
+  </si>
+  <si>
+    <t>07\10\24</t>
+  </si>
+  <si>
+    <t>nuvens dispersas</t>
+  </si>
+  <si>
+    <t>08\10\24</t>
+  </si>
+  <si>
+    <t>09\10\24</t>
+  </si>
+  <si>
+    <t>14\10\24</t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +272,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="80">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -343,13 +361,7 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -359,6 +371,22 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -391,6 +419,52 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -400,13 +474,7 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -494,6 +562,16 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1277,16 +1355,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30.207647058823529</c:v>
+                  <c:v>30.114545454545453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.261764705882349</c:v>
+                  <c:v>30.206363636363633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.66411764705882</c:v>
+                  <c:v>29.687727272727273</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.914117647058831</c:v>
+                  <c:v>37.048181818181824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2351,16 +2429,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32.259411764705881</c:v>
+                  <c:v>32.288636363636364</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.241176470588243</c:v>
+                  <c:v>35.256818181818183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.31941176470588</c:v>
+                  <c:v>31.504090909090905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.069999999999993</c:v>
+                  <c:v>36.261818181818178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3416,16 +3494,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>55.705882352941174</c:v>
+                  <c:v>56.727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.17647058823529</c:v>
+                  <c:v>75.181818181818187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.764705882352942</c:v>
+                  <c:v>56.590909090909093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.705882352941178</c:v>
+                  <c:v>23.818181818181817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4176,16 +4254,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.8794117647058819</c:v>
+                  <c:v>9.6677272727272729</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8364705882352936</c:v>
+                  <c:v>8.5354545454545434</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2841176470588245</c:v>
+                  <c:v>9.0340909090909083</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5111764705882358</c:v>
+                  <c:v>3.330000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4930,9 +5008,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$G$4:$G$21</c:f>
+              <c:f>'Tabelas dinâmicas'!$G$4:$G$26</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -4984,15 +5062,30 @@
                 <c:pt idx="16">
                   <c:v>30\09\24</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>03\10\24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07\10\24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>08\10\24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>09\10\24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14\10\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$H$4:$H$21</c:f>
+              <c:f>'Tabelas dinâmicas'!$H$4:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>36.28</c:v>
                 </c:pt>
@@ -5043,6 +5136,21 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>37.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.04</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5803,9 +5911,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$K$4:$K$21</c:f>
+              <c:f>'Tabelas dinâmicas'!$K$4:$K$26</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -5857,15 +5965,30 @@
                 <c:pt idx="16">
                   <c:v>30\09\24</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>03\10\24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07\10\24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>08\10\24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>09\10\24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14\10\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$L$4:$L$21</c:f>
+              <c:f>'Tabelas dinâmicas'!$L$4:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>34.68</c:v>
                 </c:pt>
@@ -5916,6 +6039,21 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>37.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.47</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6757,6 +6895,21 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-4101-48F3-912D-34260ADC01D7}"/>
@@ -6828,9 +6981,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$D$4:$D$7</c:f>
+              <c:f>'Tabelas dinâmicas'!$D$4:$D$8</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>algumas nuvens</c:v>
                 </c:pt>
@@ -6840,22 +6993,28 @@
                 <c:pt idx="2">
                   <c:v>nublado</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>nuvens dispersas</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$E$4:$E$7</c:f>
+              <c:f>'Tabelas dinâmicas'!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7757,9 +7916,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$O$4:$O$21</c:f>
+              <c:f>'Tabelas dinâmicas'!$O$4:$O$26</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -7811,15 +7970,30 @@
                 <c:pt idx="16">
                   <c:v>30\09\24</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>03\10\24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07\10\24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>08\10\24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>09\10\24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14\10\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$P$4:$P$21</c:f>
+              <c:f>'Tabelas dinâmicas'!$P$4:$P$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>3.85</c:v>
                 </c:pt>
@@ -7870,6 +8044,21 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8770,9 +8959,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$R$4:$R$21</c:f>
+              <c:f>'Tabelas dinâmicas'!$R$4:$R$26</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -8824,15 +9013,30 @@
                 <c:pt idx="16">
                   <c:v>30\09\24</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>03\10\24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>07\10\24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>08\10\24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>09\10\24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14\10\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$S$4:$S$21</c:f>
+              <c:f>'Tabelas dinâmicas'!$S$4:$S$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -8883,6 +9087,21 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16989,6 +17208,766 @@
             <v>8.98</v>
           </cell>
         </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>03\10\24</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>16:12:38</v>
+          </cell>
+          <cell r="E70" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F70" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G70">
+            <v>29.07</v>
+          </cell>
+          <cell r="H70">
+            <v>27.34</v>
+          </cell>
+          <cell r="I70">
+            <v>29.07</v>
+          </cell>
+          <cell r="J70">
+            <v>31.31</v>
+          </cell>
+          <cell r="K70">
+            <v>61</v>
+          </cell>
+          <cell r="L70">
+            <v>1011</v>
+          </cell>
+          <cell r="M70">
+            <v>7.2</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>03\10\24</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>16:12:38</v>
+          </cell>
+          <cell r="E71" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F71" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G71">
+            <v>38.04</v>
+          </cell>
+          <cell r="H71">
+            <v>38.04</v>
+          </cell>
+          <cell r="I71">
+            <v>38.04</v>
+          </cell>
+          <cell r="J71">
+            <v>37.43</v>
+          </cell>
+          <cell r="K71">
+            <v>23</v>
+          </cell>
+          <cell r="L71">
+            <v>1007</v>
+          </cell>
+          <cell r="M71">
+            <v>2.4300000000000002</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>03\10\24</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>16:12:38</v>
+          </cell>
+          <cell r="E72" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F72" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G72">
+            <v>27.95</v>
+          </cell>
+          <cell r="H72">
+            <v>27.95</v>
+          </cell>
+          <cell r="I72">
+            <v>27.95</v>
+          </cell>
+          <cell r="J72">
+            <v>30.44</v>
+          </cell>
+          <cell r="K72">
+            <v>69</v>
+          </cell>
+          <cell r="L72">
+            <v>1009</v>
+          </cell>
+          <cell r="M72">
+            <v>10.34</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>03\10\24</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>16:12:38</v>
+          </cell>
+          <cell r="E73" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F73" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G73">
+            <v>27.68</v>
+          </cell>
+          <cell r="H73">
+            <v>27.68</v>
+          </cell>
+          <cell r="I73">
+            <v>27.68</v>
+          </cell>
+          <cell r="J73">
+            <v>30.18</v>
+          </cell>
+          <cell r="K73">
+            <v>71</v>
+          </cell>
+          <cell r="L73">
+            <v>1009</v>
+          </cell>
+          <cell r="M73">
+            <v>9.57</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>07\10\24</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>14:53:56</v>
+          </cell>
+          <cell r="E74" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F74" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G74">
+            <v>31.15</v>
+          </cell>
+          <cell r="H74">
+            <v>30.07</v>
+          </cell>
+          <cell r="I74">
+            <v>31.15</v>
+          </cell>
+          <cell r="J74">
+            <v>38.15</v>
+          </cell>
+          <cell r="K74">
+            <v>93</v>
+          </cell>
+          <cell r="L74">
+            <v>1011</v>
+          </cell>
+          <cell r="M74">
+            <v>7.72</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>07\10\24</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>14:53:56</v>
+          </cell>
+          <cell r="E75" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F75" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G75">
+            <v>38.25</v>
+          </cell>
+          <cell r="H75">
+            <v>38.25</v>
+          </cell>
+          <cell r="I75">
+            <v>38.25</v>
+          </cell>
+          <cell r="J75">
+            <v>37.47</v>
+          </cell>
+          <cell r="K75">
+            <v>22</v>
+          </cell>
+          <cell r="L75">
+            <v>1007</v>
+          </cell>
+          <cell r="M75">
+            <v>2.72</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>07\10\24</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v>14:53:56</v>
+          </cell>
+          <cell r="E76" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F76" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G76">
+            <v>29.09</v>
+          </cell>
+          <cell r="H76">
+            <v>29.09</v>
+          </cell>
+          <cell r="I76">
+            <v>29.09</v>
+          </cell>
+          <cell r="J76">
+            <v>31.84</v>
+          </cell>
+          <cell r="K76">
+            <v>64</v>
+          </cell>
+          <cell r="L76">
+            <v>1009</v>
+          </cell>
+          <cell r="M76">
+            <v>9.39</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>07\10\24</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>14:53:56</v>
+          </cell>
+          <cell r="E77" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F77" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G77">
+            <v>29.01</v>
+          </cell>
+          <cell r="H77">
+            <v>29.01</v>
+          </cell>
+          <cell r="I77">
+            <v>29.01</v>
+          </cell>
+          <cell r="J77">
+            <v>31.36</v>
+          </cell>
+          <cell r="K77">
+            <v>62</v>
+          </cell>
+          <cell r="L77">
+            <v>1009</v>
+          </cell>
+          <cell r="M77">
+            <v>8.85</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>08\10\24</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>12:09:14</v>
+          </cell>
+          <cell r="E78" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F78" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G78">
+            <v>29.76</v>
+          </cell>
+          <cell r="H78">
+            <v>27.9</v>
+          </cell>
+          <cell r="I78">
+            <v>30.07</v>
+          </cell>
+          <cell r="J78">
+            <v>36.67</v>
+          </cell>
+          <cell r="K78">
+            <v>79</v>
+          </cell>
+          <cell r="L78">
+            <v>1014</v>
+          </cell>
+          <cell r="M78">
+            <v>7.72</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>08\10\24</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>12:09:14</v>
+          </cell>
+          <cell r="E79" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F79" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G79">
+            <v>34.590000000000003</v>
+          </cell>
+          <cell r="H79">
+            <v>34.590000000000003</v>
+          </cell>
+          <cell r="I79">
+            <v>34.590000000000003</v>
+          </cell>
+          <cell r="J79">
+            <v>34.71</v>
+          </cell>
+          <cell r="K79">
+            <v>33</v>
+          </cell>
+          <cell r="L79">
+            <v>1013</v>
+          </cell>
+          <cell r="M79">
+            <v>3.4</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>08\10\24</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v>12:09:14</v>
+          </cell>
+          <cell r="E80" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F80" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G80">
+            <v>31.06</v>
+          </cell>
+          <cell r="H80">
+            <v>31.06</v>
+          </cell>
+          <cell r="I80">
+            <v>31.06</v>
+          </cell>
+          <cell r="J80">
+            <v>33.56</v>
+          </cell>
+          <cell r="K80">
+            <v>54</v>
+          </cell>
+          <cell r="L80">
+            <v>1013</v>
+          </cell>
+          <cell r="M80">
+            <v>8.42</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>08\10\24</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D81" t="str">
+            <v>12:09:14</v>
+          </cell>
+          <cell r="E81" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F81" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G81">
+            <v>31.5</v>
+          </cell>
+          <cell r="H81">
+            <v>31.5</v>
+          </cell>
+          <cell r="I81">
+            <v>31.5</v>
+          </cell>
+          <cell r="J81">
+            <v>33.47</v>
+          </cell>
+          <cell r="K81">
+            <v>50</v>
+          </cell>
+          <cell r="L81">
+            <v>1013</v>
+          </cell>
+          <cell r="M81">
+            <v>7.2</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>09\10\24</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>14:16:57</v>
+          </cell>
+          <cell r="E82" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F82" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G82">
+            <v>30.07</v>
+          </cell>
+          <cell r="H82">
+            <v>27.9</v>
+          </cell>
+          <cell r="I82">
+            <v>30.07</v>
+          </cell>
+          <cell r="J82">
+            <v>33.380000000000003</v>
+          </cell>
+          <cell r="K82">
+            <v>62</v>
+          </cell>
+          <cell r="L82">
+            <v>1012</v>
+          </cell>
+          <cell r="M82">
+            <v>5.66</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>09\10\24</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v>14:16:57</v>
+          </cell>
+          <cell r="E83" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F83" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G83">
+            <v>38.700000000000003</v>
+          </cell>
+          <cell r="H83">
+            <v>38.700000000000003</v>
+          </cell>
+          <cell r="I83">
+            <v>38.700000000000003</v>
+          </cell>
+          <cell r="J83">
+            <v>38.380000000000003</v>
+          </cell>
+          <cell r="K83">
+            <v>23</v>
+          </cell>
+          <cell r="L83">
+            <v>1009</v>
+          </cell>
+          <cell r="M83">
+            <v>1.56</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>09\10\24</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>14:16:57</v>
+          </cell>
+          <cell r="E84" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F84" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G84">
+            <v>30.76</v>
+          </cell>
+          <cell r="H84">
+            <v>30.76</v>
+          </cell>
+          <cell r="I84">
+            <v>30.76</v>
+          </cell>
+          <cell r="J84">
+            <v>33.22</v>
+          </cell>
+          <cell r="K84">
+            <v>55</v>
+          </cell>
+          <cell r="L84">
+            <v>1011</v>
+          </cell>
+          <cell r="M84">
+            <v>7.32</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>09\10\24</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D85" t="str">
+            <v>14:16:57</v>
+          </cell>
+          <cell r="E85" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F85" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G85">
+            <v>30.71</v>
+          </cell>
+          <cell r="H85">
+            <v>30.71</v>
+          </cell>
+          <cell r="I85">
+            <v>30.71</v>
+          </cell>
+          <cell r="J85">
+            <v>33.130000000000003</v>
+          </cell>
+          <cell r="K85">
+            <v>55</v>
+          </cell>
+          <cell r="L85">
+            <v>1011</v>
+          </cell>
+          <cell r="M85">
+            <v>6.6</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>14\10\24</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>14:16:15</v>
+          </cell>
+          <cell r="E86" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F86" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G86">
+            <v>30.04</v>
+          </cell>
+          <cell r="H86">
+            <v>30.04</v>
+          </cell>
+          <cell r="I86">
+            <v>30.07</v>
+          </cell>
+          <cell r="J86">
+            <v>37.04</v>
+          </cell>
+          <cell r="K86">
+            <v>98</v>
+          </cell>
+          <cell r="L86">
+            <v>1013</v>
+          </cell>
+          <cell r="M86">
+            <v>9.26</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>14\10\24</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D87" t="str">
+            <v>14:16:15</v>
+          </cell>
+          <cell r="E87" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F87" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G87">
+            <v>37.94</v>
+          </cell>
+          <cell r="H87">
+            <v>37.94</v>
+          </cell>
+          <cell r="I87">
+            <v>37.94</v>
+          </cell>
+          <cell r="J87">
+            <v>36.58</v>
+          </cell>
+          <cell r="K87">
+            <v>20</v>
+          </cell>
+          <cell r="L87">
+            <v>1011</v>
+          </cell>
+          <cell r="M87">
+            <v>3.46</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>14\10\24</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D88" t="str">
+            <v>14:16:15</v>
+          </cell>
+          <cell r="E88" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F88" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G88">
+            <v>30.13</v>
+          </cell>
+          <cell r="H88">
+            <v>30.13</v>
+          </cell>
+          <cell r="I88">
+            <v>30.13</v>
+          </cell>
+          <cell r="J88">
+            <v>32.880000000000003</v>
+          </cell>
+          <cell r="K88">
+            <v>59</v>
+          </cell>
+          <cell r="L88">
+            <v>1012</v>
+          </cell>
+          <cell r="M88">
+            <v>9.27</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>14\10\24</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D89" t="str">
+            <v>14:16:15</v>
+          </cell>
+          <cell r="E89" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F89" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G89">
+            <v>29.94</v>
+          </cell>
+          <cell r="H89">
+            <v>29.94</v>
+          </cell>
+          <cell r="I89">
+            <v>29.94</v>
+          </cell>
+          <cell r="J89">
+            <v>32.520000000000003</v>
+          </cell>
+          <cell r="K89">
+            <v>59</v>
+          </cell>
+          <cell r="L89">
+            <v>1013</v>
+          </cell>
+          <cell r="M89">
+            <v>8.6999999999999993</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -16996,13 +17975,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45565.606710995373" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="68" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45579.596324074075" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="88" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
   <cacheSource type="worksheet">
     <worksheetSource name="Monitoramento_Clima"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Data" numFmtId="0">
-      <sharedItems count="17">
+      <sharedItems count="22">
         <s v="09\09\24"/>
         <s v="10\09\24"/>
         <s v="11\09\24"/>
@@ -17020,6 +17999,11 @@
         <s v="27\09\24"/>
         <s v="29\09\24"/>
         <s v="30\09\24"/>
+        <s v="03\10\24"/>
+        <s v="07\10\24"/>
+        <s v="08\10\24"/>
+        <s v="09\10\24"/>
+        <s v="14\10\24"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Dia da semana" numFmtId="0">
@@ -17045,25 +18029,25 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Teperatura" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="38.520000000000003"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="38.700000000000003"/>
     </cacheField>
     <cacheField name="Temperatura mínima" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="38.520000000000003"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="38.700000000000003"/>
     </cacheField>
     <cacheField name="Temperatura máxima" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="38.520000000000003"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="38.700000000000003"/>
     </cacheField>
     <cacheField name="Sensação térmica" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.32" maxValue="38.71"/>
     </cacheField>
     <cacheField name="Humidade do ar" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="95"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="98"/>
     </cacheField>
     <cacheField name="Pressão atmosférica" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1006" maxValue="1014"/>
     </cacheField>
     <cacheField name="Velocidade do vento" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.41" maxValue="10.8"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.56" maxValue="10.8"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -17075,7 +18059,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="68">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="88">
   <r>
     <x v="0"/>
     <s v="seg"/>
@@ -18028,10 +19012,789 @@
     <n v="1009"/>
     <n v="8.98"/>
   </r>
+  <r>
+    <x v="17"/>
+    <s v="qui"/>
+    <s v="16:12:38"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="29.07"/>
+    <n v="27.34"/>
+    <n v="29.07"/>
+    <n v="31.31"/>
+    <n v="61"/>
+    <n v="1011"/>
+    <n v="7.2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="qui"/>
+    <s v="16:12:38"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="38.04"/>
+    <n v="38.04"/>
+    <n v="38.04"/>
+    <n v="37.43"/>
+    <n v="23"/>
+    <n v="1007"/>
+    <n v="2.4300000000000002"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="qui"/>
+    <s v="16:12:38"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="27.95"/>
+    <n v="27.95"/>
+    <n v="27.95"/>
+    <n v="30.44"/>
+    <n v="69"/>
+    <n v="1009"/>
+    <n v="10.34"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="qui"/>
+    <s v="16:12:38"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="27.68"/>
+    <n v="27.68"/>
+    <n v="27.68"/>
+    <n v="30.18"/>
+    <n v="71"/>
+    <n v="1009"/>
+    <n v="9.57"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="seg"/>
+    <s v="14:53:56"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="31.15"/>
+    <n v="30.07"/>
+    <n v="31.15"/>
+    <n v="38.15"/>
+    <n v="93"/>
+    <n v="1011"/>
+    <n v="7.72"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="seg"/>
+    <s v="14:53:56"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="38.25"/>
+    <n v="38.25"/>
+    <n v="38.25"/>
+    <n v="37.47"/>
+    <n v="22"/>
+    <n v="1007"/>
+    <n v="2.72"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="seg"/>
+    <s v="14:53:56"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="29.09"/>
+    <n v="29.09"/>
+    <n v="29.09"/>
+    <n v="31.84"/>
+    <n v="64"/>
+    <n v="1009"/>
+    <n v="9.39"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="seg"/>
+    <s v="14:53:56"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="29.01"/>
+    <n v="29.01"/>
+    <n v="29.01"/>
+    <n v="31.36"/>
+    <n v="62"/>
+    <n v="1009"/>
+    <n v="8.85"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="ter"/>
+    <s v="12:09:14"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="29.76"/>
+    <n v="27.9"/>
+    <n v="30.07"/>
+    <n v="36.67"/>
+    <n v="79"/>
+    <n v="1014"/>
+    <n v="7.72"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="ter"/>
+    <s v="12:09:14"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="34.590000000000003"/>
+    <n v="34.590000000000003"/>
+    <n v="34.590000000000003"/>
+    <n v="34.71"/>
+    <n v="33"/>
+    <n v="1013"/>
+    <n v="3.4"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="ter"/>
+    <s v="12:09:14"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="31.06"/>
+    <n v="31.06"/>
+    <n v="31.06"/>
+    <n v="33.56"/>
+    <n v="54"/>
+    <n v="1013"/>
+    <n v="8.42"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="ter"/>
+    <s v="12:09:14"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="31.5"/>
+    <n v="31.5"/>
+    <n v="31.5"/>
+    <n v="33.47"/>
+    <n v="50"/>
+    <n v="1013"/>
+    <n v="7.2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="qua"/>
+    <s v="14:16:57"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="30.07"/>
+    <n v="27.9"/>
+    <n v="30.07"/>
+    <n v="33.380000000000003"/>
+    <n v="62"/>
+    <n v="1012"/>
+    <n v="5.66"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="qua"/>
+    <s v="14:16:57"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="38.700000000000003"/>
+    <n v="38.700000000000003"/>
+    <n v="38.700000000000003"/>
+    <n v="38.380000000000003"/>
+    <n v="23"/>
+    <n v="1009"/>
+    <n v="1.56"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="qua"/>
+    <s v="14:16:57"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="30.76"/>
+    <n v="30.76"/>
+    <n v="30.76"/>
+    <n v="33.22"/>
+    <n v="55"/>
+    <n v="1011"/>
+    <n v="7.32"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="qua"/>
+    <s v="14:16:57"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="30.71"/>
+    <n v="30.71"/>
+    <n v="30.71"/>
+    <n v="33.130000000000003"/>
+    <n v="55"/>
+    <n v="1011"/>
+    <n v="6.6"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="seg"/>
+    <s v="14:16:15"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="30.04"/>
+    <n v="30.04"/>
+    <n v="30.07"/>
+    <n v="37.04"/>
+    <n v="98"/>
+    <n v="1013"/>
+    <n v="9.26"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="seg"/>
+    <s v="14:16:15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="37.94"/>
+    <n v="37.94"/>
+    <n v="37.94"/>
+    <n v="36.58"/>
+    <n v="20"/>
+    <n v="1011"/>
+    <n v="3.46"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="seg"/>
+    <s v="14:16:15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="30.13"/>
+    <n v="30.13"/>
+    <n v="30.13"/>
+    <n v="32.880000000000003"/>
+    <n v="59"/>
+    <n v="1012"/>
+    <n v="9.27"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="seg"/>
+    <s v="14:16:15"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="29.94"/>
+    <n v="29.94"/>
+    <n v="29.94"/>
+    <n v="32.520000000000003"/>
+    <n v="59"/>
+    <n v="1013"/>
+    <n v="8.6999999999999993"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de Status" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="7" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+  <location ref="R3:S26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="43">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="5">
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="O3:P26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="44">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -18083,7 +19846,7 @@
     <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="38">
+    <format dxfId="45">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -18215,12 +19978,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="K3:L21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="K3:L26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="18">
+      <items count="23">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -18238,6 +20001,11 @@
         <item x="14"/>
         <item x="15"/>
         <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -18264,7 +20032,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="23">
     <i>
       <x/>
     </i>
@@ -18316,6 +20084,21 @@
     <i>
       <x v="16"/>
     </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -18330,7 +20113,7 @@
     <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="39">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -18357,7 +20140,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Sesação Térmica Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -18409,7 +20192,7 @@
     <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="40">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -18541,303 +20324,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="D3:E7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Contagem de Status" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="7" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
-  <location ref="R3:S21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="41">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="5">
-    <chartFormat chart="15" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Temperatura Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -18889,7 +20376,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="42">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -19135,12 +20622,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="O3:P21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="G3:H26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="18">
+      <items count="23">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -19158,6 +20645,11 @@
         <item x="14"/>
         <item x="15"/>
         <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19173,18 +20665,18 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="23">
     <i>
       <x/>
     </i>
@@ -19236,165 +20728,20 @@
     <i>
       <x v="16"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="43">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="G3:H21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="18">
     <i>
-      <x/>
+      <x v="17"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="18"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="20"/>
     </i>
     <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
+      <x v="21"/>
     </i>
     <i t="grand">
       <x/>
@@ -19410,7 +20757,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="44">
+    <format dxfId="49">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -19606,43 +20953,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L69" headerRowDxfId="70" dataDxfId="69">
-  <autoFilter ref="A1:L69" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L89" headerRowDxfId="75" dataDxfId="74">
+  <autoFilter ref="A1:L89" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
   <tableColumns count="12">
-    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="68" totalsRowDxfId="67">
+    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="73" totalsRowDxfId="72">
       <calculatedColumnFormula>[1]Sheet1!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>[1]Sheet1!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="64" totalsRowDxfId="63">
+    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="69" totalsRowDxfId="68">
       <calculatedColumnFormula>[1]Sheet1!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="62" totalsRowDxfId="61">
+    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>[1]Sheet1!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="65" totalsRowDxfId="64">
       <calculatedColumnFormula>[1]Sheet1!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula>[1]Sheet1!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="56" totalsRowDxfId="55">
+    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>[1]Sheet1!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="54" totalsRowDxfId="53">
+    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="59" totalsRowDxfId="58">
       <calculatedColumnFormula>[1]Sheet1!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>[1]Sheet1!J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Porcentagem">
+    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]Sheet1!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>[1]Sheet1!L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="46" totalsRowDxfId="45">
+    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>[1]Sheet1!M2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20669,10 +22016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24129,20 +25476,1025 @@
         <v>8.98</v>
       </c>
     </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="str">
+        <f>[1]Sheet1!B70</f>
+        <v>03\10\24</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f>[1]Sheet1!C70</f>
+        <v>qui</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>[1]Sheet1!D70</f>
+        <v>16:12:38</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f>[1]Sheet1!E70</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f>[1]Sheet1!F70</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F70" s="4">
+        <f>[1]Sheet1!G70</f>
+        <v>29.07</v>
+      </c>
+      <c r="G70" s="4">
+        <f>[1]Sheet1!H70</f>
+        <v>27.34</v>
+      </c>
+      <c r="H70" s="4">
+        <f>[1]Sheet1!I70</f>
+        <v>29.07</v>
+      </c>
+      <c r="I70" s="4">
+        <f>[1]Sheet1!J70</f>
+        <v>31.31</v>
+      </c>
+      <c r="J70" s="7">
+        <f>[1]Sheet1!K70</f>
+        <v>61</v>
+      </c>
+      <c r="K70" s="1">
+        <f>[1]Sheet1!L70</f>
+        <v>1011</v>
+      </c>
+      <c r="L70" s="9">
+        <f>[1]Sheet1!M70</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="str">
+        <f>[1]Sheet1!B71</f>
+        <v>03\10\24</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f>[1]Sheet1!C71</f>
+        <v>qui</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>[1]Sheet1!D71</f>
+        <v>16:12:38</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <f>[1]Sheet1!E71</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f>[1]Sheet1!F71</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F71" s="4">
+        <f>[1]Sheet1!G71</f>
+        <v>38.04</v>
+      </c>
+      <c r="G71" s="4">
+        <f>[1]Sheet1!H71</f>
+        <v>38.04</v>
+      </c>
+      <c r="H71" s="4">
+        <f>[1]Sheet1!I71</f>
+        <v>38.04</v>
+      </c>
+      <c r="I71" s="4">
+        <f>[1]Sheet1!J71</f>
+        <v>37.43</v>
+      </c>
+      <c r="J71" s="7">
+        <f>[1]Sheet1!K71</f>
+        <v>23</v>
+      </c>
+      <c r="K71" s="1">
+        <f>[1]Sheet1!L71</f>
+        <v>1007</v>
+      </c>
+      <c r="L71" s="9">
+        <f>[1]Sheet1!M71</f>
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="str">
+        <f>[1]Sheet1!B72</f>
+        <v>03\10\24</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f>[1]Sheet1!C72</f>
+        <v>qui</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f>[1]Sheet1!D72</f>
+        <v>16:12:38</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f>[1]Sheet1!E72</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f>[1]Sheet1!F72</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F72" s="4">
+        <f>[1]Sheet1!G72</f>
+        <v>27.95</v>
+      </c>
+      <c r="G72" s="4">
+        <f>[1]Sheet1!H72</f>
+        <v>27.95</v>
+      </c>
+      <c r="H72" s="4">
+        <f>[1]Sheet1!I72</f>
+        <v>27.95</v>
+      </c>
+      <c r="I72" s="4">
+        <f>[1]Sheet1!J72</f>
+        <v>30.44</v>
+      </c>
+      <c r="J72" s="7">
+        <f>[1]Sheet1!K72</f>
+        <v>69</v>
+      </c>
+      <c r="K72" s="1">
+        <f>[1]Sheet1!L72</f>
+        <v>1009</v>
+      </c>
+      <c r="L72" s="9">
+        <f>[1]Sheet1!M72</f>
+        <v>10.34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="str">
+        <f>[1]Sheet1!B73</f>
+        <v>03\10\24</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f>[1]Sheet1!C73</f>
+        <v>qui</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>[1]Sheet1!D73</f>
+        <v>16:12:38</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f>[1]Sheet1!E73</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f>[1]Sheet1!F73</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F73" s="4">
+        <f>[1]Sheet1!G73</f>
+        <v>27.68</v>
+      </c>
+      <c r="G73" s="4">
+        <f>[1]Sheet1!H73</f>
+        <v>27.68</v>
+      </c>
+      <c r="H73" s="4">
+        <f>[1]Sheet1!I73</f>
+        <v>27.68</v>
+      </c>
+      <c r="I73" s="4">
+        <f>[1]Sheet1!J73</f>
+        <v>30.18</v>
+      </c>
+      <c r="J73" s="7">
+        <f>[1]Sheet1!K73</f>
+        <v>71</v>
+      </c>
+      <c r="K73" s="1">
+        <f>[1]Sheet1!L73</f>
+        <v>1009</v>
+      </c>
+      <c r="L73" s="9">
+        <f>[1]Sheet1!M73</f>
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="str">
+        <f>[1]Sheet1!B74</f>
+        <v>07\10\24</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f>[1]Sheet1!C74</f>
+        <v>seg</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f>[1]Sheet1!D74</f>
+        <v>14:53:56</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f>[1]Sheet1!E74</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f>[1]Sheet1!F74</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F74" s="4">
+        <f>[1]Sheet1!G74</f>
+        <v>31.15</v>
+      </c>
+      <c r="G74" s="4">
+        <f>[1]Sheet1!H74</f>
+        <v>30.07</v>
+      </c>
+      <c r="H74" s="4">
+        <f>[1]Sheet1!I74</f>
+        <v>31.15</v>
+      </c>
+      <c r="I74" s="4">
+        <f>[1]Sheet1!J74</f>
+        <v>38.15</v>
+      </c>
+      <c r="J74" s="7">
+        <f>[1]Sheet1!K74</f>
+        <v>93</v>
+      </c>
+      <c r="K74" s="1">
+        <f>[1]Sheet1!L74</f>
+        <v>1011</v>
+      </c>
+      <c r="L74" s="9">
+        <f>[1]Sheet1!M74</f>
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="str">
+        <f>[1]Sheet1!B75</f>
+        <v>07\10\24</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f>[1]Sheet1!C75</f>
+        <v>seg</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>[1]Sheet1!D75</f>
+        <v>14:53:56</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f>[1]Sheet1!E75</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f>[1]Sheet1!F75</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F75" s="4">
+        <f>[1]Sheet1!G75</f>
+        <v>38.25</v>
+      </c>
+      <c r="G75" s="4">
+        <f>[1]Sheet1!H75</f>
+        <v>38.25</v>
+      </c>
+      <c r="H75" s="4">
+        <f>[1]Sheet1!I75</f>
+        <v>38.25</v>
+      </c>
+      <c r="I75" s="4">
+        <f>[1]Sheet1!J75</f>
+        <v>37.47</v>
+      </c>
+      <c r="J75" s="7">
+        <f>[1]Sheet1!K75</f>
+        <v>22</v>
+      </c>
+      <c r="K75" s="1">
+        <f>[1]Sheet1!L75</f>
+        <v>1007</v>
+      </c>
+      <c r="L75" s="9">
+        <f>[1]Sheet1!M75</f>
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="str">
+        <f>[1]Sheet1!B76</f>
+        <v>07\10\24</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f>[1]Sheet1!C76</f>
+        <v>seg</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>[1]Sheet1!D76</f>
+        <v>14:53:56</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f>[1]Sheet1!E76</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f>[1]Sheet1!F76</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F76" s="4">
+        <f>[1]Sheet1!G76</f>
+        <v>29.09</v>
+      </c>
+      <c r="G76" s="4">
+        <f>[1]Sheet1!H76</f>
+        <v>29.09</v>
+      </c>
+      <c r="H76" s="4">
+        <f>[1]Sheet1!I76</f>
+        <v>29.09</v>
+      </c>
+      <c r="I76" s="4">
+        <f>[1]Sheet1!J76</f>
+        <v>31.84</v>
+      </c>
+      <c r="J76" s="7">
+        <f>[1]Sheet1!K76</f>
+        <v>64</v>
+      </c>
+      <c r="K76" s="1">
+        <f>[1]Sheet1!L76</f>
+        <v>1009</v>
+      </c>
+      <c r="L76" s="9">
+        <f>[1]Sheet1!M76</f>
+        <v>9.39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="str">
+        <f>[1]Sheet1!B77</f>
+        <v>07\10\24</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f>[1]Sheet1!C77</f>
+        <v>seg</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>[1]Sheet1!D77</f>
+        <v>14:53:56</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f>[1]Sheet1!E77</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f>[1]Sheet1!F77</f>
+        <v>nublado</v>
+      </c>
+      <c r="F77" s="4">
+        <f>[1]Sheet1!G77</f>
+        <v>29.01</v>
+      </c>
+      <c r="G77" s="4">
+        <f>[1]Sheet1!H77</f>
+        <v>29.01</v>
+      </c>
+      <c r="H77" s="4">
+        <f>[1]Sheet1!I77</f>
+        <v>29.01</v>
+      </c>
+      <c r="I77" s="4">
+        <f>[1]Sheet1!J77</f>
+        <v>31.36</v>
+      </c>
+      <c r="J77" s="7">
+        <f>[1]Sheet1!K77</f>
+        <v>62</v>
+      </c>
+      <c r="K77" s="1">
+        <f>[1]Sheet1!L77</f>
+        <v>1009</v>
+      </c>
+      <c r="L77" s="9">
+        <f>[1]Sheet1!M77</f>
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="str">
+        <f>[1]Sheet1!B78</f>
+        <v>08\10\24</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f>[1]Sheet1!C78</f>
+        <v>ter</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>[1]Sheet1!D78</f>
+        <v>12:09:14</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f>[1]Sheet1!E78</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f>[1]Sheet1!F78</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F78" s="4">
+        <f>[1]Sheet1!G78</f>
+        <v>29.76</v>
+      </c>
+      <c r="G78" s="4">
+        <f>[1]Sheet1!H78</f>
+        <v>27.9</v>
+      </c>
+      <c r="H78" s="4">
+        <f>[1]Sheet1!I78</f>
+        <v>30.07</v>
+      </c>
+      <c r="I78" s="4">
+        <f>[1]Sheet1!J78</f>
+        <v>36.67</v>
+      </c>
+      <c r="J78" s="7">
+        <f>[1]Sheet1!K78</f>
+        <v>79</v>
+      </c>
+      <c r="K78" s="1">
+        <f>[1]Sheet1!L78</f>
+        <v>1014</v>
+      </c>
+      <c r="L78" s="9">
+        <f>[1]Sheet1!M78</f>
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="str">
+        <f>[1]Sheet1!B79</f>
+        <v>08\10\24</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f>[1]Sheet1!C79</f>
+        <v>ter</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f>[1]Sheet1!D79</f>
+        <v>12:09:14</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f>[1]Sheet1!E79</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f>[1]Sheet1!F79</f>
+        <v>nublado</v>
+      </c>
+      <c r="F79" s="4">
+        <f>[1]Sheet1!G79</f>
+        <v>34.590000000000003</v>
+      </c>
+      <c r="G79" s="4">
+        <f>[1]Sheet1!H79</f>
+        <v>34.590000000000003</v>
+      </c>
+      <c r="H79" s="4">
+        <f>[1]Sheet1!I79</f>
+        <v>34.590000000000003</v>
+      </c>
+      <c r="I79" s="4">
+        <f>[1]Sheet1!J79</f>
+        <v>34.71</v>
+      </c>
+      <c r="J79" s="7">
+        <f>[1]Sheet1!K79</f>
+        <v>33</v>
+      </c>
+      <c r="K79" s="1">
+        <f>[1]Sheet1!L79</f>
+        <v>1013</v>
+      </c>
+      <c r="L79" s="9">
+        <f>[1]Sheet1!M79</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="str">
+        <f>[1]Sheet1!B80</f>
+        <v>08\10\24</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f>[1]Sheet1!C80</f>
+        <v>ter</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f>[1]Sheet1!D80</f>
+        <v>12:09:14</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f>[1]Sheet1!E80</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f>[1]Sheet1!F80</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F80" s="4">
+        <f>[1]Sheet1!G80</f>
+        <v>31.06</v>
+      </c>
+      <c r="G80" s="4">
+        <f>[1]Sheet1!H80</f>
+        <v>31.06</v>
+      </c>
+      <c r="H80" s="4">
+        <f>[1]Sheet1!I80</f>
+        <v>31.06</v>
+      </c>
+      <c r="I80" s="4">
+        <f>[1]Sheet1!J80</f>
+        <v>33.56</v>
+      </c>
+      <c r="J80" s="7">
+        <f>[1]Sheet1!K80</f>
+        <v>54</v>
+      </c>
+      <c r="K80" s="1">
+        <f>[1]Sheet1!L80</f>
+        <v>1013</v>
+      </c>
+      <c r="L80" s="9">
+        <f>[1]Sheet1!M80</f>
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="str">
+        <f>[1]Sheet1!B81</f>
+        <v>08\10\24</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f>[1]Sheet1!C81</f>
+        <v>ter</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f>[1]Sheet1!D81</f>
+        <v>12:09:14</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f>[1]Sheet1!E81</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f>[1]Sheet1!F81</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F81" s="4">
+        <f>[1]Sheet1!G81</f>
+        <v>31.5</v>
+      </c>
+      <c r="G81" s="4">
+        <f>[1]Sheet1!H81</f>
+        <v>31.5</v>
+      </c>
+      <c r="H81" s="4">
+        <f>[1]Sheet1!I81</f>
+        <v>31.5</v>
+      </c>
+      <c r="I81" s="4">
+        <f>[1]Sheet1!J81</f>
+        <v>33.47</v>
+      </c>
+      <c r="J81" s="7">
+        <f>[1]Sheet1!K81</f>
+        <v>50</v>
+      </c>
+      <c r="K81" s="1">
+        <f>[1]Sheet1!L81</f>
+        <v>1013</v>
+      </c>
+      <c r="L81" s="9">
+        <f>[1]Sheet1!M81</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="str">
+        <f>[1]Sheet1!B82</f>
+        <v>09\10\24</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f>[1]Sheet1!C82</f>
+        <v>qua</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f>[1]Sheet1!D82</f>
+        <v>14:16:57</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f>[1]Sheet1!E82</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <f>[1]Sheet1!F82</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F82" s="4">
+        <f>[1]Sheet1!G82</f>
+        <v>30.07</v>
+      </c>
+      <c r="G82" s="4">
+        <f>[1]Sheet1!H82</f>
+        <v>27.9</v>
+      </c>
+      <c r="H82" s="4">
+        <f>[1]Sheet1!I82</f>
+        <v>30.07</v>
+      </c>
+      <c r="I82" s="4">
+        <f>[1]Sheet1!J82</f>
+        <v>33.380000000000003</v>
+      </c>
+      <c r="J82" s="7">
+        <f>[1]Sheet1!K82</f>
+        <v>62</v>
+      </c>
+      <c r="K82" s="1">
+        <f>[1]Sheet1!L82</f>
+        <v>1012</v>
+      </c>
+      <c r="L82" s="9">
+        <f>[1]Sheet1!M82</f>
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="str">
+        <f>[1]Sheet1!B83</f>
+        <v>09\10\24</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f>[1]Sheet1!C83</f>
+        <v>qua</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f>[1]Sheet1!D83</f>
+        <v>14:16:57</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <f>[1]Sheet1!E83</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E83" s="1" t="str">
+        <f>[1]Sheet1!F83</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F83" s="4">
+        <f>[1]Sheet1!G83</f>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G83" s="4">
+        <f>[1]Sheet1!H83</f>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="H83" s="4">
+        <f>[1]Sheet1!I83</f>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I83" s="4">
+        <f>[1]Sheet1!J83</f>
+        <v>38.380000000000003</v>
+      </c>
+      <c r="J83" s="7">
+        <f>[1]Sheet1!K83</f>
+        <v>23</v>
+      </c>
+      <c r="K83" s="1">
+        <f>[1]Sheet1!L83</f>
+        <v>1009</v>
+      </c>
+      <c r="L83" s="9">
+        <f>[1]Sheet1!M83</f>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="str">
+        <f>[1]Sheet1!B84</f>
+        <v>09\10\24</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f>[1]Sheet1!C84</f>
+        <v>qua</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f>[1]Sheet1!D84</f>
+        <v>14:16:57</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <f>[1]Sheet1!E84</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <f>[1]Sheet1!F84</f>
+        <v>nublado</v>
+      </c>
+      <c r="F84" s="4">
+        <f>[1]Sheet1!G84</f>
+        <v>30.76</v>
+      </c>
+      <c r="G84" s="4">
+        <f>[1]Sheet1!H84</f>
+        <v>30.76</v>
+      </c>
+      <c r="H84" s="4">
+        <f>[1]Sheet1!I84</f>
+        <v>30.76</v>
+      </c>
+      <c r="I84" s="4">
+        <f>[1]Sheet1!J84</f>
+        <v>33.22</v>
+      </c>
+      <c r="J84" s="7">
+        <f>[1]Sheet1!K84</f>
+        <v>55</v>
+      </c>
+      <c r="K84" s="1">
+        <f>[1]Sheet1!L84</f>
+        <v>1011</v>
+      </c>
+      <c r="L84" s="9">
+        <f>[1]Sheet1!M84</f>
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="str">
+        <f>[1]Sheet1!B85</f>
+        <v>09\10\24</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f>[1]Sheet1!C85</f>
+        <v>qua</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f>[1]Sheet1!D85</f>
+        <v>14:16:57</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f>[1]Sheet1!E85</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E85" s="1" t="str">
+        <f>[1]Sheet1!F85</f>
+        <v>nublado</v>
+      </c>
+      <c r="F85" s="4">
+        <f>[1]Sheet1!G85</f>
+        <v>30.71</v>
+      </c>
+      <c r="G85" s="4">
+        <f>[1]Sheet1!H85</f>
+        <v>30.71</v>
+      </c>
+      <c r="H85" s="4">
+        <f>[1]Sheet1!I85</f>
+        <v>30.71</v>
+      </c>
+      <c r="I85" s="4">
+        <f>[1]Sheet1!J85</f>
+        <v>33.130000000000003</v>
+      </c>
+      <c r="J85" s="7">
+        <f>[1]Sheet1!K85</f>
+        <v>55</v>
+      </c>
+      <c r="K85" s="1">
+        <f>[1]Sheet1!L85</f>
+        <v>1011</v>
+      </c>
+      <c r="L85" s="9">
+        <f>[1]Sheet1!M85</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="str">
+        <f>[1]Sheet1!B86</f>
+        <v>14\10\24</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f>[1]Sheet1!C86</f>
+        <v>seg</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f>[1]Sheet1!D86</f>
+        <v>14:16:15</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <f>[1]Sheet1!E86</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f>[1]Sheet1!F86</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F86" s="4">
+        <f>[1]Sheet1!G86</f>
+        <v>30.04</v>
+      </c>
+      <c r="G86" s="4">
+        <f>[1]Sheet1!H86</f>
+        <v>30.04</v>
+      </c>
+      <c r="H86" s="4">
+        <f>[1]Sheet1!I86</f>
+        <v>30.07</v>
+      </c>
+      <c r="I86" s="4">
+        <f>[1]Sheet1!J86</f>
+        <v>37.04</v>
+      </c>
+      <c r="J86" s="7">
+        <f>[1]Sheet1!K86</f>
+        <v>98</v>
+      </c>
+      <c r="K86" s="1">
+        <f>[1]Sheet1!L86</f>
+        <v>1013</v>
+      </c>
+      <c r="L86" s="9">
+        <f>[1]Sheet1!M86</f>
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="str">
+        <f>[1]Sheet1!B87</f>
+        <v>14\10\24</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f>[1]Sheet1!C87</f>
+        <v>seg</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f>[1]Sheet1!D87</f>
+        <v>14:16:15</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <f>[1]Sheet1!E87</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f>[1]Sheet1!F87</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F87" s="4">
+        <f>[1]Sheet1!G87</f>
+        <v>37.94</v>
+      </c>
+      <c r="G87" s="4">
+        <f>[1]Sheet1!H87</f>
+        <v>37.94</v>
+      </c>
+      <c r="H87" s="4">
+        <f>[1]Sheet1!I87</f>
+        <v>37.94</v>
+      </c>
+      <c r="I87" s="4">
+        <f>[1]Sheet1!J87</f>
+        <v>36.58</v>
+      </c>
+      <c r="J87" s="7">
+        <f>[1]Sheet1!K87</f>
+        <v>20</v>
+      </c>
+      <c r="K87" s="1">
+        <f>[1]Sheet1!L87</f>
+        <v>1011</v>
+      </c>
+      <c r="L87" s="9">
+        <f>[1]Sheet1!M87</f>
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="str">
+        <f>[1]Sheet1!B88</f>
+        <v>14\10\24</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f>[1]Sheet1!C88</f>
+        <v>seg</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f>[1]Sheet1!D88</f>
+        <v>14:16:15</v>
+      </c>
+      <c r="D88" s="1" t="str">
+        <f>[1]Sheet1!E88</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f>[1]Sheet1!F88</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F88" s="4">
+        <f>[1]Sheet1!G88</f>
+        <v>30.13</v>
+      </c>
+      <c r="G88" s="4">
+        <f>[1]Sheet1!H88</f>
+        <v>30.13</v>
+      </c>
+      <c r="H88" s="4">
+        <f>[1]Sheet1!I88</f>
+        <v>30.13</v>
+      </c>
+      <c r="I88" s="4">
+        <f>[1]Sheet1!J88</f>
+        <v>32.880000000000003</v>
+      </c>
+      <c r="J88" s="7">
+        <f>[1]Sheet1!K88</f>
+        <v>59</v>
+      </c>
+      <c r="K88" s="1">
+        <f>[1]Sheet1!L88</f>
+        <v>1012</v>
+      </c>
+      <c r="L88" s="9">
+        <f>[1]Sheet1!M88</f>
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="str">
+        <f>[1]Sheet1!B89</f>
+        <v>14\10\24</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f>[1]Sheet1!C89</f>
+        <v>seg</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f>[1]Sheet1!D89</f>
+        <v>14:16:15</v>
+      </c>
+      <c r="D89" s="1" t="str">
+        <f>[1]Sheet1!E89</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E89" s="1" t="str">
+        <f>[1]Sheet1!F89</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F89" s="4">
+        <f>[1]Sheet1!G89</f>
+        <v>29.94</v>
+      </c>
+      <c r="G89" s="4">
+        <f>[1]Sheet1!H89</f>
+        <v>29.94</v>
+      </c>
+      <c r="H89" s="4">
+        <f>[1]Sheet1!I89</f>
+        <v>29.94</v>
+      </c>
+      <c r="I89" s="4">
+        <f>[1]Sheet1!J89</f>
+        <v>32.520000000000003</v>
+      </c>
+      <c r="J89" s="7">
+        <f>[1]Sheet1!K89</f>
+        <v>59</v>
+      </c>
+      <c r="K89" s="1">
+        <f>[1]Sheet1!L89</f>
+        <v>1013</v>
+      </c>
+      <c r="L89" s="9">
+        <f>[1]Sheet1!M89</f>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J69">
-    <cfRule type="expression" dxfId="73" priority="5">
+  <conditionalFormatting sqref="J2:J89">
+    <cfRule type="expression" dxfId="79" priority="6">
       <formula>$J2&lt;=50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F69">
-    <cfRule type="expression" dxfId="72" priority="4">
+  <conditionalFormatting sqref="F2:F89">
+    <cfRule type="expression" dxfId="78" priority="5">
       <formula>$F2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I69">
-    <cfRule type="expression" dxfId="71" priority="1">
+  <conditionalFormatting sqref="I2:I89">
+    <cfRule type="expression" dxfId="77" priority="2">
       <formula>$I2&gt;=35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L89">
+    <cfRule type="expression" dxfId="76" priority="1">
+      <formula>$L2&lt;7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24179,7 +26531,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24245,7 +26597,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>30.207647058823529</v>
+        <v>30.114545454545453</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -24253,7 +26605,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="5">
-        <v>30.261764705882349</v>
+        <v>30.206363636363633</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -24291,13 +26643,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>29.66411764705882</v>
+        <v>29.687727272727273</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>24</v>
@@ -24329,7 +26681,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>36.914117647058831</v>
+        <v>37.048181818181824</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
@@ -24367,13 +26719,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="5">
-        <v>31.761911764705889</v>
+        <v>31.764204545454547</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
@@ -24402,10 +26754,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E7" s="6">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>27</v>
@@ -24439,6 +26791,12 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6">
+        <v>22</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
@@ -24469,7 +26827,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="5">
-        <v>32.259411764705881</v>
+        <v>32.288636363636364</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>29</v>
@@ -24501,7 +26859,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="5">
-        <v>35.241176470588243</v>
+        <v>35.256818181818183</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>30</v>
@@ -24533,7 +26891,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="5">
-        <v>31.31941176470588</v>
+        <v>31.504090909090905</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>31</v>
@@ -24565,7 +26923,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="5">
-        <v>36.069999999999993</v>
+        <v>36.261818181818178</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>32</v>
@@ -24597,7 +26955,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="5">
-        <v>33.722499999999989</v>
+        <v>33.827840909090902</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>33</v>
@@ -24687,7 +27045,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="6">
-        <v>55.705882352941174</v>
+        <v>56.727272727272727</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>37</v>
@@ -24719,7 +27077,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>74.17647058823529</v>
+        <v>75.181818181818187</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>38</v>
@@ -24751,7 +27109,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6">
-        <v>55.764705882352942</v>
+        <v>56.590909090909093</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>39</v>
@@ -24783,7 +27141,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6">
-        <v>23.705882352941178</v>
+        <v>23.818181818181817</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>40</v>
@@ -24815,7 +27173,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6">
-        <v>52.338235294117645</v>
+        <v>53.079545454545453</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>42</v>
@@ -24844,28 +27202,28 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G21" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H21" s="5">
-        <v>36.914117647058831</v>
+        <v>38.04</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L21" s="5">
-        <v>36.069999999999993</v>
+        <v>37.43</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="P21" s="8">
-        <v>3.5111764705882358</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="S21" s="8">
-        <v>23.705882352941178</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -24875,13 +27233,61 @@
       <c r="B22" t="s">
         <v>23</v>
       </c>
+      <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="5">
+        <v>38.25</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="5">
+        <v>37.47</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="8">
+        <v>2.72</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S22" s="8">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>9.8794117647058819</v>
+        <v>9.6677272727272729</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="5">
+        <v>34.590000000000003</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="5">
+        <v>34.71</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23" s="8">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -24889,7 +27295,31 @@
         <v>14</v>
       </c>
       <c r="B24" s="6">
-        <v>8.8364705882352936</v>
+        <v>8.5354545454545434</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="5">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="5">
+        <v>38.380000000000003</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" s="8">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -24897,7 +27327,31 @@
         <v>15</v>
       </c>
       <c r="B25" s="6">
-        <v>9.2841176470588245</v>
+        <v>9.0340909090909083</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="5">
+        <v>37.94</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="5">
+        <v>36.58</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="8">
+        <v>3.46</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" s="8">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -24905,7 +27359,31 @@
         <v>16</v>
       </c>
       <c r="B26" s="6">
-        <v>3.5111764705882358</v>
+        <v>3.330000000000001</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="5">
+        <v>37.048181818181824</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="5">
+        <v>36.261818181818178</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="8">
+        <v>3.330000000000001</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S26" s="8">
+        <v>23.818181818181817</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -24913,7 +27391,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="6">
-        <v>7.8777941176470581</v>
+        <v>7.6418181818181843</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB01128-9F44-4663-8AA5-F7C8B9EE5C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F90568-ABCE-4563-9770-5A2B340979B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="52">
   <si>
     <t>Data</t>
   </si>
@@ -201,6 +201,15 @@
   <si>
     <t>14\10\24</t>
   </si>
+  <si>
+    <t>16\10\24</t>
+  </si>
+  <si>
+    <t>19\10\24</t>
+  </si>
+  <si>
+    <t>21\10\24</t>
+  </si>
 </sst>
 </file>
 
@@ -272,7 +281,67 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="96">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -367,16 +436,16 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -419,56 +488,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -1355,16 +1384,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30.114545454545453</c:v>
+                  <c:v>30.234000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.206363636363633</c:v>
+                  <c:v>30.196800000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.687727272727273</c:v>
+                  <c:v>29.856800000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.048181818181824</c:v>
+                  <c:v>37.038800000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2429,16 +2458,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32.288636363636364</c:v>
+                  <c:v>32.499200000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.256818181818183</c:v>
+                  <c:v>35.250799999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.504090909090905</c:v>
+                  <c:v>31.761599999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.261818181818178</c:v>
+                  <c:v>36.377599999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,16 +3523,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>56.727272727272727</c:v>
+                  <c:v>56.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.181818181818187</c:v>
+                  <c:v>74.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.590909090909093</c:v>
+                  <c:v>56.28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.818181818181817</c:v>
+                  <c:v>24.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4254,16 +4283,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.6677272727272729</c:v>
+                  <c:v>9.5279999999999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5354545454545434</c:v>
+                  <c:v>8.4783999999999988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0340909090909083</c:v>
+                  <c:v>8.8831999999999987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.330000000000001</c:v>
+                  <c:v>3.2492000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5008,9 +5037,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$G$4:$G$26</c:f>
+              <c:f>'Tabelas dinâmicas'!$G$4:$G$29</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -5077,15 +5106,24 @@
                 <c:pt idx="21">
                   <c:v>14\10\24</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>16\10\24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19\10\24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21\10\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$H$4:$H$26</c:f>
+              <c:f>'Tabelas dinâmicas'!$H$4:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>36.28</c:v>
                 </c:pt>
@@ -5150,6 +5188,15 @@
                   <c:v>38.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>37.94</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>37.94</c:v>
                 </c:pt>
               </c:numCache>
@@ -5911,9 +5958,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$K$4:$K$26</c:f>
+              <c:f>'Tabelas dinâmicas'!$K$4:$K$29</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -5980,15 +6027,24 @@
                 <c:pt idx="21">
                   <c:v>14\10\24</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>16\10\24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19\10\24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21\10\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$L$4:$L$26</c:f>
+              <c:f>'Tabelas dinâmicas'!$L$4:$L$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>34.68</c:v>
                 </c:pt>
@@ -6054,6 +6110,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>36.58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7009,13 +7074,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7916,9 +7981,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$O$4:$O$26</c:f>
+              <c:f>'Tabelas dinâmicas'!$O$4:$O$29</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -7985,15 +8050,24 @@
                 <c:pt idx="21">
                   <c:v>14\10\24</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>16\10\24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19\10\24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21\10\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$P$4:$P$26</c:f>
+              <c:f>'Tabelas dinâmicas'!$P$4:$P$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>3.85</c:v>
                 </c:pt>
@@ -8059,6 +8133,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8959,9 +9042,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$R$4:$R$26</c:f>
+              <c:f>'Tabelas dinâmicas'!$R$4:$R$29</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -9028,15 +9111,24 @@
                 <c:pt idx="21">
                   <c:v>14\10\24</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>16\10\24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19\10\24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21\10\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$S$4:$S$26</c:f>
+              <c:f>'Tabelas dinâmicas'!$S$4:$S$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -9102,6 +9194,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17968,6 +18069,462 @@
             <v>8.6999999999999993</v>
           </cell>
         </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>16\10\24</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D90" t="str">
+            <v>14:27:51</v>
+          </cell>
+          <cell r="E90" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F90" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G90">
+            <v>30.07</v>
+          </cell>
+          <cell r="H90">
+            <v>27.9</v>
+          </cell>
+          <cell r="I90">
+            <v>30.07</v>
+          </cell>
+          <cell r="J90">
+            <v>31.31</v>
+          </cell>
+          <cell r="K90">
+            <v>51</v>
+          </cell>
+          <cell r="L90">
+            <v>1011</v>
+          </cell>
+          <cell r="M90">
+            <v>7.2</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>16\10\24</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>14:27:51</v>
+          </cell>
+          <cell r="E91" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F91" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G91">
+            <v>37.590000000000003</v>
+          </cell>
+          <cell r="H91">
+            <v>37.590000000000003</v>
+          </cell>
+          <cell r="I91">
+            <v>37.590000000000003</v>
+          </cell>
+          <cell r="J91">
+            <v>38.130000000000003</v>
+          </cell>
+          <cell r="K91">
+            <v>28</v>
+          </cell>
+          <cell r="L91">
+            <v>1009</v>
+          </cell>
+          <cell r="M91">
+            <v>1.41</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>16\10\24</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D92" t="str">
+            <v>14:27:51</v>
+          </cell>
+          <cell r="E92" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F92" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G92">
+            <v>30.49</v>
+          </cell>
+          <cell r="H92">
+            <v>30.49</v>
+          </cell>
+          <cell r="I92">
+            <v>30.49</v>
+          </cell>
+          <cell r="J92">
+            <v>33.57</v>
+          </cell>
+          <cell r="K92">
+            <v>59</v>
+          </cell>
+          <cell r="L92">
+            <v>1010</v>
+          </cell>
+          <cell r="M92">
+            <v>8.44</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>16\10\24</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D93" t="str">
+            <v>14:27:51</v>
+          </cell>
+          <cell r="E93" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F93" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G93">
+            <v>30.48</v>
+          </cell>
+          <cell r="H93">
+            <v>30.48</v>
+          </cell>
+          <cell r="I93">
+            <v>30.48</v>
+          </cell>
+          <cell r="J93">
+            <v>33.119999999999997</v>
+          </cell>
+          <cell r="K93">
+            <v>57</v>
+          </cell>
+          <cell r="L93">
+            <v>1010</v>
+          </cell>
+          <cell r="M93">
+            <v>7.11</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>19\10\24</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="D94" t="str">
+            <v>10:54:57</v>
+          </cell>
+          <cell r="E94" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F94" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G94">
+            <v>29.48</v>
+          </cell>
+          <cell r="H94">
+            <v>27.9</v>
+          </cell>
+          <cell r="I94">
+            <v>30.07</v>
+          </cell>
+          <cell r="J94">
+            <v>36.479999999999997</v>
+          </cell>
+          <cell r="K94">
+            <v>83</v>
+          </cell>
+          <cell r="L94">
+            <v>1011</v>
+          </cell>
+          <cell r="M94">
+            <v>7.72</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>19\10\24</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="D95" t="str">
+            <v>10:54:57</v>
+          </cell>
+          <cell r="E95" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F95" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G95">
+            <v>35.380000000000003</v>
+          </cell>
+          <cell r="H95">
+            <v>35.380000000000003</v>
+          </cell>
+          <cell r="I95">
+            <v>35.380000000000003</v>
+          </cell>
+          <cell r="J95">
+            <v>36.74</v>
+          </cell>
+          <cell r="K95">
+            <v>36</v>
+          </cell>
+          <cell r="L95">
+            <v>1010</v>
+          </cell>
+          <cell r="M95">
+            <v>2.69</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>19\10\24</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="D96" t="str">
+            <v>10:54:57</v>
+          </cell>
+          <cell r="E96" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F96" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G96">
+            <v>32.119999999999997</v>
+          </cell>
+          <cell r="H96">
+            <v>32.119999999999997</v>
+          </cell>
+          <cell r="I96">
+            <v>32.119999999999997</v>
+          </cell>
+          <cell r="J96">
+            <v>35.619999999999997</v>
+          </cell>
+          <cell r="K96">
+            <v>54</v>
+          </cell>
+          <cell r="L96">
+            <v>1010</v>
+          </cell>
+          <cell r="M96">
+            <v>7.51</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>19\10\24</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="D97" t="str">
+            <v>10:54:57</v>
+          </cell>
+          <cell r="E97" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F97" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G97">
+            <v>32.08</v>
+          </cell>
+          <cell r="H97">
+            <v>32.08</v>
+          </cell>
+          <cell r="I97">
+            <v>32.08</v>
+          </cell>
+          <cell r="J97">
+            <v>35.270000000000003</v>
+          </cell>
+          <cell r="K97">
+            <v>53</v>
+          </cell>
+          <cell r="L97">
+            <v>1010</v>
+          </cell>
+          <cell r="M97">
+            <v>7.47</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>21\10\24</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D98" t="str">
+            <v>14:13:29</v>
+          </cell>
+          <cell r="E98" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F98" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G98">
+            <v>30.83</v>
+          </cell>
+          <cell r="H98">
+            <v>28.45</v>
+          </cell>
+          <cell r="I98">
+            <v>31.07</v>
+          </cell>
+          <cell r="J98">
+            <v>37.83</v>
+          </cell>
+          <cell r="K98">
+            <v>77</v>
+          </cell>
+          <cell r="L98">
+            <v>1011</v>
+          </cell>
+          <cell r="M98">
+            <v>9.26</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>21\10\24</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D99" t="str">
+            <v>14:13:29</v>
+          </cell>
+          <cell r="E99" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F99" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G99">
+            <v>37.94</v>
+          </cell>
+          <cell r="H99">
+            <v>37.94</v>
+          </cell>
+          <cell r="I99">
+            <v>37.94</v>
+          </cell>
+          <cell r="J99">
+            <v>36.81</v>
+          </cell>
+          <cell r="K99">
+            <v>21</v>
+          </cell>
+          <cell r="L99">
+            <v>1008</v>
+          </cell>
+          <cell r="M99">
+            <v>3.87</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>21\10\24</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D100" t="str">
+            <v>14:13:29</v>
+          </cell>
+          <cell r="E100" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F100" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G100">
+            <v>30.72</v>
+          </cell>
+          <cell r="H100">
+            <v>30.72</v>
+          </cell>
+          <cell r="I100">
+            <v>30.72</v>
+          </cell>
+          <cell r="J100">
+            <v>32.94</v>
+          </cell>
+          <cell r="K100">
+            <v>54</v>
+          </cell>
+          <cell r="L100">
+            <v>1010</v>
+          </cell>
+          <cell r="M100">
+            <v>9.56</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101" t="str">
+            <v>21\10\24</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D101" t="str">
+            <v>14:13:29</v>
+          </cell>
+          <cell r="E101" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F101" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G101">
+            <v>30.73</v>
+          </cell>
+          <cell r="H101">
+            <v>30.73</v>
+          </cell>
+          <cell r="I101">
+            <v>30.73</v>
+          </cell>
+          <cell r="J101">
+            <v>32.56</v>
+          </cell>
+          <cell r="K101">
+            <v>52</v>
+          </cell>
+          <cell r="L101">
+            <v>1010</v>
+          </cell>
+          <cell r="M101">
+            <v>8.75</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -17975,13 +18532,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45579.596324074075" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="88" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45586.593524189811" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="100" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
   <cacheSource type="worksheet">
     <worksheetSource name="Monitoramento_Clima"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Data" numFmtId="0">
-      <sharedItems count="22">
+      <sharedItems count="25">
         <s v="09\09\24"/>
         <s v="10\09\24"/>
         <s v="11\09\24"/>
@@ -18004,6 +18561,9 @@
         <s v="08\10\24"/>
         <s v="09\10\24"/>
         <s v="14\10\24"/>
+        <s v="16\10\24"/>
+        <s v="19\10\24"/>
+        <s v="21\10\24"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Dia da semana" numFmtId="0">
@@ -18047,7 +18607,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1006" maxValue="1014"/>
     </cacheField>
     <cacheField name="Velocidade do vento" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.56" maxValue="10.8"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.41" maxValue="10.8"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -18059,7 +18619,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="88">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
   <r>
     <x v="0"/>
     <s v="seg"/>
@@ -19292,509 +19852,178 @@
     <n v="1013"/>
     <n v="8.6999999999999993"/>
   </r>
+  <r>
+    <x v="22"/>
+    <s v="qua"/>
+    <s v="14:27:51"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="30.07"/>
+    <n v="27.9"/>
+    <n v="30.07"/>
+    <n v="31.31"/>
+    <n v="51"/>
+    <n v="1011"/>
+    <n v="7.2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="qua"/>
+    <s v="14:27:51"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="37.590000000000003"/>
+    <n v="37.590000000000003"/>
+    <n v="37.590000000000003"/>
+    <n v="38.130000000000003"/>
+    <n v="28"/>
+    <n v="1009"/>
+    <n v="1.41"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="qua"/>
+    <s v="14:27:51"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="30.49"/>
+    <n v="30.49"/>
+    <n v="30.49"/>
+    <n v="33.57"/>
+    <n v="59"/>
+    <n v="1010"/>
+    <n v="8.44"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="qua"/>
+    <s v="14:27:51"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="30.48"/>
+    <n v="30.48"/>
+    <n v="30.48"/>
+    <n v="33.119999999999997"/>
+    <n v="57"/>
+    <n v="1010"/>
+    <n v="7.11"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="sÃ¡b"/>
+    <s v="10:54:57"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="29.48"/>
+    <n v="27.9"/>
+    <n v="30.07"/>
+    <n v="36.479999999999997"/>
+    <n v="83"/>
+    <n v="1011"/>
+    <n v="7.72"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="sÃ¡b"/>
+    <s v="10:54:57"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="35.380000000000003"/>
+    <n v="35.380000000000003"/>
+    <n v="35.380000000000003"/>
+    <n v="36.74"/>
+    <n v="36"/>
+    <n v="1010"/>
+    <n v="2.69"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="sÃ¡b"/>
+    <s v="10:54:57"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="32.119999999999997"/>
+    <n v="32.119999999999997"/>
+    <n v="32.119999999999997"/>
+    <n v="35.619999999999997"/>
+    <n v="54"/>
+    <n v="1010"/>
+    <n v="7.51"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="sÃ¡b"/>
+    <s v="10:54:57"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="32.08"/>
+    <n v="32.08"/>
+    <n v="32.08"/>
+    <n v="35.270000000000003"/>
+    <n v="53"/>
+    <n v="1010"/>
+    <n v="7.47"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="seg"/>
+    <s v="14:13:29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="30.83"/>
+    <n v="28.45"/>
+    <n v="31.07"/>
+    <n v="37.83"/>
+    <n v="77"/>
+    <n v="1011"/>
+    <n v="9.26"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="seg"/>
+    <s v="14:13:29"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="37.94"/>
+    <n v="37.94"/>
+    <n v="37.94"/>
+    <n v="36.81"/>
+    <n v="21"/>
+    <n v="1008"/>
+    <n v="3.87"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="seg"/>
+    <s v="14:13:29"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="30.72"/>
+    <n v="30.72"/>
+    <n v="30.72"/>
+    <n v="32.94"/>
+    <n v="54"/>
+    <n v="1010"/>
+    <n v="9.56"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="seg"/>
+    <s v="14:13:29"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="30.73"/>
+    <n v="30.73"/>
+    <n v="30.73"/>
+    <n v="32.56"/>
+    <n v="52"/>
+    <n v="1010"/>
+    <n v="8.75"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Contagem de Status" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="7" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
-  <location ref="R3:S26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="23">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="43">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="5">
-    <chartFormat chart="15" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="O3:P26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="23">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="44">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -19846,7 +20075,7 @@
     <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="45">
+    <format dxfId="59">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -19978,12 +20207,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="K3:L26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="K3:L29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="23">
+      <items count="26">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -20006,6 +20235,9 @@
         <item x="19"/>
         <item x="20"/>
         <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -20032,7 +20264,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="26">
     <i>
       <x/>
     </i>
@@ -20099,6 +20331,15 @@
     <i>
       <x v="21"/>
     </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -20113,12 +20354,535 @@
     <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="46">
+    <format dxfId="60">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="1">
     <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="O3:P29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="26">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="26">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="61">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de Status" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="7" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+  <location ref="R3:S29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="26">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="26">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="62">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="5">
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -20192,7 +20956,7 @@
     <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="47">
+    <format dxfId="63">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20376,7 +21140,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="48">
+    <format dxfId="64">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20624,10 +21388,10 @@
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="G3:H26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="G3:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="23">
+      <items count="26">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -20650,6 +21414,9 @@
         <item x="19"/>
         <item x="20"/>
         <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -20676,7 +21443,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="26">
     <i>
       <x/>
     </i>
@@ -20743,6 +21510,15 @@
     <i>
       <x v="21"/>
     </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -20757,7 +21533,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="49">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20953,43 +21729,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L89" headerRowDxfId="75" dataDxfId="74">
-  <autoFilter ref="A1:L89" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L101" headerRowDxfId="91" dataDxfId="90">
+  <autoFilter ref="A1:L101" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
   <tableColumns count="12">
-    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="73" totalsRowDxfId="72">
+    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="89" totalsRowDxfId="88">
       <calculatedColumnFormula>[1]Sheet1!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="87" totalsRowDxfId="86">
       <calculatedColumnFormula>[1]Sheet1!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="85" totalsRowDxfId="84">
       <calculatedColumnFormula>[1]Sheet1!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="83" totalsRowDxfId="82">
       <calculatedColumnFormula>[1]Sheet1!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="81" totalsRowDxfId="80">
       <calculatedColumnFormula>[1]Sheet1!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="79" totalsRowDxfId="78">
       <calculatedColumnFormula>[1]Sheet1!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="77" totalsRowDxfId="76">
       <calculatedColumnFormula>[1]Sheet1!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="75" totalsRowDxfId="74">
       <calculatedColumnFormula>[1]Sheet1!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="73" totalsRowDxfId="72">
       <calculatedColumnFormula>[1]Sheet1!J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Porcentagem">
+    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]Sheet1!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="69" totalsRowDxfId="68">
       <calculatedColumnFormula>[1]Sheet1!L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>[1]Sheet1!M2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -22016,10 +22792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView showGridLines="0" topLeftCell="B84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26476,24 +27252,624 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="str">
+        <f>[1]Sheet1!B90</f>
+        <v>16\10\24</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f>[1]Sheet1!C90</f>
+        <v>qua</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f>[1]Sheet1!D90</f>
+        <v>14:27:51</v>
+      </c>
+      <c r="D90" s="1" t="str">
+        <f>[1]Sheet1!E90</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f>[1]Sheet1!F90</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F90" s="4">
+        <f>[1]Sheet1!G90</f>
+        <v>30.07</v>
+      </c>
+      <c r="G90" s="4">
+        <f>[1]Sheet1!H90</f>
+        <v>27.9</v>
+      </c>
+      <c r="H90" s="4">
+        <f>[1]Sheet1!I90</f>
+        <v>30.07</v>
+      </c>
+      <c r="I90" s="4">
+        <f>[1]Sheet1!J90</f>
+        <v>31.31</v>
+      </c>
+      <c r="J90" s="7">
+        <f>[1]Sheet1!K90</f>
+        <v>51</v>
+      </c>
+      <c r="K90" s="1">
+        <f>[1]Sheet1!L90</f>
+        <v>1011</v>
+      </c>
+      <c r="L90" s="9">
+        <f>[1]Sheet1!M90</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="str">
+        <f>[1]Sheet1!B91</f>
+        <v>16\10\24</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f>[1]Sheet1!C91</f>
+        <v>qua</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f>[1]Sheet1!D91</f>
+        <v>14:27:51</v>
+      </c>
+      <c r="D91" s="1" t="str">
+        <f>[1]Sheet1!E91</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <f>[1]Sheet1!F91</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F91" s="4">
+        <f>[1]Sheet1!G91</f>
+        <v>37.590000000000003</v>
+      </c>
+      <c r="G91" s="4">
+        <f>[1]Sheet1!H91</f>
+        <v>37.590000000000003</v>
+      </c>
+      <c r="H91" s="4">
+        <f>[1]Sheet1!I91</f>
+        <v>37.590000000000003</v>
+      </c>
+      <c r="I91" s="4">
+        <f>[1]Sheet1!J91</f>
+        <v>38.130000000000003</v>
+      </c>
+      <c r="J91" s="7">
+        <f>[1]Sheet1!K91</f>
+        <v>28</v>
+      </c>
+      <c r="K91" s="1">
+        <f>[1]Sheet1!L91</f>
+        <v>1009</v>
+      </c>
+      <c r="L91" s="9">
+        <f>[1]Sheet1!M91</f>
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="str">
+        <f>[1]Sheet1!B92</f>
+        <v>16\10\24</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f>[1]Sheet1!C92</f>
+        <v>qua</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f>[1]Sheet1!D92</f>
+        <v>14:27:51</v>
+      </c>
+      <c r="D92" s="1" t="str">
+        <f>[1]Sheet1!E92</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f>[1]Sheet1!F92</f>
+        <v>nublado</v>
+      </c>
+      <c r="F92" s="4">
+        <f>[1]Sheet1!G92</f>
+        <v>30.49</v>
+      </c>
+      <c r="G92" s="4">
+        <f>[1]Sheet1!H92</f>
+        <v>30.49</v>
+      </c>
+      <c r="H92" s="4">
+        <f>[1]Sheet1!I92</f>
+        <v>30.49</v>
+      </c>
+      <c r="I92" s="4">
+        <f>[1]Sheet1!J92</f>
+        <v>33.57</v>
+      </c>
+      <c r="J92" s="7">
+        <f>[1]Sheet1!K92</f>
+        <v>59</v>
+      </c>
+      <c r="K92" s="1">
+        <f>[1]Sheet1!L92</f>
+        <v>1010</v>
+      </c>
+      <c r="L92" s="9">
+        <f>[1]Sheet1!M92</f>
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="str">
+        <f>[1]Sheet1!B93</f>
+        <v>16\10\24</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f>[1]Sheet1!C93</f>
+        <v>qua</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f>[1]Sheet1!D93</f>
+        <v>14:27:51</v>
+      </c>
+      <c r="D93" s="1" t="str">
+        <f>[1]Sheet1!E93</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E93" s="1" t="str">
+        <f>[1]Sheet1!F93</f>
+        <v>nublado</v>
+      </c>
+      <c r="F93" s="4">
+        <f>[1]Sheet1!G93</f>
+        <v>30.48</v>
+      </c>
+      <c r="G93" s="4">
+        <f>[1]Sheet1!H93</f>
+        <v>30.48</v>
+      </c>
+      <c r="H93" s="4">
+        <f>[1]Sheet1!I93</f>
+        <v>30.48</v>
+      </c>
+      <c r="I93" s="4">
+        <f>[1]Sheet1!J93</f>
+        <v>33.119999999999997</v>
+      </c>
+      <c r="J93" s="7">
+        <f>[1]Sheet1!K93</f>
+        <v>57</v>
+      </c>
+      <c r="K93" s="1">
+        <f>[1]Sheet1!L93</f>
+        <v>1010</v>
+      </c>
+      <c r="L93" s="9">
+        <f>[1]Sheet1!M93</f>
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="str">
+        <f>[1]Sheet1!B94</f>
+        <v>19\10\24</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f>[1]Sheet1!C94</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f>[1]Sheet1!D94</f>
+        <v>10:54:57</v>
+      </c>
+      <c r="D94" s="1" t="str">
+        <f>[1]Sheet1!E94</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f>[1]Sheet1!F94</f>
+        <v>nublado</v>
+      </c>
+      <c r="F94" s="4">
+        <f>[1]Sheet1!G94</f>
+        <v>29.48</v>
+      </c>
+      <c r="G94" s="4">
+        <f>[1]Sheet1!H94</f>
+        <v>27.9</v>
+      </c>
+      <c r="H94" s="4">
+        <f>[1]Sheet1!I94</f>
+        <v>30.07</v>
+      </c>
+      <c r="I94" s="4">
+        <f>[1]Sheet1!J94</f>
+        <v>36.479999999999997</v>
+      </c>
+      <c r="J94" s="7">
+        <f>[1]Sheet1!K94</f>
+        <v>83</v>
+      </c>
+      <c r="K94" s="1">
+        <f>[1]Sheet1!L94</f>
+        <v>1011</v>
+      </c>
+      <c r="L94" s="9">
+        <f>[1]Sheet1!M94</f>
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="str">
+        <f>[1]Sheet1!B95</f>
+        <v>19\10\24</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f>[1]Sheet1!C95</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f>[1]Sheet1!D95</f>
+        <v>10:54:57</v>
+      </c>
+      <c r="D95" s="1" t="str">
+        <f>[1]Sheet1!E95</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f>[1]Sheet1!F95</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F95" s="4">
+        <f>[1]Sheet1!G95</f>
+        <v>35.380000000000003</v>
+      </c>
+      <c r="G95" s="4">
+        <f>[1]Sheet1!H95</f>
+        <v>35.380000000000003</v>
+      </c>
+      <c r="H95" s="4">
+        <f>[1]Sheet1!I95</f>
+        <v>35.380000000000003</v>
+      </c>
+      <c r="I95" s="4">
+        <f>[1]Sheet1!J95</f>
+        <v>36.74</v>
+      </c>
+      <c r="J95" s="7">
+        <f>[1]Sheet1!K95</f>
+        <v>36</v>
+      </c>
+      <c r="K95" s="1">
+        <f>[1]Sheet1!L95</f>
+        <v>1010</v>
+      </c>
+      <c r="L95" s="9">
+        <f>[1]Sheet1!M95</f>
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="str">
+        <f>[1]Sheet1!B96</f>
+        <v>19\10\24</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f>[1]Sheet1!C96</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f>[1]Sheet1!D96</f>
+        <v>10:54:57</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <f>[1]Sheet1!E96</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E96" s="1" t="str">
+        <f>[1]Sheet1!F96</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F96" s="4">
+        <f>[1]Sheet1!G96</f>
+        <v>32.119999999999997</v>
+      </c>
+      <c r="G96" s="4">
+        <f>[1]Sheet1!H96</f>
+        <v>32.119999999999997</v>
+      </c>
+      <c r="H96" s="4">
+        <f>[1]Sheet1!I96</f>
+        <v>32.119999999999997</v>
+      </c>
+      <c r="I96" s="4">
+        <f>[1]Sheet1!J96</f>
+        <v>35.619999999999997</v>
+      </c>
+      <c r="J96" s="7">
+        <f>[1]Sheet1!K96</f>
+        <v>54</v>
+      </c>
+      <c r="K96" s="1">
+        <f>[1]Sheet1!L96</f>
+        <v>1010</v>
+      </c>
+      <c r="L96" s="9">
+        <f>[1]Sheet1!M96</f>
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="str">
+        <f>[1]Sheet1!B97</f>
+        <v>19\10\24</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f>[1]Sheet1!C97</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f>[1]Sheet1!D97</f>
+        <v>10:54:57</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <f>[1]Sheet1!E97</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <f>[1]Sheet1!F97</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F97" s="4">
+        <f>[1]Sheet1!G97</f>
+        <v>32.08</v>
+      </c>
+      <c r="G97" s="4">
+        <f>[1]Sheet1!H97</f>
+        <v>32.08</v>
+      </c>
+      <c r="H97" s="4">
+        <f>[1]Sheet1!I97</f>
+        <v>32.08</v>
+      </c>
+      <c r="I97" s="4">
+        <f>[1]Sheet1!J97</f>
+        <v>35.270000000000003</v>
+      </c>
+      <c r="J97" s="7">
+        <f>[1]Sheet1!K97</f>
+        <v>53</v>
+      </c>
+      <c r="K97" s="1">
+        <f>[1]Sheet1!L97</f>
+        <v>1010</v>
+      </c>
+      <c r="L97" s="9">
+        <f>[1]Sheet1!M97</f>
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="str">
+        <f>[1]Sheet1!B98</f>
+        <v>21\10\24</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f>[1]Sheet1!C98</f>
+        <v>seg</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f>[1]Sheet1!D98</f>
+        <v>14:13:29</v>
+      </c>
+      <c r="D98" s="1" t="str">
+        <f>[1]Sheet1!E98</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E98" s="1" t="str">
+        <f>[1]Sheet1!F98</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F98" s="4">
+        <f>[1]Sheet1!G98</f>
+        <v>30.83</v>
+      </c>
+      <c r="G98" s="4">
+        <f>[1]Sheet1!H98</f>
+        <v>28.45</v>
+      </c>
+      <c r="H98" s="4">
+        <f>[1]Sheet1!I98</f>
+        <v>31.07</v>
+      </c>
+      <c r="I98" s="4">
+        <f>[1]Sheet1!J98</f>
+        <v>37.83</v>
+      </c>
+      <c r="J98" s="7">
+        <f>[1]Sheet1!K98</f>
+        <v>77</v>
+      </c>
+      <c r="K98" s="1">
+        <f>[1]Sheet1!L98</f>
+        <v>1011</v>
+      </c>
+      <c r="L98" s="9">
+        <f>[1]Sheet1!M98</f>
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="str">
+        <f>[1]Sheet1!B99</f>
+        <v>21\10\24</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f>[1]Sheet1!C99</f>
+        <v>seg</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f>[1]Sheet1!D99</f>
+        <v>14:13:29</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f>[1]Sheet1!E99</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f>[1]Sheet1!F99</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F99" s="4">
+        <f>[1]Sheet1!G99</f>
+        <v>37.94</v>
+      </c>
+      <c r="G99" s="4">
+        <f>[1]Sheet1!H99</f>
+        <v>37.94</v>
+      </c>
+      <c r="H99" s="4">
+        <f>[1]Sheet1!I99</f>
+        <v>37.94</v>
+      </c>
+      <c r="I99" s="4">
+        <f>[1]Sheet1!J99</f>
+        <v>36.81</v>
+      </c>
+      <c r="J99" s="7">
+        <f>[1]Sheet1!K99</f>
+        <v>21</v>
+      </c>
+      <c r="K99" s="1">
+        <f>[1]Sheet1!L99</f>
+        <v>1008</v>
+      </c>
+      <c r="L99" s="9">
+        <f>[1]Sheet1!M99</f>
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="str">
+        <f>[1]Sheet1!B100</f>
+        <v>21\10\24</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f>[1]Sheet1!C100</f>
+        <v>seg</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f>[1]Sheet1!D100</f>
+        <v>14:13:29</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f>[1]Sheet1!E100</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E100" s="1" t="str">
+        <f>[1]Sheet1!F100</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F100" s="4">
+        <f>[1]Sheet1!G100</f>
+        <v>30.72</v>
+      </c>
+      <c r="G100" s="4">
+        <f>[1]Sheet1!H100</f>
+        <v>30.72</v>
+      </c>
+      <c r="H100" s="4">
+        <f>[1]Sheet1!I100</f>
+        <v>30.72</v>
+      </c>
+      <c r="I100" s="4">
+        <f>[1]Sheet1!J100</f>
+        <v>32.94</v>
+      </c>
+      <c r="J100" s="7">
+        <f>[1]Sheet1!K100</f>
+        <v>54</v>
+      </c>
+      <c r="K100" s="1">
+        <f>[1]Sheet1!L100</f>
+        <v>1010</v>
+      </c>
+      <c r="L100" s="9">
+        <f>[1]Sheet1!M100</f>
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="str">
+        <f>[1]Sheet1!B101</f>
+        <v>21\10\24</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f>[1]Sheet1!C101</f>
+        <v>seg</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f>[1]Sheet1!D101</f>
+        <v>14:13:29</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f>[1]Sheet1!E101</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E101" s="1" t="str">
+        <f>[1]Sheet1!F101</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F101" s="4">
+        <f>[1]Sheet1!G101</f>
+        <v>30.73</v>
+      </c>
+      <c r="G101" s="4">
+        <f>[1]Sheet1!H101</f>
+        <v>30.73</v>
+      </c>
+      <c r="H101" s="4">
+        <f>[1]Sheet1!I101</f>
+        <v>30.73</v>
+      </c>
+      <c r="I101" s="4">
+        <f>[1]Sheet1!J101</f>
+        <v>32.56</v>
+      </c>
+      <c r="J101" s="7">
+        <f>[1]Sheet1!K101</f>
+        <v>52</v>
+      </c>
+      <c r="K101" s="1">
+        <f>[1]Sheet1!L101</f>
+        <v>1010</v>
+      </c>
+      <c r="L101" s="9">
+        <f>[1]Sheet1!M101</f>
+        <v>8.75</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J89">
-    <cfRule type="expression" dxfId="79" priority="6">
+  <conditionalFormatting sqref="J2:J101">
+    <cfRule type="expression" dxfId="95" priority="6">
       <formula>$J2&lt;=50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F89">
-    <cfRule type="expression" dxfId="78" priority="5">
+  <conditionalFormatting sqref="F2:F101">
+    <cfRule type="expression" dxfId="94" priority="5">
       <formula>$F2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I89">
-    <cfRule type="expression" dxfId="77" priority="2">
+  <conditionalFormatting sqref="I2:I101">
+    <cfRule type="expression" dxfId="93" priority="2">
       <formula>$I2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L89">
-    <cfRule type="expression" dxfId="76" priority="1">
+  <conditionalFormatting sqref="L2:L101">
+    <cfRule type="expression" dxfId="92" priority="1">
       <formula>$L2&lt;7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26508,7 +27884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5901B3E-A3E8-4B5E-9369-35A4919B8B84}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
@@ -26528,7 +27904,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B6F8FC-46A2-4B7D-900C-4C6F1498AB62}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
@@ -26597,7 +27973,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>30.114545454545453</v>
+        <v>30.234000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -26605,7 +27981,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="5">
-        <v>30.206363636363633</v>
+        <v>30.196800000000003</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -26643,7 +28019,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>29.687727272727273</v>
+        <v>29.856800000000003</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>34</v>
@@ -26681,13 +28057,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>37.048181818181824</v>
+        <v>37.038800000000009</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
@@ -26719,7 +28095,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="5">
-        <v>31.764204545454547</v>
+        <v>31.831600000000002</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>41</v>
@@ -26757,7 +28133,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>27</v>
@@ -26795,7 +28171,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>28</v>
@@ -26827,7 +28203,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="5">
-        <v>32.288636363636364</v>
+        <v>32.499200000000002</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>29</v>
@@ -26859,7 +28235,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="5">
-        <v>35.256818181818183</v>
+        <v>35.250799999999998</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>30</v>
@@ -26891,7 +28267,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="5">
-        <v>31.504090909090905</v>
+        <v>31.761599999999998</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>31</v>
@@ -26923,7 +28299,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="5">
-        <v>36.261818181818178</v>
+        <v>36.377599999999994</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>32</v>
@@ -26955,7 +28331,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="5">
-        <v>33.827840909090902</v>
+        <v>33.97229999999999</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>33</v>
@@ -27045,7 +28421,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="6">
-        <v>56.727272727272727</v>
+        <v>56.6</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>37</v>
@@ -27077,7 +28453,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>75.181818181818187</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>38</v>
@@ -27109,7 +28485,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6">
-        <v>56.590909090909093</v>
+        <v>56.28</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>39</v>
@@ -27141,7 +28517,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6">
-        <v>23.818181818181817</v>
+        <v>24.36</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>40</v>
@@ -27173,7 +28549,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6">
-        <v>53.079545454545453</v>
+        <v>52.96</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>42</v>
@@ -27263,7 +28639,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>9.6677272727272729</v>
+        <v>9.5279999999999987</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>46</v>
@@ -27295,7 +28671,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="6">
-        <v>8.5354545454545434</v>
+        <v>8.4783999999999988</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>47</v>
@@ -27327,7 +28703,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="6">
-        <v>9.0340909090909083</v>
+        <v>8.8831999999999987</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>48</v>
@@ -27359,31 +28735,31 @@
         <v>16</v>
       </c>
       <c r="B26" s="6">
-        <v>3.330000000000001</v>
+        <v>3.2492000000000005</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="H26" s="5">
-        <v>37.048181818181824</v>
+        <v>37.590000000000003</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="L26" s="5">
-        <v>36.261818181818178</v>
+        <v>38.130000000000003</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="P26" s="8">
-        <v>3.330000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="S26" s="8">
-        <v>23.818181818181817</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -27391,7 +28767,83 @@
         <v>17</v>
       </c>
       <c r="B27" s="6">
-        <v>7.6418181818181843</v>
+        <v>7.5347000000000017</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="5">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="5">
+        <v>36.74</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="8">
+        <v>2.69</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S27" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="5">
+        <v>37.94</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="5">
+        <v>36.81</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="8">
+        <v>3.87</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S28" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="5">
+        <v>37.038800000000009</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="5">
+        <v>36.377599999999994</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="8">
+        <v>3.2492000000000005</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29" s="8">
+        <v>24.36</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F90568-ABCE-4563-9770-5A2B340979B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894C9B11-D103-4078-AD69-EC9858C2FEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="57">
   <si>
     <t>Data</t>
   </si>
@@ -210,6 +210,21 @@
   <si>
     <t>21\10\24</t>
   </si>
+  <si>
+    <t>23\10\24</t>
+  </si>
+  <si>
+    <t>24\10\24</t>
+  </si>
+  <si>
+    <t>25\10\24</t>
+  </si>
+  <si>
+    <t>01\11\24</t>
+  </si>
+  <si>
+    <t>05\11\24</t>
+  </si>
 </sst>
 </file>
 
@@ -281,163 +296,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="96">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="37">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -448,59 +307,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -1384,16 +1194,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30.234000000000002</c:v>
+                  <c:v>30.15333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.196800000000003</c:v>
+                  <c:v>30.142333333333344</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.856800000000003</c:v>
+                  <c:v>29.762000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.038800000000009</c:v>
+                  <c:v>37.080333333333343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2458,16 +2268,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32.499200000000002</c:v>
+                  <c:v>32.457000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.250799999999998</c:v>
+                  <c:v>34.784333333333343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.761599999999998</c:v>
+                  <c:v>31.710666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.377599999999994</c:v>
+                  <c:v>36.413666666666657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3523,16 +3333,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>56.6</c:v>
+                  <c:v>57.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.599999999999994</c:v>
+                  <c:v>72.066666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.28</c:v>
+                  <c:v>56.866666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.36</c:v>
+                  <c:v>24.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4283,16 +4093,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.5279999999999987</c:v>
+                  <c:v>9.4563333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4783999999999988</c:v>
+                  <c:v>8.402666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8831999999999987</c:v>
+                  <c:v>8.8129999999999988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2492000000000005</c:v>
+                  <c:v>3.1833333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5037,9 +4847,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$G$4:$G$29</c:f>
+              <c:f>'Tabelas dinâmicas'!$G$4:$G$34</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -5115,89 +4925,119 @@
                 <c:pt idx="24">
                   <c:v>21\10\24</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>23\10\24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24\10\24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25\10\24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>01\11\24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>05\11\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$H$4:$H$29</c:f>
+              <c:f>'Tabelas dinâmicas'!$H$4:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>36.28</c:v>
+                  <c:v>29.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.72</c:v>
+                  <c:v>29.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.89</c:v>
+                  <c:v>29.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.64</c:v>
+                  <c:v>29.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.1</c:v>
+                  <c:v>29.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.82</c:v>
+                  <c:v>31.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.520000000000003</c:v>
+                  <c:v>29.14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.659999999999997</c:v>
+                  <c:v>30.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.049999999999997</c:v>
+                  <c:v>29.42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.53</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.76</c:v>
+                  <c:v>26.32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.909999999999997</c:v>
+                  <c:v>30.63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.520000000000003</c:v>
+                  <c:v>29.69</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.86</c:v>
+                  <c:v>29.39</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.58</c:v>
+                  <c:v>29.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.83</c:v>
+                  <c:v>30.05</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.869999999999997</c:v>
+                  <c:v>28.62</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.04</c:v>
+                  <c:v>27.68</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.25</c:v>
+                  <c:v>29.01</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.590000000000003</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.700000000000003</c:v>
+                  <c:v>30.71</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37.94</c:v>
+                  <c:v>29.94</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37.590000000000003</c:v>
+                  <c:v>30.48</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35.380000000000003</c:v>
+                  <c:v>32.08</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37.94</c:v>
+                  <c:v>30.73</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>28.91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.64</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.94</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5958,9 +5798,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$K$4:$K$29</c:f>
+              <c:f>'Tabelas dinâmicas'!$K$4:$K$34</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -6036,89 +5876,119 @@
                 <c:pt idx="24">
                   <c:v>21\10\24</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>23\10\24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24\10\24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25\10\24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>01\11\24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>05\11\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$L$4:$L$29</c:f>
+              <c:f>'Tabelas dinâmicas'!$L$4:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>34.68</c:v>
+                  <c:v>31.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.61</c:v>
+                  <c:v>31.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.840000000000003</c:v>
+                  <c:v>30.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.93</c:v>
+                  <c:v>31.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.630000000000003</c:v>
+                  <c:v>31.06</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.85</c:v>
+                  <c:v>32.78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.85</c:v>
+                  <c:v>31.11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.96</c:v>
+                  <c:v>32.130000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.46</c:v>
+                  <c:v>30.95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.56</c:v>
+                  <c:v>32.83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.549999999999997</c:v>
+                  <c:v>26.32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.549999999999997</c:v>
+                  <c:v>32.979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.119999999999997</c:v>
+                  <c:v>31.71</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.69</c:v>
+                  <c:v>31.54</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.54</c:v>
+                  <c:v>32.090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.93</c:v>
+                  <c:v>31.97</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.44</c:v>
+                  <c:v>30.27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.43</c:v>
+                  <c:v>30.18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.47</c:v>
+                  <c:v>31.36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.71</c:v>
+                  <c:v>33.47</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.380000000000003</c:v>
+                  <c:v>33.130000000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.58</c:v>
+                  <c:v>32.520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>38.130000000000003</c:v>
+                  <c:v>33.119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.74</c:v>
+                  <c:v>35.270000000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36.81</c:v>
+                  <c:v>32.56</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31.17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30.58</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.08</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32.950000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7071,13 +6941,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -7981,9 +7851,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$O$4:$O$29</c:f>
+              <c:f>'Tabelas dinâmicas'!$O$4:$O$34</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -8059,89 +7929,119 @@
                 <c:pt idx="24">
                   <c:v>21\10\24</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>23\10\24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24\10\24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25\10\24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>01\11\24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>05\11\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$P$4:$P$29</c:f>
+              <c:f>'Tabelas dinâmicas'!$P$4:$P$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3.85</c:v>
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.65</c:v>
+                  <c:v>9.4499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.82</c:v>
+                  <c:v>9.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.16</c:v>
+                  <c:v>9.77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.68</c:v>
+                  <c:v>8.8699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.75</c:v>
+                  <c:v>8.77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.82</c:v>
+                  <c:v>8.7100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.82</c:v>
+                  <c:v>9.81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.94</c:v>
+                  <c:v>9.7899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.92</c:v>
+                  <c:v>8.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.07</c:v>
+                  <c:v>8.81</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.41</c:v>
+                  <c:v>9.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.89</c:v>
+                  <c:v>9.23</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.88</c:v>
+                  <c:v>8.65</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.53</c:v>
+                  <c:v>10.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1</c:v>
+                  <c:v>8.98</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4300000000000002</c:v>
+                  <c:v>9.57</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.72</c:v>
+                  <c:v>8.85</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.56</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.46</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.41</c:v>
+                  <c:v>7.11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.69</c:v>
+                  <c:v>7.47</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.87</c:v>
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.9499999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9042,9 +8942,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$R$4:$R$29</c:f>
+              <c:f>'Tabelas dinâmicas'!$R$4:$R$34</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -9120,89 +9020,119 @@
                 <c:pt idx="24">
                   <c:v>21\10\24</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>23\10\24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24\10\24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25\10\24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>01\11\24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>05\11\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$S$4:$S$29</c:f>
+              <c:f>'Tabelas dinâmicas'!$S$4:$S$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21</c:v>
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18525,6 +18455,766 @@
             <v>8.75</v>
           </cell>
         </row>
+        <row r="102">
+          <cell r="B102" t="str">
+            <v>23\10\24</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D102" t="str">
+            <v>14:53:27</v>
+          </cell>
+          <cell r="E102" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F102" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G102">
+            <v>30.07</v>
+          </cell>
+          <cell r="H102">
+            <v>27.9</v>
+          </cell>
+          <cell r="I102">
+            <v>30.07</v>
+          </cell>
+          <cell r="J102">
+            <v>32.57</v>
+          </cell>
+          <cell r="K102">
+            <v>58</v>
+          </cell>
+          <cell r="L102">
+            <v>1010</v>
+          </cell>
+          <cell r="M102">
+            <v>8.23</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103" t="str">
+            <v>23\10\24</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D103" t="str">
+            <v>14:53:27</v>
+          </cell>
+          <cell r="E103" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F103" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G103">
+            <v>37.49</v>
+          </cell>
+          <cell r="H103">
+            <v>37.49</v>
+          </cell>
+          <cell r="I103">
+            <v>37.49</v>
+          </cell>
+          <cell r="J103">
+            <v>36.43</v>
+          </cell>
+          <cell r="K103">
+            <v>22</v>
+          </cell>
+          <cell r="L103">
+            <v>1007</v>
+          </cell>
+          <cell r="M103">
+            <v>2.58</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104" t="str">
+            <v>23\10\24</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D104" t="str">
+            <v>14:53:27</v>
+          </cell>
+          <cell r="E104" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F104" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G104">
+            <v>29.33</v>
+          </cell>
+          <cell r="H104">
+            <v>29.33</v>
+          </cell>
+          <cell r="I104">
+            <v>29.33</v>
+          </cell>
+          <cell r="J104">
+            <v>31.77</v>
+          </cell>
+          <cell r="K104">
+            <v>61</v>
+          </cell>
+          <cell r="L104">
+            <v>1009</v>
+          </cell>
+          <cell r="M104">
+            <v>8.81</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>23\10\24</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="D105" t="str">
+            <v>14:53:27</v>
+          </cell>
+          <cell r="E105" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F105" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G105">
+            <v>28.99</v>
+          </cell>
+          <cell r="H105">
+            <v>28.99</v>
+          </cell>
+          <cell r="I105">
+            <v>28.99</v>
+          </cell>
+          <cell r="J105">
+            <v>31.17</v>
+          </cell>
+          <cell r="K105">
+            <v>61</v>
+          </cell>
+          <cell r="L105">
+            <v>1009</v>
+          </cell>
+          <cell r="M105">
+            <v>7.94</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>24\10\24</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D106" t="str">
+            <v>14:55:22</v>
+          </cell>
+          <cell r="E106" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F106" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G106">
+            <v>30.07</v>
+          </cell>
+          <cell r="H106">
+            <v>27.9</v>
+          </cell>
+          <cell r="I106">
+            <v>30.07</v>
+          </cell>
+          <cell r="J106">
+            <v>32.57</v>
+          </cell>
+          <cell r="K106">
+            <v>58</v>
+          </cell>
+          <cell r="L106">
+            <v>1010</v>
+          </cell>
+          <cell r="M106">
+            <v>9.26</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107" t="str">
+            <v>24\10\24</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D107" t="str">
+            <v>14:55:22</v>
+          </cell>
+          <cell r="E107" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F107" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G107">
+            <v>37.6</v>
+          </cell>
+          <cell r="H107">
+            <v>37.6</v>
+          </cell>
+          <cell r="I107">
+            <v>37.6</v>
+          </cell>
+          <cell r="J107">
+            <v>37.049999999999997</v>
+          </cell>
+          <cell r="K107">
+            <v>24</v>
+          </cell>
+          <cell r="L107">
+            <v>1007</v>
+          </cell>
+          <cell r="M107">
+            <v>2.35</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108" t="str">
+            <v>24\10\24</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D108" t="str">
+            <v>14:55:22</v>
+          </cell>
+          <cell r="E108" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F108" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G108">
+            <v>29.11</v>
+          </cell>
+          <cell r="H108">
+            <v>29.11</v>
+          </cell>
+          <cell r="I108">
+            <v>29.11</v>
+          </cell>
+          <cell r="J108">
+            <v>31.71</v>
+          </cell>
+          <cell r="K108">
+            <v>63</v>
+          </cell>
+          <cell r="L108">
+            <v>1009</v>
+          </cell>
+          <cell r="M108">
+            <v>9.43</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109" t="str">
+            <v>24\10\24</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D109" t="str">
+            <v>14:55:22</v>
+          </cell>
+          <cell r="E109" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F109" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G109">
+            <v>28.91</v>
+          </cell>
+          <cell r="H109">
+            <v>28.91</v>
+          </cell>
+          <cell r="I109">
+            <v>28.91</v>
+          </cell>
+          <cell r="J109">
+            <v>31.5</v>
+          </cell>
+          <cell r="K109">
+            <v>64</v>
+          </cell>
+          <cell r="L109">
+            <v>1009</v>
+          </cell>
+          <cell r="M109">
+            <v>9.06</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110" t="str">
+            <v>25\10\24</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D110" t="str">
+            <v>15:00:43</v>
+          </cell>
+          <cell r="E110" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F110" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G110">
+            <v>29.07</v>
+          </cell>
+          <cell r="H110">
+            <v>27.34</v>
+          </cell>
+          <cell r="I110">
+            <v>29.07</v>
+          </cell>
+          <cell r="J110">
+            <v>31.98</v>
+          </cell>
+          <cell r="K110">
+            <v>65</v>
+          </cell>
+          <cell r="L110">
+            <v>1012</v>
+          </cell>
+          <cell r="M110">
+            <v>9.77</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111" t="str">
+            <v>25\10\24</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D111" t="str">
+            <v>15:00:43</v>
+          </cell>
+          <cell r="E111" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F111" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G111">
+            <v>35.659999999999997</v>
+          </cell>
+          <cell r="H111">
+            <v>35.659999999999997</v>
+          </cell>
+          <cell r="I111">
+            <v>35.659999999999997</v>
+          </cell>
+          <cell r="J111">
+            <v>35.42</v>
+          </cell>
+          <cell r="K111">
+            <v>29</v>
+          </cell>
+          <cell r="L111">
+            <v>1009</v>
+          </cell>
+          <cell r="M111">
+            <v>3.55</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112" t="str">
+            <v>25\10\24</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D112" t="str">
+            <v>15:00:43</v>
+          </cell>
+          <cell r="E112" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F112" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G112">
+            <v>29.22</v>
+          </cell>
+          <cell r="H112">
+            <v>29.22</v>
+          </cell>
+          <cell r="I112">
+            <v>29.22</v>
+          </cell>
+          <cell r="J112">
+            <v>31.58</v>
+          </cell>
+          <cell r="K112">
+            <v>61</v>
+          </cell>
+          <cell r="L112">
+            <v>1010</v>
+          </cell>
+          <cell r="M112">
+            <v>8.9499999999999993</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113" t="str">
+            <v>25\10\24</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D113" t="str">
+            <v>15:00:43</v>
+          </cell>
+          <cell r="E113" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F113" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G113">
+            <v>28.64</v>
+          </cell>
+          <cell r="H113">
+            <v>28.64</v>
+          </cell>
+          <cell r="I113">
+            <v>28.64</v>
+          </cell>
+          <cell r="J113">
+            <v>30.58</v>
+          </cell>
+          <cell r="K113">
+            <v>61</v>
+          </cell>
+          <cell r="L113">
+            <v>1011</v>
+          </cell>
+          <cell r="M113">
+            <v>8.31</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114" t="str">
+            <v>01\11\24</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D114" t="str">
+            <v>15:01:11</v>
+          </cell>
+          <cell r="E114" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F114" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G114">
+            <v>30.07</v>
+          </cell>
+          <cell r="H114">
+            <v>27.9</v>
+          </cell>
+          <cell r="I114">
+            <v>30.07</v>
+          </cell>
+          <cell r="J114">
+            <v>32.57</v>
+          </cell>
+          <cell r="K114">
+            <v>58</v>
+          </cell>
+          <cell r="L114">
+            <v>1009</v>
+          </cell>
+          <cell r="M114">
+            <v>5.66</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115" t="str">
+            <v>01\11\24</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D115" t="str">
+            <v>15:01:11</v>
+          </cell>
+          <cell r="E115" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F115" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G115">
+            <v>37.89</v>
+          </cell>
+          <cell r="H115">
+            <v>37.89</v>
+          </cell>
+          <cell r="I115">
+            <v>37.89</v>
+          </cell>
+          <cell r="J115">
+            <v>37.22</v>
+          </cell>
+          <cell r="K115">
+            <v>23</v>
+          </cell>
+          <cell r="L115">
+            <v>1006</v>
+          </cell>
+          <cell r="M115">
+            <v>2.2400000000000002</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116" t="str">
+            <v>01\11\24</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D116" t="str">
+            <v>15:01:11</v>
+          </cell>
+          <cell r="E116" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F116" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G116">
+            <v>29.33</v>
+          </cell>
+          <cell r="H116">
+            <v>29.33</v>
+          </cell>
+          <cell r="I116">
+            <v>29.33</v>
+          </cell>
+          <cell r="J116">
+            <v>31.77</v>
+          </cell>
+          <cell r="K116">
+            <v>61</v>
+          </cell>
+          <cell r="L116">
+            <v>1008</v>
+          </cell>
+          <cell r="M116">
+            <v>8.89</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117" t="str">
+            <v>01\11\24</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="D117" t="str">
+            <v>15:01:11</v>
+          </cell>
+          <cell r="E117" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F117" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G117">
+            <v>28.94</v>
+          </cell>
+          <cell r="H117">
+            <v>28.94</v>
+          </cell>
+          <cell r="I117">
+            <v>28.94</v>
+          </cell>
+          <cell r="J117">
+            <v>31.08</v>
+          </cell>
+          <cell r="K117">
+            <v>61</v>
+          </cell>
+          <cell r="L117">
+            <v>1008</v>
+          </cell>
+          <cell r="M117">
+            <v>8.0500000000000007</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118" t="str">
+            <v>05\11\24</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D118" t="str">
+            <v>14:18:33</v>
+          </cell>
+          <cell r="E118" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F118" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G118">
+            <v>30.07</v>
+          </cell>
+          <cell r="H118">
+            <v>27.9</v>
+          </cell>
+          <cell r="I118">
+            <v>30.07</v>
+          </cell>
+          <cell r="J118">
+            <v>32.57</v>
+          </cell>
+          <cell r="K118">
+            <v>58</v>
+          </cell>
+          <cell r="L118">
+            <v>1009</v>
+          </cell>
+          <cell r="M118">
+            <v>7.2</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119" t="str">
+            <v>05\11\24</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D119" t="str">
+            <v>14:18:33</v>
+          </cell>
+          <cell r="E119" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F119" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G119">
+            <v>37.799999999999997</v>
+          </cell>
+          <cell r="H119">
+            <v>37.799999999999997</v>
+          </cell>
+          <cell r="I119">
+            <v>37.799999999999997</v>
+          </cell>
+          <cell r="J119">
+            <v>36.85</v>
+          </cell>
+          <cell r="K119">
+            <v>22</v>
+          </cell>
+          <cell r="L119">
+            <v>1007</v>
+          </cell>
+          <cell r="M119">
+            <v>3.55</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120" t="str">
+            <v>05\11\24</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D120" t="str">
+            <v>14:18:33</v>
+          </cell>
+          <cell r="E120" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F120" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G120">
+            <v>31.76</v>
+          </cell>
+          <cell r="H120">
+            <v>31.76</v>
+          </cell>
+          <cell r="I120">
+            <v>31.76</v>
+          </cell>
+          <cell r="J120">
+            <v>34.4</v>
+          </cell>
+          <cell r="K120">
+            <v>52</v>
+          </cell>
+          <cell r="L120">
+            <v>1008</v>
+          </cell>
+          <cell r="M120">
+            <v>9.41</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121" t="str">
+            <v>05\11\24</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="D121" t="str">
+            <v>14:18:33</v>
+          </cell>
+          <cell r="E121" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F121" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G121">
+            <v>30.96</v>
+          </cell>
+          <cell r="H121">
+            <v>30.96</v>
+          </cell>
+          <cell r="I121">
+            <v>30.96</v>
+          </cell>
+          <cell r="J121">
+            <v>32.950000000000003</v>
+          </cell>
+          <cell r="K121">
+            <v>52</v>
+          </cell>
+          <cell r="L121">
+            <v>1008</v>
+          </cell>
+          <cell r="M121">
+            <v>8.9499999999999993</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -18532,13 +19222,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45586.593524189811" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="100" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45601.597440972226" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="120" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
   <cacheSource type="worksheet">
     <worksheetSource name="Monitoramento_Clima"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Data" numFmtId="0">
-      <sharedItems count="25">
+      <sharedItems count="30">
         <s v="09\09\24"/>
         <s v="10\09\24"/>
         <s v="11\09\24"/>
@@ -18564,6 +19254,11 @@
         <s v="16\10\24"/>
         <s v="19\10\24"/>
         <s v="21\10\24"/>
+        <s v="23\10\24"/>
+        <s v="24\10\24"/>
+        <s v="25\10\24"/>
+        <s v="01\11\24"/>
+        <s v="05\11\24"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Dia da semana" numFmtId="0">
@@ -18619,7 +19314,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
   <r>
     <x v="0"/>
     <s v="seg"/>
@@ -20020,560 +20715,290 @@
     <n v="1010"/>
     <n v="8.75"/>
   </r>
+  <r>
+    <x v="25"/>
+    <s v="qua"/>
+    <s v="14:53:27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="30.07"/>
+    <n v="27.9"/>
+    <n v="30.07"/>
+    <n v="32.57"/>
+    <n v="58"/>
+    <n v="1010"/>
+    <n v="8.23"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="qua"/>
+    <s v="14:53:27"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="37.49"/>
+    <n v="37.49"/>
+    <n v="37.49"/>
+    <n v="36.43"/>
+    <n v="22"/>
+    <n v="1007"/>
+    <n v="2.58"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="qua"/>
+    <s v="14:53:27"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="29.33"/>
+    <n v="29.33"/>
+    <n v="29.33"/>
+    <n v="31.77"/>
+    <n v="61"/>
+    <n v="1009"/>
+    <n v="8.81"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="qua"/>
+    <s v="14:53:27"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="28.99"/>
+    <n v="28.99"/>
+    <n v="28.99"/>
+    <n v="31.17"/>
+    <n v="61"/>
+    <n v="1009"/>
+    <n v="7.94"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="qui"/>
+    <s v="14:55:22"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="30.07"/>
+    <n v="27.9"/>
+    <n v="30.07"/>
+    <n v="32.57"/>
+    <n v="58"/>
+    <n v="1010"/>
+    <n v="9.26"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="qui"/>
+    <s v="14:55:22"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="37.6"/>
+    <n v="37.6"/>
+    <n v="37.6"/>
+    <n v="37.049999999999997"/>
+    <n v="24"/>
+    <n v="1007"/>
+    <n v="2.35"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="qui"/>
+    <s v="14:55:22"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="29.11"/>
+    <n v="29.11"/>
+    <n v="29.11"/>
+    <n v="31.71"/>
+    <n v="63"/>
+    <n v="1009"/>
+    <n v="9.43"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="qui"/>
+    <s v="14:55:22"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="28.91"/>
+    <n v="28.91"/>
+    <n v="28.91"/>
+    <n v="31.5"/>
+    <n v="64"/>
+    <n v="1009"/>
+    <n v="9.06"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="sex"/>
+    <s v="15:00:43"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="29.07"/>
+    <n v="27.34"/>
+    <n v="29.07"/>
+    <n v="31.98"/>
+    <n v="65"/>
+    <n v="1012"/>
+    <n v="9.77"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="sex"/>
+    <s v="15:00:43"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="35.659999999999997"/>
+    <n v="35.659999999999997"/>
+    <n v="35.659999999999997"/>
+    <n v="35.42"/>
+    <n v="29"/>
+    <n v="1009"/>
+    <n v="3.55"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="sex"/>
+    <s v="15:00:43"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="29.22"/>
+    <n v="29.22"/>
+    <n v="29.22"/>
+    <n v="31.58"/>
+    <n v="61"/>
+    <n v="1010"/>
+    <n v="8.9499999999999993"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="sex"/>
+    <s v="15:00:43"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="28.64"/>
+    <n v="28.64"/>
+    <n v="28.64"/>
+    <n v="30.58"/>
+    <n v="61"/>
+    <n v="1011"/>
+    <n v="8.31"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="sex"/>
+    <s v="15:01:11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="30.07"/>
+    <n v="27.9"/>
+    <n v="30.07"/>
+    <n v="32.57"/>
+    <n v="58"/>
+    <n v="1009"/>
+    <n v="5.66"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="sex"/>
+    <s v="15:01:11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="37.89"/>
+    <n v="37.89"/>
+    <n v="37.89"/>
+    <n v="37.22"/>
+    <n v="23"/>
+    <n v="1006"/>
+    <n v="2.2400000000000002"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="sex"/>
+    <s v="15:01:11"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="29.33"/>
+    <n v="29.33"/>
+    <n v="29.33"/>
+    <n v="31.77"/>
+    <n v="61"/>
+    <n v="1008"/>
+    <n v="8.89"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="sex"/>
+    <s v="15:01:11"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="28.94"/>
+    <n v="28.94"/>
+    <n v="28.94"/>
+    <n v="31.08"/>
+    <n v="61"/>
+    <n v="1008"/>
+    <n v="8.0500000000000007"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="ter"/>
+    <s v="14:18:33"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="30.07"/>
+    <n v="27.9"/>
+    <n v="30.07"/>
+    <n v="32.57"/>
+    <n v="58"/>
+    <n v="1009"/>
+    <n v="7.2"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="ter"/>
+    <s v="14:18:33"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="37.799999999999997"/>
+    <n v="37.799999999999997"/>
+    <n v="37.799999999999997"/>
+    <n v="36.85"/>
+    <n v="22"/>
+    <n v="1007"/>
+    <n v="3.55"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="ter"/>
+    <s v="14:18:33"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="31.76"/>
+    <n v="31.76"/>
+    <n v="31.76"/>
+    <n v="34.4"/>
+    <n v="52"/>
+    <n v="1008"/>
+    <n v="9.41"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="ter"/>
+    <s v="14:18:33"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="30.96"/>
+    <n v="30.96"/>
+    <n v="30.96"/>
+    <n v="32.950000000000003"/>
+    <n v="52"/>
+    <n v="1008"/>
+    <n v="8.9499999999999993"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="59">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="10">
-    <chartFormat chart="1" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="K3:L29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="26">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="26">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="60">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="O3:P29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="26">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="26">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="61">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
@@ -20584,8 +21009,8 @@
       <items count="5">
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -20694,12 +21119,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
-  <location ref="R3:S29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="R3:S34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="26">
+      <items count="31">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -20725,6 +21150,11 @@
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -20734,8 +21164,8 @@
       <items count="5">
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -20751,7 +21181,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="26">
+  <rowItems count="31">
     <i>
       <x/>
     </i>
@@ -20827,6 +21257,21 @@
     <i>
       <x v="24"/>
     </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -20841,7 +21286,7 @@
     <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="62">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -20904,191 +21349,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Sesação Térmica Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="63">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="10">
-    <chartFormat chart="4" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Temperatura Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -21140,7 +21401,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="64">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -21386,12 +21647,196 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="G3:H29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="K3:L34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="26">
+      <items count="31">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -21417,6 +21862,11 @@
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -21426,16 +21876,16 @@
       <items count="5">
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item x="1"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -21443,7 +21893,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="26">
+  <rowItems count="31">
     <i>
       <x/>
     </i>
@@ -21519,6 +21969,611 @@
     <i>
       <x v="24"/>
     </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="O3:P34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="31">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Velocidade do vento" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Sesação Térmica Média por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="G3:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="31">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -21533,7 +22588,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="65">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -21714,8 +22769,8 @@
       <items count="4">
         <i x="2"/>
         <i x="0"/>
-        <i x="3"/>
-        <i x="1" s="1"/>
+        <i x="3" s="1"/>
+        <i x="1"/>
       </items>
     </tabular>
   </data>
@@ -21729,43 +22784,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L101" headerRowDxfId="91" dataDxfId="90">
-  <autoFilter ref="A1:L101" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L121" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:L121" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
   <tableColumns count="12">
-    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="89" totalsRowDxfId="88">
+    <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>[1]Sheet1!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="87" totalsRowDxfId="86">
+    <tableColumn id="11" xr3:uid="{8BFBA493-29F8-4248-9B2A-1D7972C4CE2C}" name="Dia da semana" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>[1]Sheet1!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="85" totalsRowDxfId="84">
+    <tableColumn id="12" xr3:uid="{A15600C6-48FD-4906-9570-E4B2324E0708}" name="Hora" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>[1]Sheet1!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="83" totalsRowDxfId="82">
+    <tableColumn id="1" xr3:uid="{CFA9AA23-C1BD-4634-8C59-6CF5B14F8A23}" name="Cidade" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>[1]Sheet1!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="81" totalsRowDxfId="80">
+    <tableColumn id="2" xr3:uid="{9942AE86-32FE-4650-80A1-1C98AD697DF8}" name="Status" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>[1]Sheet1!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="3" xr3:uid="{9C52E714-8B46-4CA1-8D21-8408F98CD104}" name="Teperatura" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>[1]Sheet1!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="4" xr3:uid="{BD30C819-EE16-4F04-A7D4-A31BA8ECA99D}" name="Temperatura mínima" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>[1]Sheet1!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="75" totalsRowDxfId="74">
+    <tableColumn id="5" xr3:uid="{F457E75B-7E22-4F5A-B889-ECDBCE671C10}" name="Temperatura máxima" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>[1]Sheet1!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="73" totalsRowDxfId="72">
+    <tableColumn id="6" xr3:uid="{F231AEB8-BEC2-4392-A0F8-4BDB6328B880}" name="Sensação térmica" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>[1]Sheet1!J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Porcentagem">
+    <tableColumn id="7" xr3:uid="{0DA04565-A2C1-490A-9227-3C8D24B8A4E4}" name="Humidade do ar" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]Sheet1!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="8" xr3:uid="{31A47152-D754-4B9E-AE2A-D37A5F37EF8E}" name="Pressão atmosférica" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>[1]Sheet1!L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="9" xr3:uid="{B84CBABB-610C-4418-8E36-DBA6E84EA6E9}" name="Velocidade do vento" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>[1]Sheet1!M2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -22792,9 +23847,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
@@ -27852,24 +28907,1024 @@
         <v>8.75</v>
       </c>
     </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="str">
+        <f>[1]Sheet1!B102</f>
+        <v>23\10\24</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f>[1]Sheet1!C102</f>
+        <v>qua</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>[1]Sheet1!D102</f>
+        <v>14:53:27</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f>[1]Sheet1!E102</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E102" s="1" t="str">
+        <f>[1]Sheet1!F102</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F102" s="4">
+        <f>[1]Sheet1!G102</f>
+        <v>30.07</v>
+      </c>
+      <c r="G102" s="4">
+        <f>[1]Sheet1!H102</f>
+        <v>27.9</v>
+      </c>
+      <c r="H102" s="4">
+        <f>[1]Sheet1!I102</f>
+        <v>30.07</v>
+      </c>
+      <c r="I102" s="4">
+        <f>[1]Sheet1!J102</f>
+        <v>32.57</v>
+      </c>
+      <c r="J102" s="7">
+        <f>[1]Sheet1!K102</f>
+        <v>58</v>
+      </c>
+      <c r="K102" s="1">
+        <f>[1]Sheet1!L102</f>
+        <v>1010</v>
+      </c>
+      <c r="L102" s="9">
+        <f>[1]Sheet1!M102</f>
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="str">
+        <f>[1]Sheet1!B103</f>
+        <v>23\10\24</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f>[1]Sheet1!C103</f>
+        <v>qua</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f>[1]Sheet1!D103</f>
+        <v>14:53:27</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f>[1]Sheet1!E103</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E103" s="1" t="str">
+        <f>[1]Sheet1!F103</f>
+        <v>nublado</v>
+      </c>
+      <c r="F103" s="4">
+        <f>[1]Sheet1!G103</f>
+        <v>37.49</v>
+      </c>
+      <c r="G103" s="4">
+        <f>[1]Sheet1!H103</f>
+        <v>37.49</v>
+      </c>
+      <c r="H103" s="4">
+        <f>[1]Sheet1!I103</f>
+        <v>37.49</v>
+      </c>
+      <c r="I103" s="4">
+        <f>[1]Sheet1!J103</f>
+        <v>36.43</v>
+      </c>
+      <c r="J103" s="7">
+        <f>[1]Sheet1!K103</f>
+        <v>22</v>
+      </c>
+      <c r="K103" s="1">
+        <f>[1]Sheet1!L103</f>
+        <v>1007</v>
+      </c>
+      <c r="L103" s="9">
+        <f>[1]Sheet1!M103</f>
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="str">
+        <f>[1]Sheet1!B104</f>
+        <v>23\10\24</v>
+      </c>
+      <c r="B104" s="1" t="str">
+        <f>[1]Sheet1!C104</f>
+        <v>qua</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f>[1]Sheet1!D104</f>
+        <v>14:53:27</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f>[1]Sheet1!E104</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E104" s="1" t="str">
+        <f>[1]Sheet1!F104</f>
+        <v>nublado</v>
+      </c>
+      <c r="F104" s="4">
+        <f>[1]Sheet1!G104</f>
+        <v>29.33</v>
+      </c>
+      <c r="G104" s="4">
+        <f>[1]Sheet1!H104</f>
+        <v>29.33</v>
+      </c>
+      <c r="H104" s="4">
+        <f>[1]Sheet1!I104</f>
+        <v>29.33</v>
+      </c>
+      <c r="I104" s="4">
+        <f>[1]Sheet1!J104</f>
+        <v>31.77</v>
+      </c>
+      <c r="J104" s="7">
+        <f>[1]Sheet1!K104</f>
+        <v>61</v>
+      </c>
+      <c r="K104" s="1">
+        <f>[1]Sheet1!L104</f>
+        <v>1009</v>
+      </c>
+      <c r="L104" s="9">
+        <f>[1]Sheet1!M104</f>
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="str">
+        <f>[1]Sheet1!B105</f>
+        <v>23\10\24</v>
+      </c>
+      <c r="B105" s="1" t="str">
+        <f>[1]Sheet1!C105</f>
+        <v>qua</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f>[1]Sheet1!D105</f>
+        <v>14:53:27</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <f>[1]Sheet1!E105</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E105" s="1" t="str">
+        <f>[1]Sheet1!F105</f>
+        <v>nublado</v>
+      </c>
+      <c r="F105" s="4">
+        <f>[1]Sheet1!G105</f>
+        <v>28.99</v>
+      </c>
+      <c r="G105" s="4">
+        <f>[1]Sheet1!H105</f>
+        <v>28.99</v>
+      </c>
+      <c r="H105" s="4">
+        <f>[1]Sheet1!I105</f>
+        <v>28.99</v>
+      </c>
+      <c r="I105" s="4">
+        <f>[1]Sheet1!J105</f>
+        <v>31.17</v>
+      </c>
+      <c r="J105" s="7">
+        <f>[1]Sheet1!K105</f>
+        <v>61</v>
+      </c>
+      <c r="K105" s="1">
+        <f>[1]Sheet1!L105</f>
+        <v>1009</v>
+      </c>
+      <c r="L105" s="9">
+        <f>[1]Sheet1!M105</f>
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="str">
+        <f>[1]Sheet1!B106</f>
+        <v>24\10\24</v>
+      </c>
+      <c r="B106" s="1" t="str">
+        <f>[1]Sheet1!C106</f>
+        <v>qui</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f>[1]Sheet1!D106</f>
+        <v>14:55:22</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <f>[1]Sheet1!E106</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E106" s="1" t="str">
+        <f>[1]Sheet1!F106</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F106" s="4">
+        <f>[1]Sheet1!G106</f>
+        <v>30.07</v>
+      </c>
+      <c r="G106" s="4">
+        <f>[1]Sheet1!H106</f>
+        <v>27.9</v>
+      </c>
+      <c r="H106" s="4">
+        <f>[1]Sheet1!I106</f>
+        <v>30.07</v>
+      </c>
+      <c r="I106" s="4">
+        <f>[1]Sheet1!J106</f>
+        <v>32.57</v>
+      </c>
+      <c r="J106" s="7">
+        <f>[1]Sheet1!K106</f>
+        <v>58</v>
+      </c>
+      <c r="K106" s="1">
+        <f>[1]Sheet1!L106</f>
+        <v>1010</v>
+      </c>
+      <c r="L106" s="9">
+        <f>[1]Sheet1!M106</f>
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="str">
+        <f>[1]Sheet1!B107</f>
+        <v>24\10\24</v>
+      </c>
+      <c r="B107" s="1" t="str">
+        <f>[1]Sheet1!C107</f>
+        <v>qui</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f>[1]Sheet1!D107</f>
+        <v>14:55:22</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <f>[1]Sheet1!E107</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E107" s="1" t="str">
+        <f>[1]Sheet1!F107</f>
+        <v>nublado</v>
+      </c>
+      <c r="F107" s="4">
+        <f>[1]Sheet1!G107</f>
+        <v>37.6</v>
+      </c>
+      <c r="G107" s="4">
+        <f>[1]Sheet1!H107</f>
+        <v>37.6</v>
+      </c>
+      <c r="H107" s="4">
+        <f>[1]Sheet1!I107</f>
+        <v>37.6</v>
+      </c>
+      <c r="I107" s="4">
+        <f>[1]Sheet1!J107</f>
+        <v>37.049999999999997</v>
+      </c>
+      <c r="J107" s="7">
+        <f>[1]Sheet1!K107</f>
+        <v>24</v>
+      </c>
+      <c r="K107" s="1">
+        <f>[1]Sheet1!L107</f>
+        <v>1007</v>
+      </c>
+      <c r="L107" s="9">
+        <f>[1]Sheet1!M107</f>
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="str">
+        <f>[1]Sheet1!B108</f>
+        <v>24\10\24</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f>[1]Sheet1!C108</f>
+        <v>qui</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f>[1]Sheet1!D108</f>
+        <v>14:55:22</v>
+      </c>
+      <c r="D108" s="1" t="str">
+        <f>[1]Sheet1!E108</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E108" s="1" t="str">
+        <f>[1]Sheet1!F108</f>
+        <v>nublado</v>
+      </c>
+      <c r="F108" s="4">
+        <f>[1]Sheet1!G108</f>
+        <v>29.11</v>
+      </c>
+      <c r="G108" s="4">
+        <f>[1]Sheet1!H108</f>
+        <v>29.11</v>
+      </c>
+      <c r="H108" s="4">
+        <f>[1]Sheet1!I108</f>
+        <v>29.11</v>
+      </c>
+      <c r="I108" s="4">
+        <f>[1]Sheet1!J108</f>
+        <v>31.71</v>
+      </c>
+      <c r="J108" s="7">
+        <f>[1]Sheet1!K108</f>
+        <v>63</v>
+      </c>
+      <c r="K108" s="1">
+        <f>[1]Sheet1!L108</f>
+        <v>1009</v>
+      </c>
+      <c r="L108" s="9">
+        <f>[1]Sheet1!M108</f>
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="str">
+        <f>[1]Sheet1!B109</f>
+        <v>24\10\24</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f>[1]Sheet1!C109</f>
+        <v>qui</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f>[1]Sheet1!D109</f>
+        <v>14:55:22</v>
+      </c>
+      <c r="D109" s="1" t="str">
+        <f>[1]Sheet1!E109</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E109" s="1" t="str">
+        <f>[1]Sheet1!F109</f>
+        <v>nublado</v>
+      </c>
+      <c r="F109" s="4">
+        <f>[1]Sheet1!G109</f>
+        <v>28.91</v>
+      </c>
+      <c r="G109" s="4">
+        <f>[1]Sheet1!H109</f>
+        <v>28.91</v>
+      </c>
+      <c r="H109" s="4">
+        <f>[1]Sheet1!I109</f>
+        <v>28.91</v>
+      </c>
+      <c r="I109" s="4">
+        <f>[1]Sheet1!J109</f>
+        <v>31.5</v>
+      </c>
+      <c r="J109" s="7">
+        <f>[1]Sheet1!K109</f>
+        <v>64</v>
+      </c>
+      <c r="K109" s="1">
+        <f>[1]Sheet1!L109</f>
+        <v>1009</v>
+      </c>
+      <c r="L109" s="9">
+        <f>[1]Sheet1!M109</f>
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="str">
+        <f>[1]Sheet1!B110</f>
+        <v>25\10\24</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f>[1]Sheet1!C110</f>
+        <v>sex</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f>[1]Sheet1!D110</f>
+        <v>15:00:43</v>
+      </c>
+      <c r="D110" s="1" t="str">
+        <f>[1]Sheet1!E110</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E110" s="1" t="str">
+        <f>[1]Sheet1!F110</f>
+        <v>nublado</v>
+      </c>
+      <c r="F110" s="4">
+        <f>[1]Sheet1!G110</f>
+        <v>29.07</v>
+      </c>
+      <c r="G110" s="4">
+        <f>[1]Sheet1!H110</f>
+        <v>27.34</v>
+      </c>
+      <c r="H110" s="4">
+        <f>[1]Sheet1!I110</f>
+        <v>29.07</v>
+      </c>
+      <c r="I110" s="4">
+        <f>[1]Sheet1!J110</f>
+        <v>31.98</v>
+      </c>
+      <c r="J110" s="7">
+        <f>[1]Sheet1!K110</f>
+        <v>65</v>
+      </c>
+      <c r="K110" s="1">
+        <f>[1]Sheet1!L110</f>
+        <v>1012</v>
+      </c>
+      <c r="L110" s="9">
+        <f>[1]Sheet1!M110</f>
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="str">
+        <f>[1]Sheet1!B111</f>
+        <v>25\10\24</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f>[1]Sheet1!C111</f>
+        <v>sex</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f>[1]Sheet1!D111</f>
+        <v>15:00:43</v>
+      </c>
+      <c r="D111" s="1" t="str">
+        <f>[1]Sheet1!E111</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E111" s="1" t="str">
+        <f>[1]Sheet1!F111</f>
+        <v>nublado</v>
+      </c>
+      <c r="F111" s="4">
+        <f>[1]Sheet1!G111</f>
+        <v>35.659999999999997</v>
+      </c>
+      <c r="G111" s="4">
+        <f>[1]Sheet1!H111</f>
+        <v>35.659999999999997</v>
+      </c>
+      <c r="H111" s="4">
+        <f>[1]Sheet1!I111</f>
+        <v>35.659999999999997</v>
+      </c>
+      <c r="I111" s="4">
+        <f>[1]Sheet1!J111</f>
+        <v>35.42</v>
+      </c>
+      <c r="J111" s="7">
+        <f>[1]Sheet1!K111</f>
+        <v>29</v>
+      </c>
+      <c r="K111" s="1">
+        <f>[1]Sheet1!L111</f>
+        <v>1009</v>
+      </c>
+      <c r="L111" s="9">
+        <f>[1]Sheet1!M111</f>
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="str">
+        <f>[1]Sheet1!B112</f>
+        <v>25\10\24</v>
+      </c>
+      <c r="B112" s="1" t="str">
+        <f>[1]Sheet1!C112</f>
+        <v>sex</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f>[1]Sheet1!D112</f>
+        <v>15:00:43</v>
+      </c>
+      <c r="D112" s="1" t="str">
+        <f>[1]Sheet1!E112</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E112" s="1" t="str">
+        <f>[1]Sheet1!F112</f>
+        <v>nublado</v>
+      </c>
+      <c r="F112" s="4">
+        <f>[1]Sheet1!G112</f>
+        <v>29.22</v>
+      </c>
+      <c r="G112" s="4">
+        <f>[1]Sheet1!H112</f>
+        <v>29.22</v>
+      </c>
+      <c r="H112" s="4">
+        <f>[1]Sheet1!I112</f>
+        <v>29.22</v>
+      </c>
+      <c r="I112" s="4">
+        <f>[1]Sheet1!J112</f>
+        <v>31.58</v>
+      </c>
+      <c r="J112" s="7">
+        <f>[1]Sheet1!K112</f>
+        <v>61</v>
+      </c>
+      <c r="K112" s="1">
+        <f>[1]Sheet1!L112</f>
+        <v>1010</v>
+      </c>
+      <c r="L112" s="9">
+        <f>[1]Sheet1!M112</f>
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="str">
+        <f>[1]Sheet1!B113</f>
+        <v>25\10\24</v>
+      </c>
+      <c r="B113" s="1" t="str">
+        <f>[1]Sheet1!C113</f>
+        <v>sex</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f>[1]Sheet1!D113</f>
+        <v>15:00:43</v>
+      </c>
+      <c r="D113" s="1" t="str">
+        <f>[1]Sheet1!E113</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E113" s="1" t="str">
+        <f>[1]Sheet1!F113</f>
+        <v>nublado</v>
+      </c>
+      <c r="F113" s="4">
+        <f>[1]Sheet1!G113</f>
+        <v>28.64</v>
+      </c>
+      <c r="G113" s="4">
+        <f>[1]Sheet1!H113</f>
+        <v>28.64</v>
+      </c>
+      <c r="H113" s="4">
+        <f>[1]Sheet1!I113</f>
+        <v>28.64</v>
+      </c>
+      <c r="I113" s="4">
+        <f>[1]Sheet1!J113</f>
+        <v>30.58</v>
+      </c>
+      <c r="J113" s="7">
+        <f>[1]Sheet1!K113</f>
+        <v>61</v>
+      </c>
+      <c r="K113" s="1">
+        <f>[1]Sheet1!L113</f>
+        <v>1011</v>
+      </c>
+      <c r="L113" s="9">
+        <f>[1]Sheet1!M113</f>
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="str">
+        <f>[1]Sheet1!B114</f>
+        <v>01\11\24</v>
+      </c>
+      <c r="B114" s="1" t="str">
+        <f>[1]Sheet1!C114</f>
+        <v>sex</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f>[1]Sheet1!D114</f>
+        <v>15:01:11</v>
+      </c>
+      <c r="D114" s="1" t="str">
+        <f>[1]Sheet1!E114</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E114" s="1" t="str">
+        <f>[1]Sheet1!F114</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F114" s="4">
+        <f>[1]Sheet1!G114</f>
+        <v>30.07</v>
+      </c>
+      <c r="G114" s="4">
+        <f>[1]Sheet1!H114</f>
+        <v>27.9</v>
+      </c>
+      <c r="H114" s="4">
+        <f>[1]Sheet1!I114</f>
+        <v>30.07</v>
+      </c>
+      <c r="I114" s="4">
+        <f>[1]Sheet1!J114</f>
+        <v>32.57</v>
+      </c>
+      <c r="J114" s="7">
+        <f>[1]Sheet1!K114</f>
+        <v>58</v>
+      </c>
+      <c r="K114" s="1">
+        <f>[1]Sheet1!L114</f>
+        <v>1009</v>
+      </c>
+      <c r="L114" s="9">
+        <f>[1]Sheet1!M114</f>
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="str">
+        <f>[1]Sheet1!B115</f>
+        <v>01\11\24</v>
+      </c>
+      <c r="B115" s="1" t="str">
+        <f>[1]Sheet1!C115</f>
+        <v>sex</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f>[1]Sheet1!D115</f>
+        <v>15:01:11</v>
+      </c>
+      <c r="D115" s="1" t="str">
+        <f>[1]Sheet1!E115</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E115" s="1" t="str">
+        <f>[1]Sheet1!F115</f>
+        <v>nublado</v>
+      </c>
+      <c r="F115" s="4">
+        <f>[1]Sheet1!G115</f>
+        <v>37.89</v>
+      </c>
+      <c r="G115" s="4">
+        <f>[1]Sheet1!H115</f>
+        <v>37.89</v>
+      </c>
+      <c r="H115" s="4">
+        <f>[1]Sheet1!I115</f>
+        <v>37.89</v>
+      </c>
+      <c r="I115" s="4">
+        <f>[1]Sheet1!J115</f>
+        <v>37.22</v>
+      </c>
+      <c r="J115" s="7">
+        <f>[1]Sheet1!K115</f>
+        <v>23</v>
+      </c>
+      <c r="K115" s="1">
+        <f>[1]Sheet1!L115</f>
+        <v>1006</v>
+      </c>
+      <c r="L115" s="9">
+        <f>[1]Sheet1!M115</f>
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="str">
+        <f>[1]Sheet1!B116</f>
+        <v>01\11\24</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f>[1]Sheet1!C116</f>
+        <v>sex</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f>[1]Sheet1!D116</f>
+        <v>15:01:11</v>
+      </c>
+      <c r="D116" s="1" t="str">
+        <f>[1]Sheet1!E116</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E116" s="1" t="str">
+        <f>[1]Sheet1!F116</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F116" s="4">
+        <f>[1]Sheet1!G116</f>
+        <v>29.33</v>
+      </c>
+      <c r="G116" s="4">
+        <f>[1]Sheet1!H116</f>
+        <v>29.33</v>
+      </c>
+      <c r="H116" s="4">
+        <f>[1]Sheet1!I116</f>
+        <v>29.33</v>
+      </c>
+      <c r="I116" s="4">
+        <f>[1]Sheet1!J116</f>
+        <v>31.77</v>
+      </c>
+      <c r="J116" s="7">
+        <f>[1]Sheet1!K116</f>
+        <v>61</v>
+      </c>
+      <c r="K116" s="1">
+        <f>[1]Sheet1!L116</f>
+        <v>1008</v>
+      </c>
+      <c r="L116" s="9">
+        <f>[1]Sheet1!M116</f>
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="str">
+        <f>[1]Sheet1!B117</f>
+        <v>01\11\24</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f>[1]Sheet1!C117</f>
+        <v>sex</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f>[1]Sheet1!D117</f>
+        <v>15:01:11</v>
+      </c>
+      <c r="D117" s="1" t="str">
+        <f>[1]Sheet1!E117</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E117" s="1" t="str">
+        <f>[1]Sheet1!F117</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F117" s="4">
+        <f>[1]Sheet1!G117</f>
+        <v>28.94</v>
+      </c>
+      <c r="G117" s="4">
+        <f>[1]Sheet1!H117</f>
+        <v>28.94</v>
+      </c>
+      <c r="H117" s="4">
+        <f>[1]Sheet1!I117</f>
+        <v>28.94</v>
+      </c>
+      <c r="I117" s="4">
+        <f>[1]Sheet1!J117</f>
+        <v>31.08</v>
+      </c>
+      <c r="J117" s="7">
+        <f>[1]Sheet1!K117</f>
+        <v>61</v>
+      </c>
+      <c r="K117" s="1">
+        <f>[1]Sheet1!L117</f>
+        <v>1008</v>
+      </c>
+      <c r="L117" s="9">
+        <f>[1]Sheet1!M117</f>
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="str">
+        <f>[1]Sheet1!B118</f>
+        <v>05\11\24</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f>[1]Sheet1!C118</f>
+        <v>ter</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f>[1]Sheet1!D118</f>
+        <v>14:18:33</v>
+      </c>
+      <c r="D118" s="1" t="str">
+        <f>[1]Sheet1!E118</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E118" s="1" t="str">
+        <f>[1]Sheet1!F118</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F118" s="4">
+        <f>[1]Sheet1!G118</f>
+        <v>30.07</v>
+      </c>
+      <c r="G118" s="4">
+        <f>[1]Sheet1!H118</f>
+        <v>27.9</v>
+      </c>
+      <c r="H118" s="4">
+        <f>[1]Sheet1!I118</f>
+        <v>30.07</v>
+      </c>
+      <c r="I118" s="4">
+        <f>[1]Sheet1!J118</f>
+        <v>32.57</v>
+      </c>
+      <c r="J118" s="7">
+        <f>[1]Sheet1!K118</f>
+        <v>58</v>
+      </c>
+      <c r="K118" s="1">
+        <f>[1]Sheet1!L118</f>
+        <v>1009</v>
+      </c>
+      <c r="L118" s="9">
+        <f>[1]Sheet1!M118</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="str">
+        <f>[1]Sheet1!B119</f>
+        <v>05\11\24</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f>[1]Sheet1!C119</f>
+        <v>ter</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f>[1]Sheet1!D119</f>
+        <v>14:18:33</v>
+      </c>
+      <c r="D119" s="1" t="str">
+        <f>[1]Sheet1!E119</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E119" s="1" t="str">
+        <f>[1]Sheet1!F119</f>
+        <v>nublado</v>
+      </c>
+      <c r="F119" s="4">
+        <f>[1]Sheet1!G119</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="G119" s="4">
+        <f>[1]Sheet1!H119</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="H119" s="4">
+        <f>[1]Sheet1!I119</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I119" s="4">
+        <f>[1]Sheet1!J119</f>
+        <v>36.85</v>
+      </c>
+      <c r="J119" s="7">
+        <f>[1]Sheet1!K119</f>
+        <v>22</v>
+      </c>
+      <c r="K119" s="1">
+        <f>[1]Sheet1!L119</f>
+        <v>1007</v>
+      </c>
+      <c r="L119" s="9">
+        <f>[1]Sheet1!M119</f>
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="str">
+        <f>[1]Sheet1!B120</f>
+        <v>05\11\24</v>
+      </c>
+      <c r="B120" s="1" t="str">
+        <f>[1]Sheet1!C120</f>
+        <v>ter</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f>[1]Sheet1!D120</f>
+        <v>14:18:33</v>
+      </c>
+      <c r="D120" s="1" t="str">
+        <f>[1]Sheet1!E120</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E120" s="1" t="str">
+        <f>[1]Sheet1!F120</f>
+        <v>nublado</v>
+      </c>
+      <c r="F120" s="4">
+        <f>[1]Sheet1!G120</f>
+        <v>31.76</v>
+      </c>
+      <c r="G120" s="4">
+        <f>[1]Sheet1!H120</f>
+        <v>31.76</v>
+      </c>
+      <c r="H120" s="4">
+        <f>[1]Sheet1!I120</f>
+        <v>31.76</v>
+      </c>
+      <c r="I120" s="4">
+        <f>[1]Sheet1!J120</f>
+        <v>34.4</v>
+      </c>
+      <c r="J120" s="7">
+        <f>[1]Sheet1!K120</f>
+        <v>52</v>
+      </c>
+      <c r="K120" s="1">
+        <f>[1]Sheet1!L120</f>
+        <v>1008</v>
+      </c>
+      <c r="L120" s="9">
+        <f>[1]Sheet1!M120</f>
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="str">
+        <f>[1]Sheet1!B121</f>
+        <v>05\11\24</v>
+      </c>
+      <c r="B121" s="1" t="str">
+        <f>[1]Sheet1!C121</f>
+        <v>ter</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f>[1]Sheet1!D121</f>
+        <v>14:18:33</v>
+      </c>
+      <c r="D121" s="1" t="str">
+        <f>[1]Sheet1!E121</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E121" s="1" t="str">
+        <f>[1]Sheet1!F121</f>
+        <v>nublado</v>
+      </c>
+      <c r="F121" s="4">
+        <f>[1]Sheet1!G121</f>
+        <v>30.96</v>
+      </c>
+      <c r="G121" s="4">
+        <f>[1]Sheet1!H121</f>
+        <v>30.96</v>
+      </c>
+      <c r="H121" s="4">
+        <f>[1]Sheet1!I121</f>
+        <v>30.96</v>
+      </c>
+      <c r="I121" s="4">
+        <f>[1]Sheet1!J121</f>
+        <v>32.950000000000003</v>
+      </c>
+      <c r="J121" s="7">
+        <f>[1]Sheet1!K121</f>
+        <v>52</v>
+      </c>
+      <c r="K121" s="1">
+        <f>[1]Sheet1!L121</f>
+        <v>1008</v>
+      </c>
+      <c r="L121" s="9">
+        <f>[1]Sheet1!M121</f>
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J101">
-    <cfRule type="expression" dxfId="95" priority="6">
+  <conditionalFormatting sqref="J2:J121">
+    <cfRule type="expression" dxfId="36" priority="6">
       <formula>$J2&lt;=50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F101">
-    <cfRule type="expression" dxfId="94" priority="5">
+  <conditionalFormatting sqref="F2:F121">
+    <cfRule type="expression" dxfId="35" priority="5">
       <formula>$F2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I101">
-    <cfRule type="expression" dxfId="93" priority="2">
+  <conditionalFormatting sqref="I2:I121">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>$I2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L101">
-    <cfRule type="expression" dxfId="92" priority="1">
+  <conditionalFormatting sqref="L2:L121">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>$L2&lt;7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27884,7 +29939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5901B3E-A3E8-4B5E-9369-35A4919B8B84}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
@@ -27904,7 +29959,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B6F8FC-46A2-4B7D-900C-4C6F1498AB62}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
@@ -27941,31 +29996,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -27973,7 +30028,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>30.234000000000002</v>
+        <v>30.15333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -27981,7 +30036,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="5">
-        <v>30.196800000000003</v>
+        <v>30.142333333333344</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -28019,37 +30074,37 @@
         <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>29.856800000000003</v>
+        <v>29.762000000000004</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="5">
-        <v>36.28</v>
+        <v>29.93</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="5">
-        <v>34.68</v>
+        <v>31.26</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="8">
-        <v>3.85</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="S4" s="8">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -28057,37 +30112,37 @@
         <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>37.038800000000009</v>
+        <v>37.080333333333343</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="5">
-        <v>36.72</v>
+        <v>29.56</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="5">
-        <v>35.61</v>
+        <v>31.33</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P5" s="8">
-        <v>3.65</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="S5" s="8">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -28095,37 +30150,37 @@
         <v>17</v>
       </c>
       <c r="B6" s="5">
-        <v>31.831600000000002</v>
+        <v>31.784499999999994</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="5">
-        <v>36.89</v>
+        <v>29.27</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="5">
-        <v>35.840000000000003</v>
+        <v>30.57</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P6" s="8">
-        <v>3.82</v>
+        <v>9.51</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="S6" s="8">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -28139,25 +30194,25 @@
         <v>27</v>
       </c>
       <c r="H7" s="5">
-        <v>36.64</v>
+        <v>29.48</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="5">
-        <v>35.93</v>
+        <v>31.53</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="8">
-        <v>4.16</v>
+        <v>9.77</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="S7" s="8">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -28171,31 +30226,31 @@
         <v>17</v>
       </c>
       <c r="E8" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="5">
-        <v>36.1</v>
+        <v>29.8</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="5">
-        <v>34.630000000000003</v>
+        <v>31.06</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="P8" s="8">
-        <v>3.68</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="S8" s="8">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -28203,31 +30258,31 @@
         <v>13</v>
       </c>
       <c r="B9" s="5">
-        <v>32.499200000000002</v>
+        <v>32.457000000000001</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="5">
-        <v>34.82</v>
+        <v>31.34</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L9" s="5">
-        <v>33.85</v>
+        <v>32.78</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P9" s="8">
-        <v>3.75</v>
+        <v>8.77</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="S9" s="8">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -28235,31 +30290,31 @@
         <v>14</v>
       </c>
       <c r="B10" s="5">
-        <v>35.250799999999998</v>
+        <v>34.784333333333343</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="5">
-        <v>37.520000000000003</v>
+        <v>29.14</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L10" s="5">
-        <v>35.85</v>
+        <v>31.11</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="P10" s="8">
-        <v>3.82</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="S10" s="8">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -28267,31 +30322,31 @@
         <v>15</v>
       </c>
       <c r="B11" s="5">
-        <v>31.761599999999998</v>
+        <v>31.710666666666668</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="5">
-        <v>36.659999999999997</v>
+        <v>30.7</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="5">
-        <v>35.96</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P11" s="8">
-        <v>3.82</v>
+        <v>9.81</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="S11" s="8">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -28299,31 +30354,31 @@
         <v>16</v>
       </c>
       <c r="B12" s="5">
-        <v>36.377599999999994</v>
+        <v>36.413666666666657</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="5">
-        <v>37.049999999999997</v>
+        <v>29.42</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="5">
-        <v>35.46</v>
+        <v>30.95</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P12" s="8">
-        <v>3.94</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="S12" s="8">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -28331,31 +30386,31 @@
         <v>17</v>
       </c>
       <c r="B13" s="5">
-        <v>33.97229999999999</v>
+        <v>33.84141666666666</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="5">
-        <v>36.53</v>
+        <v>31.25</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="L13" s="5">
-        <v>35.56</v>
+        <v>32.83</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="P13" s="8">
-        <v>4.4000000000000004</v>
+        <v>10.4</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S13" s="8">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -28363,25 +30418,25 @@
         <v>35</v>
       </c>
       <c r="H14" s="5">
-        <v>35.76</v>
+        <v>26.32</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L14" s="5">
-        <v>34.549999999999997</v>
+        <v>26.32</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="P14" s="8">
-        <v>2.92</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="S14" s="8">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -28395,25 +30450,25 @@
         <v>36</v>
       </c>
       <c r="H15" s="5">
-        <v>36.909999999999997</v>
+        <v>30.63</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L15" s="5">
-        <v>36.549999999999997</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="P15" s="8">
-        <v>3.07</v>
+        <v>8.81</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="S15" s="8">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -28421,31 +30476,31 @@
         <v>13</v>
       </c>
       <c r="B16" s="6">
-        <v>56.6</v>
+        <v>57.1</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H16" s="5">
-        <v>38.520000000000003</v>
+        <v>29.69</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="L16" s="5">
-        <v>38.119999999999997</v>
+        <v>31.71</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="P16" s="8">
-        <v>2.41</v>
+        <v>9.08</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="S16" s="8">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -28453,31 +30508,31 @@
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>74.599999999999994</v>
+        <v>72.066666666666663</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="5">
-        <v>37.86</v>
+        <v>29.39</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="L17" s="5">
-        <v>37.69</v>
+        <v>31.54</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="P17" s="8">
-        <v>2.89</v>
+        <v>9.23</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="S17" s="8">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -28485,31 +30540,31 @@
         <v>15</v>
       </c>
       <c r="B18" s="6">
-        <v>56.28</v>
+        <v>56.866666666666667</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H18" s="5">
-        <v>37.58</v>
+        <v>29.7</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="5">
-        <v>37.54</v>
+        <v>32.090000000000003</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P18" s="8">
-        <v>2.88</v>
+        <v>8.65</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="S18" s="8">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -28517,31 +30572,31 @@
         <v>16</v>
       </c>
       <c r="B19" s="6">
-        <v>24.36</v>
+        <v>24.3</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="5">
-        <v>37.83</v>
+        <v>30.05</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L19" s="5">
-        <v>37.93</v>
+        <v>31.97</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P19" s="8">
-        <v>3.53</v>
+        <v>10.02</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S19" s="8">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -28549,31 +30604,31 @@
         <v>17</v>
       </c>
       <c r="B20" s="6">
-        <v>52.96</v>
+        <v>52.583333333333336</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H20" s="5">
-        <v>37.869999999999997</v>
+        <v>28.62</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="5">
-        <v>37.44</v>
+        <v>30.27</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="P20" s="8">
-        <v>3.1</v>
+        <v>8.98</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S20" s="8">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -28581,25 +30636,25 @@
         <v>43</v>
       </c>
       <c r="H21" s="5">
-        <v>38.04</v>
+        <v>27.68</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="L21" s="5">
-        <v>37.43</v>
+        <v>30.18</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P21" s="8">
-        <v>2.4300000000000002</v>
+        <v>9.57</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="S21" s="8">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -28613,25 +30668,25 @@
         <v>44</v>
       </c>
       <c r="H22" s="5">
-        <v>38.25</v>
+        <v>29.01</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L22" s="5">
-        <v>37.47</v>
+        <v>31.36</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="P22" s="8">
-        <v>2.72</v>
+        <v>8.85</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="S22" s="8">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -28639,31 +30694,31 @@
         <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>9.5279999999999987</v>
+        <v>9.4563333333333333</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="H23" s="5">
-        <v>34.590000000000003</v>
+        <v>31.5</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="L23" s="5">
-        <v>34.71</v>
+        <v>33.47</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="P23" s="8">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>46</v>
       </c>
       <c r="S23" s="8">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -28671,31 +30726,31 @@
         <v>14</v>
       </c>
       <c r="B24" s="6">
-        <v>8.4783999999999988</v>
+        <v>8.402666666666665</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H24" s="5">
-        <v>38.700000000000003</v>
+        <v>30.71</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>47</v>
       </c>
       <c r="L24" s="5">
-        <v>38.380000000000003</v>
+        <v>33.130000000000003</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>47</v>
       </c>
       <c r="P24" s="8">
-        <v>1.56</v>
+        <v>6.6</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>47</v>
       </c>
       <c r="S24" s="8">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -28703,31 +30758,31 @@
         <v>15</v>
       </c>
       <c r="B25" s="6">
-        <v>8.8831999999999987</v>
+        <v>8.8129999999999988</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H25" s="5">
-        <v>37.94</v>
+        <v>29.94</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="L25" s="5">
-        <v>36.58</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="P25" s="8">
-        <v>3.46</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="S25" s="8">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -28735,31 +30790,31 @@
         <v>16</v>
       </c>
       <c r="B26" s="6">
-        <v>3.2492000000000005</v>
+        <v>3.1833333333333331</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H26" s="5">
-        <v>37.590000000000003</v>
+        <v>30.48</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L26" s="5">
-        <v>38.130000000000003</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="P26" s="8">
-        <v>1.41</v>
+        <v>7.11</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="S26" s="8">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -28767,31 +30822,31 @@
         <v>17</v>
       </c>
       <c r="B27" s="6">
-        <v>7.5347000000000017</v>
+        <v>7.4638333333333362</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H27" s="5">
-        <v>35.380000000000003</v>
+        <v>32.08</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="L27" s="5">
-        <v>36.74</v>
+        <v>35.270000000000003</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="P27" s="8">
-        <v>2.69</v>
+        <v>7.47</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="S27" s="8">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -28799,51 +30854,181 @@
         <v>51</v>
       </c>
       <c r="H28" s="5">
-        <v>37.94</v>
+        <v>30.73</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>51</v>
       </c>
       <c r="L28" s="5">
-        <v>36.81</v>
+        <v>32.56</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>51</v>
       </c>
       <c r="P28" s="8">
-        <v>3.87</v>
+        <v>8.75</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>51</v>
       </c>
       <c r="S28" s="8">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="5">
+        <v>28.99</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="5">
+        <v>31.17</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" s="8">
+        <v>7.94</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S29" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="5">
+        <v>28.91</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" s="8">
+        <v>9.06</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S30" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="5">
+        <v>28.64</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="5">
+        <v>30.58</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" s="8">
+        <v>8.31</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S31" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="5">
+        <v>28.94</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="5">
+        <v>31.08</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P32" s="8">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S32" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="5">
+        <v>30.96</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="5">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="8">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S33" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="5">
-        <v>37.038800000000009</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="H34" s="5">
+        <v>29.762000000000004</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="5">
-        <v>36.377599999999994</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="L34" s="5">
+        <v>31.710666666666668</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P29" s="8">
-        <v>3.2492000000000005</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="P34" s="8">
+        <v>8.8129999999999988</v>
+      </c>
+      <c r="R34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="8">
-        <v>24.36</v>
+      <c r="S34" s="8">
+        <v>56.866666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894C9B11-D103-4078-AD69-EC9858C2FEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F40A10-A964-483F-9AA2-43E651B3D04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="60">
   <si>
     <t>Data</t>
   </si>
@@ -225,6 +225,15 @@
   <si>
     <t>05\11\24</t>
   </si>
+  <si>
+    <t>07\11\24</t>
+  </si>
+  <si>
+    <t>09\11\24</t>
+  </si>
+  <si>
+    <t>11\11\24</t>
+  </si>
 </sst>
 </file>
 
@@ -298,16 +307,16 @@
   </cellStyles>
   <dxfs count="37">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1194,16 +1203,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30.15333333333334</c:v>
+                  <c:v>30.158484848484854</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.142333333333344</c:v>
+                  <c:v>30.166060606060622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.762000000000004</c:v>
+                  <c:v>29.798787878787884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.080333333333343</c:v>
+                  <c:v>36.900909090909103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2268,16 +2277,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32.457000000000001</c:v>
+                  <c:v>32.470303030303029</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.784333333333343</c:v>
+                  <c:v>34.643636363636368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.710666666666668</c:v>
+                  <c:v>31.761818181818185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.413666666666657</c:v>
+                  <c:v>36.325151515151504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3333,16 +3342,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>57.1</c:v>
+                  <c:v>57.090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.066666666666663</c:v>
+                  <c:v>70.787878787878782</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.866666666666667</c:v>
+                  <c:v>56.757575757575758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.3</c:v>
+                  <c:v>25.09090909090909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4093,16 +4102,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.4563333333333333</c:v>
+                  <c:v>9.3921212121212143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.402666666666665</c:v>
+                  <c:v>8.387272727272725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8129999999999988</c:v>
+                  <c:v>8.7518181818181819</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1833333333333331</c:v>
+                  <c:v>3.1533333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4847,9 +4856,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$G$4:$G$34</c:f>
+              <c:f>'Tabelas dinâmicas'!$G$4:$G$37</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -4940,15 +4949,24 @@
                 <c:pt idx="29">
                   <c:v>05\11\24</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>07\11\24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>09\11\24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11\11\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$H$4:$H$34</c:f>
+              <c:f>'Tabelas dinâmicas'!$H$4:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>29.93</c:v>
                 </c:pt>
@@ -5038,6 +5056,15 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>30.96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.56</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5798,9 +5825,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$K$4:$K$34</c:f>
+              <c:f>'Tabelas dinâmicas'!$K$4:$K$37</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -5891,15 +5918,24 @@
                 <c:pt idx="29">
                   <c:v>05\11\24</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>07\11\24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>09\11\24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11\11\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$L$4:$L$34</c:f>
+              <c:f>'Tabelas dinâmicas'!$L$4:$L$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>31.26</c:v>
                 </c:pt>
@@ -5989,6 +6025,15 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>32.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.03</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.520000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6941,13 +6986,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -7851,9 +7896,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$O$4:$O$34</c:f>
+              <c:f>'Tabelas dinâmicas'!$O$4:$O$37</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -7944,15 +7989,24 @@
                 <c:pt idx="29">
                   <c:v>05\11\24</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>07\11\24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>09\11\24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11\11\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$P$4:$P$34</c:f>
+              <c:f>'Tabelas dinâmicas'!$P$4:$P$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>9.6999999999999993</c:v>
                 </c:pt>
@@ -8042,6 +8096,15 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>8.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.83</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8942,9 +9005,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$R$4:$R$34</c:f>
+              <c:f>'Tabelas dinâmicas'!$R$4:$R$37</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>09\09\24</c:v>
                 </c:pt>
@@ -9035,15 +9098,24 @@
                 <c:pt idx="29">
                   <c:v>05\11\24</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>07\11\24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>09\11\24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11\11\24</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$S$4:$S$34</c:f>
+              <c:f>'Tabelas dinâmicas'!$S$4:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>52</c:v>
                 </c:pt>
@@ -9133,6 +9205,15 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19215,6 +19296,462 @@
             <v>8.9499999999999993</v>
           </cell>
         </row>
+        <row r="122">
+          <cell r="B122" t="str">
+            <v>07\11\24</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D122" t="str">
+            <v>14:52:31</v>
+          </cell>
+          <cell r="E122" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F122" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G122">
+            <v>30.07</v>
+          </cell>
+          <cell r="H122">
+            <v>27.9</v>
+          </cell>
+          <cell r="I122">
+            <v>30.07</v>
+          </cell>
+          <cell r="J122">
+            <v>33.380000000000003</v>
+          </cell>
+          <cell r="K122">
+            <v>62</v>
+          </cell>
+          <cell r="L122">
+            <v>1009</v>
+          </cell>
+          <cell r="M122">
+            <v>9.26</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123" t="str">
+            <v>07\11\24</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D123" t="str">
+            <v>14:52:31</v>
+          </cell>
+          <cell r="E123" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F123" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G123">
+            <v>36.28</v>
+          </cell>
+          <cell r="H123">
+            <v>36.28</v>
+          </cell>
+          <cell r="I123">
+            <v>36.28</v>
+          </cell>
+          <cell r="J123">
+            <v>36.1</v>
+          </cell>
+          <cell r="K123">
+            <v>28</v>
+          </cell>
+          <cell r="L123">
+            <v>1007</v>
+          </cell>
+          <cell r="M123">
+            <v>2.88</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124" t="str">
+            <v>07\11\24</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D124" t="str">
+            <v>14:52:31</v>
+          </cell>
+          <cell r="E124" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F124" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G124">
+            <v>29.15</v>
+          </cell>
+          <cell r="H124">
+            <v>29.15</v>
+          </cell>
+          <cell r="I124">
+            <v>29.15</v>
+          </cell>
+          <cell r="J124">
+            <v>31.45</v>
+          </cell>
+          <cell r="K124">
+            <v>61</v>
+          </cell>
+          <cell r="L124">
+            <v>1008</v>
+          </cell>
+          <cell r="M124">
+            <v>9.91</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125" t="str">
+            <v>07\11\24</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="D125" t="str">
+            <v>14:52:31</v>
+          </cell>
+          <cell r="E125" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F125" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G125">
+            <v>29</v>
+          </cell>
+          <cell r="H125">
+            <v>29</v>
+          </cell>
+          <cell r="I125">
+            <v>29</v>
+          </cell>
+          <cell r="J125">
+            <v>31.03</v>
+          </cell>
+          <cell r="K125">
+            <v>60</v>
+          </cell>
+          <cell r="L125">
+            <v>1008</v>
+          </cell>
+          <cell r="M125">
+            <v>9.24</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126" t="str">
+            <v>09\11\24</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="D126" t="str">
+            <v>10:29:05</v>
+          </cell>
+          <cell r="E126" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F126" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G126">
+            <v>31.07</v>
+          </cell>
+          <cell r="H126">
+            <v>28.45</v>
+          </cell>
+          <cell r="I126">
+            <v>31.07</v>
+          </cell>
+          <cell r="J126">
+            <v>34.5</v>
+          </cell>
+          <cell r="K126">
+            <v>58</v>
+          </cell>
+          <cell r="L126">
+            <v>1013</v>
+          </cell>
+          <cell r="M126">
+            <v>8.75</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127" t="str">
+            <v>09\11\24</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="D127" t="str">
+            <v>10:29:05</v>
+          </cell>
+          <cell r="E127" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F127" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="G127">
+            <v>32.880000000000003</v>
+          </cell>
+          <cell r="H127">
+            <v>32.880000000000003</v>
+          </cell>
+          <cell r="I127">
+            <v>32.880000000000003</v>
+          </cell>
+          <cell r="J127">
+            <v>33.81</v>
+          </cell>
+          <cell r="K127">
+            <v>41</v>
+          </cell>
+          <cell r="L127">
+            <v>1011</v>
+          </cell>
+          <cell r="M127">
+            <v>3.13</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128" t="str">
+            <v>09\11\24</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="D128" t="str">
+            <v>10:29:05</v>
+          </cell>
+          <cell r="E128" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F128" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G128">
+            <v>30.58</v>
+          </cell>
+          <cell r="H128">
+            <v>30.58</v>
+          </cell>
+          <cell r="I128">
+            <v>30.58</v>
+          </cell>
+          <cell r="J128">
+            <v>33.31</v>
+          </cell>
+          <cell r="K128">
+            <v>57</v>
+          </cell>
+          <cell r="L128">
+            <v>1011</v>
+          </cell>
+          <cell r="M128">
+            <v>8.1199999999999992</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129" t="str">
+            <v>09\11\24</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="D129" t="str">
+            <v>10:29:05</v>
+          </cell>
+          <cell r="E129" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F129" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="G129">
+            <v>30.56</v>
+          </cell>
+          <cell r="H129">
+            <v>30.56</v>
+          </cell>
+          <cell r="I129">
+            <v>30.56</v>
+          </cell>
+          <cell r="J129">
+            <v>33.270000000000003</v>
+          </cell>
+          <cell r="K129">
+            <v>57</v>
+          </cell>
+          <cell r="L129">
+            <v>1012</v>
+          </cell>
+          <cell r="M129">
+            <v>7.83</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130" t="str">
+            <v>11\11\24</v>
+          </cell>
+          <cell r="C130" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D130" t="str">
+            <v>12:09:19</v>
+          </cell>
+          <cell r="E130" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="F130" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="G130">
+            <v>30.07</v>
+          </cell>
+          <cell r="H130">
+            <v>28.45</v>
+          </cell>
+          <cell r="I130">
+            <v>30.07</v>
+          </cell>
+          <cell r="J130">
+            <v>31.83</v>
+          </cell>
+          <cell r="K130">
+            <v>54</v>
+          </cell>
+          <cell r="L130">
+            <v>1011</v>
+          </cell>
+          <cell r="M130">
+            <v>6.69</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131" t="str">
+            <v>11\11\24</v>
+          </cell>
+          <cell r="C131" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D131" t="str">
+            <v>12:09:19</v>
+          </cell>
+          <cell r="E131" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="F131" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G131">
+            <v>36.159999999999997</v>
+          </cell>
+          <cell r="H131">
+            <v>36.159999999999997</v>
+          </cell>
+          <cell r="I131">
+            <v>36.159999999999997</v>
+          </cell>
+          <cell r="J131">
+            <v>36.409999999999997</v>
+          </cell>
+          <cell r="K131">
+            <v>30</v>
+          </cell>
+          <cell r="L131">
+            <v>1009</v>
+          </cell>
+          <cell r="M131">
+            <v>2.5499999999999998</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132" t="str">
+            <v>11\11\24</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D132" t="str">
+            <v>12:09:19</v>
+          </cell>
+          <cell r="E132" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="F132" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G132">
+            <v>30.9</v>
+          </cell>
+          <cell r="H132">
+            <v>30.9</v>
+          </cell>
+          <cell r="I132">
+            <v>30.9</v>
+          </cell>
+          <cell r="J132">
+            <v>33.049999999999997</v>
+          </cell>
+          <cell r="K132">
+            <v>53</v>
+          </cell>
+          <cell r="L132">
+            <v>1010</v>
+          </cell>
+          <cell r="M132">
+            <v>8.2200000000000006</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133" t="str">
+            <v>11\11\24</v>
+          </cell>
+          <cell r="C133" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="D133" t="str">
+            <v>12:09:19</v>
+          </cell>
+          <cell r="E133" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="F133" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="G133">
+            <v>30.94</v>
+          </cell>
+          <cell r="H133">
+            <v>30.94</v>
+          </cell>
+          <cell r="I133">
+            <v>30.94</v>
+          </cell>
+          <cell r="J133">
+            <v>32.520000000000003</v>
+          </cell>
+          <cell r="K133">
+            <v>50</v>
+          </cell>
+          <cell r="L133">
+            <v>1010</v>
+          </cell>
+          <cell r="M133">
+            <v>7.35</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -19222,13 +19759,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45601.597440972226" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="120" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45607.507887384258" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="132" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
   <cacheSource type="worksheet">
     <worksheetSource name="Monitoramento_Clima"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="Data" numFmtId="0">
-      <sharedItems count="30">
+      <sharedItems count="33">
         <s v="09\09\24"/>
         <s v="10\09\24"/>
         <s v="11\09\24"/>
@@ -19259,6 +19796,9 @@
         <s v="25\10\24"/>
         <s v="01\11\24"/>
         <s v="05\11\24"/>
+        <s v="07\11\24"/>
+        <s v="09\11\24"/>
+        <s v="11\11\24"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Dia da semana" numFmtId="0">
@@ -19314,7 +19854,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="132">
   <r>
     <x v="0"/>
     <s v="seg"/>
@@ -20995,31 +21535,190 @@
     <n v="1008"/>
     <n v="8.9499999999999993"/>
   </r>
+  <r>
+    <x v="30"/>
+    <s v="qui"/>
+    <s v="14:52:31"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="30.07"/>
+    <n v="27.9"/>
+    <n v="30.07"/>
+    <n v="33.380000000000003"/>
+    <n v="62"/>
+    <n v="1009"/>
+    <n v="9.26"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="qui"/>
+    <s v="14:52:31"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="36.28"/>
+    <n v="36.28"/>
+    <n v="36.28"/>
+    <n v="36.1"/>
+    <n v="28"/>
+    <n v="1007"/>
+    <n v="2.88"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="qui"/>
+    <s v="14:52:31"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="29.15"/>
+    <n v="29.15"/>
+    <n v="29.15"/>
+    <n v="31.45"/>
+    <n v="61"/>
+    <n v="1008"/>
+    <n v="9.91"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="qui"/>
+    <s v="14:52:31"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="29"/>
+    <n v="29"/>
+    <n v="29"/>
+    <n v="31.03"/>
+    <n v="60"/>
+    <n v="1008"/>
+    <n v="9.24"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="sÃ¡b"/>
+    <s v="10:29:05"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="31.07"/>
+    <n v="28.45"/>
+    <n v="31.07"/>
+    <n v="34.5"/>
+    <n v="58"/>
+    <n v="1013"/>
+    <n v="8.75"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="sÃ¡b"/>
+    <s v="10:29:05"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="32.880000000000003"/>
+    <n v="32.880000000000003"/>
+    <n v="32.880000000000003"/>
+    <n v="33.81"/>
+    <n v="41"/>
+    <n v="1011"/>
+    <n v="3.13"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="sÃ¡b"/>
+    <s v="10:29:05"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="30.58"/>
+    <n v="30.58"/>
+    <n v="30.58"/>
+    <n v="33.31"/>
+    <n v="57"/>
+    <n v="1011"/>
+    <n v="8.1199999999999992"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="sÃ¡b"/>
+    <s v="10:29:05"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="30.56"/>
+    <n v="30.56"/>
+    <n v="30.56"/>
+    <n v="33.270000000000003"/>
+    <n v="57"/>
+    <n v="1012"/>
+    <n v="7.83"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="seg"/>
+    <s v="12:09:19"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="30.07"/>
+    <n v="28.45"/>
+    <n v="30.07"/>
+    <n v="31.83"/>
+    <n v="54"/>
+    <n v="1011"/>
+    <n v="6.69"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="seg"/>
+    <s v="12:09:19"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="36.159999999999997"/>
+    <n v="36.159999999999997"/>
+    <n v="36.159999999999997"/>
+    <n v="36.409999999999997"/>
+    <n v="30"/>
+    <n v="1009"/>
+    <n v="2.5499999999999998"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="seg"/>
+    <s v="12:09:19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="30.9"/>
+    <n v="30.9"/>
+    <n v="30.9"/>
+    <n v="33.049999999999997"/>
+    <n v="53"/>
+    <n v="1010"/>
+    <n v="8.2200000000000006"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="seg"/>
+    <s v="12:09:19"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="30.94"/>
+    <n v="30.94"/>
+    <n v="30.94"/>
+    <n v="32.520000000000003"/>
+    <n v="50"/>
+    <n v="1010"/>
+    <n v="7.35"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -21028,11 +21727,12 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="3"/>
   </rowFields>
   <rowItems count="5">
     <i>
@@ -21054,14 +21754,16 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
-    <dataField name="Contagem de Status" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="7" format="8" series="1">
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="1" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21070,37 +21772,106 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="9">
+    <chartFormat chart="1" format="6">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="4" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="10">
+    <chartFormat chart="1" format="7">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="4" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="7" format="11">
+    <chartFormat chart="1" format="9">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="4" count="1" selected="0">
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -21120,11 +21891,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
-  <location ref="R3:S34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="K3:L37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="31">
+      <items count="34">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -21155,6 +21926,9 @@
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -21173,15 +21947,15 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="34">
     <i>
       <x/>
     </i>
@@ -21272,6 +22046,15 @@
     <i>
       <x v="29"/>
     </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -21283,51 +22066,15 @@
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="5">
-    <chartFormat chart="15" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="5" series="1">
+  <chartFormats count="1">
+    <chartFormat chart="5" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21401,7 +22148,7 @@
     <dataField name="Média de Teperatura" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -21648,18 +22395,27 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Cidade" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="D3:E8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item x="0"/>
         <item x="3"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -21668,12 +22424,11 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="3"/>
+    <field x="4"/>
   </rowFields>
   <rowItems count="5">
     <i>
@@ -21695,16 +22450,14 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Contagem de Status" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="2">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="10">
-    <chartFormat chart="1" format="5" series="1">
+  <chartFormats count="4">
+    <chartFormat chart="7" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21713,106 +22466,37 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="6">
+    <chartFormat chart="7" format="9">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="3" count="1" selected="0">
+          <reference field="4" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="7">
+    <chartFormat chart="7" format="10">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="8">
+    <chartFormat chart="7" format="11">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
+          <reference field="4" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -21832,11 +22516,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="K3:L34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+  <location ref="R3:S37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="31">
+      <items count="34">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -21867,6 +22551,9 @@
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -21885,15 +22572,15 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="34">
     <i>
       <x/>
     </i>
@@ -21984,6 +22671,15 @@
     <i>
       <x v="29"/>
     </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -21995,15 +22691,51 @@
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Média de Sensação térmica" fld="8" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Média de Humidade do ar" fld="9" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
     <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
-    <chartFormat chart="5" format="2" series="1">
+  <chartFormats count="5">
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -22027,10 +22759,10 @@
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="O3:P34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="O3:P37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="31">
+      <items count="34">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -22061,6 +22793,9 @@
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -22087,7 +22822,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="34">
     <i>
       <x/>
     </i>
@@ -22177,6 +22912,15 @@
     </i>
     <i>
       <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
     </i>
     <i t="grand">
       <x/>
@@ -22423,10 +23167,10 @@
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="G3:H34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="G3:H37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
-      <items count="31">
+      <items count="34">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -22457,6 +23201,9 @@
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -22483,7 +23230,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="34">
     <i>
       <x/>
     </i>
@@ -22573,6 +23320,15 @@
     </i>
     <i>
       <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
     </i>
     <i t="grand">
       <x/>
@@ -22784,8 +23540,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L121" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A1:L121" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:L133" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:L133" xr:uid="{96DEBF73-C1B5-4AF8-883C-AA81214D6D4F}"/>
   <tableColumns count="12">
     <tableColumn id="10" xr3:uid="{033688FD-0C1C-41EF-A061-CFDD0FCDBDDC}" name="Data" totalsRowLabel="Total" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>[1]Sheet1!B2</calculatedColumnFormula>
@@ -23847,9 +24603,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
@@ -29907,23 +30663,623 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="str">
+        <f>[1]Sheet1!B122</f>
+        <v>07\11\24</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f>[1]Sheet1!C122</f>
+        <v>qui</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f>[1]Sheet1!D122</f>
+        <v>14:52:31</v>
+      </c>
+      <c r="D122" s="1" t="str">
+        <f>[1]Sheet1!E122</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E122" s="1" t="str">
+        <f>[1]Sheet1!F122</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F122" s="4">
+        <f>[1]Sheet1!G122</f>
+        <v>30.07</v>
+      </c>
+      <c r="G122" s="4">
+        <f>[1]Sheet1!H122</f>
+        <v>27.9</v>
+      </c>
+      <c r="H122" s="4">
+        <f>[1]Sheet1!I122</f>
+        <v>30.07</v>
+      </c>
+      <c r="I122" s="4">
+        <f>[1]Sheet1!J122</f>
+        <v>33.380000000000003</v>
+      </c>
+      <c r="J122" s="7">
+        <f>[1]Sheet1!K122</f>
+        <v>62</v>
+      </c>
+      <c r="K122" s="1">
+        <f>[1]Sheet1!L122</f>
+        <v>1009</v>
+      </c>
+      <c r="L122" s="9">
+        <f>[1]Sheet1!M122</f>
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="str">
+        <f>[1]Sheet1!B123</f>
+        <v>07\11\24</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f>[1]Sheet1!C123</f>
+        <v>qui</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f>[1]Sheet1!D123</f>
+        <v>14:52:31</v>
+      </c>
+      <c r="D123" s="1" t="str">
+        <f>[1]Sheet1!E123</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E123" s="1" t="str">
+        <f>[1]Sheet1!F123</f>
+        <v>nublado</v>
+      </c>
+      <c r="F123" s="4">
+        <f>[1]Sheet1!G123</f>
+        <v>36.28</v>
+      </c>
+      <c r="G123" s="4">
+        <f>[1]Sheet1!H123</f>
+        <v>36.28</v>
+      </c>
+      <c r="H123" s="4">
+        <f>[1]Sheet1!I123</f>
+        <v>36.28</v>
+      </c>
+      <c r="I123" s="4">
+        <f>[1]Sheet1!J123</f>
+        <v>36.1</v>
+      </c>
+      <c r="J123" s="7">
+        <f>[1]Sheet1!K123</f>
+        <v>28</v>
+      </c>
+      <c r="K123" s="1">
+        <f>[1]Sheet1!L123</f>
+        <v>1007</v>
+      </c>
+      <c r="L123" s="9">
+        <f>[1]Sheet1!M123</f>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="str">
+        <f>[1]Sheet1!B124</f>
+        <v>07\11\24</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f>[1]Sheet1!C124</f>
+        <v>qui</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f>[1]Sheet1!D124</f>
+        <v>14:52:31</v>
+      </c>
+      <c r="D124" s="1" t="str">
+        <f>[1]Sheet1!E124</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E124" s="1" t="str">
+        <f>[1]Sheet1!F124</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F124" s="4">
+        <f>[1]Sheet1!G124</f>
+        <v>29.15</v>
+      </c>
+      <c r="G124" s="4">
+        <f>[1]Sheet1!H124</f>
+        <v>29.15</v>
+      </c>
+      <c r="H124" s="4">
+        <f>[1]Sheet1!I124</f>
+        <v>29.15</v>
+      </c>
+      <c r="I124" s="4">
+        <f>[1]Sheet1!J124</f>
+        <v>31.45</v>
+      </c>
+      <c r="J124" s="7">
+        <f>[1]Sheet1!K124</f>
+        <v>61</v>
+      </c>
+      <c r="K124" s="1">
+        <f>[1]Sheet1!L124</f>
+        <v>1008</v>
+      </c>
+      <c r="L124" s="9">
+        <f>[1]Sheet1!M124</f>
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="str">
+        <f>[1]Sheet1!B125</f>
+        <v>07\11\24</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f>[1]Sheet1!C125</f>
+        <v>qui</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f>[1]Sheet1!D125</f>
+        <v>14:52:31</v>
+      </c>
+      <c r="D125" s="1" t="str">
+        <f>[1]Sheet1!E125</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E125" s="1" t="str">
+        <f>[1]Sheet1!F125</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F125" s="4">
+        <f>[1]Sheet1!G125</f>
+        <v>29</v>
+      </c>
+      <c r="G125" s="4">
+        <f>[1]Sheet1!H125</f>
+        <v>29</v>
+      </c>
+      <c r="H125" s="4">
+        <f>[1]Sheet1!I125</f>
+        <v>29</v>
+      </c>
+      <c r="I125" s="4">
+        <f>[1]Sheet1!J125</f>
+        <v>31.03</v>
+      </c>
+      <c r="J125" s="7">
+        <f>[1]Sheet1!K125</f>
+        <v>60</v>
+      </c>
+      <c r="K125" s="1">
+        <f>[1]Sheet1!L125</f>
+        <v>1008</v>
+      </c>
+      <c r="L125" s="9">
+        <f>[1]Sheet1!M125</f>
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="str">
+        <f>[1]Sheet1!B126</f>
+        <v>09\11\24</v>
+      </c>
+      <c r="B126" s="1" t="str">
+        <f>[1]Sheet1!C126</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="C126" s="1" t="str">
+        <f>[1]Sheet1!D126</f>
+        <v>10:29:05</v>
+      </c>
+      <c r="D126" s="1" t="str">
+        <f>[1]Sheet1!E126</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E126" s="1" t="str">
+        <f>[1]Sheet1!F126</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F126" s="4">
+        <f>[1]Sheet1!G126</f>
+        <v>31.07</v>
+      </c>
+      <c r="G126" s="4">
+        <f>[1]Sheet1!H126</f>
+        <v>28.45</v>
+      </c>
+      <c r="H126" s="4">
+        <f>[1]Sheet1!I126</f>
+        <v>31.07</v>
+      </c>
+      <c r="I126" s="4">
+        <f>[1]Sheet1!J126</f>
+        <v>34.5</v>
+      </c>
+      <c r="J126" s="7">
+        <f>[1]Sheet1!K126</f>
+        <v>58</v>
+      </c>
+      <c r="K126" s="1">
+        <f>[1]Sheet1!L126</f>
+        <v>1013</v>
+      </c>
+      <c r="L126" s="9">
+        <f>[1]Sheet1!M126</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="str">
+        <f>[1]Sheet1!B127</f>
+        <v>09\11\24</v>
+      </c>
+      <c r="B127" s="1" t="str">
+        <f>[1]Sheet1!C127</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="C127" s="1" t="str">
+        <f>[1]Sheet1!D127</f>
+        <v>10:29:05</v>
+      </c>
+      <c r="D127" s="1" t="str">
+        <f>[1]Sheet1!E127</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E127" s="1" t="str">
+        <f>[1]Sheet1!F127</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="F127" s="4">
+        <f>[1]Sheet1!G127</f>
+        <v>32.880000000000003</v>
+      </c>
+      <c r="G127" s="4">
+        <f>[1]Sheet1!H127</f>
+        <v>32.880000000000003</v>
+      </c>
+      <c r="H127" s="4">
+        <f>[1]Sheet1!I127</f>
+        <v>32.880000000000003</v>
+      </c>
+      <c r="I127" s="4">
+        <f>[1]Sheet1!J127</f>
+        <v>33.81</v>
+      </c>
+      <c r="J127" s="7">
+        <f>[1]Sheet1!K127</f>
+        <v>41</v>
+      </c>
+      <c r="K127" s="1">
+        <f>[1]Sheet1!L127</f>
+        <v>1011</v>
+      </c>
+      <c r="L127" s="9">
+        <f>[1]Sheet1!M127</f>
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="str">
+        <f>[1]Sheet1!B128</f>
+        <v>09\11\24</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <f>[1]Sheet1!C128</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="C128" s="1" t="str">
+        <f>[1]Sheet1!D128</f>
+        <v>10:29:05</v>
+      </c>
+      <c r="D128" s="1" t="str">
+        <f>[1]Sheet1!E128</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E128" s="1" t="str">
+        <f>[1]Sheet1!F128</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F128" s="4">
+        <f>[1]Sheet1!G128</f>
+        <v>30.58</v>
+      </c>
+      <c r="G128" s="4">
+        <f>[1]Sheet1!H128</f>
+        <v>30.58</v>
+      </c>
+      <c r="H128" s="4">
+        <f>[1]Sheet1!I128</f>
+        <v>30.58</v>
+      </c>
+      <c r="I128" s="4">
+        <f>[1]Sheet1!J128</f>
+        <v>33.31</v>
+      </c>
+      <c r="J128" s="7">
+        <f>[1]Sheet1!K128</f>
+        <v>57</v>
+      </c>
+      <c r="K128" s="1">
+        <f>[1]Sheet1!L128</f>
+        <v>1011</v>
+      </c>
+      <c r="L128" s="9">
+        <f>[1]Sheet1!M128</f>
+        <v>8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="str">
+        <f>[1]Sheet1!B129</f>
+        <v>09\11\24</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <f>[1]Sheet1!C129</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="C129" s="1" t="str">
+        <f>[1]Sheet1!D129</f>
+        <v>10:29:05</v>
+      </c>
+      <c r="D129" s="1" t="str">
+        <f>[1]Sheet1!E129</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E129" s="1" t="str">
+        <f>[1]Sheet1!F129</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="F129" s="4">
+        <f>[1]Sheet1!G129</f>
+        <v>30.56</v>
+      </c>
+      <c r="G129" s="4">
+        <f>[1]Sheet1!H129</f>
+        <v>30.56</v>
+      </c>
+      <c r="H129" s="4">
+        <f>[1]Sheet1!I129</f>
+        <v>30.56</v>
+      </c>
+      <c r="I129" s="4">
+        <f>[1]Sheet1!J129</f>
+        <v>33.270000000000003</v>
+      </c>
+      <c r="J129" s="7">
+        <f>[1]Sheet1!K129</f>
+        <v>57</v>
+      </c>
+      <c r="K129" s="1">
+        <f>[1]Sheet1!L129</f>
+        <v>1012</v>
+      </c>
+      <c r="L129" s="9">
+        <f>[1]Sheet1!M129</f>
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="str">
+        <f>[1]Sheet1!B130</f>
+        <v>11\11\24</v>
+      </c>
+      <c r="B130" s="1" t="str">
+        <f>[1]Sheet1!C130</f>
+        <v>seg</v>
+      </c>
+      <c r="C130" s="1" t="str">
+        <f>[1]Sheet1!D130</f>
+        <v>12:09:19</v>
+      </c>
+      <c r="D130" s="1" t="str">
+        <f>[1]Sheet1!E130</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="E130" s="1" t="str">
+        <f>[1]Sheet1!F130</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="F130" s="4">
+        <f>[1]Sheet1!G130</f>
+        <v>30.07</v>
+      </c>
+      <c r="G130" s="4">
+        <f>[1]Sheet1!H130</f>
+        <v>28.45</v>
+      </c>
+      <c r="H130" s="4">
+        <f>[1]Sheet1!I130</f>
+        <v>30.07</v>
+      </c>
+      <c r="I130" s="4">
+        <f>[1]Sheet1!J130</f>
+        <v>31.83</v>
+      </c>
+      <c r="J130" s="7">
+        <f>[1]Sheet1!K130</f>
+        <v>54</v>
+      </c>
+      <c r="K130" s="1">
+        <f>[1]Sheet1!L130</f>
+        <v>1011</v>
+      </c>
+      <c r="L130" s="9">
+        <f>[1]Sheet1!M130</f>
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="str">
+        <f>[1]Sheet1!B131</f>
+        <v>11\11\24</v>
+      </c>
+      <c r="B131" s="1" t="str">
+        <f>[1]Sheet1!C131</f>
+        <v>seg</v>
+      </c>
+      <c r="C131" s="1" t="str">
+        <f>[1]Sheet1!D131</f>
+        <v>12:09:19</v>
+      </c>
+      <c r="D131" s="1" t="str">
+        <f>[1]Sheet1!E131</f>
+        <v>Sobral</v>
+      </c>
+      <c r="E131" s="1" t="str">
+        <f>[1]Sheet1!F131</f>
+        <v>nublado</v>
+      </c>
+      <c r="F131" s="4">
+        <f>[1]Sheet1!G131</f>
+        <v>36.159999999999997</v>
+      </c>
+      <c r="G131" s="4">
+        <f>[1]Sheet1!H131</f>
+        <v>36.159999999999997</v>
+      </c>
+      <c r="H131" s="4">
+        <f>[1]Sheet1!I131</f>
+        <v>36.159999999999997</v>
+      </c>
+      <c r="I131" s="4">
+        <f>[1]Sheet1!J131</f>
+        <v>36.409999999999997</v>
+      </c>
+      <c r="J131" s="7">
+        <f>[1]Sheet1!K131</f>
+        <v>30</v>
+      </c>
+      <c r="K131" s="1">
+        <f>[1]Sheet1!L131</f>
+        <v>1009</v>
+      </c>
+      <c r="L131" s="9">
+        <f>[1]Sheet1!M131</f>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="str">
+        <f>[1]Sheet1!B132</f>
+        <v>11\11\24</v>
+      </c>
+      <c r="B132" s="1" t="str">
+        <f>[1]Sheet1!C132</f>
+        <v>seg</v>
+      </c>
+      <c r="C132" s="1" t="str">
+        <f>[1]Sheet1!D132</f>
+        <v>12:09:19</v>
+      </c>
+      <c r="D132" s="1" t="str">
+        <f>[1]Sheet1!E132</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="E132" s="1" t="str">
+        <f>[1]Sheet1!F132</f>
+        <v>nublado</v>
+      </c>
+      <c r="F132" s="4">
+        <f>[1]Sheet1!G132</f>
+        <v>30.9</v>
+      </c>
+      <c r="G132" s="4">
+        <f>[1]Sheet1!H132</f>
+        <v>30.9</v>
+      </c>
+      <c r="H132" s="4">
+        <f>[1]Sheet1!I132</f>
+        <v>30.9</v>
+      </c>
+      <c r="I132" s="4">
+        <f>[1]Sheet1!J132</f>
+        <v>33.049999999999997</v>
+      </c>
+      <c r="J132" s="7">
+        <f>[1]Sheet1!K132</f>
+        <v>53</v>
+      </c>
+      <c r="K132" s="1">
+        <f>[1]Sheet1!L132</f>
+        <v>1010</v>
+      </c>
+      <c r="L132" s="9">
+        <f>[1]Sheet1!M132</f>
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="str">
+        <f>[1]Sheet1!B133</f>
+        <v>11\11\24</v>
+      </c>
+      <c r="B133" s="1" t="str">
+        <f>[1]Sheet1!C133</f>
+        <v>seg</v>
+      </c>
+      <c r="C133" s="1" t="str">
+        <f>[1]Sheet1!D133</f>
+        <v>12:09:19</v>
+      </c>
+      <c r="D133" s="1" t="str">
+        <f>[1]Sheet1!E133</f>
+        <v>Itarema</v>
+      </c>
+      <c r="E133" s="1" t="str">
+        <f>[1]Sheet1!F133</f>
+        <v>nublado</v>
+      </c>
+      <c r="F133" s="4">
+        <f>[1]Sheet1!G133</f>
+        <v>30.94</v>
+      </c>
+      <c r="G133" s="4">
+        <f>[1]Sheet1!H133</f>
+        <v>30.94</v>
+      </c>
+      <c r="H133" s="4">
+        <f>[1]Sheet1!I133</f>
+        <v>30.94</v>
+      </c>
+      <c r="I133" s="4">
+        <f>[1]Sheet1!J133</f>
+        <v>32.520000000000003</v>
+      </c>
+      <c r="J133" s="7">
+        <f>[1]Sheet1!K133</f>
+        <v>50</v>
+      </c>
+      <c r="K133" s="1">
+        <f>[1]Sheet1!L133</f>
+        <v>1010</v>
+      </c>
+      <c r="L133" s="9">
+        <f>[1]Sheet1!M133</f>
+        <v>7.35</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J121">
+  <conditionalFormatting sqref="J2:J133">
     <cfRule type="expression" dxfId="36" priority="6">
       <formula>$J2&lt;=50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F121">
+  <conditionalFormatting sqref="F2:F133">
     <cfRule type="expression" dxfId="35" priority="5">
       <formula>$F2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I121">
+  <conditionalFormatting sqref="I2:I133">
     <cfRule type="expression" dxfId="34" priority="2">
       <formula>$I2&gt;=35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L121">
+  <conditionalFormatting sqref="L2:L133">
     <cfRule type="expression" dxfId="33" priority="1">
       <formula>$L2&lt;7</formula>
     </cfRule>
@@ -29959,7 +31315,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B6F8FC-46A2-4B7D-900C-4C6F1498AB62}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
@@ -30028,7 +31384,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>30.15333333333334</v>
+        <v>30.158484848484854</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -30036,7 +31392,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="5">
-        <v>30.142333333333344</v>
+        <v>30.166060606060622</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -30074,13 +31430,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>29.762000000000004</v>
+        <v>29.798787878787884</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>24</v>
@@ -30112,13 +31468,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>37.080333333333343</v>
+        <v>36.900909090909103</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
@@ -30150,13 +31506,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="5">
-        <v>31.784499999999994</v>
+        <v>31.756060606060601</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
@@ -30226,7 +31582,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>28</v>
@@ -30258,7 +31614,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="5">
-        <v>32.457000000000001</v>
+        <v>32.470303030303029</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>29</v>
@@ -30290,7 +31646,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="5">
-        <v>34.784333333333343</v>
+        <v>34.643636363636368</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>30</v>
@@ -30322,7 +31678,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="5">
-        <v>31.710666666666668</v>
+        <v>31.761818181818185</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>31</v>
@@ -30354,7 +31710,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="5">
-        <v>36.413666666666657</v>
+        <v>36.325151515151504</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>32</v>
@@ -30386,7 +31742,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="5">
-        <v>33.84141666666666</v>
+        <v>33.800227272727284</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>33</v>
@@ -30476,7 +31832,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="6">
-        <v>57.1</v>
+        <v>57.090909090909093</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>37</v>
@@ -30508,7 +31864,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>72.066666666666663</v>
+        <v>70.787878787878782</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>38</v>
@@ -30540,7 +31896,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="6">
-        <v>56.866666666666667</v>
+        <v>56.757575757575758</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>39</v>
@@ -30572,7 +31928,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="6">
-        <v>24.3</v>
+        <v>25.09090909090909</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>40</v>
@@ -30604,7 +31960,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6">
-        <v>52.583333333333336</v>
+        <v>52.43181818181818</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>42</v>
@@ -30694,7 +32050,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>9.4563333333333333</v>
+        <v>9.3921212121212143</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>46</v>
@@ -30726,7 +32082,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="6">
-        <v>8.402666666666665</v>
+        <v>8.387272727272725</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>47</v>
@@ -30758,7 +32114,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="6">
-        <v>8.8129999999999988</v>
+        <v>8.7518181818181819</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>48</v>
@@ -30790,7 +32146,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="6">
-        <v>3.1833333333333331</v>
+        <v>3.1533333333333329</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>49</v>
@@ -30822,7 +32178,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="6">
-        <v>7.4638333333333362</v>
+        <v>7.4211363636363661</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>50</v>
@@ -31007,28 +32363,106 @@
     </row>
     <row r="34" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="5">
+        <v>29</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" s="5">
+        <v>31.03</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P34" s="8">
+        <v>9.24</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="5">
+        <v>30.56</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="5">
+        <v>33.270000000000003</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P35" s="8">
+        <v>7.83</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S35" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="5">
+        <v>30.94</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L36" s="5">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" s="8">
+        <v>7.35</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S36" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="5">
-        <v>29.762000000000004</v>
-      </c>
-      <c r="K34" s="3" t="s">
+      <c r="H37" s="5">
+        <v>29.798787878787884</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="5">
-        <v>31.710666666666668</v>
-      </c>
-      <c r="O34" s="3" t="s">
+      <c r="L37" s="5">
+        <v>31.761818181818185</v>
+      </c>
+      <c r="O37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P34" s="8">
-        <v>8.8129999999999988</v>
-      </c>
-      <c r="R34" s="3" t="s">
+      <c r="P37" s="8">
+        <v>8.7518181818181819</v>
+      </c>
+      <c r="R37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S34" s="8">
-        <v>56.866666666666667</v>
+      <c r="S37" s="8">
+        <v>56.757575757575758</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7381445-D842-4110-A875-4886CCCBB727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA126979-3B18-4C7A-9B51-6AFB1C478505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela_Clima" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId5"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
   <si>
     <t>Data</t>
   </si>
@@ -179,6 +179,15 @@
   <si>
     <t>15/11/2024</t>
   </si>
+  <si>
+    <t>16/11/2024</t>
+  </si>
+  <si>
+    <t>17/11/2024</t>
+  </si>
+  <si>
+    <t>18/11/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -268,9 +277,63 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="45">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -294,15 +357,6 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
@@ -312,232 +366,7 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1364,16 +1193,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30.08405405405405</c:v>
+                  <c:v>30.167499999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.128648648648653</c:v>
+                  <c:v>30.174250000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.798108108108114</c:v>
+                  <c:v>29.914000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.379459459459468</c:v>
+                  <c:v>36.246250000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,13 +2090,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3151,9 +2980,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$V$5:$V$14</c:f>
+              <c:f>'Tabelas dinâmicas'!$V$5:$V$17</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>01/11/2024</c:v>
                 </c:pt>
@@ -3181,15 +3010,24 @@
                 <c:pt idx="8">
                   <c:v>15/11/2024</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>16/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18/11/2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$W$5:$W$14</c:f>
+              <c:f>'Tabelas dinâmicas'!$W$5:$W$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>28.94</c:v>
                 </c:pt>
@@ -3216,6 +3054,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>31.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4113,9 +3960,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$Y$5:$Y$14</c:f>
+              <c:f>'Tabelas dinâmicas'!$Y$5:$Y$17</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>01/11/2024</c:v>
                 </c:pt>
@@ -4143,15 +3990,24 @@
                 <c:pt idx="8">
                   <c:v>15/11/2024</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>16/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18/11/2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$Z$5:$Z$14</c:f>
+              <c:f>'Tabelas dinâmicas'!$Z$5:$Z$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>31.08</c:v>
                 </c:pt>
@@ -4178,6 +4034,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>33.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.229999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5075,9 +4940,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$AB$5:$AB$14</c:f>
+              <c:f>'Tabelas dinâmicas'!$AB$5:$AB$17</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>01/11/2024</c:v>
                 </c:pt>
@@ -5105,15 +4970,24 @@
                 <c:pt idx="8">
                   <c:v>15/11/2024</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>16/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18/11/2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$AC$5:$AC$14</c:f>
+              <c:f>'Tabelas dinâmicas'!$AC$5:$AC$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>8.0500000000000007</c:v>
                 </c:pt>
@@ -5140,6 +5014,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6037,9 +5920,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$AE$5:$AE$14</c:f>
+              <c:f>'Tabelas dinâmicas'!$AE$5:$AE$17</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>01/11/2024</c:v>
                 </c:pt>
@@ -6067,15 +5950,24 @@
                 <c:pt idx="8">
                   <c:v>15/11/2024</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>16/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18/11/2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$AF$5:$AF$14</c:f>
+              <c:f>'Tabelas dinâmicas'!$AF$5:$AF$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -6102,6 +5994,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7050,10 +6951,10 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>29.594999999999999</c:v>
+                  <c:v>30.046666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.52375</c:v>
+                  <c:v>29.776666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>30.336666666666662</c:v>
@@ -7068,7 +6969,7 @@
                   <c:v>29.631999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.326666666666668</c:v>
+                  <c:v>31.315000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8113,16 +8014,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32.382432432432431</c:v>
+                  <c:v>32.530999999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.425405405405414</c:v>
+                  <c:v>34.326250000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.769459459459473</c:v>
+                  <c:v>31.950250000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.920270270270265</c:v>
+                  <c:v>35.852499999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9178,16 +9079,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>57.324324324324323</c:v>
+                  <c:v>57.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.702702702702709</c:v>
+                  <c:v>68.575000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.783783783783782</c:v>
+                  <c:v>56.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.810810810810811</c:v>
+                  <c:v>27.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9938,16 +9839,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.1081081081081106</c:v>
+                  <c:v>9.0610000000000035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2867567567567537</c:v>
+                  <c:v>8.3854999999999986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5191891891891878</c:v>
+                  <c:v>8.5277499999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1283783783783776</c:v>
+                  <c:v>3.1764999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10720,7 +10621,7 @@
                   <c:v>29.879090909090909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.952222222222229</c:v>
+                  <c:v>30.299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11509,7 +11410,7 @@
                   <c:v>32.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.020000000000003</c:v>
+                  <c:v>32.559999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12462,13 +12363,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -13394,13 +13295,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.2841176470588227</c:v>
+                  <c:v>9.2841176470588263</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.1418181818181825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5355555555555549</c:v>
+                  <c:v>7.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14329,7 +14230,7 @@
                   <c:v>58.636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.444444444444443</c:v>
+                  <c:v>55.916666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29324,7 +29225,7 @@
           <cell r="B146" t="str">
             <v>15/11/2024</v>
           </cell>
-          <cell r="C146" t="str">
+          <cell r="C146">
             <v>2024</v>
           </cell>
           <cell r="E146" t="str">
@@ -29365,7 +29266,7 @@
           <cell r="B147" t="str">
             <v>15/11/2024</v>
           </cell>
-          <cell r="C147" t="str">
+          <cell r="C147">
             <v>2024</v>
           </cell>
           <cell r="E147" t="str">
@@ -29406,7 +29307,7 @@
           <cell r="B148" t="str">
             <v>15/11/2024</v>
           </cell>
-          <cell r="C148" t="str">
+          <cell r="C148">
             <v>2024</v>
           </cell>
           <cell r="E148" t="str">
@@ -29447,7 +29348,7 @@
           <cell r="B149" t="str">
             <v>15/11/2024</v>
           </cell>
-          <cell r="C149" t="str">
+          <cell r="C149">
             <v>2024</v>
           </cell>
           <cell r="E149" t="str">
@@ -29482,6 +29383,498 @@
           </cell>
           <cell r="O149">
             <v>7.09</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150" t="str">
+            <v>16/11/2024</v>
+          </cell>
+          <cell r="C150">
+            <v>2024</v>
+          </cell>
+          <cell r="E150" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="F150" t="str">
+            <v>10:39:23</v>
+          </cell>
+          <cell r="G150" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="H150" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="I150">
+            <v>30.07</v>
+          </cell>
+          <cell r="J150">
+            <v>27.9</v>
+          </cell>
+          <cell r="K150">
+            <v>30.07</v>
+          </cell>
+          <cell r="L150">
+            <v>32.57</v>
+          </cell>
+          <cell r="M150">
+            <v>58</v>
+          </cell>
+          <cell r="N150">
+            <v>1012</v>
+          </cell>
+          <cell r="O150">
+            <v>8.23</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151" t="str">
+            <v>16/11/2024</v>
+          </cell>
+          <cell r="C151">
+            <v>2024</v>
+          </cell>
+          <cell r="E151" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="F151" t="str">
+            <v>10:39:23</v>
+          </cell>
+          <cell r="G151" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="H151" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="I151">
+            <v>34.85</v>
+          </cell>
+          <cell r="J151">
+            <v>34.85</v>
+          </cell>
+          <cell r="K151">
+            <v>34.85</v>
+          </cell>
+          <cell r="L151">
+            <v>34.67</v>
+          </cell>
+          <cell r="M151">
+            <v>31</v>
+          </cell>
+          <cell r="N151">
+            <v>1010</v>
+          </cell>
+          <cell r="O151">
+            <v>3.84</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152" t="str">
+            <v>16/11/2024</v>
+          </cell>
+          <cell r="C152">
+            <v>2024</v>
+          </cell>
+          <cell r="E152" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="F152" t="str">
+            <v>10:39:23</v>
+          </cell>
+          <cell r="G152" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="H152" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="I152">
+            <v>31.67</v>
+          </cell>
+          <cell r="J152">
+            <v>31.67</v>
+          </cell>
+          <cell r="K152">
+            <v>31.67</v>
+          </cell>
+          <cell r="L152">
+            <v>34.72</v>
+          </cell>
+          <cell r="M152">
+            <v>54</v>
+          </cell>
+          <cell r="N152">
+            <v>1010</v>
+          </cell>
+          <cell r="O152">
+            <v>9.44</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153" t="str">
+            <v>16/11/2024</v>
+          </cell>
+          <cell r="C153">
+            <v>2024</v>
+          </cell>
+          <cell r="E153" t="str">
+            <v>sÃ¡b</v>
+          </cell>
+          <cell r="F153" t="str">
+            <v>10:39:23</v>
+          </cell>
+          <cell r="G153" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="H153" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="I153">
+            <v>31.28</v>
+          </cell>
+          <cell r="J153">
+            <v>31.28</v>
+          </cell>
+          <cell r="K153">
+            <v>31.28</v>
+          </cell>
+          <cell r="L153">
+            <v>33.74</v>
+          </cell>
+          <cell r="M153">
+            <v>53</v>
+          </cell>
+          <cell r="N153">
+            <v>1010</v>
+          </cell>
+          <cell r="O153">
+            <v>9.3000000000000007</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154" t="str">
+            <v>17/11/2024</v>
+          </cell>
+          <cell r="C154">
+            <v>2024</v>
+          </cell>
+          <cell r="E154" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="F154" t="str">
+            <v>11:43:11</v>
+          </cell>
+          <cell r="G154" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="H154" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="I154">
+            <v>31.07</v>
+          </cell>
+          <cell r="J154">
+            <v>29.01</v>
+          </cell>
+          <cell r="K154">
+            <v>31.07</v>
+          </cell>
+          <cell r="L154">
+            <v>32.94</v>
+          </cell>
+          <cell r="M154">
+            <v>51</v>
+          </cell>
+          <cell r="N154">
+            <v>1010</v>
+          </cell>
+          <cell r="O154">
+            <v>10.29</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155" t="str">
+            <v>17/11/2024</v>
+          </cell>
+          <cell r="C155">
+            <v>2024</v>
+          </cell>
+          <cell r="E155" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="F155" t="str">
+            <v>11:43:11</v>
+          </cell>
+          <cell r="G155" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="H155" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="I155">
+            <v>35.64</v>
+          </cell>
+          <cell r="J155">
+            <v>35.64</v>
+          </cell>
+          <cell r="K155">
+            <v>35.64</v>
+          </cell>
+          <cell r="L155">
+            <v>35.85</v>
+          </cell>
+          <cell r="M155">
+            <v>31</v>
+          </cell>
+          <cell r="N155">
+            <v>1009</v>
+          </cell>
+          <cell r="O155">
+            <v>3.66</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156" t="str">
+            <v>17/11/2024</v>
+          </cell>
+          <cell r="C156">
+            <v>2024</v>
+          </cell>
+          <cell r="E156" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="F156" t="str">
+            <v>11:43:11</v>
+          </cell>
+          <cell r="G156" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="H156" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="I156">
+            <v>30.31</v>
+          </cell>
+          <cell r="J156">
+            <v>30.31</v>
+          </cell>
+          <cell r="K156">
+            <v>30.31</v>
+          </cell>
+          <cell r="L156">
+            <v>33.01</v>
+          </cell>
+          <cell r="M156">
+            <v>58</v>
+          </cell>
+          <cell r="N156">
+            <v>1009</v>
+          </cell>
+          <cell r="O156">
+            <v>7.64</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157" t="str">
+            <v>17/11/2024</v>
+          </cell>
+          <cell r="C157">
+            <v>2024</v>
+          </cell>
+          <cell r="E157" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="F157" t="str">
+            <v>11:43:11</v>
+          </cell>
+          <cell r="G157" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="H157" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="I157">
+            <v>30.95</v>
+          </cell>
+          <cell r="J157">
+            <v>30.95</v>
+          </cell>
+          <cell r="K157">
+            <v>30.95</v>
+          </cell>
+          <cell r="L157">
+            <v>33.57</v>
+          </cell>
+          <cell r="M157">
+            <v>55</v>
+          </cell>
+          <cell r="N157">
+            <v>1009</v>
+          </cell>
+          <cell r="O157">
+            <v>8.09</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158" t="str">
+            <v>18/11/2024</v>
+          </cell>
+          <cell r="C158" t="str">
+            <v>2024</v>
+          </cell>
+          <cell r="E158" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="F158" t="str">
+            <v>10:14:58</v>
+          </cell>
+          <cell r="G158" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="H158" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="I158">
+            <v>31.07</v>
+          </cell>
+          <cell r="J158">
+            <v>29.01</v>
+          </cell>
+          <cell r="K158">
+            <v>31.07</v>
+          </cell>
+          <cell r="L158">
+            <v>33.799999999999997</v>
+          </cell>
+          <cell r="M158">
+            <v>55</v>
+          </cell>
+          <cell r="N158">
+            <v>1012</v>
+          </cell>
+          <cell r="O158">
+            <v>10.29</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159" t="str">
+            <v>18/11/2024</v>
+          </cell>
+          <cell r="C159" t="str">
+            <v>2024</v>
+          </cell>
+          <cell r="E159" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="F159" t="str">
+            <v>10:14:58</v>
+          </cell>
+          <cell r="G159" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="H159" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="I159">
+            <v>33.32</v>
+          </cell>
+          <cell r="J159">
+            <v>33.32</v>
+          </cell>
+          <cell r="K159">
+            <v>33.32</v>
+          </cell>
+          <cell r="L159">
+            <v>34.53</v>
+          </cell>
+          <cell r="M159">
+            <v>41</v>
+          </cell>
+          <cell r="N159">
+            <v>1011</v>
+          </cell>
+          <cell r="O159">
+            <v>3.81</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160" t="str">
+            <v>18/11/2024</v>
+          </cell>
+          <cell r="C160" t="str">
+            <v>2024</v>
+          </cell>
+          <cell r="E160" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="F160" t="str">
+            <v>10:14:58</v>
+          </cell>
+          <cell r="G160" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="H160" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="I160">
+            <v>31.61</v>
+          </cell>
+          <cell r="J160">
+            <v>31.61</v>
+          </cell>
+          <cell r="K160">
+            <v>31.61</v>
+          </cell>
+          <cell r="L160">
+            <v>35.36</v>
+          </cell>
+          <cell r="M160">
+            <v>57</v>
+          </cell>
+          <cell r="N160">
+            <v>1010</v>
+          </cell>
+          <cell r="O160">
+            <v>8.36</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161" t="str">
+            <v>18/11/2024</v>
+          </cell>
+          <cell r="C161" t="str">
+            <v>2024</v>
+          </cell>
+          <cell r="E161" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="F161" t="str">
+            <v>10:14:58</v>
+          </cell>
+          <cell r="G161" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="H161" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="I161">
+            <v>31.8</v>
+          </cell>
+          <cell r="J161">
+            <v>31.8</v>
+          </cell>
+          <cell r="K161">
+            <v>31.8</v>
+          </cell>
+          <cell r="L161">
+            <v>35.229999999999997</v>
+          </cell>
+          <cell r="M161">
+            <v>55</v>
+          </cell>
+          <cell r="N161">
+            <v>1011</v>
+          </cell>
+          <cell r="O161">
+            <v>8.51</v>
           </cell>
         </row>
       </sheetData>
@@ -29491,13 +29884,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45611.411359953701" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="148" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45614.428651620372" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="160" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
   <cacheSource type="worksheet">
     <worksheetSource name="Monitoramento_Clima"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2024-09-09T00:00:00" maxDate="2024-11-15T00:00:00" count="40">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2024-09-09T00:00:00" maxDate="2024-11-15T00:00:00" count="43">
         <d v="2024-09-09T00:00:00"/>
         <d v="2024-09-10T00:00:00"/>
         <d v="2024-09-11T00:00:00"/>
@@ -29535,6 +29928,9 @@
         <d v="2024-11-13T00:00:00"/>
         <d v="2024-11-14T00:00:00"/>
         <s v="15/11/2024"/>
+        <s v="16/11/2024"/>
+        <s v="17/11/2024"/>
+        <s v="18/11/2024"/>
         <s v="12/11/24" u="1"/>
         <s v="14/11/24" u="1"/>
         <s v="13/11/24" u="1"/>
@@ -29614,7 +30010,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="148">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="160">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -31921,7 +32317,7 @@
   </r>
   <r>
     <x v="36"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="4"/>
     <s v="09:49:01"/>
@@ -31937,7 +32333,7 @@
   </r>
   <r>
     <x v="36"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="4"/>
     <s v="09:49:01"/>
@@ -31953,7 +32349,7 @@
   </r>
   <r>
     <x v="36"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="4"/>
     <s v="09:49:01"/>
@@ -31969,7 +32365,7 @@
   </r>
   <r>
     <x v="36"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="4"/>
     <s v="09:49:01"/>
@@ -31983,163 +32379,204 @@
     <n v="1012"/>
     <n v="7.09"/>
   </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <s v="10:39:23"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="30.07"/>
+    <n v="27.9"/>
+    <n v="30.07"/>
+    <n v="32.57"/>
+    <n v="58"/>
+    <n v="1012"/>
+    <n v="8.23"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <s v="10:39:23"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="34.85"/>
+    <n v="34.85"/>
+    <n v="34.85"/>
+    <n v="34.67"/>
+    <n v="31"/>
+    <n v="1010"/>
+    <n v="3.84"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <s v="10:39:23"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="31.67"/>
+    <n v="31.67"/>
+    <n v="31.67"/>
+    <n v="34.72"/>
+    <n v="54"/>
+    <n v="1010"/>
+    <n v="9.44"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <s v="10:39:23"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="31.28"/>
+    <n v="31.28"/>
+    <n v="31.28"/>
+    <n v="33.74"/>
+    <n v="53"/>
+    <n v="1010"/>
+    <n v="9.3000000000000007"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="11:43:11"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="31.07"/>
+    <n v="29.01"/>
+    <n v="31.07"/>
+    <n v="32.94"/>
+    <n v="51"/>
+    <n v="1010"/>
+    <n v="10.29"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="11:43:11"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="35.64"/>
+    <n v="35.64"/>
+    <n v="35.64"/>
+    <n v="35.85"/>
+    <n v="31"/>
+    <n v="1009"/>
+    <n v="3.66"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="11:43:11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="30.31"/>
+    <n v="30.31"/>
+    <n v="30.31"/>
+    <n v="33.01"/>
+    <n v="58"/>
+    <n v="1009"/>
+    <n v="7.64"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="11:43:11"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="30.95"/>
+    <n v="30.95"/>
+    <n v="30.95"/>
+    <n v="33.57"/>
+    <n v="55"/>
+    <n v="1009"/>
+    <n v="8.09"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="10:14:58"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="31.07"/>
+    <n v="29.01"/>
+    <n v="31.07"/>
+    <n v="33.799999999999997"/>
+    <n v="55"/>
+    <n v="1012"/>
+    <n v="10.29"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="10:14:58"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="33.32"/>
+    <n v="33.32"/>
+    <n v="33.32"/>
+    <n v="34.53"/>
+    <n v="41"/>
+    <n v="1011"/>
+    <n v="3.81"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="10:14:58"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="31.61"/>
+    <n v="31.61"/>
+    <n v="31.61"/>
+    <n v="35.36"/>
+    <n v="57"/>
+    <n v="1010"/>
+    <n v="8.36"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="10:14:58"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="31.8"/>
+    <n v="31.8"/>
+    <n v="31.8"/>
+    <n v="35.229999999999997"/>
+    <n v="55"/>
+    <n v="1011"/>
+    <n v="8.51"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{355902A7-19BB-4E94-90A7-509D567609DB}" name="Humidade do Ar Durante o Tempo/Mês" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="AE4:AF14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="41">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item m="1" x="37"/>
-        <item m="1" x="39"/>
-        <item m="1" x="38"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="5" item="2" hier="-1"/>
-    <pageField fld="2" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Humidade do ar" fld="11" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="75">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo/Ano" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="J4:K8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo/Ano" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
+  <location ref="P4:Q8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -32172,7 +32609,138 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Humidade do ar" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="15">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="5">
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo/Ano" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="G4:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -32202,15 +32770,15 @@
     <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Média de Sensação térmica" fld="10" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Média de Teperatura" fld="7" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="85">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="1">
-    <chartFormat chart="5" format="2" series="1">
+    <chartFormat chart="8" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -32233,7 +32801,233 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8687F29-7BF0-4B13-9580-DBFA52DDFB57}" name="Velocidade Med. do Vento por Cidade" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo/Ano" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="M4:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Velocidade do vento" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="25">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{434E6F7F-28D8-48B2-8CB8-FD458010A756}" name="Temperatura média/Dias da semana" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="AH3:AI11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Teperatura" fld="7" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="27">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8687F29-7BF0-4B13-9580-DBFA52DDFB57}" name="Velocidade Med. do Vento por Cidade" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A22:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -32374,536 +33168,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo/Ano" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="M4:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Velocidade do vento" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="86">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D95D078A-F6C5-44EF-8CD9-8716C170723C}" name="Humidade do Ar Durante o Tempo/Ano" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
-  <location ref="P4:Q8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Humidade do ar" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="87">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="5">
-    <chartFormat chart="15" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="18" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Ano" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="D4:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Contagem de Status" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="7" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF0DFAF6-3F45-4EDE-9266-67A7408E79B7}" name="Temperatura Durante o Tempo/Mês" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="V4:W14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="41">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item m="1" x="37"/>
-        <item m="1" x="39"/>
-        <item m="1" x="38"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="5" item="2" hier="-1"/>
-    <pageField fld="2" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Teperatura" fld="7" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="89">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="88">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Sesação Térmica Média por Cidade" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B484ACF7-C25A-48C9-BF76-15F6636A2809}" name="Sesação Térmica Média por Cidade" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A8:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -32956,7 +33222,7 @@
     <dataField name="Média de Sensação térmica" fld="10" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="76">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -33088,838 +33354,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEEE37FA-BC9B-476A-96E3-97C4622AED4A}" name="Temperatura Durante o Tempo/Ano" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="G4:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="5" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Teperatura" fld="7" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="77">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="8" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73417F1E-96F7-40C9-B1C2-B4C65BF47A85}" name="Velocidadde Vento Durante o Tempo/Mês" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="AB4:AC14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="41">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item m="1" x="37"/>
-        <item m="1" x="39"/>
-        <item m="1" x="38"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="5" item="2" hier="-1"/>
-    <pageField fld="2" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Velocidade do vento" fld="13" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="78">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Média de Humidade do ar" fld="11" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="79">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="10">
-    <chartFormat chart="1" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{434E6F7F-28D8-48B2-8CB8-FD458010A756}" name="Temperatura média/Dias da semana" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="AH3:AI11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="6"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="5" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Teperatura" fld="7" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="81">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="80">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7D5761F-0B7A-4CF1-A078-BF5F18E7BA98}" name="Status do clima/Mês" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="S4:T9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="5" item="2" hier="-1"/>
-    <pageField fld="2" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Contagem de Status" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A336DE47-5A9E-4C94-A396-0A494E96DA05}" name="Sensação Térmica Durante o Tempo/Mês" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="Y4:Z14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="41">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item m="1" x="37"/>
-        <item m="1" x="39"/>
-        <item m="1" x="38"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="5" item="2" hier="-1"/>
-    <pageField fld="2" item="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Média de Sensação térmica" fld="10" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="83">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="82">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Temperatura Média por Cidade" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B2DF444-137A-4B80-9AD3-D03A104B5F35}" name="Temperatura Média por Cidade" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -33972,7 +33408,7 @@
     <dataField name="Média de Teperatura" fld="7" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="84">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -34218,6 +33654,1206 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF0DFAF6-3F45-4EDE-9266-67A7408E79B7}" name="Temperatura Durante o Tempo/Mês" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="V4:W17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="44">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item m="1" x="40"/>
+        <item m="1" x="42"/>
+        <item m="1" x="41"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="5" item="2" hier="-1"/>
+    <pageField fld="2" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Teperatura" fld="7" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="17">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7D5761F-0B7A-4CF1-A078-BF5F18E7BA98}" name="Status do clima/Mês" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="S4:T9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="5" item="2" hier="-1"/>
+    <pageField fld="2" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de Status" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7C0B02-010D-4146-8366-767132700BE5}" name="Humidade Média do Ar por Cidade" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A15:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Média de Humidade do ar" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="10">
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0C2669F-CE41-4E0F-9B56-D5AD52247E9D}" name="Sensação Térmica Durante o Tempo/Ano" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="J4:K8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Sensação térmica" fld="10" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{355902A7-19BB-4E94-90A7-509D567609DB}" name="Humidade do Ar Durante o Tempo/Mês" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="AE4:AF17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="44">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item m="1" x="40"/>
+        <item m="1" x="42"/>
+        <item m="1" x="41"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="5" item="2" hier="-1"/>
+    <pageField fld="2" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Humidade do ar" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="20">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{73417F1E-96F7-40C9-B1C2-B4C65BF47A85}" name="Velocidadde Vento Durante o Tempo/Mês" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="AB4:AC17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="44">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item m="1" x="40"/>
+        <item m="1" x="42"/>
+        <item m="1" x="41"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="5" item="2" hier="-1"/>
+    <pageField fld="2" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Velocidade do vento" fld="13" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="21">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{384F42E2-271E-43CA-97A0-D211D87CEEB8}" name="Status do clima/Ano" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="D4:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de Status" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="7" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A336DE47-5A9E-4C94-A396-0A494E96DA05}" name="Sensação Térmica Durante o Tempo/Mês" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="Y4:Z17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="44">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item m="1" x="40"/>
+        <item m="1" x="42"/>
+        <item m="1" x="41"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="5" item="2" hier="-1"/>
+    <pageField fld="2" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Sensação térmica" fld="10" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="23">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Cidade1" xr10:uid="{56041C7A-E755-493C-98FA-43971666E83C}" sourceName="Cidade">
   <pivotTables>
@@ -34275,49 +34911,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{176CFFAD-B1AB-414E-86D4-0DC90CEFBC34}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:N149" totalsRowShown="0" dataDxfId="104">
-  <autoFilter ref="A1:N149" xr:uid="{176CFFAD-B1AB-414E-86D4-0DC90CEFBC34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{176CFFAD-B1AB-414E-86D4-0DC90CEFBC34}" name="Monitoramento_Clima" displayName="Monitoramento_Clima" ref="A1:N161" totalsRowShown="0" dataDxfId="44">
+  <autoFilter ref="A1:N161" xr:uid="{176CFFAD-B1AB-414E-86D4-0DC90CEFBC34}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{11ACF023-89D5-42BA-9FD3-DBCFC4F929BF}" name="Data" dataDxfId="103">
+    <tableColumn id="1" xr3:uid="{11ACF023-89D5-42BA-9FD3-DBCFC4F929BF}" name="Data" dataDxfId="43">
       <calculatedColumnFormula>[1]Sheet1!$B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E5418865-90DC-4E8B-8654-0861CA20403A}" name="Ano" dataDxfId="102">
+    <tableColumn id="2" xr3:uid="{E5418865-90DC-4E8B-8654-0861CA20403A}" name="Ano" dataDxfId="42">
       <calculatedColumnFormula>[1]Sheet1!$C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B39C403D-EAD0-4EE7-89A7-B0951B368218}" name="Mês" dataDxfId="101">
+    <tableColumn id="3" xr3:uid="{B39C403D-EAD0-4EE7-89A7-B0951B368218}" name="Mês" dataDxfId="41">
       <calculatedColumnFormula>TEXT(Monitoramento_Clima[[#This Row],[Data]],"mmmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7F9FA746-7D14-483B-9338-3EB0227F6329}" name="Dia da semana" dataDxfId="100">
+    <tableColumn id="4" xr3:uid="{7F9FA746-7D14-483B-9338-3EB0227F6329}" name="Dia da semana" dataDxfId="40">
       <calculatedColumnFormula>[1]Sheet1!$E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{567E3E77-6D89-4BFD-A3F8-8EC18498758A}" name="Hora" dataDxfId="99">
+    <tableColumn id="5" xr3:uid="{567E3E77-6D89-4BFD-A3F8-8EC18498758A}" name="Hora" dataDxfId="39">
       <calculatedColumnFormula>[1]Sheet1!$F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E0A61D6C-701D-4224-AD98-050F45657887}" name="Cidade" dataDxfId="98">
+    <tableColumn id="6" xr3:uid="{E0A61D6C-701D-4224-AD98-050F45657887}" name="Cidade" dataDxfId="38">
       <calculatedColumnFormula>[1]Sheet1!$G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5FCF6667-80B8-4584-BB5C-ED93D68D5CD3}" name="Status" dataDxfId="97">
+    <tableColumn id="7" xr3:uid="{5FCF6667-80B8-4584-BB5C-ED93D68D5CD3}" name="Status" dataDxfId="37">
       <calculatedColumnFormula>[1]Sheet1!$H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{415CB777-EE5C-4B17-A681-2D5681A06FDA}" name="Teperatura" dataDxfId="96">
+    <tableColumn id="8" xr3:uid="{415CB777-EE5C-4B17-A681-2D5681A06FDA}" name="Teperatura" dataDxfId="36">
       <calculatedColumnFormula>[1]Sheet1!$I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{343A8AD9-9217-42BD-8CFD-35AA7AE5612E}" name="Temperatura mínima" dataDxfId="95">
+    <tableColumn id="9" xr3:uid="{343A8AD9-9217-42BD-8CFD-35AA7AE5612E}" name="Temperatura mínima" dataDxfId="35">
       <calculatedColumnFormula>[1]Sheet1!$J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{86126935-84D8-4FE1-8DE2-A55259273D92}" name="Temperatura máxima" dataDxfId="94" dataCellStyle="Porcentagem">
+    <tableColumn id="10" xr3:uid="{86126935-84D8-4FE1-8DE2-A55259273D92}" name="Temperatura máxima" dataDxfId="34" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[1]Sheet1!$K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A12D962A-87CC-4362-B3E8-319E865EAB38}" name="Sensação térmica" dataDxfId="93">
+    <tableColumn id="11" xr3:uid="{A12D962A-87CC-4362-B3E8-319E865EAB38}" name="Sensação térmica" dataDxfId="33">
       <calculatedColumnFormula>[1]Sheet1!$L2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A01257CD-9D32-4461-B53D-07FF9EA496F7}" name="Humidade do ar" dataDxfId="92">
+    <tableColumn id="12" xr3:uid="{A01257CD-9D32-4461-B53D-07FF9EA496F7}" name="Humidade do ar" dataDxfId="32">
       <calculatedColumnFormula>[1]Sheet1!$M2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{8B84BEDA-591F-4587-AD93-3F0E6554A51E}" name="Pressão atmosférica" dataDxfId="91">
+    <tableColumn id="13" xr3:uid="{8B84BEDA-591F-4587-AD93-3F0E6554A51E}" name="Pressão atmosférica" dataDxfId="31">
       <calculatedColumnFormula>[1]Sheet1!$N2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7175B9E9-870F-4D7E-BEC2-A2A1F7E89CBF}" name="Velocidade do vento" dataDxfId="90">
+    <tableColumn id="14" xr3:uid="{7175B9E9-870F-4D7E-BEC2-A2A1F7E89CBF}" name="Velocidade do vento" dataDxfId="30">
       <calculatedColumnFormula>[1]Sheet1!$O2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -37060,9 +37696,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N159"/>
+  <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A131" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
@@ -45484,7 +46120,7 @@
         <f>[1]Sheet1!$B146</f>
         <v>15/11/2024</v>
       </c>
-      <c r="B146" s="12" t="str">
+      <c r="B146" s="12">
         <f>[1]Sheet1!$C146</f>
         <v>2024</v>
       </c>
@@ -45542,7 +46178,7 @@
         <f>[1]Sheet1!$B147</f>
         <v>15/11/2024</v>
       </c>
-      <c r="B147" s="12" t="str">
+      <c r="B147" s="12">
         <f>[1]Sheet1!$C147</f>
         <v>2024</v>
       </c>
@@ -45600,7 +46236,7 @@
         <f>[1]Sheet1!$B148</f>
         <v>15/11/2024</v>
       </c>
-      <c r="B148" s="12" t="str">
+      <c r="B148" s="12">
         <f>[1]Sheet1!$C148</f>
         <v>2024</v>
       </c>
@@ -45658,7 +46294,7 @@
         <f>[1]Sheet1!$B149</f>
         <v>15/11/2024</v>
       </c>
-      <c r="B149" s="12" t="str">
+      <c r="B149" s="12">
         <f>[1]Sheet1!$C149</f>
         <v>2024</v>
       </c>
@@ -45712,152 +46348,700 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="7"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="13"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="9"/>
+      <c r="A150" s="10" t="str">
+        <f>[1]Sheet1!$B150</f>
+        <v>16/11/2024</v>
+      </c>
+      <c r="B150" s="12">
+        <f>[1]Sheet1!$C150</f>
+        <v>2024</v>
+      </c>
+      <c r="C150" s="12" t="str">
+        <f>TEXT(Monitoramento_Clima[[#This Row],[Data]],"mmmm")</f>
+        <v>novembro</v>
+      </c>
+      <c r="D150" s="12" t="str">
+        <f>[1]Sheet1!$E150</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="E150" s="12" t="str">
+        <f>[1]Sheet1!$F150</f>
+        <v>10:39:23</v>
+      </c>
+      <c r="F150" s="4" t="str">
+        <f>[1]Sheet1!$G150</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="G150" s="4" t="str">
+        <f>[1]Sheet1!$H150</f>
+        <v>nublado</v>
+      </c>
+      <c r="H150" s="4">
+        <f>[1]Sheet1!$I150</f>
+        <v>30.07</v>
+      </c>
+      <c r="I150" s="4">
+        <f>[1]Sheet1!$J150</f>
+        <v>27.9</v>
+      </c>
+      <c r="J150" s="7">
+        <f>[1]Sheet1!$K150</f>
+        <v>30.07</v>
+      </c>
+      <c r="K150" s="12">
+        <f>[1]Sheet1!$L150</f>
+        <v>32.57</v>
+      </c>
+      <c r="L150" s="13">
+        <f>[1]Sheet1!$M150</f>
+        <v>58</v>
+      </c>
+      <c r="M150" s="1">
+        <f>[1]Sheet1!$N150</f>
+        <v>1012</v>
+      </c>
+      <c r="N150" s="9">
+        <f>[1]Sheet1!$O150</f>
+        <v>8.23</v>
+      </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="7"/>
-      <c r="K151" s="12"/>
-      <c r="L151" s="13"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="9"/>
+      <c r="A151" s="10" t="str">
+        <f>[1]Sheet1!$B151</f>
+        <v>16/11/2024</v>
+      </c>
+      <c r="B151" s="12">
+        <f>[1]Sheet1!$C151</f>
+        <v>2024</v>
+      </c>
+      <c r="C151" s="12" t="str">
+        <f>TEXT(Monitoramento_Clima[[#This Row],[Data]],"mmmm")</f>
+        <v>novembro</v>
+      </c>
+      <c r="D151" s="12" t="str">
+        <f>[1]Sheet1!$E151</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="E151" s="12" t="str">
+        <f>[1]Sheet1!$F151</f>
+        <v>10:39:23</v>
+      </c>
+      <c r="F151" s="4" t="str">
+        <f>[1]Sheet1!$G151</f>
+        <v>Sobral</v>
+      </c>
+      <c r="G151" s="4" t="str">
+        <f>[1]Sheet1!$H151</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="H151" s="4">
+        <f>[1]Sheet1!$I151</f>
+        <v>34.85</v>
+      </c>
+      <c r="I151" s="4">
+        <f>[1]Sheet1!$J151</f>
+        <v>34.85</v>
+      </c>
+      <c r="J151" s="7">
+        <f>[1]Sheet1!$K151</f>
+        <v>34.85</v>
+      </c>
+      <c r="K151" s="12">
+        <f>[1]Sheet1!$L151</f>
+        <v>34.67</v>
+      </c>
+      <c r="L151" s="13">
+        <f>[1]Sheet1!$M151</f>
+        <v>31</v>
+      </c>
+      <c r="M151" s="1">
+        <f>[1]Sheet1!$N151</f>
+        <v>1010</v>
+      </c>
+      <c r="N151" s="9">
+        <f>[1]Sheet1!$O151</f>
+        <v>3.84</v>
+      </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="7"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="13"/>
-      <c r="M152" s="1"/>
-      <c r="N152" s="9"/>
+      <c r="A152" s="10" t="str">
+        <f>[1]Sheet1!$B152</f>
+        <v>16/11/2024</v>
+      </c>
+      <c r="B152" s="12">
+        <f>[1]Sheet1!$C152</f>
+        <v>2024</v>
+      </c>
+      <c r="C152" s="12" t="str">
+        <f>TEXT(Monitoramento_Clima[[#This Row],[Data]],"mmmm")</f>
+        <v>novembro</v>
+      </c>
+      <c r="D152" s="12" t="str">
+        <f>[1]Sheet1!$E152</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="E152" s="12" t="str">
+        <f>[1]Sheet1!$F152</f>
+        <v>10:39:23</v>
+      </c>
+      <c r="F152" s="4" t="str">
+        <f>[1]Sheet1!$G152</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="G152" s="4" t="str">
+        <f>[1]Sheet1!$H152</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="H152" s="4">
+        <f>[1]Sheet1!$I152</f>
+        <v>31.67</v>
+      </c>
+      <c r="I152" s="4">
+        <f>[1]Sheet1!$J152</f>
+        <v>31.67</v>
+      </c>
+      <c r="J152" s="7">
+        <f>[1]Sheet1!$K152</f>
+        <v>31.67</v>
+      </c>
+      <c r="K152" s="12">
+        <f>[1]Sheet1!$L152</f>
+        <v>34.72</v>
+      </c>
+      <c r="L152" s="13">
+        <f>[1]Sheet1!$M152</f>
+        <v>54</v>
+      </c>
+      <c r="M152" s="1">
+        <f>[1]Sheet1!$N152</f>
+        <v>1010</v>
+      </c>
+      <c r="N152" s="9">
+        <f>[1]Sheet1!$O152</f>
+        <v>9.44</v>
+      </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="7"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="13"/>
-      <c r="M153" s="1"/>
-      <c r="N153" s="9"/>
+      <c r="A153" s="10" t="str">
+        <f>[1]Sheet1!$B153</f>
+        <v>16/11/2024</v>
+      </c>
+      <c r="B153" s="12">
+        <f>[1]Sheet1!$C153</f>
+        <v>2024</v>
+      </c>
+      <c r="C153" s="12" t="str">
+        <f>TEXT(Monitoramento_Clima[[#This Row],[Data]],"mmmm")</f>
+        <v>novembro</v>
+      </c>
+      <c r="D153" s="12" t="str">
+        <f>[1]Sheet1!$E153</f>
+        <v>sÃ¡b</v>
+      </c>
+      <c r="E153" s="12" t="str">
+        <f>[1]Sheet1!$F153</f>
+        <v>10:39:23</v>
+      </c>
+      <c r="F153" s="4" t="str">
+        <f>[1]Sheet1!$G153</f>
+        <v>Itarema</v>
+      </c>
+      <c r="G153" s="4" t="str">
+        <f>[1]Sheet1!$H153</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="H153" s="4">
+        <f>[1]Sheet1!$I153</f>
+        <v>31.28</v>
+      </c>
+      <c r="I153" s="4">
+        <f>[1]Sheet1!$J153</f>
+        <v>31.28</v>
+      </c>
+      <c r="J153" s="7">
+        <f>[1]Sheet1!$K153</f>
+        <v>31.28</v>
+      </c>
+      <c r="K153" s="12">
+        <f>[1]Sheet1!$L153</f>
+        <v>33.74</v>
+      </c>
+      <c r="L153" s="13">
+        <f>[1]Sheet1!$M153</f>
+        <v>53</v>
+      </c>
+      <c r="M153" s="1">
+        <f>[1]Sheet1!$N153</f>
+        <v>1010</v>
+      </c>
+      <c r="N153" s="9">
+        <f>[1]Sheet1!$O153</f>
+        <v>9.3000000000000007</v>
+      </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="7"/>
-      <c r="K154" s="12"/>
-      <c r="L154" s="9"/>
+      <c r="A154" s="10" t="str">
+        <f>[1]Sheet1!$B154</f>
+        <v>17/11/2024</v>
+      </c>
+      <c r="B154" s="12">
+        <f>[1]Sheet1!$C154</f>
+        <v>2024</v>
+      </c>
+      <c r="C154" s="12" t="str">
+        <f>TEXT(Monitoramento_Clima[[#This Row],[Data]],"mmmm")</f>
+        <v>novembro</v>
+      </c>
+      <c r="D154" s="12" t="str">
+        <f>[1]Sheet1!$E154</f>
+        <v>dom</v>
+      </c>
+      <c r="E154" s="12" t="str">
+        <f>[1]Sheet1!$F154</f>
+        <v>11:43:11</v>
+      </c>
+      <c r="F154" s="4" t="str">
+        <f>[1]Sheet1!$G154</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="G154" s="4" t="str">
+        <f>[1]Sheet1!$H154</f>
+        <v>nuvens dispersas</v>
+      </c>
+      <c r="H154" s="4">
+        <f>[1]Sheet1!$I154</f>
+        <v>31.07</v>
+      </c>
+      <c r="I154" s="4">
+        <f>[1]Sheet1!$J154</f>
+        <v>29.01</v>
+      </c>
+      <c r="J154" s="7">
+        <f>[1]Sheet1!$K154</f>
+        <v>31.07</v>
+      </c>
+      <c r="K154" s="12">
+        <f>[1]Sheet1!$L154</f>
+        <v>32.94</v>
+      </c>
+      <c r="L154" s="9">
+        <f>[1]Sheet1!$M154</f>
+        <v>51</v>
+      </c>
+      <c r="M154" s="1">
+        <f>[1]Sheet1!$N154</f>
+        <v>1010</v>
+      </c>
+      <c r="N154" s="1">
+        <f>[1]Sheet1!$O154</f>
+        <v>10.29</v>
+      </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="7"/>
-      <c r="K155" s="12"/>
-      <c r="L155" s="9"/>
+      <c r="A155" s="10" t="str">
+        <f>[1]Sheet1!$B155</f>
+        <v>17/11/2024</v>
+      </c>
+      <c r="B155" s="12">
+        <f>[1]Sheet1!$C155</f>
+        <v>2024</v>
+      </c>
+      <c r="C155" s="12" t="str">
+        <f>TEXT(Monitoramento_Clima[[#This Row],[Data]],"mmmm")</f>
+        <v>novembro</v>
+      </c>
+      <c r="D155" s="12" t="str">
+        <f>[1]Sheet1!$E155</f>
+        <v>dom</v>
+      </c>
+      <c r="E155" s="12" t="str">
+        <f>[1]Sheet1!$F155</f>
+        <v>11:43:11</v>
+      </c>
+      <c r="F155" s="4" t="str">
+        <f>[1]Sheet1!$G155</f>
+        <v>Sobral</v>
+      </c>
+      <c r="G155" s="4" t="str">
+        <f>[1]Sheet1!$H155</f>
+        <v>nublado</v>
+      </c>
+      <c r="H155" s="4">
+        <f>[1]Sheet1!$I155</f>
+        <v>35.64</v>
+      </c>
+      <c r="I155" s="4">
+        <f>[1]Sheet1!$J155</f>
+        <v>35.64</v>
+      </c>
+      <c r="J155" s="7">
+        <f>[1]Sheet1!$K155</f>
+        <v>35.64</v>
+      </c>
+      <c r="K155" s="12">
+        <f>[1]Sheet1!$L155</f>
+        <v>35.85</v>
+      </c>
+      <c r="L155" s="9">
+        <f>[1]Sheet1!$M155</f>
+        <v>31</v>
+      </c>
+      <c r="M155" s="1">
+        <f>[1]Sheet1!$N155</f>
+        <v>1009</v>
+      </c>
+      <c r="N155" s="1">
+        <f>[1]Sheet1!$O155</f>
+        <v>3.66</v>
+      </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="7"/>
-      <c r="K156" s="12"/>
-      <c r="L156" s="9"/>
+      <c r="A156" s="10" t="str">
+        <f>[1]Sheet1!$B156</f>
+        <v>17/11/2024</v>
+      </c>
+      <c r="B156" s="12">
+        <f>[1]Sheet1!$C156</f>
+        <v>2024</v>
+      </c>
+      <c r="C156" s="12" t="str">
+        <f>TEXT(Monitoramento_Clima[[#This Row],[Data]],"mmmm")</f>
+        <v>novembro</v>
+      </c>
+      <c r="D156" s="12" t="str">
+        <f>[1]Sheet1!$E156</f>
+        <v>dom</v>
+      </c>
+      <c r="E156" s="12" t="str">
+        <f>[1]Sheet1!$F156</f>
+        <v>11:43:11</v>
+      </c>
+      <c r="F156" s="4" t="str">
+        <f>[1]Sheet1!$G156</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="G156" s="4" t="str">
+        <f>[1]Sheet1!$H156</f>
+        <v>nublado</v>
+      </c>
+      <c r="H156" s="4">
+        <f>[1]Sheet1!$I156</f>
+        <v>30.31</v>
+      </c>
+      <c r="I156" s="4">
+        <f>[1]Sheet1!$J156</f>
+        <v>30.31</v>
+      </c>
+      <c r="J156" s="7">
+        <f>[1]Sheet1!$K156</f>
+        <v>30.31</v>
+      </c>
+      <c r="K156" s="12">
+        <f>[1]Sheet1!$L156</f>
+        <v>33.01</v>
+      </c>
+      <c r="L156" s="9">
+        <f>[1]Sheet1!$M156</f>
+        <v>58</v>
+      </c>
+      <c r="M156" s="1">
+        <f>[1]Sheet1!$N156</f>
+        <v>1009</v>
+      </c>
+      <c r="N156" s="1">
+        <f>[1]Sheet1!$O156</f>
+        <v>7.64</v>
+      </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="7"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="9"/>
+      <c r="A157" s="10" t="str">
+        <f>[1]Sheet1!$B157</f>
+        <v>17/11/2024</v>
+      </c>
+      <c r="B157" s="12">
+        <f>[1]Sheet1!$C157</f>
+        <v>2024</v>
+      </c>
+      <c r="C157" s="12" t="str">
+        <f>TEXT(Monitoramento_Clima[[#This Row],[Data]],"mmmm")</f>
+        <v>novembro</v>
+      </c>
+      <c r="D157" s="12" t="str">
+        <f>[1]Sheet1!$E157</f>
+        <v>dom</v>
+      </c>
+      <c r="E157" s="12" t="str">
+        <f>[1]Sheet1!$F157</f>
+        <v>11:43:11</v>
+      </c>
+      <c r="F157" s="4" t="str">
+        <f>[1]Sheet1!$G157</f>
+        <v>Itarema</v>
+      </c>
+      <c r="G157" s="4" t="str">
+        <f>[1]Sheet1!$H157</f>
+        <v>nublado</v>
+      </c>
+      <c r="H157" s="4">
+        <f>[1]Sheet1!$I157</f>
+        <v>30.95</v>
+      </c>
+      <c r="I157" s="4">
+        <f>[1]Sheet1!$J157</f>
+        <v>30.95</v>
+      </c>
+      <c r="J157" s="7">
+        <f>[1]Sheet1!$K157</f>
+        <v>30.95</v>
+      </c>
+      <c r="K157" s="12">
+        <f>[1]Sheet1!$L157</f>
+        <v>33.57</v>
+      </c>
+      <c r="L157" s="9">
+        <f>[1]Sheet1!$M157</f>
+        <v>55</v>
+      </c>
+      <c r="M157" s="1">
+        <f>[1]Sheet1!$N157</f>
+        <v>1009</v>
+      </c>
+      <c r="N157" s="1">
+        <f>[1]Sheet1!$O157</f>
+        <v>8.09</v>
+      </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
-      <c r="I158" s="4"/>
-      <c r="J158" s="7"/>
-      <c r="K158" s="12"/>
-      <c r="L158" s="9"/>
+      <c r="A158" s="10" t="str">
+        <f>[1]Sheet1!$B158</f>
+        <v>18/11/2024</v>
+      </c>
+      <c r="B158" s="12" t="str">
+        <f>[1]Sheet1!$C158</f>
+        <v>2024</v>
+      </c>
+      <c r="C158" s="12" t="str">
+        <f>TEXT(Monitoramento_Clima[[#This Row],[Data]],"mmmm")</f>
+        <v>novembro</v>
+      </c>
+      <c r="D158" s="12" t="str">
+        <f>[1]Sheet1!$E158</f>
+        <v>seg</v>
+      </c>
+      <c r="E158" s="12" t="str">
+        <f>[1]Sheet1!$F158</f>
+        <v>10:14:58</v>
+      </c>
+      <c r="F158" s="4" t="str">
+        <f>[1]Sheet1!$G158</f>
+        <v>Fortaleza</v>
+      </c>
+      <c r="G158" s="4" t="str">
+        <f>[1]Sheet1!$H158</f>
+        <v>nublado</v>
+      </c>
+      <c r="H158" s="4">
+        <f>[1]Sheet1!$I158</f>
+        <v>31.07</v>
+      </c>
+      <c r="I158" s="4">
+        <f>[1]Sheet1!$J158</f>
+        <v>29.01</v>
+      </c>
+      <c r="J158" s="7">
+        <f>[1]Sheet1!$K158</f>
+        <v>31.07</v>
+      </c>
+      <c r="K158" s="12">
+        <f>[1]Sheet1!$L158</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="L158" s="9">
+        <f>[1]Sheet1!$M158</f>
+        <v>55</v>
+      </c>
+      <c r="M158" s="1">
+        <f>[1]Sheet1!$N158</f>
+        <v>1012</v>
+      </c>
+      <c r="N158" s="1">
+        <f>[1]Sheet1!$O158</f>
+        <v>10.29</v>
+      </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
-      <c r="I159" s="4"/>
-      <c r="J159" s="7"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="9"/>
+      <c r="A159" s="10" t="str">
+        <f>[1]Sheet1!$B159</f>
+        <v>18/11/2024</v>
+      </c>
+      <c r="B159" s="12" t="str">
+        <f>[1]Sheet1!$C159</f>
+        <v>2024</v>
+      </c>
+      <c r="C159" s="12" t="str">
+        <f>TEXT(Monitoramento_Clima[[#This Row],[Data]],"mmmm")</f>
+        <v>novembro</v>
+      </c>
+      <c r="D159" s="12" t="str">
+        <f>[1]Sheet1!$E159</f>
+        <v>seg</v>
+      </c>
+      <c r="E159" s="12" t="str">
+        <f>[1]Sheet1!$F159</f>
+        <v>10:14:58</v>
+      </c>
+      <c r="F159" s="4" t="str">
+        <f>[1]Sheet1!$G159</f>
+        <v>Sobral</v>
+      </c>
+      <c r="G159" s="4" t="str">
+        <f>[1]Sheet1!$H159</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="H159" s="4">
+        <f>[1]Sheet1!$I159</f>
+        <v>33.32</v>
+      </c>
+      <c r="I159" s="4">
+        <f>[1]Sheet1!$J159</f>
+        <v>33.32</v>
+      </c>
+      <c r="J159" s="7">
+        <f>[1]Sheet1!$K159</f>
+        <v>33.32</v>
+      </c>
+      <c r="K159" s="12">
+        <f>[1]Sheet1!$L159</f>
+        <v>34.53</v>
+      </c>
+      <c r="L159" s="9">
+        <f>[1]Sheet1!$M159</f>
+        <v>41</v>
+      </c>
+      <c r="M159" s="1">
+        <f>[1]Sheet1!$N159</f>
+        <v>1011</v>
+      </c>
+      <c r="N159" s="1">
+        <f>[1]Sheet1!$O159</f>
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="10" t="str">
+        <f>[1]Sheet1!$B160</f>
+        <v>18/11/2024</v>
+      </c>
+      <c r="B160" s="12" t="str">
+        <f>[1]Sheet1!$C160</f>
+        <v>2024</v>
+      </c>
+      <c r="C160" s="12" t="str">
+        <f>TEXT(Monitoramento_Clima[[#This Row],[Data]],"mmmm")</f>
+        <v>novembro</v>
+      </c>
+      <c r="D160" s="12" t="str">
+        <f>[1]Sheet1!$E160</f>
+        <v>seg</v>
+      </c>
+      <c r="E160" s="12" t="str">
+        <f>[1]Sheet1!$F160</f>
+        <v>10:14:58</v>
+      </c>
+      <c r="F160" s="4" t="str">
+        <f>[1]Sheet1!$G160</f>
+        <v>Acaraú</v>
+      </c>
+      <c r="G160" s="4" t="str">
+        <f>[1]Sheet1!$H160</f>
+        <v>céu limpo</v>
+      </c>
+      <c r="H160" s="4">
+        <f>[1]Sheet1!$I160</f>
+        <v>31.61</v>
+      </c>
+      <c r="I160" s="4">
+        <f>[1]Sheet1!$J160</f>
+        <v>31.61</v>
+      </c>
+      <c r="J160" s="7">
+        <f>[1]Sheet1!$K160</f>
+        <v>31.61</v>
+      </c>
+      <c r="K160" s="12">
+        <f>[1]Sheet1!$L160</f>
+        <v>35.36</v>
+      </c>
+      <c r="L160" s="9">
+        <f>[1]Sheet1!$M160</f>
+        <v>57</v>
+      </c>
+      <c r="M160" s="1">
+        <f>[1]Sheet1!$N160</f>
+        <v>1010</v>
+      </c>
+      <c r="N160" s="1">
+        <f>[1]Sheet1!$O160</f>
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="str">
+        <f>[1]Sheet1!$B161</f>
+        <v>18/11/2024</v>
+      </c>
+      <c r="B161" s="12" t="str">
+        <f>[1]Sheet1!$C161</f>
+        <v>2024</v>
+      </c>
+      <c r="C161" s="12" t="str">
+        <f>TEXT(Monitoramento_Clima[[#This Row],[Data]],"mmmm")</f>
+        <v>novembro</v>
+      </c>
+      <c r="D161" s="12" t="str">
+        <f>[1]Sheet1!$E161</f>
+        <v>seg</v>
+      </c>
+      <c r="E161" s="12" t="str">
+        <f>[1]Sheet1!$F161</f>
+        <v>10:14:58</v>
+      </c>
+      <c r="F161" s="4" t="str">
+        <f>[1]Sheet1!$G161</f>
+        <v>Itarema</v>
+      </c>
+      <c r="G161" s="4" t="str">
+        <f>[1]Sheet1!$H161</f>
+        <v>algumas nuvens</v>
+      </c>
+      <c r="H161" s="4">
+        <f>[1]Sheet1!$I161</f>
+        <v>31.8</v>
+      </c>
+      <c r="I161" s="4">
+        <f>[1]Sheet1!$J161</f>
+        <v>31.8</v>
+      </c>
+      <c r="J161" s="7">
+        <f>[1]Sheet1!$K161</f>
+        <v>31.8</v>
+      </c>
+      <c r="K161" s="12">
+        <f>[1]Sheet1!$L161</f>
+        <v>35.229999999999997</v>
+      </c>
+      <c r="L161" s="9">
+        <f>[1]Sheet1!$M161</f>
+        <v>55</v>
+      </c>
+      <c r="M161" s="1">
+        <f>[1]Sheet1!$N161</f>
+        <v>1011</v>
+      </c>
+      <c r="N161" s="1">
+        <f>[1]Sheet1!$O161</f>
+        <v>8.51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -45872,7 +47056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5901B3E-A3E8-4B5E-9369-35A4919B8B84}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I66" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
@@ -45899,7 +47083,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
@@ -46012,7 +47196,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="5">
-        <v>30.08405405405405</v>
+        <v>30.167499999999997</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -46080,7 +47264,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="5">
-        <v>30.128648648648653</v>
+        <v>30.174250000000001</v>
       </c>
       <c r="AH3" s="2" t="s">
         <v>12</v>
@@ -46094,7 +47278,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>29.798108108108114</v>
+        <v>29.914000000000005</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -46160,7 +47344,7 @@
         <v>33</v>
       </c>
       <c r="AI4" s="5">
-        <v>29.594999999999999</v>
+        <v>30.046666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -46168,13 +47352,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="5">
-        <v>36.379459459459468</v>
+        <v>36.246250000000011</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>29</v>
@@ -46192,7 +47376,7 @@
         <v>29</v>
       </c>
       <c r="N5" s="8">
-        <v>9.2841176470588227</v>
+        <v>9.2841176470588263</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>29</v>
@@ -46204,7 +47388,7 @@
         <v>24</v>
       </c>
       <c r="T5" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V5" s="11">
         <v>45597</v>
@@ -46234,7 +47418,7 @@
         <v>34</v>
       </c>
       <c r="AI5" s="5">
-        <v>29.52375</v>
+        <v>29.776666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -46242,13 +47426,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="5">
-        <v>31.597567567567559</v>
+        <v>31.625499999999999</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>30</v>
@@ -46278,7 +47462,7 @@
         <v>21</v>
       </c>
       <c r="T6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6" s="11">
         <v>45601</v>
@@ -46316,37 +47500,37 @@
         <v>25</v>
       </c>
       <c r="E7" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="5">
-        <v>29.952222222222229</v>
+        <v>30.299999999999997</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="5">
-        <v>32.020000000000003</v>
+        <v>32.559999999999995</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="8">
-        <v>7.5355555555555549</v>
+        <v>7.81</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>31</v>
       </c>
       <c r="Q7" s="8">
-        <v>56.444444444444443</v>
+        <v>55.916666666666664</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="T7" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V7" s="11">
         <v>45603</v>
@@ -46396,25 +47580,25 @@
         <v>17</v>
       </c>
       <c r="H8" s="5">
-        <v>29.798108108108114</v>
+        <v>29.914000000000005</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="5">
-        <v>31.769459459459455</v>
+        <v>31.950250000000004</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="N8" s="8">
-        <v>8.5191891891891878</v>
+        <v>8.5277500000000011</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="8">
-        <v>56.783783783783782</v>
+        <v>56.6</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>26</v>
@@ -46458,19 +47642,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="5">
-        <v>32.382432432432431</v>
+        <v>32.530999999999992</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T9" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V9" s="11">
         <v>45607</v>
@@ -46508,7 +47692,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="5">
-        <v>34.425405405405414</v>
+        <v>34.326250000000002</v>
       </c>
       <c r="V10" s="11">
         <v>45608</v>
@@ -46538,7 +47722,7 @@
         <v>39</v>
       </c>
       <c r="AI10" s="5">
-        <v>31.326666666666668</v>
+        <v>31.315000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -46546,7 +47730,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="5">
-        <v>31.769459459459473</v>
+        <v>31.950250000000011</v>
       </c>
       <c r="V11" s="11">
         <v>45609</v>
@@ -46576,7 +47760,7 @@
         <v>17</v>
       </c>
       <c r="AI11" s="5">
-        <v>29.798108108108107</v>
+        <v>29.913999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -46584,7 +47768,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="5">
-        <v>35.920270270270265</v>
+        <v>35.852499999999992</v>
       </c>
       <c r="V12" s="11">
         <v>45610</v>
@@ -46616,7 +47800,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="5">
-        <v>33.624391891891918</v>
+        <v>33.665000000000035</v>
       </c>
       <c r="V13" s="11" t="s">
         <v>40</v>
@@ -46645,28 +47829,28 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="V14" s="11" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="W14" s="5">
-        <v>29.952222222222222</v>
+        <v>31.28</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="Z14" s="5">
-        <v>32.020000000000003</v>
+        <v>33.74</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC14" s="8">
-        <v>7.5355555555555567</v>
+        <v>41</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>9.3000000000000007</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF14" s="8">
-        <v>56.444444444444443</v>
+        <v>41</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
@@ -46676,48 +47860,120 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
+      <c r="V15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15" s="5">
+        <v>30.95</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>33.57</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>8.09</v>
+      </c>
+      <c r="AE15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="6">
-        <v>57.324324324324323</v>
+        <v>57.25</v>
+      </c>
+      <c r="V16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" s="5">
+        <v>31.8</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>35.229999999999997</v>
+      </c>
+      <c r="AB16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>8.51</v>
+      </c>
+      <c r="AE16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>69.702702702702709</v>
+        <v>68.575000000000003</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W17" s="5">
+        <v>30.3</v>
+      </c>
+      <c r="Y17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>32.56</v>
+      </c>
+      <c r="AB17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>7.8100000000000014</v>
+      </c>
+      <c r="AE17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF17" s="8">
+        <v>55.916666666666664</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="6">
-        <v>56.783783783783782</v>
+        <v>56.6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="6">
-        <v>26.810810810810811</v>
+        <v>27.375</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="6">
-        <v>52.655405405405403</v>
+        <v>52.45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -46725,44 +47981,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>9.1081081081081106</v>
+        <v>9.0610000000000035</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="6">
-        <v>8.2867567567567537</v>
+        <v>8.3854999999999986</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="6">
-        <v>8.5191891891891878</v>
+        <v>8.5277499999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="6">
-        <v>3.1283783783783776</v>
+        <v>3.1764999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="6">
-        <v>7.2606081081081104</v>
+        <v>7.2876875000000041</v>
       </c>
     </row>
   </sheetData>

--- a/Monitoramento_Clima.xlsx
+++ b/Monitoramento_Clima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Data_Science_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA126979-3B18-4C7A-9B51-6AFB1C478505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB8DCB3-F8E2-4ED3-91CC-E736A72DB537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="49">
   <si>
     <t>Data</t>
   </si>
@@ -188,6 +188,21 @@
   <si>
     <t>18/11/2024</t>
   </si>
+  <si>
+    <t>20/11/2024</t>
+  </si>
+  <si>
+    <t>21/11/2024</t>
+  </si>
+  <si>
+    <t>22/11/2024</t>
+  </si>
+  <si>
+    <t>25/11/2024</t>
+  </si>
+  <si>
+    <t>26/11/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -282,13 +297,16 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -303,10 +321,7 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -339,10 +354,7 @@
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -357,13 +369,16 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\°"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\°"/>
@@ -1193,16 +1208,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30.167499999999997</c:v>
+                  <c:v>30.161521739130432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.174250000000001</c:v>
+                  <c:v>30.204130434782602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.914000000000005</c:v>
+                  <c:v>29.978000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.246250000000011</c:v>
+                  <c:v>36.019782608695664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2090,13 +2105,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -2980,9 +2995,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$V$5:$V$17</c:f>
+              <c:f>'Tabelas dinâmicas'!$V$5:$V$22</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>01/11/2024</c:v>
                 </c:pt>
@@ -3019,15 +3034,30 @@
                 <c:pt idx="11">
                   <c:v>18/11/2024</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>20/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26/11/2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$W$5:$W$17</c:f>
+              <c:f>'Tabelas dinâmicas'!$W$5:$W$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>28.94</c:v>
                 </c:pt>
@@ -3063,6 +3093,21 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3960,9 +4005,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$Y$5:$Y$17</c:f>
+              <c:f>'Tabelas dinâmicas'!$Y$5:$Y$22</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>01/11/2024</c:v>
                 </c:pt>
@@ -3999,15 +4044,30 @@
                 <c:pt idx="11">
                   <c:v>18/11/2024</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>20/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26/11/2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$Z$5:$Z$17</c:f>
+              <c:f>'Tabelas dinâmicas'!$Z$5:$Z$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00\°</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>31.08</c:v>
                 </c:pt>
@@ -4043,6 +4103,21 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>35.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.93</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.229999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4940,9 +5015,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$AB$5:$AB$17</c:f>
+              <c:f>'Tabelas dinâmicas'!$AB$5:$AB$22</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>01/11/2024</c:v>
                 </c:pt>
@@ -4979,15 +5054,30 @@
                 <c:pt idx="11">
                   <c:v>18/11/2024</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>20/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26/11/2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$AC$5:$AC$17</c:f>
+              <c:f>'Tabelas dinâmicas'!$AC$5:$AC$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>8.0500000000000007</c:v>
                 </c:pt>
@@ -5023,6 +5113,21 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8.51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5920,9 +6025,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabelas dinâmicas'!$AE$5:$AE$17</c:f>
+              <c:f>'Tabelas dinâmicas'!$AE$5:$AE$22</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>01/11/2024</c:v>
                 </c:pt>
@@ -5959,15 +6064,30 @@
                 <c:pt idx="11">
                   <c:v>18/11/2024</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>20/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25/11/2024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26/11/2024</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabelas dinâmicas'!$AF$5:$AF$17</c:f>
+              <c:f>'Tabelas dinâmicas'!$AF$5:$AF$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>61</c:v>
                 </c:pt>
@@ -6003,6 +6123,21 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6954,19 +7089,19 @@
                   <c:v>30.046666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.776666666666667</c:v>
+                  <c:v>29.764999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.336666666666662</c:v>
+                  <c:v>30.482857142857142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.841428571428569</c:v>
+                  <c:v>29.973749999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.016666666666669</c:v>
+                  <c:v>29.281428571428574</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.631999999999998</c:v>
+                  <c:v>29.636666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>31.315000000000001</c:v>
@@ -8014,16 +8149,16 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>32.530999999999992</c:v>
+                  <c:v>32.547391304347819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.326250000000002</c:v>
+                  <c:v>34.253043478260878</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.950250000000011</c:v>
+                  <c:v>32.034000000000013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.852499999999992</c:v>
+                  <c:v>35.743913043478251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9079,16 +9214,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>57.25</c:v>
+                  <c:v>57.347826086956523</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.575000000000003</c:v>
+                  <c:v>67.543478260869563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.6</c:v>
+                  <c:v>56.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.375</c:v>
+                  <c:v>28.434782608695652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9839,16 +9974,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.0610000000000035</c:v>
+                  <c:v>8.8786956521739153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3854999999999986</c:v>
+                  <c:v>8.2534782608695654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5277499999999993</c:v>
+                  <c:v>8.415111111111111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1764999999999994</c:v>
+                  <c:v>3.1328260869565212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10621,7 +10756,7 @@
                   <c:v>29.879090909090909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.299999999999997</c:v>
+                  <c:v>30.355882352941173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11404,13 +11539,13 @@
                 <c:formatCode>0.00\°</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>31.319411764705887</c:v>
+                  <c:v>31.319411764705873</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>32.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.559999999999995</c:v>
+                  <c:v>32.602352941176477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12363,13 +12498,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -13295,13 +13430,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.2841176470588263</c:v>
+                  <c:v>9.2841176470588245</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.1418181818181825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.81</c:v>
+                  <c:v>7.722941176470588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14230,7 +14365,7 @@
                   <c:v>58.636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.916666666666664</c:v>
+                  <c:v>55.588235294117645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29717,7 +29852,7 @@
           <cell r="B158" t="str">
             <v>18/11/2024</v>
           </cell>
-          <cell r="C158" t="str">
+          <cell r="C158">
             <v>2024</v>
           </cell>
           <cell r="E158" t="str">
@@ -29758,7 +29893,7 @@
           <cell r="B159" t="str">
             <v>18/11/2024</v>
           </cell>
-          <cell r="C159" t="str">
+          <cell r="C159">
             <v>2024</v>
           </cell>
           <cell r="E159" t="str">
@@ -29799,7 +29934,7 @@
           <cell r="B160" t="str">
             <v>18/11/2024</v>
           </cell>
-          <cell r="C160" t="str">
+          <cell r="C160">
             <v>2024</v>
           </cell>
           <cell r="E160" t="str">
@@ -29840,7 +29975,7 @@
           <cell r="B161" t="str">
             <v>18/11/2024</v>
           </cell>
-          <cell r="C161" t="str">
+          <cell r="C161">
             <v>2024</v>
           </cell>
           <cell r="E161" t="str">
@@ -29875,6 +30010,949 @@
           </cell>
           <cell r="O161">
             <v>8.51</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162" t="str">
+            <v>20/11/2024</v>
+          </cell>
+          <cell r="C162">
+            <v>2024</v>
+          </cell>
+          <cell r="E162" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="F162" t="str">
+            <v>13:37:16</v>
+          </cell>
+          <cell r="G162" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="H162" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="I162">
+            <v>30.07</v>
+          </cell>
+          <cell r="J162">
+            <v>30.07</v>
+          </cell>
+          <cell r="K162">
+            <v>30.07</v>
+          </cell>
+          <cell r="L162">
+            <v>33.380000000000003</v>
+          </cell>
+          <cell r="M162">
+            <v>62</v>
+          </cell>
+          <cell r="N162">
+            <v>1010</v>
+          </cell>
+          <cell r="O162">
+            <v>8.23</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163" t="str">
+            <v>20/11/2024</v>
+          </cell>
+          <cell r="C163">
+            <v>2024</v>
+          </cell>
+          <cell r="E163" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="F163" t="str">
+            <v>13:37:16</v>
+          </cell>
+          <cell r="G163" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="H163" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="I163">
+            <v>36.729999999999997</v>
+          </cell>
+          <cell r="J163">
+            <v>36.729999999999997</v>
+          </cell>
+          <cell r="K163">
+            <v>36.729999999999997</v>
+          </cell>
+          <cell r="L163">
+            <v>37.04</v>
+          </cell>
+          <cell r="M163">
+            <v>29</v>
+          </cell>
+          <cell r="N163">
+            <v>1008</v>
+          </cell>
+          <cell r="O163">
+            <v>3.64</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164" t="str">
+            <v>20/11/2024</v>
+          </cell>
+          <cell r="C164">
+            <v>2024</v>
+          </cell>
+          <cell r="E164" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="F164" t="str">
+            <v>13:37:16</v>
+          </cell>
+          <cell r="G164" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="H164" t="str">
+            <v>céu limpo</v>
+          </cell>
+          <cell r="I164">
+            <v>31.3</v>
+          </cell>
+          <cell r="J164">
+            <v>31.3</v>
+          </cell>
+          <cell r="K164">
+            <v>31.3</v>
+          </cell>
+          <cell r="L164">
+            <v>34.72</v>
+          </cell>
+          <cell r="M164">
+            <v>57</v>
+          </cell>
+          <cell r="N164">
+            <v>1009</v>
+          </cell>
+          <cell r="O164">
+            <v>9.4</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165" t="str">
+            <v>20/11/2024</v>
+          </cell>
+          <cell r="C165">
+            <v>2024</v>
+          </cell>
+          <cell r="E165" t="str">
+            <v>qua</v>
+          </cell>
+          <cell r="F165" t="str">
+            <v>13:37:16</v>
+          </cell>
+          <cell r="G165" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="H165" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="I165">
+            <v>30.9</v>
+          </cell>
+          <cell r="J165">
+            <v>30.9</v>
+          </cell>
+          <cell r="K165">
+            <v>30.9</v>
+          </cell>
+          <cell r="L165">
+            <v>33.93</v>
+          </cell>
+          <cell r="M165">
+            <v>57</v>
+          </cell>
+          <cell r="N165">
+            <v>1010</v>
+          </cell>
+          <cell r="O165">
+            <v>8.49</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166" t="str">
+            <v>21/11/2024</v>
+          </cell>
+          <cell r="C166">
+            <v>2024</v>
+          </cell>
+          <cell r="E166" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="F166" t="str">
+            <v>09:58:52</v>
+          </cell>
+          <cell r="G166" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="H166" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="I166">
+            <v>30.07</v>
+          </cell>
+          <cell r="J166">
+            <v>28.45</v>
+          </cell>
+          <cell r="K166">
+            <v>30.07</v>
+          </cell>
+          <cell r="L166">
+            <v>32.57</v>
+          </cell>
+          <cell r="M166">
+            <v>58</v>
+          </cell>
+          <cell r="N166">
+            <v>1014</v>
+          </cell>
+          <cell r="O166">
+            <v>8.75</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167" t="str">
+            <v>21/11/2024</v>
+          </cell>
+          <cell r="C167">
+            <v>2024</v>
+          </cell>
+          <cell r="E167" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="F167" t="str">
+            <v>09:58:52</v>
+          </cell>
+          <cell r="G167" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="H167" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="I167">
+            <v>31.42</v>
+          </cell>
+          <cell r="J167">
+            <v>31.42</v>
+          </cell>
+          <cell r="K167">
+            <v>31.42</v>
+          </cell>
+          <cell r="L167">
+            <v>32.520000000000003</v>
+          </cell>
+          <cell r="M167">
+            <v>46</v>
+          </cell>
+          <cell r="N167">
+            <v>1013</v>
+          </cell>
+          <cell r="O167">
+            <v>3.61</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168" t="str">
+            <v>21/11/2024</v>
+          </cell>
+          <cell r="C168">
+            <v>2024</v>
+          </cell>
+          <cell r="E168" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="F168" t="str">
+            <v>09:58:52</v>
+          </cell>
+          <cell r="G168" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="H168" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="I168">
+            <v>30.82</v>
+          </cell>
+          <cell r="J168">
+            <v>30.82</v>
+          </cell>
+          <cell r="K168">
+            <v>30.82</v>
+          </cell>
+          <cell r="L168">
+            <v>33.33</v>
+          </cell>
+          <cell r="M168">
+            <v>55</v>
+          </cell>
+          <cell r="N168">
+            <v>1012</v>
+          </cell>
+          <cell r="O168">
+            <v>8.23</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169" t="str">
+            <v>21/11/2024</v>
+          </cell>
+          <cell r="C169">
+            <v>2024</v>
+          </cell>
+          <cell r="E169" t="str">
+            <v>qui</v>
+          </cell>
+          <cell r="F169" t="str">
+            <v>09:58:52</v>
+          </cell>
+          <cell r="G169" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="H169" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="I169">
+            <v>30.87</v>
+          </cell>
+          <cell r="J169">
+            <v>30.87</v>
+          </cell>
+          <cell r="K169">
+            <v>30.87</v>
+          </cell>
+          <cell r="L169">
+            <v>33.21</v>
+          </cell>
+          <cell r="M169">
+            <v>54</v>
+          </cell>
+          <cell r="N169">
+            <v>1013</v>
+          </cell>
+          <cell r="O169">
+            <v>7.73</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170" t="str">
+            <v>22/11/2024</v>
+          </cell>
+          <cell r="C170">
+            <v>2024</v>
+          </cell>
+          <cell r="E170" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="F170" t="str">
+            <v>11:14:37</v>
+          </cell>
+          <cell r="G170" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="H170" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="I170">
+            <v>30.07</v>
+          </cell>
+          <cell r="J170">
+            <v>28.45</v>
+          </cell>
+          <cell r="K170">
+            <v>30.07</v>
+          </cell>
+          <cell r="L170">
+            <v>33.380000000000003</v>
+          </cell>
+          <cell r="M170">
+            <v>62</v>
+          </cell>
+          <cell r="N170">
+            <v>1013</v>
+          </cell>
+          <cell r="O170">
+            <v>7.2</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171" t="str">
+            <v>22/11/2024</v>
+          </cell>
+          <cell r="C171">
+            <v>2024</v>
+          </cell>
+          <cell r="E171" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="F171" t="str">
+            <v>11:14:37</v>
+          </cell>
+          <cell r="G171" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="H171" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="I171">
+            <v>34.94</v>
+          </cell>
+          <cell r="J171">
+            <v>34.94</v>
+          </cell>
+          <cell r="K171">
+            <v>34.94</v>
+          </cell>
+          <cell r="L171">
+            <v>35.020000000000003</v>
+          </cell>
+          <cell r="M171">
+            <v>32</v>
+          </cell>
+          <cell r="N171">
+            <v>1011</v>
+          </cell>
+          <cell r="O171">
+            <v>2.91</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172" t="str">
+            <v>22/11/2024</v>
+          </cell>
+          <cell r="C172">
+            <v>2024</v>
+          </cell>
+          <cell r="E172" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="F172" t="str">
+            <v>11:14:37</v>
+          </cell>
+          <cell r="G172" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="H172" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="I172">
+            <v>29.26</v>
+          </cell>
+          <cell r="J172">
+            <v>29.26</v>
+          </cell>
+          <cell r="K172">
+            <v>29.26</v>
+          </cell>
+          <cell r="L172">
+            <v>31.48</v>
+          </cell>
+          <cell r="M172">
+            <v>60</v>
+          </cell>
+          <cell r="N172">
+            <v>1012</v>
+          </cell>
+          <cell r="O172">
+            <v>7.03</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173" t="str">
+            <v>22/11/2024</v>
+          </cell>
+          <cell r="C173">
+            <v>2024</v>
+          </cell>
+          <cell r="E173" t="str">
+            <v>sex</v>
+          </cell>
+          <cell r="F173" t="str">
+            <v>11:14:37</v>
+          </cell>
+          <cell r="G173" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="H173" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="I173">
+            <v>29.66</v>
+          </cell>
+          <cell r="J173">
+            <v>29.66</v>
+          </cell>
+          <cell r="K173">
+            <v>29.66</v>
+          </cell>
+          <cell r="L173">
+            <v>31.66</v>
+          </cell>
+          <cell r="M173">
+            <v>57</v>
+          </cell>
+          <cell r="N173">
+            <v>1012</v>
+          </cell>
+          <cell r="O173">
+            <v>6.74</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174" t="str">
+            <v>24/11/2024</v>
+          </cell>
+          <cell r="C174">
+            <v>2024</v>
+          </cell>
+          <cell r="E174" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="F174" t="str">
+            <v>11:25:03</v>
+          </cell>
+          <cell r="G174" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="H174" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="I174">
+            <v>31.07</v>
+          </cell>
+          <cell r="J174">
+            <v>29.01</v>
+          </cell>
+          <cell r="K174">
+            <v>31.07</v>
+          </cell>
+          <cell r="L174">
+            <v>34.5</v>
+          </cell>
+          <cell r="M174">
+            <v>58</v>
+          </cell>
+          <cell r="N174">
+            <v>1013</v>
+          </cell>
+          <cell r="O174">
+            <v>6.69</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175" t="str">
+            <v>24/11/2024</v>
+          </cell>
+          <cell r="C175">
+            <v>2024</v>
+          </cell>
+          <cell r="E175" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="F175" t="str">
+            <v>11:25:03</v>
+          </cell>
+          <cell r="G175" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="H175" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="I175">
+            <v>35.130000000000003</v>
+          </cell>
+          <cell r="J175">
+            <v>35.130000000000003</v>
+          </cell>
+          <cell r="K175">
+            <v>35.130000000000003</v>
+          </cell>
+          <cell r="L175">
+            <v>36.31</v>
+          </cell>
+          <cell r="M175">
+            <v>36</v>
+          </cell>
+          <cell r="N175">
+            <v>1012</v>
+          </cell>
+          <cell r="O175">
+            <v>2.0499999999999998</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176" t="str">
+            <v>24/11/2024</v>
+          </cell>
+          <cell r="C176">
+            <v>2024</v>
+          </cell>
+          <cell r="E176" t="str">
+            <v>dom</v>
+          </cell>
+          <cell r="F176" t="str">
+            <v>11:25:03</v>
+          </cell>
+          <cell r="G176" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="H176" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="I176">
+            <v>29.16</v>
+          </cell>
+          <cell r="J176">
+            <v>29.16</v>
+          </cell>
+          <cell r="K176">
+            <v>29.16</v>
+          </cell>
+          <cell r="L176">
+            <v>31.8</v>
+          </cell>
+          <cell r="M176">
+            <v>63</v>
+          </cell>
+          <cell r="N176">
+            <v>1013</v>
+          </cell>
+          <cell r="O176">
+            <v>5.71</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177" t="str">
+            <v>25/11/2024</v>
+          </cell>
+          <cell r="C177">
+            <v>2024</v>
+          </cell>
+          <cell r="E177" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="F177" t="str">
+            <v>11:11:15</v>
+          </cell>
+          <cell r="G177" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="H177" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="I177">
+            <v>30.07</v>
+          </cell>
+          <cell r="J177">
+            <v>29.01</v>
+          </cell>
+          <cell r="K177">
+            <v>30.07</v>
+          </cell>
+          <cell r="L177">
+            <v>34.26</v>
+          </cell>
+          <cell r="M177">
+            <v>66</v>
+          </cell>
+          <cell r="N177">
+            <v>1014</v>
+          </cell>
+          <cell r="O177">
+            <v>6.17</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178" t="str">
+            <v>25/11/2024</v>
+          </cell>
+          <cell r="C178">
+            <v>2024</v>
+          </cell>
+          <cell r="E178" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="F178" t="str">
+            <v>11:11:15</v>
+          </cell>
+          <cell r="G178" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="H178" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="I178">
+            <v>31.24</v>
+          </cell>
+          <cell r="J178">
+            <v>31.24</v>
+          </cell>
+          <cell r="K178">
+            <v>31.24</v>
+          </cell>
+          <cell r="L178">
+            <v>32.42</v>
+          </cell>
+          <cell r="M178">
+            <v>47</v>
+          </cell>
+          <cell r="N178">
+            <v>1014</v>
+          </cell>
+          <cell r="O178">
+            <v>1.77</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179" t="str">
+            <v>25/11/2024</v>
+          </cell>
+          <cell r="C179">
+            <v>2024</v>
+          </cell>
+          <cell r="E179" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="F179" t="str">
+            <v>11:11:15</v>
+          </cell>
+          <cell r="G179" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="H179" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="I179">
+            <v>28.97</v>
+          </cell>
+          <cell r="J179">
+            <v>28.97</v>
+          </cell>
+          <cell r="K179">
+            <v>28.97</v>
+          </cell>
+          <cell r="L179">
+            <v>30.98</v>
+          </cell>
+          <cell r="M179">
+            <v>60</v>
+          </cell>
+          <cell r="N179">
+            <v>1014</v>
+          </cell>
+          <cell r="O179">
+            <v>6.98</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180" t="str">
+            <v>25/11/2024</v>
+          </cell>
+          <cell r="C180">
+            <v>2024</v>
+          </cell>
+          <cell r="E180" t="str">
+            <v>seg</v>
+          </cell>
+          <cell r="F180" t="str">
+            <v>11:11:15</v>
+          </cell>
+          <cell r="G180" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="H180" t="str">
+            <v>nublado</v>
+          </cell>
+          <cell r="I180">
+            <v>29.66</v>
+          </cell>
+          <cell r="J180">
+            <v>29.66</v>
+          </cell>
+          <cell r="K180">
+            <v>29.66</v>
+          </cell>
+          <cell r="L180">
+            <v>31.49</v>
+          </cell>
+          <cell r="M180">
+            <v>56</v>
+          </cell>
+          <cell r="N180">
+            <v>1014</v>
+          </cell>
+          <cell r="O180">
+            <v>6.69</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181" t="str">
+            <v>26/11/2024</v>
+          </cell>
+          <cell r="C181" t="str">
+            <v>2024</v>
+          </cell>
+          <cell r="E181" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="F181" t="str">
+            <v>14:09:28</v>
+          </cell>
+          <cell r="G181" t="str">
+            <v>Fortaleza</v>
+          </cell>
+          <cell r="H181" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="I181">
+            <v>31.07</v>
+          </cell>
+          <cell r="J181">
+            <v>29.01</v>
+          </cell>
+          <cell r="K181">
+            <v>31.07</v>
+          </cell>
+          <cell r="L181">
+            <v>34.5</v>
+          </cell>
+          <cell r="M181">
+            <v>58</v>
+          </cell>
+          <cell r="N181">
+            <v>1011</v>
+          </cell>
+          <cell r="O181">
+            <v>7.2</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182" t="str">
+            <v>26/11/2024</v>
+          </cell>
+          <cell r="C182" t="str">
+            <v>2024</v>
+          </cell>
+          <cell r="E182" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="F182" t="str">
+            <v>14:09:28</v>
+          </cell>
+          <cell r="G182" t="str">
+            <v>Sobral</v>
+          </cell>
+          <cell r="H182" t="str">
+            <v>nuvens dispersas</v>
+          </cell>
+          <cell r="I182">
+            <v>37.6</v>
+          </cell>
+          <cell r="J182">
+            <v>37.6</v>
+          </cell>
+          <cell r="K182">
+            <v>37.6</v>
+          </cell>
+          <cell r="L182">
+            <v>36.81</v>
+          </cell>
+          <cell r="M182">
+            <v>23</v>
+          </cell>
+          <cell r="N182">
+            <v>1009</v>
+          </cell>
+          <cell r="O182">
+            <v>3.07</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183" t="str">
+            <v>26/11/2024</v>
+          </cell>
+          <cell r="C183" t="str">
+            <v>2024</v>
+          </cell>
+          <cell r="E183" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="F183" t="str">
+            <v>14:09:28</v>
+          </cell>
+          <cell r="G183" t="str">
+            <v>Acaraú</v>
+          </cell>
+          <cell r="H183" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="I183">
+            <v>31.22</v>
+          </cell>
+          <cell r="J183">
+            <v>31.22</v>
+          </cell>
+          <cell r="K183">
+            <v>31.22</v>
+          </cell>
+          <cell r="L183">
+            <v>33.630000000000003</v>
+          </cell>
+          <cell r="M183">
+            <v>53</v>
+          </cell>
+          <cell r="N183">
+            <v>1010</v>
+          </cell>
+          <cell r="O183">
+            <v>8.6300000000000008</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184" t="str">
+            <v>26/11/2024</v>
+          </cell>
+          <cell r="C184" t="str">
+            <v>2024</v>
+          </cell>
+          <cell r="E184" t="str">
+            <v>ter</v>
+          </cell>
+          <cell r="F184" t="str">
+            <v>14:09:28</v>
+          </cell>
+          <cell r="G184" t="str">
+            <v>Itarema</v>
+          </cell>
+          <cell r="H184" t="str">
+            <v>algumas nuvens</v>
+          </cell>
+          <cell r="I184">
+            <v>31.36</v>
+          </cell>
+          <cell r="J184">
+            <v>31.36</v>
+          </cell>
+          <cell r="K184">
+            <v>31.36</v>
+          </cell>
+          <cell r="L184">
+            <v>33.229999999999997</v>
+          </cell>
+          <cell r="M184">
+            <v>50</v>
+          </cell>
+          <cell r="N184">
+            <v>1011</v>
+          </cell>
+          <cell r="O184">
+            <v>7.92</v>
           </cell>
         </row>
       </sheetData>
@@ -29884,13 +30962,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45614.428651620372" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="160" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gabriel" refreshedDate="45622.591054861114" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="183" xr:uid="{85AEFC04-348E-4CC1-A114-5BCE553812B3}">
   <cacheSource type="worksheet">
     <worksheetSource name="Monitoramento_Clima"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2024-09-09T00:00:00" maxDate="2024-11-15T00:00:00" count="43">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2024-09-09T00:00:00" maxDate="2024-11-15T00:00:00" count="49">
         <d v="2024-09-09T00:00:00"/>
         <d v="2024-09-10T00:00:00"/>
         <d v="2024-09-11T00:00:00"/>
@@ -29931,6 +31009,12 @@
         <s v="16/11/2024"/>
         <s v="17/11/2024"/>
         <s v="18/11/2024"/>
+        <s v="20/11/2024"/>
+        <s v="21/11/2024"/>
+        <s v="22/11/2024"/>
+        <s v="24/11/2024"/>
+        <s v="25/11/2024"/>
+        <s v="26/11/2024"/>
         <s v="12/11/24" u="1"/>
         <s v="14/11/24" u="1"/>
         <s v="13/11/24" u="1"/>
@@ -30010,7 +31094,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="160">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="183">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -32509,7 +33593,7 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <s v="10:14:58"/>
@@ -32525,7 +33609,7 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <s v="10:14:58"/>
@@ -32541,7 +33625,7 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <s v="10:14:58"/>
@@ -32557,7 +33641,7 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="0"/>
     <s v="10:14:58"/>
@@ -32571,10 +33655,859 @@
     <n v="1011"/>
     <n v="8.51"/>
   </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="13:37:16"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="30.07"/>
+    <n v="30.07"/>
+    <n v="30.07"/>
+    <n v="33.380000000000003"/>
+    <n v="62"/>
+    <n v="1010"/>
+    <n v="8.23"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="13:37:16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="36.729999999999997"/>
+    <n v="36.729999999999997"/>
+    <n v="36.729999999999997"/>
+    <n v="37.04"/>
+    <n v="29"/>
+    <n v="1008"/>
+    <n v="3.64"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="13:37:16"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="31.3"/>
+    <n v="31.3"/>
+    <n v="31.3"/>
+    <n v="34.72"/>
+    <n v="57"/>
+    <n v="1009"/>
+    <n v="9.4"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="13:37:16"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="30.9"/>
+    <n v="30.9"/>
+    <n v="30.9"/>
+    <n v="33.93"/>
+    <n v="57"/>
+    <n v="1010"/>
+    <n v="8.49"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="09:58:52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="30.07"/>
+    <n v="28.45"/>
+    <n v="30.07"/>
+    <n v="32.57"/>
+    <n v="58"/>
+    <n v="1014"/>
+    <n v="8.75"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="09:58:52"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="31.42"/>
+    <n v="31.42"/>
+    <n v="31.42"/>
+    <n v="32.520000000000003"/>
+    <n v="46"/>
+    <n v="1013"/>
+    <n v="3.61"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="09:58:52"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="30.82"/>
+    <n v="30.82"/>
+    <n v="30.82"/>
+    <n v="33.33"/>
+    <n v="55"/>
+    <n v="1012"/>
+    <n v="8.23"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="09:58:52"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="30.87"/>
+    <n v="30.87"/>
+    <n v="30.87"/>
+    <n v="33.21"/>
+    <n v="54"/>
+    <n v="1013"/>
+    <n v="7.73"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="11:14:37"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="30.07"/>
+    <n v="28.45"/>
+    <n v="30.07"/>
+    <n v="33.380000000000003"/>
+    <n v="62"/>
+    <n v="1013"/>
+    <n v="7.2"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="11:14:37"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="34.94"/>
+    <n v="34.94"/>
+    <n v="34.94"/>
+    <n v="35.020000000000003"/>
+    <n v="32"/>
+    <n v="1011"/>
+    <n v="2.91"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="11:14:37"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="29.26"/>
+    <n v="29.26"/>
+    <n v="29.26"/>
+    <n v="31.48"/>
+    <n v="60"/>
+    <n v="1012"/>
+    <n v="7.03"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="11:14:37"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="29.66"/>
+    <n v="29.66"/>
+    <n v="29.66"/>
+    <n v="31.66"/>
+    <n v="57"/>
+    <n v="1012"/>
+    <n v="6.74"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="11:25:03"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="31.07"/>
+    <n v="29.01"/>
+    <n v="31.07"/>
+    <n v="34.5"/>
+    <n v="58"/>
+    <n v="1013"/>
+    <n v="6.69"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="11:25:03"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="35.130000000000003"/>
+    <n v="35.130000000000003"/>
+    <n v="35.130000000000003"/>
+    <n v="36.31"/>
+    <n v="36"/>
+    <n v="1012"/>
+    <n v="2.0499999999999998"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="11:25:03"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="29.16"/>
+    <n v="29.16"/>
+    <n v="29.16"/>
+    <n v="31.8"/>
+    <n v="63"/>
+    <n v="1013"/>
+    <n v="5.71"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="11:11:15"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="30.07"/>
+    <n v="29.01"/>
+    <n v="30.07"/>
+    <n v="34.26"/>
+    <n v="66"/>
+    <n v="1014"/>
+    <n v="6.17"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="11:11:15"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="31.24"/>
+    <n v="31.24"/>
+    <n v="31.24"/>
+    <n v="32.42"/>
+    <n v="47"/>
+    <n v="1014"/>
+    <n v="1.77"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="11:11:15"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="28.97"/>
+    <n v="28.97"/>
+    <n v="28.97"/>
+    <n v="30.98"/>
+    <n v="60"/>
+    <n v="1014"/>
+    <n v="6.98"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="11:11:15"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="29.66"/>
+    <n v="29.66"/>
+    <n v="29.66"/>
+    <n v="31.49"/>
+    <n v="56"/>
+    <n v="1014"/>
+    <n v="6.69"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="14:09:28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="31.07"/>
+    <n v="29.01"/>
+    <n v="31.07"/>
+    <n v="34.5"/>
+    <n v="58"/>
+    <n v="1011"/>
+    <n v="7.2"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="14:09:28"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="37.6"/>
+    <n v="37.6"/>
+    <n v="37.6"/>
+    <n v="36.81"/>
+    <n v="23"/>
+    <n v="1009"/>
+    <n v="3.07"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="14:09:28"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="31.22"/>
+    <n v="31.22"/>
+    <n v="31.22"/>
+    <n v="33.630000000000003"/>
+    <n v="53"/>
+    <n v="1010"/>
+    <n v="8.6300000000000008"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="14:09:28"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="31.36"/>
+    <n v="31.36"/>
+    <n v="31.36"/>
+    <n v="33.229999999999997"/>
+    <n v="50"/>
+    <n v="1011"/>
+    <n v="7.92"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D700D3-3EC3-4CB3-9234-C01617DF9AF6}" name="Velocidadde Vento Durante o Tempo/Ano" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="M4:N8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="5" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Média de Velocidade do vento" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="15">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <refe